--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="204">
   <si>
     <t>Date</t>
   </si>
@@ -505,76 +505,127 @@
     <t>FT_Odd_CS_4x4</t>
   </si>
   <si>
-    <t>09/05/2023</t>
-  </si>
-  <si>
-    <t>13:15</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>SERBIA - SUPER LIGA</t>
-  </si>
-  <si>
-    <t>SWEDEN - ALLSVENSKAN</t>
-  </si>
-  <si>
-    <t>SCOTLAND - PREMIERSHIP</t>
-  </si>
-  <si>
-    <t>Mladost</t>
-  </si>
-  <si>
-    <t>Napredak</t>
-  </si>
-  <si>
-    <t>Hammarby</t>
-  </si>
-  <si>
-    <t>Varnamo</t>
-  </si>
-  <si>
-    <t>Partick Thistle</t>
-  </si>
-  <si>
-    <t>Radnik</t>
-  </si>
-  <si>
-    <t>Radnicki Nis</t>
-  </si>
-  <si>
-    <t>Mjallby</t>
-  </si>
-  <si>
-    <t>Varberg</t>
-  </si>
-  <si>
-    <t>Queen's Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELEGATION GROUP </t>
-  </si>
-  <si>
-    <t>ROUND 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELEGATION </t>
+    <t>10/05/2023</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE A</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE B</t>
+  </si>
+  <si>
+    <t>MEXICO - LIGA MX</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Ceara</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Flamengo RJ</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Santos Laguna</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Athletico-PR</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Vitoria</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Tombense</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>ROUND 5</t>
+  </si>
+  <si>
+    <t>ROUND 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUSURA </t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.01</t>
   </si>
   <si>
     <t>1.02</t>
   </si>
   <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>26.00</t>
+    <t>1.14</t>
   </si>
   <si>
     <t>34.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -932,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH6"/>
+  <dimension ref="A1:FH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1431,7 +1482,7 @@
     </row>
     <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>163</v>
@@ -1440,40 +1491,40 @@
         <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H2">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J2">
-        <v>3.34</v>
+        <v>4.5</v>
       </c>
       <c r="K2">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="L2">
         <v>2.1</v>
       </c>
       <c r="M2">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -1482,378 +1533,378 @@
         <v>2.75</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="W2">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z2">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA2">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AB2">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AC2">
         <v>1.1</v>
       </c>
       <c r="AD2">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AE2">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AF2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG2">
         <v>1.08</v>
       </c>
       <c r="AH2">
-        <v>2.57</v>
+        <v>1.91</v>
       </c>
       <c r="AI2">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="AJ2">
-        <v>2.67</v>
+        <v>4.2</v>
       </c>
       <c r="AK2">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="AL2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AM2">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="AN2">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AO2">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AP2">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR2">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AS2">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT2">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AU2">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AV2">
         <v>1.8</v>
       </c>
       <c r="AW2">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AX2">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AY2">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AZ2">
         <v>1.06</v>
       </c>
       <c r="BA2">
+        <v>9.5</v>
+      </c>
+      <c r="BB2">
+        <v>1.03</v>
+      </c>
+      <c r="BC2">
         <v>8</v>
       </c>
-      <c r="BB2">
-        <v>1.06</v>
-      </c>
-      <c r="BC2">
-        <v>6.55</v>
-      </c>
-      <c r="BD2">
-        <v>1.07</v>
+      <c r="BD2" t="s">
+        <v>194</v>
       </c>
       <c r="BE2">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="BF2">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="BG2">
-        <v>2.84</v>
+        <v>3.4</v>
       </c>
       <c r="BH2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BI2">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="BJ2">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="BK2">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="BL2">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="BM2">
         <v>2.42</v>
       </c>
       <c r="BN2">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BO2">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="BP2">
         <v>2</v>
       </c>
       <c r="BQ2">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BR2">
-        <v>3.08</v>
+        <v>2.56</v>
       </c>
       <c r="BS2">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="BT2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BU2">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BV2">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="BW2">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="BX2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BY2">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BZ2">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="CA2">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="CB2">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="CC2">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="CD2">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="CE2">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="CF2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="CG2">
         <v>1.1</v>
       </c>
-      <c r="CH2">
-        <v>10.5</v>
-      </c>
-      <c r="CI2">
+      <c r="CL2">
+        <v>17</v>
+      </c>
+      <c r="CM2">
         <v>1.02</v>
       </c>
-      <c r="CJ2">
-        <v>10.5</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CL2">
-        <v>16</v>
-      </c>
-      <c r="CM2">
-        <v>1.03</v>
-      </c>
       <c r="CN2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="CO2">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="CT2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="CU2">
+        <v>34</v>
+      </c>
+      <c r="CV2">
+        <v>34</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DJ2">
+        <v>1.38</v>
+      </c>
+      <c r="DK2">
+        <v>3</v>
+      </c>
+      <c r="DL2">
+        <v>1.63</v>
+      </c>
+      <c r="DM2">
+        <v>2.25</v>
+      </c>
+      <c r="DN2">
+        <v>1.3</v>
+      </c>
+      <c r="DO2">
+        <v>3.45</v>
+      </c>
+      <c r="DP2">
+        <v>2.15</v>
+      </c>
+      <c r="DQ2">
+        <v>1.68</v>
+      </c>
+      <c r="DR2">
+        <v>1.16</v>
+      </c>
+      <c r="DS2">
+        <v>5.25</v>
+      </c>
+      <c r="DT2">
+        <v>3</v>
+      </c>
+      <c r="DU2">
+        <v>1.38</v>
+      </c>
+      <c r="DV2">
+        <v>1.04</v>
+      </c>
+      <c r="DW2">
+        <v>9.1</v>
+      </c>
+      <c r="DX2">
+        <v>4.25</v>
+      </c>
+      <c r="DY2">
+        <v>1.21</v>
+      </c>
+      <c r="DZ2">
         <v>1.01</v>
       </c>
-      <c r="CV2">
-        <v>17</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>184</v>
-      </c>
-      <c r="DJ2">
-        <v>1.87</v>
-      </c>
-      <c r="DK2">
-        <v>1.92</v>
-      </c>
-      <c r="DL2">
-        <v>2.2</v>
-      </c>
-      <c r="DM2">
-        <v>1.67</v>
-      </c>
-      <c r="DN2">
-        <v>1.58</v>
-      </c>
-      <c r="DO2">
-        <v>2.21</v>
-      </c>
-      <c r="DP2">
-        <v>3.06</v>
-      </c>
-      <c r="DQ2">
-        <v>1.32</v>
-      </c>
-      <c r="DR2">
-        <v>1.3</v>
-      </c>
-      <c r="DS2">
-        <v>3.17</v>
-      </c>
-      <c r="DT2">
-        <v>4.84</v>
-      </c>
-      <c r="DU2">
-        <v>1.14</v>
-      </c>
-      <c r="DV2">
-        <v>1.13</v>
-      </c>
-      <c r="DW2">
-        <v>5</v>
-      </c>
-      <c r="DX2">
-        <v>7.1</v>
-      </c>
-      <c r="DY2">
-        <v>1.06</v>
-      </c>
-      <c r="DZ2">
-        <v>1.05</v>
-      </c>
       <c r="EA2">
-        <v>7.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="EB2">
+        <v>7</v>
+      </c>
+      <c r="EC2">
+        <v>1.1</v>
+      </c>
+      <c r="EF2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="EG2">
+        <v>1.04</v>
       </c>
       <c r="EJ2">
+        <v>9.5</v>
+      </c>
+      <c r="EK2">
+        <v>11</v>
+      </c>
+      <c r="EL2">
+        <v>21</v>
+      </c>
+      <c r="EM2">
+        <v>41</v>
+      </c>
+      <c r="EN2">
+        <v>7</v>
+      </c>
+      <c r="EO2">
+        <v>6.5</v>
+      </c>
+      <c r="EP2">
+        <v>15</v>
+      </c>
+      <c r="EQ2">
+        <v>34</v>
+      </c>
+      <c r="ER2">
         <v>8.5</v>
       </c>
-      <c r="EK2">
+      <c r="ES2">
         <v>8.5</v>
       </c>
-      <c r="EL2">
-        <v>13</v>
-      </c>
-      <c r="EM2">
-        <v>26</v>
-      </c>
-      <c r="EN2">
-        <v>8</v>
-      </c>
-      <c r="EO2">
-        <v>6</v>
-      </c>
-      <c r="EP2">
-        <v>10</v>
-      </c>
-      <c r="EQ2">
-        <v>21</v>
-      </c>
-      <c r="ER2">
-        <v>11</v>
-      </c>
-      <c r="ES2">
-        <v>9.5</v>
-      </c>
       <c r="ET2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="EU2">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="EV2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="EW2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="EX2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="EY2">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="EZ2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="FA2">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="FB2">
+        <v>81</v>
+      </c>
+      <c r="FC2">
+        <v>151</v>
+      </c>
+      <c r="FD2">
+        <v>34</v>
+      </c>
+      <c r="FE2">
+        <v>34</v>
+      </c>
+      <c r="FF2">
+        <v>51</v>
+      </c>
+      <c r="FG2">
         <v>101</v>
       </c>
-      <c r="FC2">
-        <v>201</v>
-      </c>
-      <c r="FD2">
-        <v>71</v>
-      </c>
-      <c r="FE2">
-        <v>61</v>
-      </c>
-      <c r="FF2">
-        <v>81</v>
-      </c>
-      <c r="FG2">
-        <v>201</v>
-      </c>
       <c r="FH2">
-        <v>201</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
@@ -1862,124 +1913,124 @@
         <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H3">
-        <v>5.45</v>
+        <v>2.6</v>
       </c>
       <c r="I3">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="J3">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="K3">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="L3">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M3">
-        <v>4.54</v>
+        <v>4.5</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O3">
-        <v>2.48</v>
+        <v>2.63</v>
       </c>
       <c r="P3">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q3">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R3">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="S3">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="T3">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U3">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V3">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="W3">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X3">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y3">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z3">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AA3">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AB3">
-        <v>7</v>
+        <v>6.85</v>
       </c>
       <c r="AC3">
         <v>1.08</v>
       </c>
       <c r="AD3">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AE3">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AF3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AH3">
-        <v>4.92</v>
+        <v>1.85</v>
       </c>
       <c r="AI3">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="AJ3">
-        <v>1.69</v>
+        <v>4.75</v>
       </c>
       <c r="AK3">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AL3">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AM3">
-        <v>3.96</v>
+        <v>3.75</v>
       </c>
       <c r="AN3">
-        <v>1.94</v>
+        <v>1.18</v>
       </c>
       <c r="AO3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AP3">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="AQ3">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>1.33</v>
@@ -1988,46 +2039,46 @@
         <v>1.83</v>
       </c>
       <c r="AT3">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="AU3">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AV3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AW3">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AX3">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AY3">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AZ3">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="BA3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BB3">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="BC3">
-        <v>5.8</v>
-      </c>
-      <c r="BD3">
-        <v>1.06</v>
+        <v>6.25</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>195</v>
       </c>
       <c r="BE3">
-        <v>6.45</v>
+        <v>6.6</v>
       </c>
       <c r="BF3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="BG3">
-        <v>2.64</v>
+        <v>3.25</v>
       </c>
       <c r="BH3">
         <v>1.36</v>
@@ -2036,276 +2087,288 @@
         <v>3</v>
       </c>
       <c r="BJ3">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="BK3">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="BL3">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="BM3">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="BN3">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="BO3">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="BP3">
         <v>2.1</v>
       </c>
       <c r="BQ3">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BR3">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="BS3">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BT3">
-        <v>3.13</v>
+        <v>3.08</v>
       </c>
       <c r="BU3">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BV3">
-        <v>4.24</v>
+        <v>3.75</v>
       </c>
       <c r="BW3">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="BX3">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="BY3">
         <v>1.25</v>
       </c>
       <c r="BZ3">
-        <v>7.6</v>
+        <v>6.95</v>
       </c>
       <c r="CA3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="CB3">
-        <v>6.65</v>
+        <v>6.5</v>
       </c>
       <c r="CC3">
         <v>1.06</v>
       </c>
       <c r="CD3">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="CE3">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="CF3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CG3">
         <v>1.08</v>
       </c>
+      <c r="CH3">
+        <v>14.5</v>
+      </c>
+      <c r="CI3">
+        <v>1.02</v>
+      </c>
+      <c r="CJ3">
+        <v>14.5</v>
+      </c>
+      <c r="CK3">
+        <v>1.02</v>
+      </c>
       <c r="CL3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CM3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CN3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="CO3">
         <v>1.02</v>
       </c>
+      <c r="CT3">
+        <v>41</v>
+      </c>
+      <c r="CU3">
+        <v>41</v>
+      </c>
+      <c r="CV3">
+        <v>41</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>201</v>
+      </c>
       <c r="DJ3">
-        <v>3.2</v>
+        <v>1.35</v>
       </c>
       <c r="DK3">
-        <v>1.29</v>
+        <v>3.1</v>
       </c>
       <c r="DL3">
-        <v>3.68</v>
+        <v>1.6</v>
       </c>
       <c r="DM3">
-        <v>1.23</v>
+        <v>2.3</v>
       </c>
       <c r="DN3">
-        <v>2.35</v>
+        <v>1.26</v>
       </c>
       <c r="DO3">
-        <v>1.53</v>
+        <v>3.7</v>
       </c>
       <c r="DP3">
-        <v>6.85</v>
+        <v>2.1</v>
       </c>
       <c r="DQ3">
+        <v>1.7</v>
+      </c>
+      <c r="DR3">
+        <v>1.14</v>
+      </c>
+      <c r="DS3">
+        <v>5.75</v>
+      </c>
+      <c r="DT3">
+        <v>3</v>
+      </c>
+      <c r="DU3">
+        <v>1.38</v>
+      </c>
+      <c r="DV3">
+        <v>1.03</v>
+      </c>
+      <c r="DW3">
+        <v>10</v>
+      </c>
+      <c r="DX3">
+        <v>4.4</v>
+      </c>
+      <c r="DY3">
+        <v>1.2</v>
+      </c>
+      <c r="EB3">
+        <v>7</v>
+      </c>
+      <c r="EC3">
         <v>1.1</v>
       </c>
-      <c r="DR3">
-        <v>1.72</v>
-      </c>
-      <c r="DS3">
-        <v>2</v>
-      </c>
-      <c r="DT3">
-        <v>10</v>
-      </c>
-      <c r="DU3">
+      <c r="EF3">
+        <v>10.5</v>
+      </c>
+      <c r="EG3">
         <v>1.02</v>
       </c>
-      <c r="DV3">
-        <v>1.36</v>
-      </c>
-      <c r="DW3">
-        <v>2.9</v>
-      </c>
-      <c r="DX3">
-        <v>10.5</v>
-      </c>
-      <c r="DY3">
-        <v>1.01</v>
-      </c>
-      <c r="DZ3">
-        <v>1.18</v>
-      </c>
-      <c r="EA3">
-        <v>4.18</v>
-      </c>
-      <c r="EB3">
-        <v>7.6</v>
-      </c>
-      <c r="EC3">
-        <v>1.05</v>
-      </c>
-      <c r="ED3">
-        <v>1.07</v>
-      </c>
-      <c r="EE3">
-        <v>6.75</v>
-      </c>
-      <c r="EH3">
-        <v>1.02</v>
-      </c>
-      <c r="EI3">
-        <v>9.800000000000001</v>
-      </c>
       <c r="EJ3">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="EK3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="EL3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="EM3">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="EN3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="EO3">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="EP3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="EQ3">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="ER3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="ES3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="ET3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="EU3">
         <v>41</v>
       </c>
       <c r="EV3">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="EW3">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="EX3">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="EY3">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="EZ3">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="FA3">
         <v>81</v>
       </c>
       <c r="FB3">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="FC3">
         <v>201</v>
       </c>
       <c r="FD3">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="FE3">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="FF3">
+        <v>51</v>
+      </c>
+      <c r="FG3">
         <v>126</v>
       </c>
-      <c r="FG3">
-        <v>201</v>
-      </c>
       <c r="FH3">
-        <v>201</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H4">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="L4">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>1.44</v>
@@ -2314,382 +2377,376 @@
         <v>2.63</v>
       </c>
       <c r="P4">
+        <v>1.44</v>
+      </c>
+      <c r="Q4">
+        <v>2.63</v>
+      </c>
+      <c r="R4">
+        <v>2.1</v>
+      </c>
+      <c r="S4">
+        <v>1.7</v>
+      </c>
+      <c r="T4">
+        <v>2.08</v>
+      </c>
+      <c r="U4">
+        <v>1.73</v>
+      </c>
+      <c r="V4">
+        <v>3.25</v>
+      </c>
+      <c r="W4">
+        <v>1.33</v>
+      </c>
+      <c r="X4">
+        <v>3.25</v>
+      </c>
+      <c r="Y4">
+        <v>1.33</v>
+      </c>
+      <c r="Z4">
+        <v>7</v>
+      </c>
+      <c r="AA4">
+        <v>1.08</v>
+      </c>
+      <c r="AB4">
+        <v>6.85</v>
+      </c>
+      <c r="AC4">
+        <v>1.08</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>1.06</v>
+      </c>
+      <c r="AF4">
+        <v>10</v>
+      </c>
+      <c r="AG4">
+        <v>1.06</v>
+      </c>
+      <c r="AH4">
+        <v>2.25</v>
+      </c>
+      <c r="AI4">
+        <v>3.3</v>
+      </c>
+      <c r="AJ4">
+        <v>3.25</v>
+      </c>
+      <c r="AK4">
+        <v>2.05</v>
+      </c>
+      <c r="AL4">
+        <v>3.2</v>
+      </c>
+      <c r="AM4">
+        <v>3.4</v>
+      </c>
+      <c r="AN4">
+        <v>1.33</v>
+      </c>
+      <c r="AO4">
+        <v>1.33</v>
+      </c>
+      <c r="AP4">
+        <v>1.62</v>
+      </c>
+      <c r="AQ4">
+        <v>1.3</v>
+      </c>
+      <c r="AR4">
         <v>1.36</v>
       </c>
-      <c r="Q4">
+      <c r="AS4">
+        <v>1.73</v>
+      </c>
+      <c r="AT4">
+        <v>1.95</v>
+      </c>
+      <c r="AU4">
+        <v>1.8</v>
+      </c>
+      <c r="AV4">
+        <v>1.95</v>
+      </c>
+      <c r="AW4">
+        <v>1.8</v>
+      </c>
+      <c r="AX4">
+        <v>1.07</v>
+      </c>
+      <c r="AY4">
+        <v>9</v>
+      </c>
+      <c r="AZ4">
+        <v>1.07</v>
+      </c>
+      <c r="BA4">
+        <v>8.5</v>
+      </c>
+      <c r="BB4">
+        <v>1.06</v>
+      </c>
+      <c r="BC4">
+        <v>6.45</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE4">
+        <v>6.6</v>
+      </c>
+      <c r="BF4">
+        <v>1.36</v>
+      </c>
+      <c r="BG4">
         <v>3</v>
       </c>
-      <c r="R4">
-        <v>2.02</v>
-      </c>
-      <c r="S4">
-        <v>1.77</v>
-      </c>
-      <c r="T4">
-        <v>1.77</v>
-      </c>
-      <c r="U4">
-        <v>2.02</v>
-      </c>
-      <c r="V4">
+      <c r="BH4">
+        <v>1.36</v>
+      </c>
+      <c r="BI4">
         <v>3</v>
       </c>
-      <c r="W4">
-        <v>1.36</v>
-      </c>
-      <c r="X4">
-        <v>2.63</v>
-      </c>
-      <c r="Y4">
-        <v>1.44</v>
-      </c>
-      <c r="Z4">
-        <v>6.55</v>
-      </c>
-      <c r="AA4">
-        <v>1.1</v>
-      </c>
-      <c r="AB4">
-        <v>5.2</v>
-      </c>
-      <c r="AC4">
-        <v>1.14</v>
-      </c>
-      <c r="AD4">
+      <c r="BJ4">
+        <v>1.61</v>
+      </c>
+      <c r="BK4">
+        <v>2.2</v>
+      </c>
+      <c r="BL4">
+        <v>1.59</v>
+      </c>
+      <c r="BM4">
+        <v>2.24</v>
+      </c>
+      <c r="BN4">
+        <v>2.15</v>
+      </c>
+      <c r="BO4">
+        <v>1.67</v>
+      </c>
+      <c r="BP4">
+        <v>2.1</v>
+      </c>
+      <c r="BQ4">
+        <v>1.7</v>
+      </c>
+      <c r="BR4">
+        <v>3.14</v>
+      </c>
+      <c r="BS4">
+        <v>1.32</v>
+      </c>
+      <c r="BT4">
+        <v>3.08</v>
+      </c>
+      <c r="BU4">
+        <v>1.33</v>
+      </c>
+      <c r="BV4">
+        <v>4</v>
+      </c>
+      <c r="BW4">
+        <v>1.22</v>
+      </c>
+      <c r="BX4">
+        <v>3.75</v>
+      </c>
+      <c r="BY4">
+        <v>1.25</v>
+      </c>
+      <c r="BZ4">
+        <v>6.65</v>
+      </c>
+      <c r="CA4">
+        <v>1.06</v>
+      </c>
+      <c r="CB4">
+        <v>6.5</v>
+      </c>
+      <c r="CC4">
+        <v>1.06</v>
+      </c>
+      <c r="CD4">
         <v>9</v>
       </c>
-      <c r="AE4">
+      <c r="CE4">
         <v>1.07</v>
       </c>
-      <c r="AF4">
-        <v>7</v>
-      </c>
-      <c r="AG4">
-        <v>1.1</v>
-      </c>
-      <c r="AH4">
-        <v>1.73</v>
-      </c>
-      <c r="AI4">
-        <v>3.8</v>
-      </c>
-      <c r="AJ4">
-        <v>4.75</v>
-      </c>
-      <c r="AK4">
-        <v>1.62</v>
-      </c>
-      <c r="AL4">
-        <v>3.75</v>
-      </c>
-      <c r="AM4">
-        <v>4.75</v>
-      </c>
-      <c r="AN4">
-        <v>1.18</v>
-      </c>
-      <c r="AO4">
-        <v>1.25</v>
-      </c>
-      <c r="AP4">
-        <v>2.05</v>
-      </c>
-      <c r="AQ4">
-        <v>1.17</v>
-      </c>
-      <c r="AR4">
-        <v>1.22</v>
-      </c>
-      <c r="AS4">
-        <v>2.1</v>
-      </c>
-      <c r="AT4">
-        <v>2</v>
-      </c>
-      <c r="AU4">
-        <v>1.75</v>
-      </c>
-      <c r="AV4">
-        <v>1.8</v>
-      </c>
-      <c r="AW4">
-        <v>1.95</v>
-      </c>
-      <c r="AX4">
-        <v>1.06</v>
-      </c>
-      <c r="AY4">
-        <v>10</v>
-      </c>
-      <c r="AZ4">
-        <v>1.04</v>
-      </c>
-      <c r="BA4">
-        <v>12</v>
-      </c>
-      <c r="BB4">
-        <v>1.05</v>
-      </c>
-      <c r="BC4">
-        <v>7.1</v>
-      </c>
-      <c r="BD4">
+      <c r="CF4">
+        <v>9</v>
+      </c>
+      <c r="CG4">
+        <v>1.07</v>
+      </c>
+      <c r="CH4">
+        <v>15</v>
+      </c>
+      <c r="CI4">
+        <v>1.01</v>
+      </c>
+      <c r="CJ4">
+        <v>14.5</v>
+      </c>
+      <c r="CK4">
         <v>1.02</v>
       </c>
-      <c r="BE4">
-        <v>9</v>
-      </c>
-      <c r="BF4">
-        <v>1.33</v>
-      </c>
-      <c r="BG4">
-        <v>3.25</v>
-      </c>
-      <c r="BH4">
-        <v>1.25</v>
-      </c>
-      <c r="BI4">
-        <v>3.75</v>
-      </c>
-      <c r="BJ4">
-        <v>1.53</v>
-      </c>
-      <c r="BK4">
-        <v>2.38</v>
-      </c>
-      <c r="BL4">
-        <v>1.36</v>
-      </c>
-      <c r="BM4">
-        <v>2.93</v>
-      </c>
-      <c r="BN4">
-        <v>2.05</v>
-      </c>
-      <c r="BO4">
-        <v>1.75</v>
-      </c>
-      <c r="BP4">
-        <v>1.8</v>
-      </c>
-      <c r="BQ4">
-        <v>2</v>
-      </c>
-      <c r="BR4">
-        <v>2.89</v>
-      </c>
-      <c r="BS4">
-        <v>1.37</v>
-      </c>
-      <c r="BT4">
-        <v>2.3</v>
-      </c>
-      <c r="BU4">
-        <v>1.56</v>
-      </c>
-      <c r="BV4">
-        <v>3.75</v>
-      </c>
-      <c r="BW4">
-        <v>1.25</v>
-      </c>
-      <c r="BX4">
-        <v>3</v>
-      </c>
-      <c r="BY4">
-        <v>1.36</v>
-      </c>
-      <c r="BZ4">
-        <v>6.05</v>
-      </c>
-      <c r="CA4">
-        <v>1.08</v>
-      </c>
-      <c r="CB4">
-        <v>4.54</v>
-      </c>
-      <c r="CC4">
-        <v>1.15</v>
-      </c>
-      <c r="CD4">
-        <v>8</v>
-      </c>
-      <c r="CE4">
-        <v>1.08</v>
-      </c>
-      <c r="CF4">
-        <v>6</v>
-      </c>
-      <c r="CG4">
-        <v>1.13</v>
-      </c>
-      <c r="CH4">
-        <v>12</v>
-      </c>
-      <c r="CI4">
-        <v>1.02</v>
-      </c>
-      <c r="CJ4">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>183</v>
-      </c>
       <c r="CL4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CM4">
         <v>1.02</v>
       </c>
       <c r="CN4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="CO4">
+        <v>1.02</v>
+      </c>
+      <c r="CT4">
+        <v>41</v>
+      </c>
+      <c r="CU4">
+        <v>41</v>
+      </c>
+      <c r="CV4">
+        <v>41</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>201</v>
+      </c>
+      <c r="DJ4">
+        <v>1.57</v>
+      </c>
+      <c r="DK4">
+        <v>2.35</v>
+      </c>
+      <c r="DL4">
+        <v>1.93</v>
+      </c>
+      <c r="DM4">
+        <v>1.93</v>
+      </c>
+      <c r="DN4">
+        <v>1.43</v>
+      </c>
+      <c r="DO4">
+        <v>2.75</v>
+      </c>
+      <c r="DP4">
+        <v>2.6</v>
+      </c>
+      <c r="DQ4">
+        <v>1.48</v>
+      </c>
+      <c r="DR4">
+        <v>1.23</v>
+      </c>
+      <c r="DS4">
+        <v>4</v>
+      </c>
+      <c r="DT4">
+        <v>3.9</v>
+      </c>
+      <c r="DU4">
+        <v>1.24</v>
+      </c>
+      <c r="DV4">
+        <v>1.1</v>
+      </c>
+      <c r="DW4">
+        <v>6.8</v>
+      </c>
+      <c r="DX4">
+        <v>5.9</v>
+      </c>
+      <c r="DY4">
+        <v>1.13</v>
+      </c>
+      <c r="DZ4">
+        <v>1.01</v>
+      </c>
+      <c r="EA4">
+        <v>11</v>
+      </c>
+      <c r="EB4">
+        <v>8.5</v>
+      </c>
+      <c r="EC4">
         <v>1.04</v>
       </c>
-      <c r="CT4">
+      <c r="EJ4">
+        <v>8.5</v>
+      </c>
+      <c r="EK4">
+        <v>9</v>
+      </c>
+      <c r="EL4">
+        <v>15</v>
+      </c>
+      <c r="EM4">
         <v>34</v>
       </c>
-      <c r="CU4">
-        <v>34</v>
-      </c>
-      <c r="CV4">
-        <v>26</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>185</v>
-      </c>
-      <c r="DB4">
-        <v>51</v>
-      </c>
-      <c r="DC4">
-        <v>51</v>
-      </c>
-      <c r="DD4">
-        <v>51</v>
-      </c>
-      <c r="DE4">
-        <v>51</v>
-      </c>
-      <c r="DJ4">
-        <v>1.3</v>
-      </c>
-      <c r="DK4">
-        <v>3.45</v>
-      </c>
-      <c r="DL4">
-        <v>1.5</v>
-      </c>
-      <c r="DM4">
-        <v>2.5</v>
-      </c>
-      <c r="DN4">
-        <v>1.24</v>
-      </c>
-      <c r="DO4">
-        <v>3.9</v>
-      </c>
-      <c r="DP4">
-        <v>1.98</v>
-      </c>
-      <c r="DQ4">
-        <v>1.92</v>
-      </c>
-      <c r="DR4">
-        <v>1.13</v>
-      </c>
-      <c r="DS4">
+      <c r="EN4">
+        <v>7</v>
+      </c>
+      <c r="EO4">
         <v>6</v>
       </c>
-      <c r="DT4">
-        <v>2.6</v>
-      </c>
-      <c r="DU4">
-        <v>1.48</v>
-      </c>
-      <c r="DX4">
-        <v>3.7</v>
-      </c>
-      <c r="DY4">
-        <v>1.26</v>
-      </c>
-      <c r="EB4">
-        <v>5.9</v>
-      </c>
-      <c r="EC4">
-        <v>1.13</v>
-      </c>
-      <c r="EF4">
-        <v>7</v>
-      </c>
-      <c r="EG4">
-        <v>1.1</v>
-      </c>
-      <c r="EJ4">
+      <c r="EP4">
+        <v>12</v>
+      </c>
+      <c r="EQ4">
+        <v>29</v>
+      </c>
+      <c r="ER4">
+        <v>10</v>
+      </c>
+      <c r="ES4">
         <v>9.5</v>
       </c>
-      <c r="EK4">
-        <v>11</v>
-      </c>
-      <c r="EL4">
-        <v>23</v>
-      </c>
-      <c r="EM4">
-        <v>51</v>
-      </c>
-      <c r="EN4">
-        <v>6</v>
-      </c>
-      <c r="EO4">
-        <v>7.5</v>
-      </c>
-      <c r="EP4">
+      <c r="ET4">
         <v>15</v>
-      </c>
-      <c r="EQ4">
-        <v>41</v>
-      </c>
-      <c r="ER4">
-        <v>7.5</v>
-      </c>
-      <c r="ES4">
-        <v>8.5</v>
-      </c>
-      <c r="ET4">
-        <v>19</v>
       </c>
       <c r="EU4">
         <v>41</v>
       </c>
       <c r="EV4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="EW4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="EX4">
         <v>29</v>
       </c>
       <c r="EY4">
+        <v>51</v>
+      </c>
+      <c r="EZ4">
+        <v>81</v>
+      </c>
+      <c r="FA4">
         <v>67</v>
       </c>
-      <c r="EZ4">
+      <c r="FB4">
+        <v>81</v>
+      </c>
+      <c r="FC4">
         <v>151</v>
       </c>
-      <c r="FA4">
-        <v>101</v>
-      </c>
-      <c r="FB4">
-        <v>126</v>
-      </c>
-      <c r="FC4">
-        <v>201</v>
-      </c>
       <c r="FD4">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="FE4">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="FF4">
         <v>51</v>
@@ -2698,348 +2755,324 @@
         <v>126</v>
       </c>
       <c r="FH4">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H5">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="I5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>4.75</v>
+        <v>4.96</v>
       </c>
       <c r="K5">
-        <v>2.63</v>
+        <v>3.17</v>
       </c>
       <c r="L5">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
       <c r="N5">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="P5">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="Q5">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="T5">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="U5">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="V5">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="W5">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>3.44</v>
       </c>
       <c r="Y5">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Z5">
-        <v>6.55</v>
+        <v>7.8</v>
       </c>
       <c r="AA5">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AB5">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="AC5">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AD5">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AE5">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AF5">
         <v>9</v>
       </c>
       <c r="AG5">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AH5">
+        <v>1.96</v>
+      </c>
+      <c r="AI5">
+        <v>3.34</v>
+      </c>
+      <c r="AJ5">
+        <v>4.08</v>
+      </c>
+      <c r="AK5">
+        <v>2.22</v>
+      </c>
+      <c r="AL5">
+        <v>3.15</v>
+      </c>
+      <c r="AM5">
+        <v>3.26</v>
+      </c>
+      <c r="AN5">
+        <v>1.23</v>
+      </c>
+      <c r="AO5">
+        <v>1.32</v>
+      </c>
+      <c r="AP5">
         <v>1.85</v>
       </c>
-      <c r="AI5">
-        <v>3.4</v>
-      </c>
-      <c r="AJ5">
-        <v>4.5</v>
-      </c>
-      <c r="AK5">
-        <v>1.91</v>
-      </c>
-      <c r="AL5">
-        <v>3.3</v>
-      </c>
-      <c r="AM5">
-        <v>3.75</v>
-      </c>
-      <c r="AN5">
+      <c r="AQ5">
+        <v>1.3</v>
+      </c>
+      <c r="AR5">
+        <v>1.3</v>
+      </c>
+      <c r="AS5">
+        <v>1.6</v>
+      </c>
+      <c r="AT5">
+        <v>2.06</v>
+      </c>
+      <c r="AU5">
+        <v>1.73</v>
+      </c>
+      <c r="AV5">
+        <v>1.98</v>
+      </c>
+      <c r="AW5">
+        <v>1.78</v>
+      </c>
+      <c r="AX5">
+        <v>1.05</v>
+      </c>
+      <c r="AY5">
+        <v>7.1</v>
+      </c>
+      <c r="AZ5">
+        <v>1.09</v>
+      </c>
+      <c r="BA5">
+        <v>6.3</v>
+      </c>
+      <c r="BB5">
+        <v>1.09</v>
+      </c>
+      <c r="BC5">
+        <v>5.8</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE5">
+        <v>5.1</v>
+      </c>
+      <c r="BF5">
+        <v>1.41</v>
+      </c>
+      <c r="BG5">
+        <v>2.64</v>
+      </c>
+      <c r="BH5">
+        <v>1.45</v>
+      </c>
+      <c r="BI5">
+        <v>2.6</v>
+      </c>
+      <c r="BJ5">
+        <v>1.72</v>
+      </c>
+      <c r="BK5">
+        <v>2.02</v>
+      </c>
+      <c r="BL5">
+        <v>1.73</v>
+      </c>
+      <c r="BM5">
+        <v>2</v>
+      </c>
+      <c r="BN5">
+        <v>2.34</v>
+      </c>
+      <c r="BO5">
+        <v>1.61</v>
+      </c>
+      <c r="BP5">
+        <v>2.25</v>
+      </c>
+      <c r="BQ5">
+        <v>1.55</v>
+      </c>
+      <c r="BR5">
+        <v>3.54</v>
+      </c>
+      <c r="BS5">
+        <v>1.26</v>
+      </c>
+      <c r="BT5">
+        <v>3.54</v>
+      </c>
+      <c r="BU5">
+        <v>1.25</v>
+      </c>
+      <c r="BV5">
+        <v>4.24</v>
+      </c>
+      <c r="BW5">
         <v>1.18</v>
       </c>
-      <c r="AO5">
-        <v>1.3</v>
-      </c>
-      <c r="AP5">
-        <v>1.91</v>
-      </c>
-      <c r="AQ5">
-        <v>1.25</v>
-      </c>
-      <c r="AR5">
-        <v>1.33</v>
-      </c>
-      <c r="AS5">
-        <v>1.83</v>
-      </c>
-      <c r="AT5">
-        <v>1.95</v>
-      </c>
-      <c r="AU5">
-        <v>1.8</v>
-      </c>
-      <c r="AV5">
-        <v>1.91</v>
-      </c>
-      <c r="AW5">
-        <v>1.91</v>
-      </c>
-      <c r="AX5">
-        <v>1.07</v>
-      </c>
-      <c r="AY5">
-        <v>8.5</v>
-      </c>
-      <c r="AZ5">
-        <v>1.07</v>
-      </c>
-      <c r="BA5">
-        <v>9</v>
-      </c>
-      <c r="BB5">
+      <c r="BX5">
+        <v>4.3</v>
+      </c>
+      <c r="BY5">
+        <v>1.18</v>
+      </c>
+      <c r="BZ5">
+        <v>7.6</v>
+      </c>
+      <c r="CA5">
+        <v>1.04</v>
+      </c>
+      <c r="CB5">
+        <v>6.3</v>
+      </c>
+      <c r="CC5">
+        <v>1.08</v>
+      </c>
+      <c r="CD5">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="CE5">
+        <v>1.03</v>
+      </c>
+      <c r="CF5">
+        <v>7.8</v>
+      </c>
+      <c r="CG5">
         <v>1.05</v>
       </c>
-      <c r="BC5">
-        <v>7</v>
-      </c>
-      <c r="BD5">
-        <v>1.06</v>
-      </c>
-      <c r="BE5">
-        <v>6.6</v>
-      </c>
-      <c r="BF5">
-        <v>1.33</v>
-      </c>
-      <c r="BG5">
-        <v>3.25</v>
-      </c>
-      <c r="BH5">
-        <v>1.33</v>
-      </c>
-      <c r="BI5">
-        <v>3.25</v>
-      </c>
-      <c r="BJ5">
-        <v>1.54</v>
-      </c>
-      <c r="BK5">
-        <v>2.34</v>
-      </c>
-      <c r="BL5">
-        <v>1.6</v>
-      </c>
-      <c r="BM5">
-        <v>2.22</v>
-      </c>
-      <c r="BN5">
-        <v>2.08</v>
-      </c>
-      <c r="BO5">
-        <v>1.73</v>
-      </c>
-      <c r="BP5">
-        <v>2.05</v>
-      </c>
-      <c r="BQ5">
-        <v>1.75</v>
-      </c>
-      <c r="BR5">
-        <v>2.92</v>
-      </c>
-      <c r="BS5">
-        <v>1.36</v>
-      </c>
-      <c r="BT5">
-        <v>3.08</v>
-      </c>
-      <c r="BU5">
-        <v>1.33</v>
-      </c>
-      <c r="BV5">
-        <v>3.75</v>
-      </c>
-      <c r="BW5">
-        <v>1.25</v>
-      </c>
-      <c r="BX5">
-        <v>3.75</v>
-      </c>
-      <c r="BY5">
-        <v>1.25</v>
-      </c>
-      <c r="BZ5">
-        <v>6.1</v>
-      </c>
-      <c r="CA5">
-        <v>1.08</v>
-      </c>
-      <c r="CB5">
-        <v>6.55</v>
-      </c>
-      <c r="CC5">
-        <v>1.06</v>
-      </c>
-      <c r="CD5">
-        <v>8</v>
-      </c>
-      <c r="CE5">
-        <v>1.08</v>
-      </c>
-      <c r="CF5">
-        <v>8</v>
-      </c>
-      <c r="CG5">
-        <v>1.08</v>
-      </c>
-      <c r="CH5">
-        <v>12</v>
-      </c>
-      <c r="CI5">
-        <v>1.01</v>
-      </c>
-      <c r="CJ5">
-        <v>11.5</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>183</v>
-      </c>
       <c r="CL5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="CM5">
         <v>1.02</v>
       </c>
       <c r="CN5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="CO5">
         <v>1.02</v>
       </c>
-      <c r="CT5">
-        <v>34</v>
-      </c>
-      <c r="CU5">
-        <v>34</v>
-      </c>
-      <c r="CV5">
-        <v>34</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>186</v>
-      </c>
       <c r="DJ5">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="DK5">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="DL5">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="DM5">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="DN5">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="DO5">
-        <v>3.7</v>
+        <v>3.28</v>
       </c>
       <c r="DP5">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="DQ5">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="DR5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="DS5">
-        <v>5.75</v>
+        <v>5.15</v>
       </c>
       <c r="DT5">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="DU5">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="DV5">
         <v>1.03</v>
       </c>
       <c r="DW5">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="DX5">
-        <v>4.25</v>
+        <v>4.76</v>
       </c>
       <c r="DY5">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="DZ5">
         <v>1.01</v>
@@ -3048,46 +3081,46 @@
         <v>11.5</v>
       </c>
       <c r="EB5">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="EC5">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="EJ5">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="EK5">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="EL5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="EM5">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="EN5">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="EO5">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="EP5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="EQ5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="ER5">
         <v>8</v>
       </c>
       <c r="ES5">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="ET5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="EU5">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="EV5">
         <v>15</v>
@@ -3096,393 +3129,2593 @@
         <v>15</v>
       </c>
       <c r="EX5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="EY5">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="EZ5">
+        <v>151</v>
+      </c>
+      <c r="FA5">
+        <v>91</v>
+      </c>
+      <c r="FB5">
         <v>126</v>
       </c>
-      <c r="FA5">
+      <c r="FC5">
+        <v>201</v>
+      </c>
+      <c r="FD5">
+        <v>46</v>
+      </c>
+      <c r="FE5">
+        <v>41</v>
+      </c>
+      <c r="FF5">
         <v>81</v>
       </c>
-      <c r="FB5">
-        <v>101</v>
-      </c>
-      <c r="FC5">
-        <v>151</v>
-      </c>
-      <c r="FD5">
-        <v>34</v>
-      </c>
-      <c r="FE5">
-        <v>34</v>
-      </c>
-      <c r="FF5">
-        <v>51</v>
-      </c>
       <c r="FG5">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="FH5">
-        <v>351</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:164">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H6">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J6">
+        <v>2.88</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>2.5</v>
-      </c>
       <c r="L6">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="N6">
+        <v>1.53</v>
+      </c>
+      <c r="O6">
+        <v>2.38</v>
+      </c>
+      <c r="P6">
+        <v>1.44</v>
+      </c>
+      <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
+        <v>2.24</v>
+      </c>
+      <c r="S6">
+        <v>1.61</v>
+      </c>
+      <c r="T6">
+        <v>2.07</v>
+      </c>
+      <c r="U6">
+        <v>1.71</v>
+      </c>
+      <c r="V6">
+        <v>3.5</v>
+      </c>
+      <c r="W6">
+        <v>1.29</v>
+      </c>
+      <c r="X6">
+        <v>3.25</v>
+      </c>
+      <c r="Y6">
         <v>1.33</v>
       </c>
-      <c r="O6">
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>1.06</v>
+      </c>
+      <c r="AB6">
+        <v>7.1</v>
+      </c>
+      <c r="AC6">
+        <v>1.08</v>
+      </c>
+      <c r="AD6">
+        <v>11</v>
+      </c>
+      <c r="AE6">
+        <v>1.05</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>1.06</v>
+      </c>
+      <c r="AH6">
+        <v>3.6</v>
+      </c>
+      <c r="AI6">
         <v>3.25</v>
       </c>
-      <c r="P6">
-        <v>1.33</v>
-      </c>
-      <c r="Q6">
-        <v>3.25</v>
-      </c>
-      <c r="R6">
-        <v>1.7</v>
-      </c>
-      <c r="S6">
-        <v>2.2</v>
-      </c>
-      <c r="T6">
-        <v>1.7</v>
-      </c>
-      <c r="U6">
-        <v>2.2</v>
-      </c>
-      <c r="V6">
-        <v>2.5</v>
-      </c>
-      <c r="W6">
-        <v>1.5</v>
-      </c>
-      <c r="X6">
-        <v>2.5</v>
-      </c>
-      <c r="Y6">
-        <v>1.5</v>
-      </c>
-      <c r="AD6">
-        <v>6.5</v>
-      </c>
-      <c r="AE6">
-        <v>1.11</v>
-      </c>
-      <c r="AF6">
-        <v>6.5</v>
-      </c>
-      <c r="AG6">
-        <v>1.11</v>
-      </c>
-      <c r="AH6">
-        <v>1.91</v>
-      </c>
-      <c r="AI6">
-        <v>3.6</v>
-      </c>
       <c r="AJ6">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="AK6">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="AL6">
         <v>3.3</v>
       </c>
       <c r="AM6">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="AN6">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AO6">
+        <v>1.33</v>
+      </c>
+      <c r="AP6">
         <v>1.29</v>
       </c>
-      <c r="AP6">
-        <v>1.83</v>
-      </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="AR6">
         <v>1.33</v>
       </c>
       <c r="AS6">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AU6">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AV6">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AW6">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AX6">
+        <v>1.08</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>1.07</v>
+      </c>
+      <c r="BA6">
+        <v>8.5</v>
+      </c>
+      <c r="BB6">
+        <v>1.09</v>
+      </c>
+      <c r="BC6">
+        <v>5.65</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE6">
+        <v>6.45</v>
+      </c>
+      <c r="BF6">
+        <v>1.44</v>
+      </c>
+      <c r="BG6">
+        <v>2.63</v>
+      </c>
+      <c r="BH6">
+        <v>1.36</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>1.77</v>
+      </c>
+      <c r="BK6">
+        <v>2.1</v>
+      </c>
+      <c r="BL6">
+        <v>1.8</v>
+      </c>
+      <c r="BM6">
+        <v>2.05</v>
+      </c>
+      <c r="BN6">
+        <v>2.35</v>
+      </c>
+      <c r="BO6">
+        <v>1.57</v>
+      </c>
+      <c r="BP6">
+        <v>2.15</v>
+      </c>
+      <c r="BQ6">
+        <v>1.67</v>
+      </c>
+      <c r="BR6">
+        <v>3.62</v>
+      </c>
+      <c r="BS6">
+        <v>1.25</v>
+      </c>
+      <c r="BT6">
+        <v>3.14</v>
+      </c>
+      <c r="BU6">
+        <v>1.32</v>
+      </c>
+      <c r="BV6">
+        <v>4.33</v>
+      </c>
+      <c r="BW6">
+        <v>1.2</v>
+      </c>
+      <c r="BX6">
+        <v>4</v>
+      </c>
+      <c r="BY6">
+        <v>1.22</v>
+      </c>
+      <c r="BZ6">
+        <v>7.9</v>
+      </c>
+      <c r="CA6">
         <v>1.04</v>
       </c>
-      <c r="AY6">
+      <c r="CB6">
+        <v>6.75</v>
+      </c>
+      <c r="CC6">
+        <v>1.06</v>
+      </c>
+      <c r="CD6">
+        <v>10</v>
+      </c>
+      <c r="CE6">
+        <v>1.06</v>
+      </c>
+      <c r="CF6">
+        <v>9</v>
+      </c>
+      <c r="CG6">
+        <v>1.07</v>
+      </c>
+      <c r="CH6">
+        <v>17</v>
+      </c>
+      <c r="CI6">
+        <v>1.01</v>
+      </c>
+      <c r="CJ6">
+        <v>15</v>
+      </c>
+      <c r="CK6">
+        <v>1.01</v>
+      </c>
+      <c r="CL6">
+        <v>23</v>
+      </c>
+      <c r="CM6">
+        <v>1.01</v>
+      </c>
+      <c r="CN6">
+        <v>19</v>
+      </c>
+      <c r="CO6">
+        <v>1.02</v>
+      </c>
+      <c r="CT6">
+        <v>51</v>
+      </c>
+      <c r="CU6">
+        <v>51</v>
+      </c>
+      <c r="CV6">
+        <v>41</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>202</v>
+      </c>
+      <c r="DJ6">
+        <v>2.38</v>
+      </c>
+      <c r="DK6">
+        <v>1.55</v>
+      </c>
+      <c r="DL6">
+        <v>2.85</v>
+      </c>
+      <c r="DM6">
+        <v>1.4</v>
+      </c>
+      <c r="DN6">
+        <v>1.98</v>
+      </c>
+      <c r="DO6">
+        <v>1.88</v>
+      </c>
+      <c r="DP6">
+        <v>4.25</v>
+      </c>
+      <c r="DQ6">
+        <v>1.21</v>
+      </c>
+      <c r="DR6">
+        <v>1.5</v>
+      </c>
+      <c r="DS6">
+        <v>2.5</v>
+      </c>
+      <c r="DT6">
+        <v>6.8</v>
+      </c>
+      <c r="DU6">
+        <v>1.1</v>
+      </c>
+      <c r="DV6">
+        <v>1.24</v>
+      </c>
+      <c r="DW6">
+        <v>3.9</v>
+      </c>
+      <c r="DX6">
+        <v>11.5</v>
+      </c>
+      <c r="DY6">
+        <v>1.01</v>
+      </c>
+      <c r="DZ6">
+        <v>1.13</v>
+      </c>
+      <c r="EA6">
+        <v>5.9</v>
+      </c>
+      <c r="EJ6">
+        <v>7.5</v>
+      </c>
+      <c r="EK6">
+        <v>6</v>
+      </c>
+      <c r="EL6">
+        <v>9</v>
+      </c>
+      <c r="EM6">
+        <v>19</v>
+      </c>
+      <c r="EN6">
+        <v>8.5</v>
+      </c>
+      <c r="EO6">
+        <v>6</v>
+      </c>
+      <c r="EP6">
+        <v>9.5</v>
+      </c>
+      <c r="EQ6">
+        <v>21</v>
+      </c>
+      <c r="ER6">
+        <v>17</v>
+      </c>
+      <c r="ES6">
         <v>13</v>
       </c>
-      <c r="AZ6">
-        <v>1.04</v>
-      </c>
-      <c r="BA6">
-        <v>12</v>
-      </c>
-      <c r="BF6">
-        <v>1.2</v>
-      </c>
-      <c r="BG6">
-        <v>4.33</v>
-      </c>
-      <c r="BH6">
-        <v>1.2</v>
-      </c>
-      <c r="BI6">
-        <v>4.33</v>
-      </c>
-      <c r="BN6">
-        <v>1.67</v>
-      </c>
-      <c r="BO6">
-        <v>2.15</v>
-      </c>
-      <c r="BP6">
-        <v>1.7</v>
-      </c>
-      <c r="BQ6">
-        <v>2.1</v>
-      </c>
-      <c r="BV6">
-        <v>2.63</v>
-      </c>
-      <c r="BW6">
-        <v>1.44</v>
-      </c>
-      <c r="BX6">
-        <v>2.63</v>
-      </c>
-      <c r="BY6">
-        <v>1.44</v>
-      </c>
-      <c r="CD6">
-        <v>5</v>
-      </c>
-      <c r="CE6">
-        <v>1.17</v>
-      </c>
-      <c r="CF6">
-        <v>5</v>
-      </c>
-      <c r="CG6">
-        <v>1.17</v>
-      </c>
-      <c r="CL6">
-        <v>10</v>
-      </c>
-      <c r="CM6">
-        <v>1.06</v>
-      </c>
-      <c r="CN6">
-        <v>11</v>
-      </c>
-      <c r="CO6">
-        <v>1.05</v>
-      </c>
-      <c r="CT6">
-        <v>21</v>
-      </c>
-      <c r="CU6">
-        <v>1.02</v>
-      </c>
-      <c r="CV6">
-        <v>21</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>183</v>
-      </c>
-      <c r="DB6">
-        <v>41</v>
-      </c>
-      <c r="DC6">
-        <v>41</v>
-      </c>
-      <c r="DD6">
-        <v>41</v>
-      </c>
-      <c r="DE6">
-        <v>41</v>
-      </c>
-      <c r="DJ6">
-        <v>1.4</v>
-      </c>
-      <c r="DK6">
-        <v>2.85</v>
-      </c>
-      <c r="DL6">
-        <v>1.63</v>
-      </c>
-      <c r="DM6">
-        <v>2.25</v>
-      </c>
-      <c r="DN6">
-        <v>1.3</v>
-      </c>
-      <c r="DO6">
-        <v>3.45</v>
-      </c>
-      <c r="DP6">
-        <v>2.08</v>
-      </c>
-      <c r="DQ6">
-        <v>1.73</v>
-      </c>
-      <c r="DR6">
-        <v>1.17</v>
-      </c>
-      <c r="DS6">
-        <v>5</v>
-      </c>
-      <c r="DT6">
-        <v>2.85</v>
-      </c>
-      <c r="DU6">
-        <v>1.4</v>
-      </c>
-      <c r="DX6">
-        <v>3.9</v>
-      </c>
-      <c r="DY6">
-        <v>1.24</v>
-      </c>
-      <c r="EB6">
-        <v>6</v>
-      </c>
-      <c r="EC6">
-        <v>1.13</v>
-      </c>
-      <c r="EJ6">
-        <v>13</v>
-      </c>
-      <c r="EK6">
-        <v>13</v>
-      </c>
-      <c r="EL6">
-        <v>21</v>
-      </c>
-      <c r="EM6">
-        <v>41</v>
-      </c>
-      <c r="EN6">
-        <v>9</v>
-      </c>
-      <c r="EO6">
-        <v>7</v>
-      </c>
-      <c r="EP6">
-        <v>13</v>
-      </c>
-      <c r="EQ6">
-        <v>29</v>
-      </c>
-      <c r="ER6">
-        <v>10</v>
-      </c>
-      <c r="ES6">
-        <v>8.5</v>
-      </c>
       <c r="ET6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="EU6">
         <v>34</v>
       </c>
       <c r="EV6">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="EW6">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="EX6">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="EY6">
+        <v>67</v>
+      </c>
+      <c r="EZ6">
         <v>41</v>
       </c>
-      <c r="EZ6">
-        <v>81</v>
-      </c>
       <c r="FA6">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="FB6">
         <v>67</v>
       </c>
       <c r="FC6">
+        <v>151</v>
+      </c>
+      <c r="FD6">
+        <v>81</v>
+      </c>
+      <c r="FE6">
+        <v>81</v>
+      </c>
+      <c r="FF6">
         <v>101</v>
       </c>
-      <c r="FD6">
+      <c r="FG6">
+        <v>201</v>
+      </c>
+      <c r="FH6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7">
+        <v>1.67</v>
+      </c>
+      <c r="I7">
+        <v>2.63</v>
+      </c>
+      <c r="J7">
+        <v>9.5</v>
+      </c>
+      <c r="K7">
+        <v>1.83</v>
+      </c>
+      <c r="L7">
+        <v>2.5</v>
+      </c>
+      <c r="M7">
+        <v>7.5</v>
+      </c>
+      <c r="N7">
+        <v>1.3</v>
+      </c>
+      <c r="O7">
+        <v>3.4</v>
+      </c>
+      <c r="P7">
+        <v>1.3</v>
+      </c>
+      <c r="Q7">
+        <v>3.4</v>
+      </c>
+      <c r="R7">
+        <v>1.58</v>
+      </c>
+      <c r="S7">
+        <v>2.3</v>
+      </c>
+      <c r="T7">
+        <v>1.64</v>
+      </c>
+      <c r="U7">
+        <v>2.18</v>
+      </c>
+      <c r="V7">
+        <v>2.38</v>
+      </c>
+      <c r="W7">
+        <v>1.53</v>
+      </c>
+      <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.5</v>
+      </c>
+      <c r="Z7">
+        <v>4.32</v>
+      </c>
+      <c r="AA7">
+        <v>1.2</v>
+      </c>
+      <c r="AB7">
+        <v>4.64</v>
+      </c>
+      <c r="AC7">
+        <v>1.17</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>1.13</v>
+      </c>
+      <c r="AF7">
+        <v>6</v>
+      </c>
+      <c r="AG7">
+        <v>1.13</v>
+      </c>
+      <c r="AH7">
+        <v>1.25</v>
+      </c>
+      <c r="AI7">
+        <v>5.5</v>
+      </c>
+      <c r="AJ7">
+        <v>13</v>
+      </c>
+      <c r="AK7">
+        <v>1.33</v>
+      </c>
+      <c r="AL7">
+        <v>4.5</v>
+      </c>
+      <c r="AM7">
+        <v>8</v>
+      </c>
+      <c r="AN7">
+        <v>1.04</v>
+      </c>
+      <c r="AO7">
+        <v>1.14</v>
+      </c>
+      <c r="AP7">
+        <v>3.75</v>
+      </c>
+      <c r="AQ7">
+        <v>1.07</v>
+      </c>
+      <c r="AR7">
+        <v>1.17</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>2.1</v>
+      </c>
+      <c r="AU7">
+        <v>1.67</v>
+      </c>
+      <c r="AV7">
+        <v>2</v>
+      </c>
+      <c r="AW7">
+        <v>1.75</v>
+      </c>
+      <c r="AX7">
+        <v>1.04</v>
+      </c>
+      <c r="AY7">
+        <v>13</v>
+      </c>
+      <c r="AZ7">
+        <v>1.04</v>
+      </c>
+      <c r="BA7">
+        <v>13</v>
+      </c>
+      <c r="BB7">
+        <v>1.03</v>
+      </c>
+      <c r="BC7">
+        <v>11.5</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE7">
+        <v>10</v>
+      </c>
+      <c r="BF7">
+        <v>1.18</v>
+      </c>
+      <c r="BG7">
+        <v>4.5</v>
+      </c>
+      <c r="BH7">
+        <v>1.2</v>
+      </c>
+      <c r="BI7">
+        <v>4.33</v>
+      </c>
+      <c r="BJ7">
+        <v>1.26</v>
+      </c>
+      <c r="BK7">
+        <v>3.54</v>
+      </c>
+      <c r="BL7">
+        <v>1.3</v>
+      </c>
+      <c r="BM7">
+        <v>3.24</v>
+      </c>
+      <c r="BN7">
+        <v>1.62</v>
+      </c>
+      <c r="BO7">
+        <v>2.25</v>
+      </c>
+      <c r="BP7">
+        <v>1.67</v>
+      </c>
+      <c r="BQ7">
+        <v>2.15</v>
+      </c>
+      <c r="BR7">
+        <v>1.96</v>
+      </c>
+      <c r="BS7">
+        <v>1.77</v>
+      </c>
+      <c r="BT7">
+        <v>2.08</v>
+      </c>
+      <c r="BU7">
+        <v>1.68</v>
+      </c>
+      <c r="BV7">
+        <v>2.5</v>
+      </c>
+      <c r="BW7">
+        <v>1.5</v>
+      </c>
+      <c r="BX7">
+        <v>2.63</v>
+      </c>
+      <c r="BY7">
+        <v>1.44</v>
+      </c>
+      <c r="BZ7">
+        <v>3.56</v>
+      </c>
+      <c r="CA7">
+        <v>1.23</v>
+      </c>
+      <c r="CB7">
+        <v>3.94</v>
+      </c>
+      <c r="CC7">
+        <v>1.19</v>
+      </c>
+      <c r="CD7">
+        <v>4.5</v>
+      </c>
+      <c r="CE7">
+        <v>1.18</v>
+      </c>
+      <c r="CF7">
+        <v>5</v>
+      </c>
+      <c r="CG7">
+        <v>1.17</v>
+      </c>
+      <c r="CH7">
+        <v>7.2</v>
+      </c>
+      <c r="CI7">
+        <v>1.05</v>
+      </c>
+      <c r="CJ7">
+        <v>7.9</v>
+      </c>
+      <c r="CK7">
+        <v>1.04</v>
+      </c>
+      <c r="CL7">
+        <v>10</v>
+      </c>
+      <c r="CM7">
+        <v>1.06</v>
+      </c>
+      <c r="CN7">
+        <v>10</v>
+      </c>
+      <c r="CO7">
+        <v>1.06</v>
+      </c>
+      <c r="CT7">
+        <v>19</v>
+      </c>
+      <c r="CU7">
+        <v>1.02</v>
+      </c>
+      <c r="CV7">
+        <v>21</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>198</v>
+      </c>
+      <c r="DB7">
+        <v>41</v>
+      </c>
+      <c r="DC7">
+        <v>41</v>
+      </c>
+      <c r="DD7">
+        <v>41</v>
+      </c>
+      <c r="DE7">
+        <v>41</v>
+      </c>
+      <c r="DJ7">
+        <v>1.11</v>
+      </c>
+      <c r="DK7">
+        <v>6.6</v>
+      </c>
+      <c r="DL7">
+        <v>1.16</v>
+      </c>
+      <c r="DM7">
+        <v>5.25</v>
+      </c>
+      <c r="DN7">
+        <v>1.06</v>
+      </c>
+      <c r="DO7">
+        <v>7.6</v>
+      </c>
+      <c r="DP7">
+        <v>1.3</v>
+      </c>
+      <c r="DQ7">
+        <v>3.45</v>
+      </c>
+      <c r="DT7">
+        <v>1.57</v>
+      </c>
+      <c r="DU7">
+        <v>2.35</v>
+      </c>
+      <c r="DX7">
+        <v>2</v>
+      </c>
+      <c r="DY7">
+        <v>1.85</v>
+      </c>
+      <c r="EB7">
+        <v>2.6</v>
+      </c>
+      <c r="EC7">
+        <v>1.48</v>
+      </c>
+      <c r="EF7">
+        <v>3.45</v>
+      </c>
+      <c r="EG7">
+        <v>1.3</v>
+      </c>
+      <c r="EJ7">
+        <v>13</v>
+      </c>
+      <c r="EK7">
+        <v>23</v>
+      </c>
+      <c r="EL7">
+        <v>51</v>
+      </c>
+      <c r="EM7">
+        <v>151</v>
+      </c>
+      <c r="EN7">
+        <v>7.5</v>
+      </c>
+      <c r="EO7">
+        <v>10</v>
+      </c>
+      <c r="EP7">
+        <v>29</v>
+      </c>
+      <c r="EQ7">
+        <v>81</v>
+      </c>
+      <c r="ER7">
+        <v>6</v>
+      </c>
+      <c r="ES7">
+        <v>9.5</v>
+      </c>
+      <c r="ET7">
+        <v>23</v>
+      </c>
+      <c r="EU7">
+        <v>67</v>
+      </c>
+      <c r="EV7">
+        <v>7.5</v>
+      </c>
+      <c r="EW7">
+        <v>11</v>
+      </c>
+      <c r="EX7">
+        <v>29</v>
+      </c>
+      <c r="EY7">
+        <v>67</v>
+      </c>
+      <c r="EZ7">
+        <v>501</v>
+      </c>
+      <c r="FA7">
+        <v>351</v>
+      </c>
+      <c r="FB7">
+        <v>301</v>
+      </c>
+      <c r="FC7">
+        <v>351</v>
+      </c>
+      <c r="FD7">
+        <v>12</v>
+      </c>
+      <c r="FE7">
+        <v>19</v>
+      </c>
+      <c r="FF7">
+        <v>41</v>
+      </c>
+      <c r="FG7">
+        <v>101</v>
+      </c>
+      <c r="FH7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
+      <c r="A8" s="1">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8">
+        <v>3.5</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
+      <c r="J8">
+        <v>3.1</v>
+      </c>
+      <c r="K8">
+        <v>3.6</v>
+      </c>
+      <c r="L8">
+        <v>2.05</v>
+      </c>
+      <c r="M8">
+        <v>3.1</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>2.75</v>
+      </c>
+      <c r="P8">
+        <v>1.44</v>
+      </c>
+      <c r="Q8">
+        <v>2.63</v>
+      </c>
+      <c r="R8">
+        <v>1.98</v>
+      </c>
+      <c r="S8">
+        <v>1.82</v>
+      </c>
+      <c r="T8">
+        <v>2.1</v>
+      </c>
+      <c r="U8">
+        <v>1.7</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1.36</v>
+      </c>
+      <c r="X8">
+        <v>3.25</v>
+      </c>
+      <c r="Y8">
+        <v>1.33</v>
+      </c>
+      <c r="Z8">
+        <v>6.15</v>
+      </c>
+      <c r="AA8">
+        <v>1.1</v>
+      </c>
+      <c r="AB8">
+        <v>7.1</v>
+      </c>
+      <c r="AC8">
+        <v>1.08</v>
+      </c>
+      <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>1.08</v>
+      </c>
+      <c r="AF8">
+        <v>10</v>
+      </c>
+      <c r="AG8">
+        <v>1.06</v>
+      </c>
+      <c r="AH8">
+        <v>2.88</v>
+      </c>
+      <c r="AI8">
+        <v>3.3</v>
+      </c>
+      <c r="AJ8">
+        <v>2.45</v>
+      </c>
+      <c r="AK8">
+        <v>2.88</v>
+      </c>
+      <c r="AL8">
+        <v>3.25</v>
+      </c>
+      <c r="AM8">
+        <v>2.3</v>
+      </c>
+      <c r="AN8">
+        <v>1.53</v>
+      </c>
+      <c r="AO8">
+        <v>1.33</v>
+      </c>
+      <c r="AP8">
+        <v>1.4</v>
+      </c>
+      <c r="AQ8">
+        <v>1.57</v>
+      </c>
+      <c r="AR8">
+        <v>1.33</v>
+      </c>
+      <c r="AS8">
+        <v>1.4</v>
+      </c>
+      <c r="AT8">
+        <v>1.75</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>1.91</v>
+      </c>
+      <c r="AW8">
+        <v>1.91</v>
+      </c>
+      <c r="AX8">
+        <v>1.06</v>
+      </c>
+      <c r="AY8">
+        <v>10</v>
+      </c>
+      <c r="AZ8">
+        <v>1.07</v>
+      </c>
+      <c r="BA8">
+        <v>9</v>
+      </c>
+      <c r="BB8">
+        <v>1.04</v>
+      </c>
+      <c r="BC8">
+        <v>7.4</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE8">
+        <v>6.45</v>
+      </c>
+      <c r="BF8">
+        <v>1.3</v>
+      </c>
+      <c r="BG8">
+        <v>3.4</v>
+      </c>
+      <c r="BH8">
+        <v>1.36</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>1.49</v>
+      </c>
+      <c r="BK8">
+        <v>2.47</v>
+      </c>
+      <c r="BL8">
+        <v>1.62</v>
+      </c>
+      <c r="BM8">
+        <v>2.19</v>
+      </c>
+      <c r="BN8">
+        <v>2.02</v>
+      </c>
+      <c r="BO8">
+        <v>1.82</v>
+      </c>
+      <c r="BP8">
+        <v>2.1</v>
+      </c>
+      <c r="BQ8">
+        <v>1.7</v>
+      </c>
+      <c r="BR8">
+        <v>2.72</v>
+      </c>
+      <c r="BS8">
+        <v>1.41</v>
+      </c>
+      <c r="BT8">
+        <v>3.14</v>
+      </c>
+      <c r="BU8">
+        <v>1.32</v>
+      </c>
+      <c r="BV8">
+        <v>3.5</v>
+      </c>
+      <c r="BW8">
+        <v>1.29</v>
+      </c>
+      <c r="BX8">
+        <v>3.75</v>
+      </c>
+      <c r="BY8">
+        <v>1.25</v>
+      </c>
+      <c r="BZ8">
+        <v>5.65</v>
+      </c>
+      <c r="CA8">
+        <v>1.09</v>
+      </c>
+      <c r="CB8">
+        <v>6.75</v>
+      </c>
+      <c r="CC8">
+        <v>1.06</v>
+      </c>
+      <c r="CD8">
+        <v>7</v>
+      </c>
+      <c r="CE8">
+        <v>1.1</v>
+      </c>
+      <c r="CF8">
+        <v>8</v>
+      </c>
+      <c r="CG8">
+        <v>1.08</v>
+      </c>
+      <c r="CH8">
+        <v>12.5</v>
+      </c>
+      <c r="CI8">
+        <v>1.03</v>
+      </c>
+      <c r="CJ8">
+        <v>14.5</v>
+      </c>
+      <c r="CK8">
+        <v>1.02</v>
+      </c>
+      <c r="CL8">
+        <v>15</v>
+      </c>
+      <c r="CM8">
+        <v>1.03</v>
+      </c>
+      <c r="CN8">
+        <v>19</v>
+      </c>
+      <c r="CO8">
+        <v>1.02</v>
+      </c>
+      <c r="CT8">
+        <v>29</v>
+      </c>
+      <c r="CU8">
+        <v>1.01</v>
+      </c>
+      <c r="CV8">
+        <v>41</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>203</v>
+      </c>
+      <c r="DJ8">
+        <v>2.1</v>
+      </c>
+      <c r="DK8">
+        <v>1.77</v>
+      </c>
+      <c r="DL8">
+        <v>2.38</v>
+      </c>
+      <c r="DM8">
+        <v>1.55</v>
+      </c>
+      <c r="DN8">
+        <v>1.73</v>
+      </c>
+      <c r="DO8">
+        <v>2.08</v>
+      </c>
+      <c r="DP8">
+        <v>3.45</v>
+      </c>
+      <c r="DQ8">
+        <v>1.3</v>
+      </c>
+      <c r="DR8">
+        <v>1.4</v>
+      </c>
+      <c r="DS8">
+        <v>2.85</v>
+      </c>
+      <c r="DT8">
+        <v>5.5</v>
+      </c>
+      <c r="DU8">
+        <v>1.15</v>
+      </c>
+      <c r="DV8">
+        <v>1.2</v>
+      </c>
+      <c r="DW8">
+        <v>4.4</v>
+      </c>
+      <c r="DX8">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="DY8">
+        <v>1.05</v>
+      </c>
+      <c r="DZ8">
+        <v>1.11</v>
+      </c>
+      <c r="EA8">
+        <v>6.6</v>
+      </c>
+      <c r="EJ8">
+        <v>10</v>
+      </c>
+      <c r="EK8">
+        <v>8.5</v>
+      </c>
+      <c r="EL8">
+        <v>12</v>
+      </c>
+      <c r="EM8">
+        <v>23</v>
+      </c>
+      <c r="EN8">
+        <v>9</v>
+      </c>
+      <c r="EO8">
+        <v>6.5</v>
+      </c>
+      <c r="EP8">
+        <v>9.5</v>
+      </c>
+      <c r="EQ8">
+        <v>21</v>
+      </c>
+      <c r="ER8">
+        <v>15</v>
+      </c>
+      <c r="ES8">
+        <v>11</v>
+      </c>
+      <c r="ET8">
+        <v>13</v>
+      </c>
+      <c r="EU8">
+        <v>29</v>
+      </c>
+      <c r="EV8">
+        <v>29</v>
+      </c>
+      <c r="EW8">
+        <v>23</v>
+      </c>
+      <c r="EX8">
         <v>34</v>
       </c>
-      <c r="FE6">
+      <c r="EY8">
+        <v>51</v>
+      </c>
+      <c r="EZ8">
+        <v>51</v>
+      </c>
+      <c r="FA8">
+        <v>41</v>
+      </c>
+      <c r="FB8">
+        <v>51</v>
+      </c>
+      <c r="FC8">
+        <v>101</v>
+      </c>
+      <c r="FD8">
+        <v>51</v>
+      </c>
+      <c r="FE8">
+        <v>51</v>
+      </c>
+      <c r="FF8">
+        <v>67</v>
+      </c>
+      <c r="FG8">
+        <v>101</v>
+      </c>
+      <c r="FH8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
+      <c r="A9" s="1">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9">
+        <v>2.1</v>
+      </c>
+      <c r="I9">
+        <v>2.3</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>2.1</v>
+      </c>
+      <c r="L9">
+        <v>2.3</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>1.36</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1.36</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>1.82</v>
+      </c>
+      <c r="S9">
+        <v>1.98</v>
+      </c>
+      <c r="T9">
+        <v>1.82</v>
+      </c>
+      <c r="U9">
+        <v>1.98</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>2.75</v>
+      </c>
+      <c r="Y9">
+        <v>1.4</v>
+      </c>
+      <c r="Z9">
+        <v>5.55</v>
+      </c>
+      <c r="AA9">
+        <v>1.13</v>
+      </c>
+      <c r="AB9">
+        <v>5.4</v>
+      </c>
+      <c r="AC9">
+        <v>1.13</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>1.1</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>1.1</v>
+      </c>
+      <c r="AH9">
+        <v>1.55</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
+        <v>6</v>
+      </c>
+      <c r="AK9">
+        <v>1.53</v>
+      </c>
+      <c r="AL9">
+        <v>3.8</v>
+      </c>
+      <c r="AM9">
+        <v>5.5</v>
+      </c>
+      <c r="AN9">
+        <v>1.13</v>
+      </c>
+      <c r="AO9">
+        <v>1.22</v>
+      </c>
+      <c r="AP9">
+        <v>2.38</v>
+      </c>
+      <c r="AQ9">
+        <v>1.13</v>
+      </c>
+      <c r="AR9">
+        <v>1.22</v>
+      </c>
+      <c r="AS9">
+        <v>2.25</v>
+      </c>
+      <c r="AT9">
+        <v>1.95</v>
+      </c>
+      <c r="AU9">
+        <v>1.8</v>
+      </c>
+      <c r="AV9">
+        <v>1.95</v>
+      </c>
+      <c r="AW9">
+        <v>1.8</v>
+      </c>
+      <c r="AX9">
+        <v>1.05</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
+        <v>1.05</v>
+      </c>
+      <c r="BA9">
+        <v>11</v>
+      </c>
+      <c r="BB9">
+        <v>1.03</v>
+      </c>
+      <c r="BC9">
+        <v>8.4</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE9">
+        <v>8.6</v>
+      </c>
+      <c r="BF9">
+        <v>1.25</v>
+      </c>
+      <c r="BG9">
+        <v>3.75</v>
+      </c>
+      <c r="BH9">
+        <v>1.25</v>
+      </c>
+      <c r="BI9">
+        <v>3.75</v>
+      </c>
+      <c r="BJ9">
+        <v>1.41</v>
+      </c>
+      <c r="BK9">
+        <v>2.72</v>
+      </c>
+      <c r="BL9">
+        <v>1.39</v>
+      </c>
+      <c r="BM9">
+        <v>2.8</v>
+      </c>
+      <c r="BN9">
+        <v>1.88</v>
+      </c>
+      <c r="BO9">
+        <v>1.98</v>
+      </c>
+      <c r="BP9">
+        <v>1.85</v>
+      </c>
+      <c r="BQ9">
+        <v>1.95</v>
+      </c>
+      <c r="BR9">
+        <v>2.47</v>
+      </c>
+      <c r="BS9">
+        <v>1.49</v>
+      </c>
+      <c r="BT9">
+        <v>2.39</v>
+      </c>
+      <c r="BU9">
+        <v>1.52</v>
+      </c>
+      <c r="BV9">
+        <v>3.25</v>
+      </c>
+      <c r="BW9">
+        <v>1.33</v>
+      </c>
+      <c r="BX9">
+        <v>3.25</v>
+      </c>
+      <c r="BY9">
+        <v>1.33</v>
+      </c>
+      <c r="BZ9">
+        <v>4.94</v>
+      </c>
+      <c r="CA9">
+        <v>1.12</v>
+      </c>
+      <c r="CB9">
+        <v>4.74</v>
+      </c>
+      <c r="CC9">
+        <v>1.13</v>
+      </c>
+      <c r="CD9">
+        <v>6</v>
+      </c>
+      <c r="CE9">
+        <v>1.13</v>
+      </c>
+      <c r="CF9">
+        <v>6</v>
+      </c>
+      <c r="CG9">
+        <v>1.13</v>
+      </c>
+      <c r="CH9">
+        <v>9.9</v>
+      </c>
+      <c r="CI9">
+        <v>1.01</v>
+      </c>
+      <c r="CJ9">
+        <v>9.6</v>
+      </c>
+      <c r="CK9">
+        <v>1.01</v>
+      </c>
+      <c r="CL9">
+        <v>13</v>
+      </c>
+      <c r="CM9">
+        <v>1.04</v>
+      </c>
+      <c r="CN9">
+        <v>13</v>
+      </c>
+      <c r="CO9">
+        <v>1.04</v>
+      </c>
+      <c r="CT9">
+        <v>26</v>
+      </c>
+      <c r="CU9">
+        <v>1.01</v>
+      </c>
+      <c r="CV9">
+        <v>26</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>197</v>
+      </c>
+      <c r="DB9">
+        <v>51</v>
+      </c>
+      <c r="DC9">
+        <v>51</v>
+      </c>
+      <c r="DD9">
+        <v>51</v>
+      </c>
+      <c r="DE9">
+        <v>51</v>
+      </c>
+      <c r="DJ9">
+        <v>1.19</v>
+      </c>
+      <c r="DK9">
+        <v>4.5</v>
+      </c>
+      <c r="DL9">
+        <v>1.35</v>
+      </c>
+      <c r="DM9">
+        <v>3.1</v>
+      </c>
+      <c r="DN9">
+        <v>1.16</v>
+      </c>
+      <c r="DO9">
+        <v>5.25</v>
+      </c>
+      <c r="DP9">
+        <v>1.65</v>
+      </c>
+      <c r="DQ9">
+        <v>2.2</v>
+      </c>
+      <c r="DR9">
+        <v>1.05</v>
+      </c>
+      <c r="DS9">
+        <v>8.4</v>
+      </c>
+      <c r="DT9">
+        <v>2.2</v>
+      </c>
+      <c r="DU9">
+        <v>1.65</v>
+      </c>
+      <c r="DX9">
+        <v>3</v>
+      </c>
+      <c r="DY9">
+        <v>1.38</v>
+      </c>
+      <c r="EB9">
+        <v>4.25</v>
+      </c>
+      <c r="EC9">
+        <v>1.21</v>
+      </c>
+      <c r="EF9">
+        <v>6.25</v>
+      </c>
+      <c r="EG9">
+        <v>1.12</v>
+      </c>
+      <c r="EJ9">
+        <v>11</v>
+      </c>
+      <c r="EK9">
+        <v>15</v>
+      </c>
+      <c r="EL9">
+        <v>34</v>
+      </c>
+      <c r="EM9">
+        <v>67</v>
+      </c>
+      <c r="EN9">
+        <v>7</v>
+      </c>
+      <c r="EO9">
+        <v>7.5</v>
+      </c>
+      <c r="EP9">
+        <v>19</v>
+      </c>
+      <c r="EQ9">
+        <v>41</v>
+      </c>
+      <c r="ER9">
+        <v>7</v>
+      </c>
+      <c r="ES9">
+        <v>8.5</v>
+      </c>
+      <c r="ET9">
+        <v>17</v>
+      </c>
+      <c r="EU9">
+        <v>51</v>
+      </c>
+      <c r="EV9">
+        <v>11</v>
+      </c>
+      <c r="EW9">
+        <v>13</v>
+      </c>
+      <c r="EX9">
+        <v>26</v>
+      </c>
+      <c r="EY9">
+        <v>51</v>
+      </c>
+      <c r="EZ9">
+        <v>201</v>
+      </c>
+      <c r="FA9">
+        <v>126</v>
+      </c>
+      <c r="FB9">
+        <v>126</v>
+      </c>
+      <c r="FC9">
+        <v>201</v>
+      </c>
+      <c r="FD9">
+        <v>21</v>
+      </c>
+      <c r="FE9">
+        <v>23</v>
+      </c>
+      <c r="FF9">
+        <v>41</v>
+      </c>
+      <c r="FG9">
+        <v>101</v>
+      </c>
+      <c r="FH9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
+      <c r="A10" s="1">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10">
+        <v>2.1</v>
+      </c>
+      <c r="I10">
+        <v>2.13</v>
+      </c>
+      <c r="J10">
+        <v>7.1</v>
+      </c>
+      <c r="K10">
+        <v>2.92</v>
+      </c>
+      <c r="L10">
+        <v>1.9</v>
+      </c>
+      <c r="M10">
+        <v>4.78</v>
+      </c>
+      <c r="N10">
+        <v>1.47</v>
+      </c>
+      <c r="O10">
+        <v>2.58</v>
+      </c>
+      <c r="P10">
+        <v>1.55</v>
+      </c>
+      <c r="Q10">
+        <v>2.35</v>
+      </c>
+      <c r="R10">
+        <v>2.12</v>
+      </c>
+      <c r="S10">
+        <v>1.68</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>1.48</v>
+      </c>
+      <c r="V10">
+        <v>3.22</v>
+      </c>
+      <c r="W10">
+        <v>1.32</v>
+      </c>
+      <c r="X10">
+        <v>3.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.25</v>
+      </c>
+      <c r="Z10">
+        <v>7.3</v>
+      </c>
+      <c r="AA10">
+        <v>1.08</v>
+      </c>
+      <c r="AB10">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC10">
+        <v>1.06</v>
+      </c>
+      <c r="AD10">
+        <v>8.6</v>
+      </c>
+      <c r="AE10">
+        <v>1.05</v>
+      </c>
+      <c r="AF10">
+        <v>9.5</v>
+      </c>
+      <c r="AG10">
+        <v>1.03</v>
+      </c>
+      <c r="AH10">
+        <v>1.5</v>
+      </c>
+      <c r="AI10">
+        <v>4.04</v>
+      </c>
+      <c r="AJ10">
+        <v>7.2</v>
+      </c>
+      <c r="AK10">
+        <v>2.02</v>
+      </c>
+      <c r="AL10">
+        <v>3.15</v>
+      </c>
+      <c r="AM10">
+        <v>3.8</v>
+      </c>
+      <c r="AN10">
+        <v>1.09</v>
+      </c>
+      <c r="AO10">
+        <v>1.24</v>
+      </c>
+      <c r="AP10">
+        <v>2.6</v>
+      </c>
+      <c r="AQ10">
+        <v>1.22</v>
+      </c>
+      <c r="AR10">
+        <v>1.3</v>
+      </c>
+      <c r="AS10">
+        <v>1.72</v>
+      </c>
+      <c r="AT10">
+        <v>2.36</v>
+      </c>
+      <c r="AU10">
+        <v>1.56</v>
+      </c>
+      <c r="AV10">
+        <v>2.07</v>
+      </c>
+      <c r="AW10">
+        <v>1.72</v>
+      </c>
+      <c r="AX10">
+        <v>1.04</v>
+      </c>
+      <c r="AY10">
+        <v>7.5</v>
+      </c>
+      <c r="AZ10">
+        <v>1.09</v>
+      </c>
+      <c r="BA10">
+        <v>6.1</v>
+      </c>
+      <c r="BB10">
+        <v>1.07</v>
+      </c>
+      <c r="BC10">
+        <v>6.25</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE10">
+        <v>5</v>
+      </c>
+      <c r="BF10">
+        <v>1.38</v>
+      </c>
+      <c r="BG10">
+        <v>2.75</v>
+      </c>
+      <c r="BH10">
+        <v>1.45</v>
+      </c>
+      <c r="BI10">
+        <v>2.55</v>
+      </c>
+      <c r="BJ10">
+        <v>1.65</v>
+      </c>
+      <c r="BK10">
+        <v>2.13</v>
+      </c>
+      <c r="BL10">
+        <v>1.77</v>
+      </c>
+      <c r="BM10">
+        <v>1.93</v>
+      </c>
+      <c r="BN10">
+        <v>2.25</v>
+      </c>
+      <c r="BO10">
+        <v>1.66</v>
+      </c>
+      <c r="BP10">
+        <v>2.35</v>
+      </c>
+      <c r="BQ10">
+        <v>1.52</v>
+      </c>
+      <c r="BR10">
+        <v>3.24</v>
+      </c>
+      <c r="BS10">
+        <v>1.3</v>
+      </c>
+      <c r="BT10">
+        <v>3.94</v>
+      </c>
+      <c r="BU10">
+        <v>1.2</v>
+      </c>
+      <c r="BV10">
+        <v>3.98</v>
+      </c>
+      <c r="BW10">
+        <v>1.2</v>
+      </c>
+      <c r="BX10">
+        <v>4.8</v>
+      </c>
+      <c r="BY10">
+        <v>1.14</v>
+      </c>
+      <c r="BZ10">
+        <v>7.1</v>
+      </c>
+      <c r="CA10">
+        <v>1.05</v>
+      </c>
+      <c r="CB10">
+        <v>6.9</v>
+      </c>
+      <c r="CC10">
+        <v>1.07</v>
+      </c>
+      <c r="CD10">
+        <v>7.8</v>
+      </c>
+      <c r="CE10">
+        <v>1.04</v>
+      </c>
+      <c r="CF10">
+        <v>7.8</v>
+      </c>
+      <c r="CG10">
+        <v>1.05</v>
+      </c>
+      <c r="CL10">
+        <v>15</v>
+      </c>
+      <c r="CM10">
+        <v>1.02</v>
+      </c>
+      <c r="CN10">
+        <v>13</v>
+      </c>
+      <c r="CO10">
+        <v>1.01</v>
+      </c>
+      <c r="CT10">
+        <v>17</v>
+      </c>
+      <c r="CU10">
+        <v>1.01</v>
+      </c>
+      <c r="CV10">
+        <v>21</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>203</v>
+      </c>
+      <c r="DJ10">
+        <v>1.13</v>
+      </c>
+      <c r="DK10">
+        <v>5.15</v>
+      </c>
+      <c r="DL10">
+        <v>1.3</v>
+      </c>
+      <c r="DM10">
+        <v>3.24</v>
+      </c>
+      <c r="DN10">
+        <v>1.1</v>
+      </c>
+      <c r="DO10">
+        <v>5.8</v>
+      </c>
+      <c r="DP10">
+        <v>1.6</v>
+      </c>
+      <c r="DQ10">
+        <v>2.22</v>
+      </c>
+      <c r="DR10">
+        <v>1.03</v>
+      </c>
+      <c r="DS10">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="DT10">
+        <v>2.22</v>
+      </c>
+      <c r="DU10">
+        <v>1.68</v>
+      </c>
+      <c r="DV10">
+        <v>1.02</v>
+      </c>
+      <c r="DW10">
+        <v>10</v>
+      </c>
+      <c r="DX10">
+        <v>3</v>
+      </c>
+      <c r="DY10">
+        <v>1.35</v>
+      </c>
+      <c r="EB10">
+        <v>4.5</v>
+      </c>
+      <c r="EC10">
+        <v>1.17</v>
+      </c>
+      <c r="EF10">
+        <v>6.6</v>
+      </c>
+      <c r="EG10">
+        <v>1.08</v>
+      </c>
+      <c r="EJ10">
+        <v>7</v>
+      </c>
+      <c r="EK10">
+        <v>13</v>
+      </c>
+      <c r="EL10">
+        <v>31</v>
+      </c>
+      <c r="EM10">
+        <v>126</v>
+      </c>
+      <c r="EN10">
+        <v>4.5</v>
+      </c>
+      <c r="EO10">
+        <v>6.5</v>
+      </c>
+      <c r="EP10">
+        <v>20</v>
+      </c>
+      <c r="EQ10">
+        <v>91</v>
+      </c>
+      <c r="ER10">
+        <v>5</v>
+      </c>
+      <c r="ES10">
+        <v>7</v>
+      </c>
+      <c r="ET10">
+        <v>19</v>
+      </c>
+      <c r="EU10">
+        <v>101</v>
+      </c>
+      <c r="EV10">
+        <v>8</v>
+      </c>
+      <c r="EW10">
+        <v>12</v>
+      </c>
+      <c r="EX10">
+        <v>36</v>
+      </c>
+      <c r="EY10">
+        <v>151</v>
+      </c>
+      <c r="EZ10">
+        <v>201</v>
+      </c>
+      <c r="FA10">
+        <v>201</v>
+      </c>
+      <c r="FB10">
+        <v>201</v>
+      </c>
+      <c r="FC10">
+        <v>201</v>
+      </c>
+      <c r="FD10">
+        <v>18</v>
+      </c>
+      <c r="FE10">
+        <v>26</v>
+      </c>
+      <c r="FF10">
+        <v>81</v>
+      </c>
+      <c r="FG10">
+        <v>201</v>
+      </c>
+      <c r="FH10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
+      <c r="A11" s="1">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11">
+        <v>3.25</v>
+      </c>
+      <c r="I11">
+        <v>2.4</v>
+      </c>
+      <c r="J11">
+        <v>2.75</v>
+      </c>
+      <c r="K11">
+        <v>3.25</v>
+      </c>
+      <c r="L11">
+        <v>2.38</v>
+      </c>
+      <c r="M11">
+        <v>2.75</v>
+      </c>
+      <c r="N11">
+        <v>1.29</v>
+      </c>
+      <c r="O11">
+        <v>3.5</v>
+      </c>
+      <c r="P11">
+        <v>1.29</v>
+      </c>
+      <c r="Q11">
+        <v>3.5</v>
+      </c>
+      <c r="R11">
+        <v>1.55</v>
+      </c>
+      <c r="S11">
+        <v>2.38</v>
+      </c>
+      <c r="T11">
+        <v>1.52</v>
+      </c>
+      <c r="U11">
+        <v>2.42</v>
+      </c>
+      <c r="V11">
+        <v>2.25</v>
+      </c>
+      <c r="W11">
+        <v>1.57</v>
+      </c>
+      <c r="X11">
+        <v>2.25</v>
+      </c>
+      <c r="Y11">
+        <v>1.57</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11">
+        <v>1.22</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <v>1.22</v>
+      </c>
+      <c r="AD11">
+        <v>5.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.14</v>
+      </c>
+      <c r="AF11">
+        <v>5.5</v>
+      </c>
+      <c r="AG11">
+        <v>1.14</v>
+      </c>
+      <c r="AH11">
+        <v>3</v>
+      </c>
+      <c r="AI11">
+        <v>3.6</v>
+      </c>
+      <c r="AJ11">
+        <v>2.25</v>
+      </c>
+      <c r="AK11">
+        <v>3</v>
+      </c>
+      <c r="AL11">
+        <v>3.6</v>
+      </c>
+      <c r="AM11">
+        <v>2.25</v>
+      </c>
+      <c r="AN11">
+        <v>1.62</v>
+      </c>
+      <c r="AO11">
+        <v>1.29</v>
+      </c>
+      <c r="AP11">
+        <v>1.36</v>
+      </c>
+      <c r="AQ11">
+        <v>1.62</v>
+      </c>
+      <c r="AR11">
+        <v>1.29</v>
+      </c>
+      <c r="AS11">
+        <v>1.36</v>
+      </c>
+      <c r="AT11">
+        <v>1.5</v>
+      </c>
+      <c r="AU11">
+        <v>2.5</v>
+      </c>
+      <c r="AV11">
+        <v>1.5</v>
+      </c>
+      <c r="AW11">
+        <v>2.5</v>
+      </c>
+      <c r="AX11">
+        <v>1.02</v>
+      </c>
+      <c r="AY11">
+        <v>17</v>
+      </c>
+      <c r="AZ11">
+        <v>1.02</v>
+      </c>
+      <c r="BA11">
+        <v>17</v>
+      </c>
+      <c r="BB11">
+        <v>1.02</v>
+      </c>
+      <c r="BC11">
+        <v>11</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE11">
+        <v>10.5</v>
+      </c>
+      <c r="BF11">
+        <v>1.17</v>
+      </c>
+      <c r="BG11">
+        <v>5</v>
+      </c>
+      <c r="BH11">
+        <v>1.17</v>
+      </c>
+      <c r="BI11">
+        <v>5</v>
+      </c>
+      <c r="BJ11">
+        <v>1.21</v>
+      </c>
+      <c r="BK11">
+        <v>3.74</v>
+      </c>
+      <c r="BL11">
+        <v>1.25</v>
+      </c>
+      <c r="BM11">
+        <v>3.9</v>
+      </c>
+      <c r="BN11">
+        <v>1.57</v>
+      </c>
+      <c r="BO11">
+        <v>2.35</v>
+      </c>
+      <c r="BP11">
+        <v>1.53</v>
+      </c>
+      <c r="BQ11">
+        <v>2.4</v>
+      </c>
+      <c r="BR11">
+        <v>1.9</v>
+      </c>
+      <c r="BS11">
+        <v>1.95</v>
+      </c>
+      <c r="BT11">
+        <v>1.9</v>
+      </c>
+      <c r="BU11">
+        <v>1.95</v>
+      </c>
+      <c r="BV11">
+        <v>2.25</v>
+      </c>
+      <c r="BW11">
+        <v>1.57</v>
+      </c>
+      <c r="BX11">
+        <v>2.25</v>
+      </c>
+      <c r="BY11">
+        <v>1.57</v>
+      </c>
+      <c r="BZ11">
+        <v>3.24</v>
+      </c>
+      <c r="CA11">
+        <v>1.3</v>
+      </c>
+      <c r="CB11">
+        <v>3.7</v>
+      </c>
+      <c r="CC11">
+        <v>1.28</v>
+      </c>
+      <c r="CD11">
+        <v>4</v>
+      </c>
+      <c r="CE11">
+        <v>1.22</v>
+      </c>
+      <c r="CF11">
+        <v>4</v>
+      </c>
+      <c r="CG11">
+        <v>1.22</v>
+      </c>
+      <c r="CH11">
+        <v>6.3</v>
+      </c>
+      <c r="CI11">
+        <v>1.07</v>
+      </c>
+      <c r="CJ11">
+        <v>6.9</v>
+      </c>
+      <c r="CK11">
+        <v>1.1</v>
+      </c>
+      <c r="CL11">
+        <v>8</v>
+      </c>
+      <c r="CM11">
+        <v>1.08</v>
+      </c>
+      <c r="CN11">
+        <v>8</v>
+      </c>
+      <c r="CO11">
+        <v>1.08</v>
+      </c>
+      <c r="CT11">
+        <v>17</v>
+      </c>
+      <c r="CU11">
+        <v>1.02</v>
+      </c>
+      <c r="CV11">
+        <v>17</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>198</v>
+      </c>
+      <c r="DB11">
         <v>29</v>
       </c>
-      <c r="FF6">
+      <c r="DC11">
+        <v>1.01</v>
+      </c>
+      <c r="DD11">
+        <v>29</v>
+      </c>
+      <c r="DE11">
+        <v>1.01</v>
+      </c>
+      <c r="DJ11">
+        <v>2.15</v>
+      </c>
+      <c r="DK11">
+        <v>1.68</v>
+      </c>
+      <c r="DL11">
+        <v>2.5</v>
+      </c>
+      <c r="DM11">
+        <v>1.5</v>
+      </c>
+      <c r="DN11">
+        <v>1.85</v>
+      </c>
+      <c r="DO11">
+        <v>2</v>
+      </c>
+      <c r="DP11">
+        <v>3.45</v>
+      </c>
+      <c r="DQ11">
+        <v>1.3</v>
+      </c>
+      <c r="DR11">
+        <v>1.48</v>
+      </c>
+      <c r="DS11">
+        <v>2.6</v>
+      </c>
+      <c r="DT11">
+        <v>5.25</v>
+      </c>
+      <c r="DU11">
+        <v>1.16</v>
+      </c>
+      <c r="DV11">
+        <v>1.26</v>
+      </c>
+      <c r="DW11">
+        <v>3.7</v>
+      </c>
+      <c r="DX11">
+        <v>7.7</v>
+      </c>
+      <c r="DY11">
+        <v>1.06</v>
+      </c>
+      <c r="DZ11">
+        <v>1.16</v>
+      </c>
+      <c r="EA11">
+        <v>5.25</v>
+      </c>
+      <c r="EJ11">
+        <v>17</v>
+      </c>
+      <c r="EK11">
+        <v>12</v>
+      </c>
+      <c r="EL11">
+        <v>13</v>
+      </c>
+      <c r="EM11">
+        <v>23</v>
+      </c>
+      <c r="EN11">
+        <v>13</v>
+      </c>
+      <c r="EO11">
+        <v>7.5</v>
+      </c>
+      <c r="EP11">
+        <v>9.5</v>
+      </c>
+      <c r="EQ11">
+        <v>15</v>
+      </c>
+      <c r="ER11">
+        <v>19</v>
+      </c>
+      <c r="ES11">
+        <v>11</v>
+      </c>
+      <c r="ET11">
+        <v>11</v>
+      </c>
+      <c r="EU11">
+        <v>21</v>
+      </c>
+      <c r="EV11">
+        <v>29</v>
+      </c>
+      <c r="EW11">
+        <v>21</v>
+      </c>
+      <c r="EX11">
+        <v>23</v>
+      </c>
+      <c r="EY11">
+        <v>34</v>
+      </c>
+      <c r="EZ11">
         <v>41</v>
       </c>
-      <c r="FG6">
+      <c r="FA11">
+        <v>34</v>
+      </c>
+      <c r="FB11">
+        <v>41</v>
+      </c>
+      <c r="FC11">
+        <v>51</v>
+      </c>
+      <c r="FD11">
+        <v>51</v>
+      </c>
+      <c r="FE11">
+        <v>41</v>
+      </c>
+      <c r="FF11">
+        <v>41</v>
+      </c>
+      <c r="FG11">
         <v>67</v>
       </c>
-      <c r="FH6">
-        <v>151</v>
+      <c r="FH11">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="208">
   <si>
     <t>Date</t>
   </si>
@@ -505,76 +505,139 @@
     <t>FT_Odd_CS_4x4</t>
   </si>
   <si>
-    <t>08/06/2023</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
+    <t>09/06/2023</t>
+  </si>
+  <si>
+    <t>14:00</t>
   </si>
   <si>
     <t>15:30</t>
   </si>
   <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>16:00</t>
   </si>
   <si>
-    <t>AUSTRIA - BUNDESLIGA</t>
-  </si>
-  <si>
-    <t>NETHERLANDS - EREDIVISIE</t>
-  </si>
-  <si>
-    <t>ITALY - SERIE B</t>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>DENMARK - SUPERLIGA</t>
+  </si>
+  <si>
+    <t>SWEDEN - ALLSVENSKAN</t>
+  </si>
+  <si>
+    <t>ARGENTINA - LIGA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>IRELAND - PREMIER DIVISION</t>
   </si>
   <si>
     <t>BRAZIL - SERIE B</t>
   </si>
   <si>
-    <t>SPAIN - LALIGA2</t>
-  </si>
-  <si>
-    <t>A. Lustenau</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Criciuma</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Austria Vienna</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Bari</t>
-  </si>
-  <si>
-    <t>Juventude</t>
-  </si>
-  <si>
-    <t>Eibar</t>
+    <t>Viborg</t>
+  </si>
+  <si>
+    <t>Hammarby</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>Drogheda</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Rosario Central</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>St. Patricks</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>UC Dublin</t>
+  </si>
+  <si>
+    <t>Sarmiento Junin</t>
+  </si>
+  <si>
+    <t>Chapecoense-SC</t>
   </si>
   <si>
     <t xml:space="preserve">CONFERENCE LEAGUE </t>
   </si>
   <si>
-    <t xml:space="preserve">PLAY OFFS </t>
-  </si>
-  <si>
-    <t>ROUND 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROMOTION </t>
+    <t>ROUND 12</t>
+  </si>
+  <si>
+    <t>ROUND 20</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>41.0</t>
   </si>
 </sst>
 </file>
@@ -932,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH6"/>
+  <dimension ref="A1:FH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1431,7 +1494,7 @@
     </row>
     <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>163</v>
@@ -1440,34 +1503,34 @@
         <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>2.3</v>
       </c>
       <c r="J2">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L2">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N2">
         <v>1.33</v>
@@ -1476,22 +1539,22 @@
         <v>3.25</v>
       </c>
       <c r="P2">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q2">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R2">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S2">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U2">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V2">
         <v>2.5</v>
@@ -1500,22 +1563,22 @@
         <v>1.5</v>
       </c>
       <c r="X2">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Z2">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AA2">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AB2">
-        <v>4.94</v>
+        <v>5.6</v>
       </c>
       <c r="AC2">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AD2">
         <v>6.5</v>
@@ -1524,58 +1587,58 @@
         <v>1.11</v>
       </c>
       <c r="AF2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG2">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AH2">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="AI2">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ2">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="AK2">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AL2">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AM2">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AN2">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO2">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ2">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AS2">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AV2">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AW2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AX2">
         <v>1.04</v>
@@ -1584,46 +1647,46 @@
         <v>13</v>
       </c>
       <c r="AZ2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="BA2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB2">
         <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>9.5</v>
-      </c>
-      <c r="BD2">
-        <v>1.01</v>
+        <v>9.9</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>198</v>
       </c>
       <c r="BE2">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BG2">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BH2">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BI2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="BJ2">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BK2">
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
       <c r="BL2">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="BM2">
-        <v>3.08</v>
+        <v>2.55</v>
       </c>
       <c r="BN2">
         <v>1.7</v>
@@ -1632,46 +1695,46 @@
         <v>2.1</v>
       </c>
       <c r="BP2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BQ2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="BR2">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="BS2">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="BT2">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="BU2">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="BV2">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="BW2">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BX2">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="BY2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BZ2">
-        <v>4.2</v>
+        <v>3.98</v>
       </c>
       <c r="CA2">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="CB2">
-        <v>4.24</v>
+        <v>5.2</v>
       </c>
       <c r="CC2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="CD2">
         <v>5</v>
@@ -1680,19 +1743,19 @@
         <v>1.17</v>
       </c>
       <c r="CF2">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="CG2">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="CH2">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="CI2">
         <v>1.03</v>
       </c>
       <c r="CJ2">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="CK2">
         <v>1.03</v>
@@ -1704,10 +1767,10 @@
         <v>1.05</v>
       </c>
       <c r="CN2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CO2">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="CT2">
         <v>21</v>
@@ -1716,16 +1779,16 @@
         <v>1.02</v>
       </c>
       <c r="CV2">
-        <v>23</v>
-      </c>
-      <c r="CW2">
-        <v>1.01</v>
+        <v>29</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>204</v>
       </c>
       <c r="DB2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="DC2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="DD2">
         <v>51</v>
@@ -1734,186 +1797,186 @@
         <v>51</v>
       </c>
       <c r="DJ2">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="DK2">
-        <v>1.49</v>
+        <v>2.07</v>
       </c>
       <c r="DL2">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="DM2">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="DN2">
-        <v>2.07</v>
+        <v>1.57</v>
       </c>
       <c r="DO2">
-        <v>1.69</v>
+        <v>2.35</v>
       </c>
       <c r="DP2">
-        <v>4.28</v>
+        <v>2.85</v>
       </c>
       <c r="DQ2">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="DR2">
-        <v>1.61</v>
+        <v>1.32</v>
       </c>
       <c r="DS2">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="DT2">
-        <v>7</v>
+        <v>4.15</v>
       </c>
       <c r="DU2">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="DV2">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="DW2">
-        <v>3.06</v>
+        <v>5</v>
       </c>
       <c r="DX2">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="DY2">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="DZ2">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="EA2">
-        <v>4.32</v>
+        <v>6.65</v>
       </c>
       <c r="EJ2">
         <v>13</v>
       </c>
       <c r="EK2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="EL2">
+        <v>15</v>
+      </c>
+      <c r="EM2">
+        <v>29</v>
+      </c>
+      <c r="EN2">
         <v>10</v>
-      </c>
-      <c r="EM2">
-        <v>17</v>
-      </c>
-      <c r="EN2">
-        <v>13</v>
       </c>
       <c r="EO2">
         <v>7</v>
       </c>
       <c r="EP2">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="EQ2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="ER2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="ES2">
+        <v>9.5</v>
+      </c>
+      <c r="ET2">
         <v>12</v>
       </c>
-      <c r="ET2">
-        <v>13</v>
-      </c>
       <c r="EU2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="EV2">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="EW2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="EX2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="EY2">
         <v>41</v>
       </c>
       <c r="EZ2">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="FA2">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="FB2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="FC2">
         <v>67</v>
       </c>
       <c r="FD2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="FE2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="FF2">
+        <v>41</v>
+      </c>
+      <c r="FG2">
         <v>67</v>
       </c>
-      <c r="FG2">
-        <v>81</v>
-      </c>
       <c r="FH2">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H3">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="M3">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="N3">
+        <v>1.3</v>
+      </c>
+      <c r="O3">
+        <v>3.4</v>
+      </c>
+      <c r="P3">
         <v>1.33</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3.25</v>
-      </c>
-      <c r="P3">
-        <v>1.36</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
       </c>
       <c r="R3">
         <v>1.7</v>
@@ -1928,118 +1991,106 @@
         <v>2.1</v>
       </c>
       <c r="V3">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W3">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X3">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AA3">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AB3">
-        <v>4.54</v>
+        <v>5.2</v>
       </c>
       <c r="AC3">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AD3">
+        <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>1.13</v>
+      </c>
+      <c r="AF3">
         <v>6.5</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>1.11</v>
       </c>
-      <c r="AF3">
-        <v>7</v>
-      </c>
-      <c r="AG3">
-        <v>1.1</v>
-      </c>
       <c r="AH3">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="AI3">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AJ3">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="AK3">
-        <v>3.5</v>
+        <v>1.67</v>
       </c>
       <c r="AL3">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AM3">
+        <v>4.33</v>
+      </c>
+      <c r="AN3">
+        <v>1.18</v>
+      </c>
+      <c r="AO3">
+        <v>1.2</v>
+      </c>
+      <c r="AP3">
+        <v>2.2</v>
+      </c>
+      <c r="AQ3">
+        <v>1.2</v>
+      </c>
+      <c r="AR3">
+        <v>1.22</v>
+      </c>
+      <c r="AS3">
+        <v>2.15</v>
+      </c>
+      <c r="AT3">
+        <v>1.75</v>
+      </c>
+      <c r="AU3">
         <v>2</v>
       </c>
-      <c r="AN3">
-        <v>1.91</v>
-      </c>
-      <c r="AO3">
-        <v>1.25</v>
-      </c>
-      <c r="AP3">
-        <v>1.22</v>
-      </c>
-      <c r="AQ3">
-        <v>1.8</v>
-      </c>
-      <c r="AR3">
-        <v>1.29</v>
-      </c>
-      <c r="AS3">
-        <v>1.29</v>
-      </c>
-      <c r="AT3">
-        <v>1.67</v>
-      </c>
-      <c r="AU3">
-        <v>2.1</v>
-      </c>
       <c r="AV3">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AW3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AX3">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AY3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ3">
         <v>1.04</v>
       </c>
       <c r="BA3">
-        <v>12</v>
-      </c>
-      <c r="BB3">
-        <v>1.01</v>
-      </c>
-      <c r="BC3">
-        <v>9.4</v>
-      </c>
-      <c r="BD3">
-        <v>1.04</v>
-      </c>
-      <c r="BE3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BF3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BG3">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BH3">
         <v>1.22</v>
@@ -2048,46 +2099,46 @@
         <v>4</v>
       </c>
       <c r="BJ3">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BK3">
-        <v>3.08</v>
+        <v>3.4</v>
       </c>
       <c r="BL3">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="BM3">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BN3">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BO3">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="BP3">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BQ3">
+        <v>2.1</v>
+      </c>
+      <c r="BR3">
         <v>2.05</v>
       </c>
-      <c r="BR3">
-        <v>2.2</v>
-      </c>
       <c r="BS3">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="BT3">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="BU3">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="BV3">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="BW3">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BX3">
         <v>2.75</v>
@@ -2096,40 +2147,40 @@
         <v>1.4</v>
       </c>
       <c r="BZ3">
-        <v>4.3</v>
+        <v>3.84</v>
       </c>
       <c r="CA3">
+        <v>1.2</v>
+      </c>
+      <c r="CB3">
+        <v>5</v>
+      </c>
+      <c r="CC3">
+        <v>1.15</v>
+      </c>
+      <c r="CD3">
+        <v>5</v>
+      </c>
+      <c r="CE3">
         <v>1.17</v>
       </c>
-      <c r="CB3">
-        <v>4.2</v>
-      </c>
-      <c r="CC3">
-        <v>1.23</v>
-      </c>
-      <c r="CD3">
-        <v>5.5</v>
-      </c>
-      <c r="CE3">
-        <v>1.14</v>
-      </c>
       <c r="CF3">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="CG3">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="CH3">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="CI3">
+        <v>1.04</v>
+      </c>
+      <c r="CJ3">
+        <v>10</v>
+      </c>
+      <c r="CK3">
         <v>1.03</v>
-      </c>
-      <c r="CJ3">
-        <v>8.4</v>
-      </c>
-      <c r="CK3">
-        <v>1.07</v>
       </c>
       <c r="CL3">
         <v>11</v>
@@ -2144,22 +2195,22 @@
         <v>1.05</v>
       </c>
       <c r="CT3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="CU3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CV3">
-        <v>23</v>
-      </c>
-      <c r="CW3">
-        <v>1.01</v>
+        <v>21</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>202</v>
       </c>
       <c r="DB3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="DC3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="DD3">
         <v>51</v>
@@ -2168,180 +2219,174 @@
         <v>51</v>
       </c>
       <c r="DJ3">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="DK3">
-        <v>1.43</v>
+        <v>3.45</v>
       </c>
       <c r="DL3">
+        <v>1.45</v>
+      </c>
+      <c r="DM3">
+        <v>2.67</v>
+      </c>
+      <c r="DN3">
+        <v>1.24</v>
+      </c>
+      <c r="DO3">
+        <v>3.9</v>
+      </c>
+      <c r="DP3">
+        <v>1.85</v>
+      </c>
+      <c r="DQ3">
+        <v>2.05</v>
+      </c>
+      <c r="DR3">
+        <v>1.13</v>
+      </c>
+      <c r="DS3">
+        <v>5.9</v>
+      </c>
+      <c r="DT3">
+        <v>2.38</v>
+      </c>
+      <c r="DU3">
+        <v>1.55</v>
+      </c>
+      <c r="DX3">
         <v>3.3</v>
       </c>
-      <c r="DM3">
+      <c r="DY3">
         <v>1.32</v>
       </c>
-      <c r="DN3">
-        <v>2.2</v>
-      </c>
-      <c r="DO3">
-        <v>1.65</v>
-      </c>
-      <c r="DP3">
-        <v>4.5</v>
-      </c>
-      <c r="DQ3">
-        <v>1.19</v>
-      </c>
-      <c r="DR3">
-        <v>1.7</v>
-      </c>
-      <c r="DS3">
-        <v>2.1</v>
-      </c>
-      <c r="DT3">
+      <c r="EB3">
+        <v>4.65</v>
+      </c>
+      <c r="EC3">
+        <v>1.18</v>
+      </c>
+      <c r="EF3">
         <v>6.8</v>
       </c>
-      <c r="DU3">
+      <c r="EG3">
         <v>1.1</v>
       </c>
-      <c r="DV3">
-        <v>1.4</v>
-      </c>
-      <c r="DW3">
-        <v>2.85</v>
-      </c>
-      <c r="DX3">
-        <v>11.5</v>
-      </c>
-      <c r="DY3">
-        <v>1.01</v>
-      </c>
-      <c r="DZ3">
-        <v>1.23</v>
-      </c>
-      <c r="EA3">
-        <v>4</v>
-      </c>
-      <c r="ED3">
-        <v>1.11</v>
-      </c>
-      <c r="EE3">
-        <v>6.4</v>
-      </c>
       <c r="EJ3">
+        <v>15</v>
+      </c>
+      <c r="EK3">
+        <v>15</v>
+      </c>
+      <c r="EL3">
+        <v>26</v>
+      </c>
+      <c r="EM3">
+        <v>51</v>
+      </c>
+      <c r="EN3">
+        <v>8</v>
+      </c>
+      <c r="EO3">
+        <v>8</v>
+      </c>
+      <c r="EP3">
+        <v>15</v>
+      </c>
+      <c r="EQ3">
+        <v>34</v>
+      </c>
+      <c r="ER3">
+        <v>8.5</v>
+      </c>
+      <c r="ES3">
+        <v>8.5</v>
+      </c>
+      <c r="ET3">
+        <v>15</v>
+      </c>
+      <c r="EU3">
+        <v>34</v>
+      </c>
+      <c r="EV3">
         <v>13</v>
       </c>
-      <c r="EK3">
-        <v>8.5</v>
-      </c>
-      <c r="EL3">
-        <v>10</v>
-      </c>
-      <c r="EM3">
-        <v>17</v>
-      </c>
-      <c r="EN3">
+      <c r="EW3">
         <v>13</v>
       </c>
-      <c r="EO3">
-        <v>7.5</v>
-      </c>
-      <c r="EP3">
-        <v>8.5</v>
-      </c>
-      <c r="EQ3">
-        <v>15</v>
-      </c>
-      <c r="ER3">
-        <v>21</v>
-      </c>
-      <c r="ES3">
-        <v>13</v>
-      </c>
-      <c r="ET3">
-        <v>13</v>
-      </c>
-      <c r="EU3">
+      <c r="EX3">
         <v>23</v>
       </c>
-      <c r="EV3">
+      <c r="EY3">
+        <v>51</v>
+      </c>
+      <c r="EZ3">
+        <v>126</v>
+      </c>
+      <c r="FA3">
+        <v>81</v>
+      </c>
+      <c r="FB3">
+        <v>81</v>
+      </c>
+      <c r="FC3">
+        <v>101</v>
+      </c>
+      <c r="FD3">
+        <v>23</v>
+      </c>
+      <c r="FE3">
+        <v>23</v>
+      </c>
+      <c r="FF3">
         <v>41</v>
       </c>
-      <c r="EW3">
-        <v>29</v>
-      </c>
-      <c r="EX3">
-        <v>34</v>
-      </c>
-      <c r="EY3">
-        <v>41</v>
-      </c>
-      <c r="EZ3">
-        <v>34</v>
-      </c>
-      <c r="FA3">
-        <v>29</v>
-      </c>
-      <c r="FB3">
-        <v>41</v>
-      </c>
-      <c r="FC3">
+      <c r="FG3">
         <v>67</v>
       </c>
-      <c r="FD3">
-        <v>81</v>
-      </c>
-      <c r="FE3">
-        <v>51</v>
-      </c>
-      <c r="FF3">
-        <v>67</v>
-      </c>
-      <c r="FG3">
-        <v>101</v>
-      </c>
       <c r="FH3">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H4">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="N4">
         <v>1.5</v>
@@ -2350,94 +2395,94 @@
         <v>2.5</v>
       </c>
       <c r="P4">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q4">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R4">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S4">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="T4">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="V4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W4">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y4">
+        <v>1.29</v>
+      </c>
+      <c r="Z4">
+        <v>7.6</v>
+      </c>
+      <c r="AA4">
+        <v>1.07</v>
+      </c>
+      <c r="AB4">
+        <v>8.4</v>
+      </c>
+      <c r="AC4">
+        <v>1.06</v>
+      </c>
+      <c r="AD4">
+        <v>11</v>
+      </c>
+      <c r="AE4">
+        <v>1.05</v>
+      </c>
+      <c r="AF4">
+        <v>11</v>
+      </c>
+      <c r="AG4">
+        <v>1.05</v>
+      </c>
+      <c r="AH4">
+        <v>2.75</v>
+      </c>
+      <c r="AI4">
+        <v>3.1</v>
+      </c>
+      <c r="AJ4">
+        <v>2.45</v>
+      </c>
+      <c r="AK4">
+        <v>2.8</v>
+      </c>
+      <c r="AL4">
+        <v>3.1</v>
+      </c>
+      <c r="AM4">
+        <v>2.4</v>
+      </c>
+      <c r="AN4">
+        <v>1.53</v>
+      </c>
+      <c r="AO4">
+        <v>1.36</v>
+      </c>
+      <c r="AP4">
+        <v>1.4</v>
+      </c>
+      <c r="AQ4">
+        <v>1.5</v>
+      </c>
+      <c r="AR4">
         <v>1.33</v>
       </c>
-      <c r="Z4">
-        <v>7.2</v>
-      </c>
-      <c r="AA4">
-        <v>1.08</v>
-      </c>
-      <c r="AB4">
-        <v>7.2</v>
-      </c>
-      <c r="AC4">
-        <v>1.08</v>
-      </c>
-      <c r="AD4">
-        <v>10</v>
-      </c>
-      <c r="AE4">
-        <v>1.06</v>
-      </c>
-      <c r="AF4">
-        <v>10</v>
-      </c>
-      <c r="AG4">
-        <v>1.06</v>
-      </c>
-      <c r="AH4">
-        <v>1.8</v>
-      </c>
-      <c r="AI4">
-        <v>3.3</v>
-      </c>
-      <c r="AJ4">
-        <v>4.75</v>
-      </c>
-      <c r="AK4">
-        <v>1.83</v>
-      </c>
-      <c r="AL4">
-        <v>3.5</v>
-      </c>
-      <c r="AM4">
-        <v>4.33</v>
-      </c>
-      <c r="AN4">
-        <v>1.18</v>
-      </c>
-      <c r="AO4">
-        <v>1.33</v>
-      </c>
-      <c r="AP4">
-        <v>1.95</v>
-      </c>
-      <c r="AQ4">
-        <v>1.2</v>
-      </c>
-      <c r="AR4">
-        <v>1.29</v>
-      </c>
       <c r="AS4">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="AT4">
         <v>2</v>
@@ -2446,10 +2491,10 @@
         <v>1.75</v>
       </c>
       <c r="AV4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AW4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AX4">
         <v>1.08</v>
@@ -2458,22 +2503,22 @@
         <v>8</v>
       </c>
       <c r="AZ4">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="BA4">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BB4">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="BC4">
-        <v>6.35</v>
-      </c>
-      <c r="BD4">
-        <v>1.07</v>
+        <v>5.9</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>199</v>
       </c>
       <c r="BE4">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="BF4">
         <v>1.4</v>
@@ -2482,91 +2527,91 @@
         <v>2.75</v>
       </c>
       <c r="BH4">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BI4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BJ4">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="BK4">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BL4">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="BM4">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="BN4">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="BO4">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="BP4">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BQ4">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="BR4">
-        <v>3.2</v>
+        <v>3.46</v>
       </c>
       <c r="BS4">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="BT4">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="BU4">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="BV4">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BW4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BX4">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BY4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BZ4">
-        <v>6.85</v>
+        <v>7.5</v>
       </c>
       <c r="CA4">
+        <v>1.04</v>
+      </c>
+      <c r="CB4">
+        <v>8.4</v>
+      </c>
+      <c r="CC4">
+        <v>1.05</v>
+      </c>
+      <c r="CD4">
+        <v>10</v>
+      </c>
+      <c r="CE4">
         <v>1.06</v>
       </c>
-      <c r="CB4">
-        <v>6.1</v>
-      </c>
-      <c r="CC4">
-        <v>1.1</v>
-      </c>
-      <c r="CD4">
-        <v>9</v>
-      </c>
-      <c r="CE4">
-        <v>1.07</v>
-      </c>
       <c r="CF4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CG4">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="CH4">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="CI4">
         <v>1.01</v>
       </c>
       <c r="CJ4">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="CK4">
         <v>1.01</v>
@@ -2578,552 +2623,582 @@
         <v>1.02</v>
       </c>
       <c r="CN4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CO4">
         <v>1.02</v>
       </c>
       <c r="CT4">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="CU4">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="CV4">
-        <v>41</v>
-      </c>
-      <c r="CW4">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>205</v>
       </c>
       <c r="DJ4">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="DK4">
-        <v>3.3</v>
+        <v>1.82</v>
       </c>
       <c r="DL4">
+        <v>2.35</v>
+      </c>
+      <c r="DM4">
         <v>1.57</v>
       </c>
-      <c r="DM4">
-        <v>2.35</v>
-      </c>
       <c r="DN4">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="DO4">
-        <v>3.7</v>
+        <v>2.15</v>
       </c>
       <c r="DP4">
-        <v>2.08</v>
+        <v>3.45</v>
       </c>
       <c r="DQ4">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="DR4">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="DS4">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="DT4">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="DU4">
-        <v>1.38</v>
+        <v>1.14</v>
+      </c>
+      <c r="DV4">
+        <v>1.17</v>
+      </c>
+      <c r="DW4">
+        <v>5</v>
       </c>
       <c r="DX4">
-        <v>4.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="DY4">
-        <v>1.21</v>
-      </c>
-      <c r="EB4">
+        <v>1.04</v>
+      </c>
+      <c r="DZ4">
+        <v>1.1</v>
+      </c>
+      <c r="EA4">
+        <v>6.8</v>
+      </c>
+      <c r="EJ4">
+        <v>7.5</v>
+      </c>
+      <c r="EK4">
         <v>7</v>
       </c>
-      <c r="EC4">
-        <v>1.1</v>
-      </c>
-      <c r="EF4">
+      <c r="EL4">
+        <v>11</v>
+      </c>
+      <c r="EM4">
+        <v>23</v>
+      </c>
+      <c r="EN4">
+        <v>7.5</v>
+      </c>
+      <c r="EO4">
+        <v>6</v>
+      </c>
+      <c r="EP4">
         <v>10</v>
       </c>
-      <c r="EG4">
-        <v>1.02</v>
-      </c>
-      <c r="EJ4">
-        <v>8</v>
-      </c>
-      <c r="EK4">
-        <v>10</v>
-      </c>
-      <c r="EL4">
-        <v>21</v>
-      </c>
-      <c r="EM4">
-        <v>51</v>
-      </c>
-      <c r="EN4">
-        <v>6</v>
-      </c>
-      <c r="EO4">
-        <v>6.5</v>
-      </c>
-      <c r="EP4">
-        <v>15</v>
-      </c>
       <c r="EQ4">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="ER4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="ES4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="ET4">
         <v>17</v>
       </c>
       <c r="EU4">
+        <v>34</v>
+      </c>
+      <c r="EV4">
+        <v>29</v>
+      </c>
+      <c r="EW4">
+        <v>26</v>
+      </c>
+      <c r="EX4">
         <v>41</v>
-      </c>
-      <c r="EV4">
-        <v>15</v>
-      </c>
-      <c r="EW4">
-        <v>17</v>
-      </c>
-      <c r="EX4">
-        <v>34</v>
       </c>
       <c r="EY4">
         <v>67</v>
       </c>
       <c r="EZ4">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="FA4">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="FB4">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="FC4">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="FD4">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="FE4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="FF4">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="FG4">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="FH4">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H5">
-        <v>2.61</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="J5">
-        <v>5.05</v>
+        <v>3.1</v>
       </c>
       <c r="K5">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="L5">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="M5">
-        <v>4.38</v>
+        <v>3.2</v>
       </c>
       <c r="N5">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>2.44</v>
+        <v>2.75</v>
       </c>
       <c r="P5">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q5">
         <v>2.63</v>
       </c>
       <c r="R5">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="S5">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="T5">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="U5">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="V5">
-        <v>3.44</v>
+        <v>2.75</v>
       </c>
       <c r="W5">
+        <v>1.4</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>1.36</v>
+      </c>
+      <c r="Z5">
+        <v>6.4</v>
+      </c>
+      <c r="AA5">
+        <v>1.1</v>
+      </c>
+      <c r="AB5">
+        <v>5.9</v>
+      </c>
+      <c r="AC5">
+        <v>1.11</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>1.08</v>
+      </c>
+      <c r="AF5">
+        <v>9</v>
+      </c>
+      <c r="AG5">
+        <v>1.07</v>
+      </c>
+      <c r="AH5">
+        <v>2.63</v>
+      </c>
+      <c r="AI5">
+        <v>3.3</v>
+      </c>
+      <c r="AJ5">
+        <v>2.4</v>
+      </c>
+      <c r="AK5">
+        <v>2.7</v>
+      </c>
+      <c r="AL5">
+        <v>3.2</v>
+      </c>
+      <c r="AM5">
+        <v>2.4</v>
+      </c>
+      <c r="AN5">
+        <v>1.5</v>
+      </c>
+      <c r="AO5">
+        <v>1.3</v>
+      </c>
+      <c r="AP5">
+        <v>1.4</v>
+      </c>
+      <c r="AQ5">
+        <v>1.5</v>
+      </c>
+      <c r="AR5">
+        <v>1.33</v>
+      </c>
+      <c r="AS5">
+        <v>1.4</v>
+      </c>
+      <c r="AT5">
+        <v>1.7</v>
+      </c>
+      <c r="AU5">
+        <v>2.05</v>
+      </c>
+      <c r="AV5">
+        <v>1.8</v>
+      </c>
+      <c r="AW5">
+        <v>1.95</v>
+      </c>
+      <c r="AX5">
+        <v>1.05</v>
+      </c>
+      <c r="AY5">
+        <v>11</v>
+      </c>
+      <c r="AZ5">
+        <v>1.06</v>
+      </c>
+      <c r="BA5">
+        <v>9.5</v>
+      </c>
+      <c r="BB5">
+        <v>1.05</v>
+      </c>
+      <c r="BC5">
+        <v>7.2</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE5">
+        <v>7.2</v>
+      </c>
+      <c r="BF5">
         <v>1.29</v>
       </c>
-      <c r="X5">
-        <v>3.24</v>
-      </c>
-      <c r="Y5">
+      <c r="BG5">
+        <v>3.5</v>
+      </c>
+      <c r="BH5">
+        <v>1.3</v>
+      </c>
+      <c r="BI5">
+        <v>3.4</v>
+      </c>
+      <c r="BJ5">
+        <v>1.52</v>
+      </c>
+      <c r="BK5">
+        <v>2.39</v>
+      </c>
+      <c r="BL5">
+        <v>1.52</v>
+      </c>
+      <c r="BM5">
+        <v>2.39</v>
+      </c>
+      <c r="BN5">
+        <v>1.9</v>
+      </c>
+      <c r="BO5">
+        <v>1.9</v>
+      </c>
+      <c r="BP5">
+        <v>2.05</v>
+      </c>
+      <c r="BQ5">
+        <v>1.75</v>
+      </c>
+      <c r="BR5">
+        <v>2.84</v>
+      </c>
+      <c r="BS5">
+        <v>1.38</v>
+      </c>
+      <c r="BT5">
+        <v>2.84</v>
+      </c>
+      <c r="BU5">
+        <v>1.38</v>
+      </c>
+      <c r="BV5">
+        <v>3.25</v>
+      </c>
+      <c r="BW5">
         <v>1.33</v>
       </c>
-      <c r="Z5">
-        <v>8.1</v>
-      </c>
-      <c r="AA5">
-        <v>1.06</v>
-      </c>
-      <c r="AB5">
-        <v>8</v>
-      </c>
-      <c r="AC5">
-        <v>1.06</v>
-      </c>
-      <c r="AD5">
-        <v>9.4</v>
-      </c>
-      <c r="AE5">
-        <v>1.04</v>
-      </c>
-      <c r="AF5">
-        <v>8</v>
-      </c>
-      <c r="AG5">
-        <v>1.06</v>
-      </c>
-      <c r="AH5">
-        <v>1.96</v>
-      </c>
-      <c r="AI5">
-        <v>3.32</v>
-      </c>
-      <c r="AJ5">
-        <v>4.1</v>
-      </c>
-      <c r="AK5">
-        <v>2.07</v>
-      </c>
-      <c r="AL5">
-        <v>3</v>
-      </c>
-      <c r="AM5">
-        <v>3.82</v>
-      </c>
-      <c r="AN5">
-        <v>1.23</v>
-      </c>
-      <c r="AO5">
-        <v>1.33</v>
-      </c>
-      <c r="AP5">
-        <v>1.85</v>
-      </c>
-      <c r="AQ5">
-        <v>1.22</v>
-      </c>
-      <c r="AR5">
-        <v>1.36</v>
-      </c>
-      <c r="AS5">
-        <v>1.7</v>
-      </c>
-      <c r="AT5">
-        <v>2.11</v>
-      </c>
-      <c r="AU5">
-        <v>1.69</v>
-      </c>
-      <c r="AV5">
-        <v>1.95</v>
-      </c>
-      <c r="AW5">
-        <v>1.81</v>
-      </c>
-      <c r="AX5">
-        <v>1.06</v>
-      </c>
-      <c r="AY5">
-        <v>6.8</v>
-      </c>
-      <c r="AZ5">
-        <v>1.1</v>
-      </c>
-      <c r="BA5">
+      <c r="BX5">
+        <v>3.5</v>
+      </c>
+      <c r="BY5">
+        <v>1.29</v>
+      </c>
+      <c r="BZ5">
+        <v>5.95</v>
+      </c>
+      <c r="CA5">
+        <v>1.08</v>
+      </c>
+      <c r="CB5">
+        <v>5.95</v>
+      </c>
+      <c r="CC5">
+        <v>1.08</v>
+      </c>
+      <c r="CD5">
         <v>6.5</v>
       </c>
-      <c r="BB5">
-        <v>1.1</v>
-      </c>
-      <c r="BC5">
-        <v>5.55</v>
-      </c>
-      <c r="BD5">
-        <v>1.12</v>
-      </c>
-      <c r="BE5">
-        <v>5.7</v>
-      </c>
-      <c r="BF5">
-        <v>1.43</v>
-      </c>
-      <c r="BG5">
-        <v>2.57</v>
-      </c>
-      <c r="BH5">
-        <v>1.45</v>
-      </c>
-      <c r="BI5">
-        <v>2.63</v>
-      </c>
-      <c r="BJ5">
-        <v>1.78</v>
-      </c>
-      <c r="BK5">
-        <v>1.95</v>
-      </c>
-      <c r="BL5">
-        <v>1.77</v>
-      </c>
-      <c r="BM5">
-        <v>2.02</v>
-      </c>
-      <c r="BN5">
-        <v>2.43</v>
-      </c>
-      <c r="BO5">
-        <v>1.57</v>
-      </c>
-      <c r="BP5">
-        <v>2.38</v>
-      </c>
-      <c r="BQ5">
-        <v>1.53</v>
-      </c>
-      <c r="BR5">
-        <v>3.7</v>
-      </c>
-      <c r="BS5">
-        <v>1.24</v>
-      </c>
-      <c r="BT5">
-        <v>3.6</v>
-      </c>
-      <c r="BU5">
-        <v>1.26</v>
-      </c>
-      <c r="BV5">
-        <v>4.44</v>
-      </c>
-      <c r="BW5">
-        <v>1.16</v>
-      </c>
-      <c r="BX5">
-        <v>4.32</v>
-      </c>
-      <c r="BY5">
-        <v>1.2</v>
-      </c>
-      <c r="BZ5">
-        <v>8</v>
-      </c>
-      <c r="CA5">
-        <v>1.03</v>
-      </c>
-      <c r="CB5">
-        <v>7.4</v>
-      </c>
-      <c r="CC5">
-        <v>1.07</v>
-      </c>
-      <c r="CD5">
-        <v>8.800000000000001</v>
-      </c>
       <c r="CE5">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="CF5">
         <v>8</v>
       </c>
       <c r="CG5">
-        <v>1.06</v>
+        <v>1.08</v>
+      </c>
+      <c r="CH5">
+        <v>12</v>
+      </c>
+      <c r="CI5">
+        <v>1.02</v>
+      </c>
+      <c r="CJ5">
+        <v>12</v>
+      </c>
+      <c r="CK5">
+        <v>1.02</v>
       </c>
       <c r="CL5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CM5">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="CN5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CO5">
         <v>1.02</v>
       </c>
+      <c r="CT5">
+        <v>29</v>
+      </c>
+      <c r="CU5">
+        <v>1.01</v>
+      </c>
+      <c r="CV5">
+        <v>34</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>206</v>
+      </c>
+      <c r="DB5">
+        <v>51</v>
+      </c>
+      <c r="DC5">
+        <v>51</v>
+      </c>
+      <c r="DD5">
+        <v>51</v>
+      </c>
+      <c r="DE5">
+        <v>51</v>
+      </c>
       <c r="DJ5">
+        <v>2.02</v>
+      </c>
+      <c r="DK5">
+        <v>1.82</v>
+      </c>
+      <c r="DL5">
+        <v>2.35</v>
+      </c>
+      <c r="DM5">
+        <v>1.57</v>
+      </c>
+      <c r="DN5">
+        <v>1.7</v>
+      </c>
+      <c r="DO5">
+        <v>2.1</v>
+      </c>
+      <c r="DP5">
+        <v>3.3</v>
+      </c>
+      <c r="DQ5">
+        <v>1.32</v>
+      </c>
+      <c r="DR5">
         <v>1.4</v>
       </c>
-      <c r="DK5">
-        <v>2.99</v>
-      </c>
-      <c r="DL5">
-        <v>1.68</v>
-      </c>
-      <c r="DM5">
-        <v>2.22</v>
-      </c>
-      <c r="DN5">
-        <v>1.28</v>
-      </c>
-      <c r="DO5">
-        <v>3.4</v>
-      </c>
-      <c r="DP5">
-        <v>2.19</v>
-      </c>
-      <c r="DQ5">
-        <v>1.62</v>
-      </c>
-      <c r="DR5">
-        <v>1.13</v>
-      </c>
       <c r="DS5">
+        <v>2.85</v>
+      </c>
+      <c r="DT5">
         <v>5.25</v>
       </c>
-      <c r="DT5">
-        <v>3.26</v>
-      </c>
       <c r="DU5">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="DV5">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="DW5">
-        <v>10</v>
+        <v>4.4</v>
       </c>
       <c r="DX5">
-        <v>4.86</v>
+        <v>7.7</v>
       </c>
       <c r="DY5">
-        <v>1.15</v>
-      </c>
-      <c r="EB5">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="EC5">
-        <v>1.05</v>
-      </c>
-      <c r="EF5">
-        <v>10</v>
-      </c>
-      <c r="EG5">
-        <v>1.02</v>
+        <v>1.06</v>
+      </c>
+      <c r="DZ5">
+        <v>1.11</v>
+      </c>
+      <c r="EA5">
+        <v>6.6</v>
       </c>
       <c r="EJ5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="EK5">
         <v>9</v>
       </c>
       <c r="EL5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="EM5">
+        <v>23</v>
+      </c>
+      <c r="EN5">
+        <v>9.5</v>
+      </c>
+      <c r="EO5">
+        <v>6.5</v>
+      </c>
+      <c r="EP5">
+        <v>9.5</v>
+      </c>
+      <c r="EQ5">
+        <v>19</v>
+      </c>
+      <c r="ER5">
+        <v>13</v>
+      </c>
+      <c r="ES5">
+        <v>10</v>
+      </c>
+      <c r="ET5">
+        <v>13</v>
+      </c>
+      <c r="EU5">
+        <v>26</v>
+      </c>
+      <c r="EV5">
+        <v>29</v>
+      </c>
+      <c r="EW5">
+        <v>21</v>
+      </c>
+      <c r="EX5">
+        <v>29</v>
+      </c>
+      <c r="EY5">
+        <v>41</v>
+      </c>
+      <c r="EZ5">
         <v>51</v>
       </c>
-      <c r="EN5">
-        <v>6</v>
-      </c>
-      <c r="EO5">
-        <v>6</v>
-      </c>
-      <c r="EP5">
-        <v>13</v>
-      </c>
-      <c r="EQ5">
-        <v>31</v>
-      </c>
-      <c r="ER5">
-        <v>8.5</v>
-      </c>
-      <c r="ES5">
-        <v>8.5</v>
-      </c>
-      <c r="ET5">
-        <v>15</v>
-      </c>
-      <c r="EU5">
+      <c r="FA5">
+        <v>41</v>
+      </c>
+      <c r="FB5">
         <v>51</v>
       </c>
-      <c r="EV5">
-        <v>18</v>
-      </c>
-      <c r="EW5">
-        <v>19</v>
-      </c>
-      <c r="EX5">
-        <v>36</v>
-      </c>
-      <c r="EY5">
-        <v>101</v>
-      </c>
-      <c r="EZ5">
-        <v>176</v>
-      </c>
-      <c r="FA5">
-        <v>126</v>
-      </c>
-      <c r="FB5">
-        <v>176</v>
-      </c>
       <c r="FC5">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="FD5">
         <v>51</v>
       </c>
       <c r="FE5">
+        <v>41</v>
+      </c>
+      <c r="FF5">
         <v>51</v>
       </c>
-      <c r="FF5">
+      <c r="FG5">
         <v>101</v>
-      </c>
-      <c r="FG5">
-        <v>201</v>
       </c>
       <c r="FH5">
         <v>201</v>
@@ -3131,393 +3206,2551 @@
     </row>
     <row r="6" spans="1:164">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="I6">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="J6">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="K6">
+        <v>2.38</v>
+      </c>
+      <c r="L6">
+        <v>2.1</v>
+      </c>
+      <c r="M6">
+        <v>5.5</v>
+      </c>
+      <c r="N6">
+        <v>1.44</v>
+      </c>
+      <c r="O6">
+        <v>2.63</v>
+      </c>
+      <c r="P6">
+        <v>1.44</v>
+      </c>
+      <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.75</v>
+      </c>
+      <c r="T6">
+        <v>2.1</v>
+      </c>
+      <c r="U6">
+        <v>1.7</v>
+      </c>
+      <c r="V6">
+        <v>3.25</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>3.25</v>
+      </c>
+      <c r="Y6">
+        <v>1.33</v>
+      </c>
+      <c r="Z6">
+        <v>6.7</v>
+      </c>
+      <c r="AA6">
+        <v>1.09</v>
+      </c>
+      <c r="AB6">
+        <v>7.4</v>
+      </c>
+      <c r="AC6">
+        <v>1.07</v>
+      </c>
+      <c r="AD6">
+        <v>9</v>
+      </c>
+      <c r="AE6">
+        <v>1.07</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>1.06</v>
+      </c>
+      <c r="AH6">
+        <v>1.67</v>
+      </c>
+      <c r="AI6">
+        <v>3.4</v>
+      </c>
+      <c r="AJ6">
+        <v>5.25</v>
+      </c>
+      <c r="AK6">
+        <v>1.67</v>
+      </c>
+      <c r="AL6">
+        <v>3.5</v>
+      </c>
+      <c r="AM6">
+        <v>5</v>
+      </c>
+      <c r="AN6">
+        <v>1.17</v>
+      </c>
+      <c r="AO6">
+        <v>1.3</v>
+      </c>
+      <c r="AP6">
+        <v>2.15</v>
+      </c>
+      <c r="AQ6">
+        <v>1.17</v>
+      </c>
+      <c r="AR6">
+        <v>1.29</v>
+      </c>
+      <c r="AS6">
+        <v>2.15</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
+      <c r="AU6">
+        <v>1.75</v>
+      </c>
+      <c r="AV6">
+        <v>2.05</v>
+      </c>
+      <c r="AW6">
+        <v>1.7</v>
+      </c>
+      <c r="AX6">
+        <v>1.07</v>
+      </c>
+      <c r="AY6">
+        <v>8.5</v>
+      </c>
+      <c r="AZ6">
+        <v>1.07</v>
+      </c>
+      <c r="BA6">
+        <v>8.5</v>
+      </c>
+      <c r="BB6">
+        <v>1.06</v>
+      </c>
+      <c r="BC6">
+        <v>6.8</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE6">
+        <v>6</v>
+      </c>
+      <c r="BF6">
+        <v>1.33</v>
+      </c>
+      <c r="BG6">
+        <v>3.25</v>
+      </c>
+      <c r="BH6">
+        <v>1.36</v>
+      </c>
+      <c r="BI6">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1.91</v>
-      </c>
-      <c r="M6">
-        <v>4.5</v>
-      </c>
-      <c r="N6">
-        <v>1.62</v>
-      </c>
-      <c r="O6">
-        <v>2.2</v>
-      </c>
-      <c r="P6">
+      <c r="BJ6">
         <v>1.57</v>
       </c>
-      <c r="Q6">
-        <v>2.25</v>
-      </c>
-      <c r="R6">
-        <v>2.46</v>
-      </c>
-      <c r="S6">
-        <v>1.51</v>
-      </c>
-      <c r="T6">
-        <v>2.38</v>
-      </c>
-      <c r="U6">
-        <v>1.54</v>
-      </c>
-      <c r="V6">
+      <c r="BK6">
+        <v>2.28</v>
+      </c>
+      <c r="BL6">
+        <v>1.75</v>
+      </c>
+      <c r="BM6">
+        <v>2.04</v>
+      </c>
+      <c r="BN6">
+        <v>2.1</v>
+      </c>
+      <c r="BO6">
+        <v>1.7</v>
+      </c>
+      <c r="BP6">
+        <v>2.15</v>
+      </c>
+      <c r="BQ6">
+        <v>1.67</v>
+      </c>
+      <c r="BR6">
+        <v>2.98</v>
+      </c>
+      <c r="BS6">
+        <v>1.35</v>
+      </c>
+      <c r="BT6">
+        <v>3.4</v>
+      </c>
+      <c r="BU6">
+        <v>1.28</v>
+      </c>
+      <c r="BV6">
+        <v>3.75</v>
+      </c>
+      <c r="BW6">
+        <v>1.25</v>
+      </c>
+      <c r="BX6">
         <v>4</v>
       </c>
-      <c r="W6">
+      <c r="BY6">
         <v>1.22</v>
       </c>
-      <c r="X6">
-        <v>3.75</v>
-      </c>
-      <c r="Y6">
+      <c r="BZ6">
+        <v>6.35</v>
+      </c>
+      <c r="CA6">
+        <v>1.07</v>
+      </c>
+      <c r="CB6">
+        <v>7.3</v>
+      </c>
+      <c r="CC6">
+        <v>1.05</v>
+      </c>
+      <c r="CD6">
+        <v>8</v>
+      </c>
+      <c r="CE6">
+        <v>1.08</v>
+      </c>
+      <c r="CF6">
+        <v>9</v>
+      </c>
+      <c r="CG6">
+        <v>1.07</v>
+      </c>
+      <c r="CH6">
+        <v>13</v>
+      </c>
+      <c r="CI6">
+        <v>1.01</v>
+      </c>
+      <c r="CJ6">
+        <v>13</v>
+      </c>
+      <c r="CK6">
+        <v>1.01</v>
+      </c>
+      <c r="CL6">
+        <v>19</v>
+      </c>
+      <c r="CM6">
+        <v>1.02</v>
+      </c>
+      <c r="CN6">
+        <v>19</v>
+      </c>
+      <c r="CO6">
+        <v>1.02</v>
+      </c>
+      <c r="CT6">
+        <v>41</v>
+      </c>
+      <c r="CU6">
+        <v>41</v>
+      </c>
+      <c r="CV6">
+        <v>41</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>207</v>
+      </c>
+      <c r="DJ6">
         <v>1.25</v>
       </c>
-      <c r="Z6">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA6">
+      <c r="DK6">
+        <v>3.8</v>
+      </c>
+      <c r="DL6">
+        <v>1.48</v>
+      </c>
+      <c r="DM6">
+        <v>2.6</v>
+      </c>
+      <c r="DN6">
+        <v>1.2</v>
+      </c>
+      <c r="DO6">
+        <v>4.4</v>
+      </c>
+      <c r="DP6">
+        <v>1.93</v>
+      </c>
+      <c r="DQ6">
+        <v>1.93</v>
+      </c>
+      <c r="DR6">
+        <v>1.1</v>
+      </c>
+      <c r="DS6">
+        <v>7</v>
+      </c>
+      <c r="DT6">
+        <v>2.6</v>
+      </c>
+      <c r="DU6">
+        <v>1.48</v>
+      </c>
+      <c r="DX6">
+        <v>3.7</v>
+      </c>
+      <c r="DY6">
+        <v>1.26</v>
+      </c>
+      <c r="EB6">
+        <v>5.9</v>
+      </c>
+      <c r="EC6">
+        <v>1.13</v>
+      </c>
+      <c r="EF6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="EG6">
         <v>1.04</v>
       </c>
-      <c r="AB6">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC6">
-        <v>1.04</v>
-      </c>
-      <c r="AD6">
-        <v>13</v>
-      </c>
-      <c r="AE6">
-        <v>1.04</v>
-      </c>
-      <c r="AF6">
-        <v>13</v>
-      </c>
-      <c r="AG6">
-        <v>1.04</v>
-      </c>
-      <c r="AH6">
-        <v>2.25</v>
-      </c>
-      <c r="AI6">
-        <v>2.9</v>
-      </c>
-      <c r="AJ6">
-        <v>3.75</v>
-      </c>
-      <c r="AK6">
-        <v>2.15</v>
-      </c>
-      <c r="AL6">
-        <v>3</v>
-      </c>
-      <c r="AM6">
-        <v>3.5</v>
-      </c>
-      <c r="AN6">
-        <v>1.25</v>
-      </c>
-      <c r="AO6">
-        <v>1.4</v>
-      </c>
-      <c r="AP6">
-        <v>1.62</v>
-      </c>
-      <c r="AQ6">
-        <v>1.29</v>
-      </c>
-      <c r="AR6">
-        <v>1.36</v>
-      </c>
-      <c r="AS6">
-        <v>1.67</v>
-      </c>
-      <c r="AT6">
-        <v>2.2</v>
-      </c>
-      <c r="AU6">
-        <v>1.62</v>
-      </c>
-      <c r="AV6">
-        <v>2.2</v>
-      </c>
-      <c r="AW6">
-        <v>1.62</v>
-      </c>
-      <c r="AX6">
-        <v>1.13</v>
-      </c>
-      <c r="AY6">
+      <c r="EJ6">
+        <v>8.5</v>
+      </c>
+      <c r="EK6">
+        <v>12</v>
+      </c>
+      <c r="EL6">
+        <v>26</v>
+      </c>
+      <c r="EM6">
+        <v>51</v>
+      </c>
+      <c r="EN6">
         <v>6</v>
       </c>
-      <c r="AZ6">
-        <v>1.13</v>
-      </c>
-      <c r="BA6">
-        <v>6</v>
-      </c>
-      <c r="BB6">
-        <v>1.14</v>
-      </c>
-      <c r="BC6">
-        <v>5</v>
-      </c>
-      <c r="BD6">
-        <v>1.17</v>
-      </c>
-      <c r="BE6">
-        <v>4.7</v>
-      </c>
-      <c r="BF6">
-        <v>1.53</v>
-      </c>
-      <c r="BG6">
-        <v>2.38</v>
-      </c>
-      <c r="BH6">
-        <v>1.53</v>
-      </c>
-      <c r="BI6">
-        <v>2.38</v>
-      </c>
-      <c r="BJ6">
-        <v>2.05</v>
-      </c>
-      <c r="BK6">
-        <v>1.8</v>
-      </c>
-      <c r="BL6">
-        <v>2.02</v>
-      </c>
-      <c r="BM6">
-        <v>1.82</v>
-      </c>
-      <c r="BN6">
-        <v>2.7</v>
-      </c>
-      <c r="BO6">
-        <v>1.44</v>
-      </c>
-      <c r="BP6">
-        <v>2.7</v>
-      </c>
-      <c r="BQ6">
-        <v>1.44</v>
-      </c>
-      <c r="BR6">
-        <v>4.2</v>
-      </c>
-      <c r="BS6">
-        <v>1.17</v>
-      </c>
-      <c r="BT6">
-        <v>4.2</v>
-      </c>
-      <c r="BU6">
-        <v>1.2</v>
-      </c>
-      <c r="BV6">
-        <v>5.5</v>
-      </c>
-      <c r="BW6">
-        <v>1.14</v>
-      </c>
-      <c r="BX6">
-        <v>5.5</v>
-      </c>
-      <c r="BY6">
-        <v>1.14</v>
-      </c>
-      <c r="BZ6">
-        <v>9.4</v>
-      </c>
-      <c r="CA6">
-        <v>1.01</v>
-      </c>
-      <c r="CB6">
-        <v>9.5</v>
-      </c>
-      <c r="CC6">
-        <v>1.04</v>
-      </c>
-      <c r="CD6">
-        <v>13</v>
-      </c>
-      <c r="CE6">
-        <v>1.04</v>
-      </c>
-      <c r="CF6">
-        <v>13</v>
-      </c>
-      <c r="CG6">
-        <v>1.04</v>
-      </c>
-      <c r="CL6">
-        <v>29</v>
-      </c>
-      <c r="CM6">
-        <v>1.01</v>
-      </c>
-      <c r="CN6">
-        <v>26</v>
-      </c>
-      <c r="CO6">
-        <v>1.01</v>
-      </c>
-      <c r="DJ6">
-        <v>1.52</v>
-      </c>
-      <c r="DK6">
-        <v>2.42</v>
-      </c>
-      <c r="DL6">
-        <v>1.9</v>
-      </c>
-      <c r="DM6">
-        <v>1.95</v>
-      </c>
-      <c r="DN6">
-        <v>1.38</v>
-      </c>
-      <c r="DO6">
-        <v>3</v>
-      </c>
-      <c r="DP6">
-        <v>2.67</v>
-      </c>
-      <c r="DQ6">
-        <v>1.45</v>
-      </c>
-      <c r="DR6">
-        <v>1.19</v>
-      </c>
-      <c r="DS6">
-        <v>4.5</v>
-      </c>
-      <c r="DT6">
-        <v>4.15</v>
-      </c>
-      <c r="DU6">
-        <v>1.22</v>
-      </c>
-      <c r="DV6">
-        <v>1.05</v>
-      </c>
-      <c r="DW6">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="DX6">
-        <v>6.4</v>
-      </c>
-      <c r="DY6">
-        <v>1.11</v>
-      </c>
-      <c r="EJ6">
-        <v>6</v>
-      </c>
-      <c r="EK6">
-        <v>8</v>
-      </c>
-      <c r="EL6">
+      <c r="EO6">
+        <v>6.5</v>
+      </c>
+      <c r="EP6">
         <v>17</v>
-      </c>
-      <c r="EM6">
-        <v>41</v>
-      </c>
-      <c r="EN6">
-        <v>5.5</v>
-      </c>
-      <c r="EO6">
-        <v>6</v>
-      </c>
-      <c r="EP6">
-        <v>15</v>
       </c>
       <c r="EQ6">
         <v>41</v>
       </c>
       <c r="ER6">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="ES6">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="ET6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="EU6">
         <v>51</v>
       </c>
       <c r="EV6">
+        <v>13</v>
+      </c>
+      <c r="EW6">
+        <v>15</v>
+      </c>
+      <c r="EX6">
+        <v>29</v>
+      </c>
+      <c r="EY6">
+        <v>67</v>
+      </c>
+      <c r="EZ6">
+        <v>151</v>
+      </c>
+      <c r="FA6">
+        <v>126</v>
+      </c>
+      <c r="FB6">
+        <v>151</v>
+      </c>
+      <c r="FC6">
+        <v>201</v>
+      </c>
+      <c r="FD6">
+        <v>26</v>
+      </c>
+      <c r="FE6">
+        <v>29</v>
+      </c>
+      <c r="FF6">
+        <v>51</v>
+      </c>
+      <c r="FG6">
+        <v>126</v>
+      </c>
+      <c r="FH6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7">
+        <v>4.33</v>
+      </c>
+      <c r="I7">
+        <v>2.25</v>
+      </c>
+      <c r="J7">
+        <v>2.5</v>
+      </c>
+      <c r="K7">
+        <v>3.75</v>
+      </c>
+      <c r="L7">
+        <v>2.3</v>
+      </c>
+      <c r="M7">
+        <v>2.63</v>
+      </c>
+      <c r="N7">
+        <v>1.36</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>1.33</v>
+      </c>
+      <c r="Q7">
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <v>1.77</v>
+      </c>
+      <c r="S7">
+        <v>2.02</v>
+      </c>
+      <c r="T7">
+        <v>1.77</v>
+      </c>
+      <c r="U7">
+        <v>2.02</v>
+      </c>
+      <c r="V7">
+        <v>2.63</v>
+      </c>
+      <c r="W7">
+        <v>1.44</v>
+      </c>
+      <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.5</v>
+      </c>
+      <c r="Z7">
+        <v>5.15</v>
+      </c>
+      <c r="AA7">
+        <v>1.14</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>1.15</v>
+      </c>
+      <c r="AD7">
+        <v>7</v>
+      </c>
+      <c r="AE7">
+        <v>1.1</v>
+      </c>
+      <c r="AF7">
+        <v>6.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.11</v>
+      </c>
+      <c r="AH7">
+        <v>4.2</v>
+      </c>
+      <c r="AI7">
+        <v>3.4</v>
+      </c>
+      <c r="AJ7">
+        <v>1.8</v>
+      </c>
+      <c r="AK7">
+        <v>3.3</v>
+      </c>
+      <c r="AL7">
+        <v>3.3</v>
+      </c>
+      <c r="AM7">
+        <v>2.05</v>
+      </c>
+      <c r="AN7">
+        <v>1.95</v>
+      </c>
+      <c r="AO7">
+        <v>1.3</v>
+      </c>
+      <c r="AP7">
+        <v>1.22</v>
+      </c>
+      <c r="AQ7">
+        <v>1.73</v>
+      </c>
+      <c r="AR7">
+        <v>1.33</v>
+      </c>
+      <c r="AS7">
+        <v>1.33</v>
+      </c>
+      <c r="AT7">
+        <v>1.7</v>
+      </c>
+      <c r="AU7">
+        <v>2.05</v>
+      </c>
+      <c r="AV7">
+        <v>1.57</v>
+      </c>
+      <c r="AW7">
+        <v>2.25</v>
+      </c>
+      <c r="AX7">
+        <v>1.05</v>
+      </c>
+      <c r="AY7">
+        <v>11</v>
+      </c>
+      <c r="AZ7">
+        <v>1.04</v>
+      </c>
+      <c r="BA7">
+        <v>13</v>
+      </c>
+      <c r="BB7">
+        <v>1.02</v>
+      </c>
+      <c r="BC7">
+        <v>9</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE7">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF7">
+        <v>1.25</v>
+      </c>
+      <c r="BG7">
+        <v>3.75</v>
+      </c>
+      <c r="BH7">
+        <v>1.2</v>
+      </c>
+      <c r="BI7">
+        <v>4.33</v>
+      </c>
+      <c r="BJ7">
+        <v>1.36</v>
+      </c>
+      <c r="BK7">
+        <v>2.93</v>
+      </c>
+      <c r="BL7">
+        <v>1.35</v>
+      </c>
+      <c r="BM7">
+        <v>2.98</v>
+      </c>
+      <c r="BN7">
+        <v>1.82</v>
+      </c>
+      <c r="BO7">
+        <v>2.02</v>
+      </c>
+      <c r="BP7">
+        <v>1.7</v>
+      </c>
+      <c r="BQ7">
+        <v>2.1</v>
+      </c>
+      <c r="BR7">
+        <v>2.28</v>
+      </c>
+      <c r="BS7">
+        <v>1.57</v>
+      </c>
+      <c r="BT7">
+        <v>2.26</v>
+      </c>
+      <c r="BU7">
+        <v>1.58</v>
+      </c>
+      <c r="BV7">
+        <v>3</v>
+      </c>
+      <c r="BW7">
+        <v>1.36</v>
+      </c>
+      <c r="BX7">
+        <v>2.63</v>
+      </c>
+      <c r="BY7">
+        <v>1.44</v>
+      </c>
+      <c r="BZ7">
+        <v>4.5</v>
+      </c>
+      <c r="CA7">
+        <v>1.15</v>
+      </c>
+      <c r="CB7">
+        <v>4.4</v>
+      </c>
+      <c r="CC7">
+        <v>1.16</v>
+      </c>
+      <c r="CD7">
+        <v>6</v>
+      </c>
+      <c r="CE7">
+        <v>1.13</v>
+      </c>
+      <c r="CF7">
+        <v>5</v>
+      </c>
+      <c r="CG7">
+        <v>1.17</v>
+      </c>
+      <c r="CH7">
+        <v>9</v>
+      </c>
+      <c r="CI7">
+        <v>1.02</v>
+      </c>
+      <c r="CJ7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CK7">
+        <v>1.02</v>
+      </c>
+      <c r="CL7">
+        <v>13</v>
+      </c>
+      <c r="CM7">
+        <v>1.04</v>
+      </c>
+      <c r="CN7">
+        <v>10</v>
+      </c>
+      <c r="CO7">
+        <v>1.06</v>
+      </c>
+      <c r="CT7">
+        <v>26</v>
+      </c>
+      <c r="CU7">
+        <v>1.01</v>
+      </c>
+      <c r="CV7">
         <v>21</v>
       </c>
-      <c r="EW6">
+      <c r="CW7" t="s">
+        <v>202</v>
+      </c>
+      <c r="DB7">
+        <v>51</v>
+      </c>
+      <c r="DC7">
+        <v>51</v>
+      </c>
+      <c r="DD7">
+        <v>41</v>
+      </c>
+      <c r="DE7">
+        <v>41</v>
+      </c>
+      <c r="DJ7">
+        <v>3.1</v>
+      </c>
+      <c r="DK7">
+        <v>1.35</v>
+      </c>
+      <c r="DL7">
+        <v>3.55</v>
+      </c>
+      <c r="DM7">
+        <v>1.27</v>
+      </c>
+      <c r="DN7">
+        <v>2.3</v>
+      </c>
+      <c r="DO7">
+        <v>1.6</v>
+      </c>
+      <c r="DP7">
+        <v>5.5</v>
+      </c>
+      <c r="DQ7">
+        <v>1.15</v>
+      </c>
+      <c r="DR7">
+        <v>1.73</v>
+      </c>
+      <c r="DS7">
+        <v>2.08</v>
+      </c>
+      <c r="DT7">
+        <v>6.8</v>
+      </c>
+      <c r="DU7">
+        <v>1.1</v>
+      </c>
+      <c r="DV7">
+        <v>1.4</v>
+      </c>
+      <c r="DW7">
+        <v>2.85</v>
+      </c>
+      <c r="DX7">
+        <v>11.5</v>
+      </c>
+      <c r="DY7">
+        <v>1.01</v>
+      </c>
+      <c r="DZ7">
+        <v>1.23</v>
+      </c>
+      <c r="EA7">
+        <v>4</v>
+      </c>
+      <c r="ED7">
+        <v>1.12</v>
+      </c>
+      <c r="EE7">
+        <v>6.25</v>
+      </c>
+      <c r="EJ7">
+        <v>11</v>
+      </c>
+      <c r="EK7">
+        <v>8</v>
+      </c>
+      <c r="EL7">
+        <v>9</v>
+      </c>
+      <c r="EM7">
+        <v>15</v>
+      </c>
+      <c r="EN7">
+        <v>13</v>
+      </c>
+      <c r="EO7">
+        <v>6.5</v>
+      </c>
+      <c r="EP7">
+        <v>8.5</v>
+      </c>
+      <c r="EQ7">
+        <v>15</v>
+      </c>
+      <c r="ER7">
         <v>23</v>
       </c>
-      <c r="EX6">
+      <c r="ES7">
+        <v>15</v>
+      </c>
+      <c r="ET7">
+        <v>13</v>
+      </c>
+      <c r="EU7">
+        <v>23</v>
+      </c>
+      <c r="EV7">
         <v>41</v>
       </c>
-      <c r="EY6">
+      <c r="EW7">
+        <v>34</v>
+      </c>
+      <c r="EX7">
+        <v>34</v>
+      </c>
+      <c r="EY7">
+        <v>41</v>
+      </c>
+      <c r="EZ7">
+        <v>29</v>
+      </c>
+      <c r="FA7">
+        <v>29</v>
+      </c>
+      <c r="FB7">
+        <v>41</v>
+      </c>
+      <c r="FC7">
         <v>81</v>
       </c>
-      <c r="EZ6">
+      <c r="FD7">
         <v>101</v>
       </c>
-      <c r="FA6">
+      <c r="FE7">
+        <v>67</v>
+      </c>
+      <c r="FF7">
         <v>81</v>
       </c>
-      <c r="FB6">
+      <c r="FG7">
+        <v>101</v>
+      </c>
+      <c r="FH7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>2.88</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4.33</v>
+      </c>
+      <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
+        <v>2.5</v>
+      </c>
+      <c r="P8">
+        <v>1.5</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
+        <v>2.2</v>
+      </c>
+      <c r="S8">
+        <v>1.63</v>
+      </c>
+      <c r="T8">
+        <v>2.12</v>
+      </c>
+      <c r="U8">
+        <v>1.68</v>
+      </c>
+      <c r="V8">
+        <v>3.5</v>
+      </c>
+      <c r="W8">
+        <v>1.29</v>
+      </c>
+      <c r="X8">
+        <v>3.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.29</v>
+      </c>
+      <c r="Z8">
+        <v>7.8</v>
+      </c>
+      <c r="AA8">
+        <v>1.06</v>
+      </c>
+      <c r="AB8">
+        <v>6.5</v>
+      </c>
+      <c r="AC8">
+        <v>1.09</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>1.06</v>
+      </c>
+      <c r="AF8">
+        <v>11</v>
+      </c>
+      <c r="AG8">
+        <v>1.05</v>
+      </c>
+      <c r="AH8">
+        <v>2.1</v>
+      </c>
+      <c r="AI8">
+        <v>3.2</v>
+      </c>
+      <c r="AJ8">
+        <v>3.2</v>
+      </c>
+      <c r="AK8">
+        <v>2.05</v>
+      </c>
+      <c r="AL8">
+        <v>3.2</v>
+      </c>
+      <c r="AM8">
+        <v>3.4</v>
+      </c>
+      <c r="AN8">
+        <v>1.33</v>
+      </c>
+      <c r="AO8">
+        <v>1.33</v>
+      </c>
+      <c r="AP8">
+        <v>1.62</v>
+      </c>
+      <c r="AQ8">
+        <v>1.3</v>
+      </c>
+      <c r="AR8">
+        <v>1.36</v>
+      </c>
+      <c r="AS8">
+        <v>1.73</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8">
+        <v>1.75</v>
+      </c>
+      <c r="AV8">
+        <v>2.05</v>
+      </c>
+      <c r="AW8">
+        <v>1.7</v>
+      </c>
+      <c r="AX8">
+        <v>1.07</v>
+      </c>
+      <c r="AY8">
+        <v>9</v>
+      </c>
+      <c r="AZ8">
+        <v>1.08</v>
+      </c>
+      <c r="BA8">
+        <v>7.5</v>
+      </c>
+      <c r="BB8">
+        <v>1.09</v>
+      </c>
+      <c r="BC8">
+        <v>5.75</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE8">
+        <v>5.7</v>
+      </c>
+      <c r="BF8">
+        <v>1.4</v>
+      </c>
+      <c r="BG8">
+        <v>2.75</v>
+      </c>
+      <c r="BH8">
+        <v>1.44</v>
+      </c>
+      <c r="BI8">
+        <v>2.63</v>
+      </c>
+      <c r="BJ8">
+        <v>1.77</v>
+      </c>
+      <c r="BK8">
+        <v>2.1</v>
+      </c>
+      <c r="BL8">
+        <v>1.77</v>
+      </c>
+      <c r="BM8">
+        <v>2.1</v>
+      </c>
+      <c r="BN8">
+        <v>2.3</v>
+      </c>
+      <c r="BO8">
+        <v>1.6</v>
+      </c>
+      <c r="BP8">
+        <v>2.35</v>
+      </c>
+      <c r="BQ8">
+        <v>1.57</v>
+      </c>
+      <c r="BR8">
+        <v>3.54</v>
+      </c>
+      <c r="BS8">
+        <v>1.26</v>
+      </c>
+      <c r="BT8">
+        <v>3.62</v>
+      </c>
+      <c r="BU8">
+        <v>1.25</v>
+      </c>
+      <c r="BV8">
+        <v>4.33</v>
+      </c>
+      <c r="BW8">
+        <v>1.2</v>
+      </c>
+      <c r="BX8">
+        <v>4.5</v>
+      </c>
+      <c r="BY8">
+        <v>1.18</v>
+      </c>
+      <c r="BZ8">
+        <v>7.7</v>
+      </c>
+      <c r="CA8">
+        <v>1.04</v>
+      </c>
+      <c r="CB8">
+        <v>7.8</v>
+      </c>
+      <c r="CC8">
+        <v>1.04</v>
+      </c>
+      <c r="CD8">
+        <v>10</v>
+      </c>
+      <c r="CE8">
+        <v>1.06</v>
+      </c>
+      <c r="CF8">
+        <v>10</v>
+      </c>
+      <c r="CG8">
+        <v>1.06</v>
+      </c>
+      <c r="CL8">
+        <v>21</v>
+      </c>
+      <c r="CM8">
+        <v>1.02</v>
+      </c>
+      <c r="CN8">
+        <v>23</v>
+      </c>
+      <c r="CO8">
+        <v>1.01</v>
+      </c>
+      <c r="CT8">
+        <v>51</v>
+      </c>
+      <c r="CU8">
+        <v>51</v>
+      </c>
+      <c r="CV8">
+        <v>51</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>205</v>
+      </c>
+      <c r="DJ8">
+        <v>1.57</v>
+      </c>
+      <c r="DK8">
+        <v>2.35</v>
+      </c>
+      <c r="DL8">
+        <v>1.9</v>
+      </c>
+      <c r="DM8">
+        <v>1.95</v>
+      </c>
+      <c r="DN8">
+        <v>1.43</v>
+      </c>
+      <c r="DO8">
+        <v>2.75</v>
+      </c>
+      <c r="DP8">
+        <v>2.6</v>
+      </c>
+      <c r="DQ8">
+        <v>1.48</v>
+      </c>
+      <c r="DR8">
+        <v>1.23</v>
+      </c>
+      <c r="DS8">
+        <v>4.1</v>
+      </c>
+      <c r="DT8">
+        <v>3.9</v>
+      </c>
+      <c r="DU8">
+        <v>1.24</v>
+      </c>
+      <c r="DV8">
+        <v>1.1</v>
+      </c>
+      <c r="DW8">
+        <v>7</v>
+      </c>
+      <c r="DX8">
+        <v>5.9</v>
+      </c>
+      <c r="DY8">
+        <v>1.13</v>
+      </c>
+      <c r="DZ8">
+        <v>1.01</v>
+      </c>
+      <c r="EA8">
+        <v>11</v>
+      </c>
+      <c r="EB8">
+        <v>9.6</v>
+      </c>
+      <c r="EC8">
+        <v>1.03</v>
+      </c>
+      <c r="EJ8">
+        <v>8</v>
+      </c>
+      <c r="EK8">
+        <v>8.5</v>
+      </c>
+      <c r="EL8">
+        <v>15</v>
+      </c>
+      <c r="EM8">
+        <v>41</v>
+      </c>
+      <c r="EN8">
+        <v>6.5</v>
+      </c>
+      <c r="EO8">
+        <v>6.5</v>
+      </c>
+      <c r="EP8">
+        <v>12</v>
+      </c>
+      <c r="EQ8">
+        <v>29</v>
+      </c>
+      <c r="ER8">
+        <v>9.5</v>
+      </c>
+      <c r="ES8">
+        <v>9.5</v>
+      </c>
+      <c r="ET8">
+        <v>17</v>
+      </c>
+      <c r="EU8">
+        <v>41</v>
+      </c>
+      <c r="EV8">
+        <v>19</v>
+      </c>
+      <c r="EW8">
+        <v>21</v>
+      </c>
+      <c r="EX8">
+        <v>34</v>
+      </c>
+      <c r="EY8">
+        <v>67</v>
+      </c>
+      <c r="EZ8">
+        <v>81</v>
+      </c>
+      <c r="FA8">
+        <v>67</v>
+      </c>
+      <c r="FB8">
+        <v>101</v>
+      </c>
+      <c r="FC8">
+        <v>151</v>
+      </c>
+      <c r="FD8">
+        <v>41</v>
+      </c>
+      <c r="FE8">
+        <v>41</v>
+      </c>
+      <c r="FF8">
+        <v>67</v>
+      </c>
+      <c r="FG8">
+        <v>151</v>
+      </c>
+      <c r="FH8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9">
+        <v>1.33</v>
+      </c>
+      <c r="I9">
+        <v>3.75</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>1.36</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>1.17</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>1.17</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>1.26</v>
+      </c>
+      <c r="S9">
+        <v>3.64</v>
+      </c>
+      <c r="T9">
+        <v>1.32</v>
+      </c>
+      <c r="U9">
+        <v>3.11</v>
+      </c>
+      <c r="V9">
+        <v>1.8</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>1.85</v>
+      </c>
+      <c r="Y9">
+        <v>1.95</v>
+      </c>
+      <c r="Z9">
+        <v>2.55</v>
+      </c>
+      <c r="AA9">
+        <v>1.48</v>
+      </c>
+      <c r="AB9">
+        <v>3.1</v>
+      </c>
+      <c r="AC9">
+        <v>1.32</v>
+      </c>
+      <c r="AD9">
+        <v>3.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.29</v>
+      </c>
+      <c r="AF9">
+        <v>3.75</v>
+      </c>
+      <c r="AG9">
+        <v>1.25</v>
+      </c>
+      <c r="AH9">
+        <v>1.07</v>
+      </c>
+      <c r="AI9">
+        <v>10</v>
+      </c>
+      <c r="AJ9">
+        <v>29</v>
+      </c>
+      <c r="AK9">
+        <v>1.08</v>
+      </c>
+      <c r="AL9">
+        <v>9.5</v>
+      </c>
+      <c r="AM9">
+        <v>26</v>
+      </c>
+      <c r="AN9">
+        <v>1.01</v>
+      </c>
+      <c r="AO9">
+        <v>1.06</v>
+      </c>
+      <c r="AP9">
+        <v>9</v>
+      </c>
+      <c r="AQ9">
+        <v>1.01</v>
+      </c>
+      <c r="AR9">
+        <v>1.07</v>
+      </c>
+      <c r="AS9">
+        <v>8</v>
+      </c>
+      <c r="AT9">
+        <v>2.38</v>
+      </c>
+      <c r="AU9">
+        <v>1.53</v>
+      </c>
+      <c r="AV9">
+        <v>2.25</v>
+      </c>
+      <c r="AW9">
+        <v>1.57</v>
+      </c>
+      <c r="AX9">
+        <v>1.01</v>
+      </c>
+      <c r="AY9">
+        <v>26</v>
+      </c>
+      <c r="AZ9">
+        <v>1.01</v>
+      </c>
+      <c r="BA9">
+        <v>23</v>
+      </c>
+      <c r="BB9">
+        <v>1.02</v>
+      </c>
+      <c r="BC9">
+        <v>16</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE9">
+        <v>15</v>
+      </c>
+      <c r="BF9">
+        <v>1.07</v>
+      </c>
+      <c r="BG9">
+        <v>9</v>
+      </c>
+      <c r="BH9">
+        <v>1.08</v>
+      </c>
+      <c r="BI9">
+        <v>8</v>
+      </c>
+      <c r="BJ9">
+        <v>1.05</v>
+      </c>
+      <c r="BK9">
+        <v>7</v>
+      </c>
+      <c r="BL9">
+        <v>1.08</v>
+      </c>
+      <c r="BM9">
+        <v>5.95</v>
+      </c>
+      <c r="BN9">
+        <v>1.29</v>
+      </c>
+      <c r="BO9">
+        <v>3.6</v>
+      </c>
+      <c r="BP9">
+        <v>1.3</v>
+      </c>
+      <c r="BQ9">
+        <v>3.5</v>
+      </c>
+      <c r="BR9">
+        <v>1.33</v>
+      </c>
+      <c r="BS9">
+        <v>3.08</v>
+      </c>
+      <c r="BT9">
+        <v>1.42</v>
+      </c>
+      <c r="BU9">
+        <v>2.69</v>
+      </c>
+      <c r="BV9">
+        <v>1.67</v>
+      </c>
+      <c r="BW9">
+        <v>2.1</v>
+      </c>
+      <c r="BX9">
+        <v>1.73</v>
+      </c>
+      <c r="BY9">
+        <v>2</v>
+      </c>
+      <c r="BZ9">
+        <v>1.95</v>
+      </c>
+      <c r="CA9">
+        <v>1.78</v>
+      </c>
+      <c r="CB9">
+        <v>2.2</v>
+      </c>
+      <c r="CC9">
+        <v>1.61</v>
+      </c>
+      <c r="CD9">
+        <v>2.63</v>
+      </c>
+      <c r="CE9">
+        <v>1.44</v>
+      </c>
+      <c r="CF9">
+        <v>2.63</v>
+      </c>
+      <c r="CG9">
+        <v>1.44</v>
+      </c>
+      <c r="CH9">
+        <v>3.2</v>
+      </c>
+      <c r="CI9">
+        <v>1.28</v>
+      </c>
+      <c r="CJ9">
+        <v>3.74</v>
+      </c>
+      <c r="CK9">
+        <v>1.21</v>
+      </c>
+      <c r="CL9">
+        <v>4.33</v>
+      </c>
+      <c r="CM9">
+        <v>1.2</v>
+      </c>
+      <c r="CN9">
+        <v>4.5</v>
+      </c>
+      <c r="CO9">
+        <v>1.18</v>
+      </c>
+      <c r="CP9">
+        <v>5.8</v>
+      </c>
+      <c r="CQ9">
+        <v>1.09</v>
+      </c>
+      <c r="CR9">
+        <v>7.1</v>
+      </c>
+      <c r="CS9">
+        <v>1.05</v>
+      </c>
+      <c r="CT9">
+        <v>8</v>
+      </c>
+      <c r="CU9">
+        <v>1.08</v>
+      </c>
+      <c r="CV9">
+        <v>9</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>198</v>
+      </c>
+      <c r="DB9">
+        <v>15</v>
+      </c>
+      <c r="DC9">
+        <v>1.03</v>
+      </c>
+      <c r="DD9">
+        <v>17</v>
+      </c>
+      <c r="DE9">
+        <v>1.02</v>
+      </c>
+      <c r="DF9">
+        <v>29</v>
+      </c>
+      <c r="DG9">
+        <v>1.01</v>
+      </c>
+      <c r="DH9">
+        <v>29</v>
+      </c>
+      <c r="DI9">
+        <v>1.01</v>
+      </c>
+      <c r="DJ9">
+        <v>1.01</v>
+      </c>
+      <c r="DK9">
+        <v>17</v>
+      </c>
+      <c r="DL9">
+        <v>1.01</v>
+      </c>
+      <c r="DM9">
+        <v>11.5</v>
+      </c>
+      <c r="DP9">
+        <v>1.11</v>
+      </c>
+      <c r="DQ9">
+        <v>6.6</v>
+      </c>
+      <c r="DT9">
+        <v>1.18</v>
+      </c>
+      <c r="DU9">
+        <v>4.65</v>
+      </c>
+      <c r="DX9">
+        <v>1.3</v>
+      </c>
+      <c r="DY9">
+        <v>3.45</v>
+      </c>
+      <c r="EB9">
+        <v>1.52</v>
+      </c>
+      <c r="EC9">
+        <v>2.42</v>
+      </c>
+      <c r="EF9">
+        <v>1.82</v>
+      </c>
+      <c r="EG9">
+        <v>1.98</v>
+      </c>
+      <c r="EJ9">
+        <v>23</v>
+      </c>
+      <c r="EK9">
+        <v>51</v>
+      </c>
+      <c r="EL9">
         <v>126</v>
       </c>
-      <c r="FC6">
-        <v>251</v>
-      </c>
-      <c r="FD6">
+      <c r="EM9">
+        <v>451</v>
+      </c>
+      <c r="EN9">
+        <v>12</v>
+      </c>
+      <c r="EO9">
+        <v>21</v>
+      </c>
+      <c r="EP9">
+        <v>51</v>
+      </c>
+      <c r="EQ9">
+        <v>201</v>
+      </c>
+      <c r="ER9">
+        <v>7.5</v>
+      </c>
+      <c r="ES9">
+        <v>15</v>
+      </c>
+      <c r="ET9">
         <v>41</v>
       </c>
-      <c r="FE6">
+      <c r="EU9">
+        <v>126</v>
+      </c>
+      <c r="EV9">
+        <v>6.5</v>
+      </c>
+      <c r="EW9">
+        <v>12</v>
+      </c>
+      <c r="EX9">
+        <v>41</v>
+      </c>
+      <c r="EY9">
+        <v>101</v>
+      </c>
+      <c r="EZ9">
+        <v>201</v>
+      </c>
+      <c r="FA9">
+        <v>201</v>
+      </c>
+      <c r="FB9">
+        <v>201</v>
+      </c>
+      <c r="FC9">
+        <v>201</v>
+      </c>
+      <c r="FD9">
+        <v>7.5</v>
+      </c>
+      <c r="FE9">
+        <v>15</v>
+      </c>
+      <c r="FF9">
+        <v>41</v>
+      </c>
+      <c r="FG9">
+        <v>126</v>
+      </c>
+      <c r="FH9">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
+      <c r="A10" s="1">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1.95</v>
+      </c>
+      <c r="J10">
+        <v>4.33</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1.95</v>
+      </c>
+      <c r="M10">
+        <v>4.33</v>
+      </c>
+      <c r="N10">
+        <v>1.53</v>
+      </c>
+      <c r="O10">
+        <v>2.38</v>
+      </c>
+      <c r="P10">
+        <v>1.53</v>
+      </c>
+      <c r="Q10">
+        <v>2.38</v>
+      </c>
+      <c r="R10">
+        <v>2.3</v>
+      </c>
+      <c r="S10">
+        <v>1.58</v>
+      </c>
+      <c r="T10">
+        <v>2.26</v>
+      </c>
+      <c r="U10">
+        <v>1.59</v>
+      </c>
+      <c r="V10">
+        <v>3.75</v>
+      </c>
+      <c r="W10">
+        <v>1.25</v>
+      </c>
+      <c r="X10">
+        <v>3.75</v>
+      </c>
+      <c r="Y10">
+        <v>1.25</v>
+      </c>
+      <c r="Z10">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>1.06</v>
+      </c>
+      <c r="AB10">
+        <v>8.6</v>
+      </c>
+      <c r="AC10">
+        <v>1.05</v>
+      </c>
+      <c r="AD10">
+        <v>11</v>
+      </c>
+      <c r="AE10">
+        <v>1.05</v>
+      </c>
+      <c r="AF10">
+        <v>11</v>
+      </c>
+      <c r="AG10">
+        <v>1.05</v>
+      </c>
+      <c r="AH10">
+        <v>2.15</v>
+      </c>
+      <c r="AI10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ10">
+        <v>3.4</v>
+      </c>
+      <c r="AK10">
+        <v>2.15</v>
+      </c>
+      <c r="AL10">
+        <v>3.2</v>
+      </c>
+      <c r="AM10">
+        <v>3.5</v>
+      </c>
+      <c r="AN10">
+        <v>1.3</v>
+      </c>
+      <c r="AO10">
+        <v>1.36</v>
+      </c>
+      <c r="AP10">
+        <v>1.67</v>
+      </c>
+      <c r="AQ10">
+        <v>1.29</v>
+      </c>
+      <c r="AR10">
+        <v>1.36</v>
+      </c>
+      <c r="AS10">
+        <v>1.67</v>
+      </c>
+      <c r="AT10">
+        <v>2.1</v>
+      </c>
+      <c r="AU10">
+        <v>1.67</v>
+      </c>
+      <c r="AV10">
+        <v>2.05</v>
+      </c>
+      <c r="AW10">
+        <v>1.7</v>
+      </c>
+      <c r="AX10">
+        <v>1.08</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>1.1</v>
+      </c>
+      <c r="BA10">
+        <v>7</v>
+      </c>
+      <c r="BB10">
+        <v>1.1</v>
+      </c>
+      <c r="BC10">
+        <v>5.45</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE10">
+        <v>5.4</v>
+      </c>
+      <c r="BF10">
+        <v>1.44</v>
+      </c>
+      <c r="BG10">
+        <v>2.63</v>
+      </c>
+      <c r="BH10">
+        <v>1.44</v>
+      </c>
+      <c r="BI10">
+        <v>2.63</v>
+      </c>
+      <c r="BJ10">
+        <v>1.85</v>
+      </c>
+      <c r="BK10">
+        <v>2</v>
+      </c>
+      <c r="BL10">
+        <v>1.85</v>
+      </c>
+      <c r="BM10">
+        <v>2</v>
+      </c>
+      <c r="BN10">
+        <v>2.4</v>
+      </c>
+      <c r="BO10">
+        <v>1.53</v>
+      </c>
+      <c r="BP10">
+        <v>2.4</v>
+      </c>
+      <c r="BQ10">
+        <v>1.53</v>
+      </c>
+      <c r="BR10">
+        <v>3.8</v>
+      </c>
+      <c r="BS10">
+        <v>1.23</v>
+      </c>
+      <c r="BT10">
+        <v>3.9</v>
+      </c>
+      <c r="BU10">
+        <v>1.23</v>
+      </c>
+      <c r="BV10">
+        <v>5</v>
+      </c>
+      <c r="BW10">
+        <v>1.17</v>
+      </c>
+      <c r="BX10">
+        <v>5</v>
+      </c>
+      <c r="BY10">
+        <v>1.17</v>
+      </c>
+      <c r="BZ10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="CA10">
+        <v>1.03</v>
+      </c>
+      <c r="CB10">
+        <v>8.5</v>
+      </c>
+      <c r="CC10">
+        <v>1.05</v>
+      </c>
+      <c r="CD10">
+        <v>11</v>
+      </c>
+      <c r="CE10">
+        <v>1.05</v>
+      </c>
+      <c r="CF10">
+        <v>11</v>
+      </c>
+      <c r="CG10">
+        <v>1.05</v>
+      </c>
+      <c r="CL10">
+        <v>23</v>
+      </c>
+      <c r="CM10">
+        <v>1.01</v>
+      </c>
+      <c r="CN10">
+        <v>23</v>
+      </c>
+      <c r="CO10">
+        <v>1.01</v>
+      </c>
+      <c r="CT10">
         <v>51</v>
       </c>
-      <c r="FF6">
+      <c r="CU10">
+        <v>51</v>
+      </c>
+      <c r="CV10">
+        <v>51</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DJ10">
+        <v>1.55</v>
+      </c>
+      <c r="DK10">
+        <v>2.38</v>
+      </c>
+      <c r="DL10">
+        <v>1.9</v>
+      </c>
+      <c r="DM10">
+        <v>1.95</v>
+      </c>
+      <c r="DN10">
+        <v>1.43</v>
+      </c>
+      <c r="DO10">
+        <v>2.75</v>
+      </c>
+      <c r="DP10">
+        <v>2.6</v>
+      </c>
+      <c r="DQ10">
+        <v>1.48</v>
+      </c>
+      <c r="DR10">
+        <v>1.21</v>
+      </c>
+      <c r="DS10">
+        <v>4.25</v>
+      </c>
+      <c r="DT10">
+        <v>4</v>
+      </c>
+      <c r="DU10">
+        <v>1.23</v>
+      </c>
+      <c r="DV10">
+        <v>1.06</v>
+      </c>
+      <c r="DW10">
+        <v>7.6</v>
+      </c>
+      <c r="DX10">
+        <v>6</v>
+      </c>
+      <c r="DY10">
+        <v>1.13</v>
+      </c>
+      <c r="DZ10">
+        <v>1.01</v>
+      </c>
+      <c r="EA10">
+        <v>11.5</v>
+      </c>
+      <c r="EB10">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="EC10">
+        <v>1.03</v>
+      </c>
+      <c r="EJ10">
+        <v>7</v>
+      </c>
+      <c r="EK10">
+        <v>7.5</v>
+      </c>
+      <c r="EL10">
+        <v>15</v>
+      </c>
+      <c r="EM10">
+        <v>41</v>
+      </c>
+      <c r="EN10">
+        <v>6</v>
+      </c>
+      <c r="EO10">
+        <v>6.5</v>
+      </c>
+      <c r="EP10">
+        <v>13</v>
+      </c>
+      <c r="EQ10">
+        <v>34</v>
+      </c>
+      <c r="ER10">
+        <v>9.5</v>
+      </c>
+      <c r="ES10">
+        <v>10</v>
+      </c>
+      <c r="ET10">
+        <v>19</v>
+      </c>
+      <c r="EU10">
+        <v>41</v>
+      </c>
+      <c r="EV10">
+        <v>21</v>
+      </c>
+      <c r="EW10">
+        <v>21</v>
+      </c>
+      <c r="EX10">
+        <v>41</v>
+      </c>
+      <c r="EY10">
+        <v>67</v>
+      </c>
+      <c r="EZ10">
         <v>81</v>
       </c>
-      <c r="FG6">
+      <c r="FA10">
+        <v>81</v>
+      </c>
+      <c r="FB10">
+        <v>101</v>
+      </c>
+      <c r="FC10">
         <v>201</v>
       </c>
-      <c r="FH6">
+      <c r="FD10">
+        <v>41</v>
+      </c>
+      <c r="FE10">
+        <v>51</v>
+      </c>
+      <c r="FF10">
+        <v>67</v>
+      </c>
+      <c r="FG10">
+        <v>151</v>
+      </c>
+      <c r="FH10">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
+      <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11">
+        <v>2.93</v>
+      </c>
+      <c r="I11">
+        <v>2.04</v>
+      </c>
+      <c r="J11">
+        <v>3.94</v>
+      </c>
+      <c r="K11">
+        <v>3.2</v>
+      </c>
+      <c r="L11">
+        <v>1.95</v>
+      </c>
+      <c r="M11">
+        <v>3.4</v>
+      </c>
+      <c r="N11">
+        <v>1.46</v>
+      </c>
+      <c r="O11">
+        <v>2.61</v>
+      </c>
+      <c r="P11">
+        <v>1.44</v>
+      </c>
+      <c r="Q11">
+        <v>2.62</v>
+      </c>
+      <c r="R11">
+        <v>2.06</v>
+      </c>
+      <c r="S11">
+        <v>1.72</v>
+      </c>
+      <c r="T11">
+        <v>2.55</v>
+      </c>
+      <c r="U11">
+        <v>1.48</v>
+      </c>
+      <c r="V11">
+        <v>3.14</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>3.24</v>
+      </c>
+      <c r="Y11">
+        <v>1.29</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>1.08</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>1.06</v>
+      </c>
+      <c r="AD11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>1.06</v>
+      </c>
+      <c r="AF11">
+        <v>9.5</v>
+      </c>
+      <c r="AG11">
+        <v>1.04</v>
+      </c>
+      <c r="AH11">
+        <v>2.3</v>
+      </c>
+      <c r="AI11">
+        <v>3.3</v>
+      </c>
+      <c r="AJ11">
+        <v>3.15</v>
+      </c>
+      <c r="AK11">
+        <v>2.63</v>
+      </c>
+      <c r="AL11">
+        <v>2.9</v>
+      </c>
+      <c r="AM11">
+        <v>2.8</v>
+      </c>
+      <c r="AN11">
+        <v>1.36</v>
+      </c>
+      <c r="AO11">
+        <v>1.33</v>
+      </c>
+      <c r="AP11">
+        <v>1.62</v>
+      </c>
+      <c r="AQ11">
+        <v>1.4</v>
+      </c>
+      <c r="AR11">
+        <v>1.36</v>
+      </c>
+      <c r="AS11">
+        <v>1.45</v>
+      </c>
+      <c r="AT11">
+        <v>1.88</v>
+      </c>
+      <c r="AU11">
+        <v>1.88</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>1.77</v>
+      </c>
+      <c r="AX11">
+        <v>1.04</v>
+      </c>
+      <c r="AY11">
+        <v>7.8</v>
+      </c>
+      <c r="AZ11">
+        <v>1.1</v>
+      </c>
+      <c r="BA11">
+        <v>6.5</v>
+      </c>
+      <c r="BB11">
+        <v>1.06</v>
+      </c>
+      <c r="BC11">
+        <v>6.5</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE11">
+        <v>5.5</v>
+      </c>
+      <c r="BF11">
+        <v>1.35</v>
+      </c>
+      <c r="BG11">
+        <v>2.88</v>
+      </c>
+      <c r="BH11">
+        <v>1.45</v>
+      </c>
+      <c r="BI11">
+        <v>2.63</v>
+      </c>
+      <c r="BJ11">
+        <v>1.6</v>
+      </c>
+      <c r="BK11">
+        <v>2.22</v>
+      </c>
+      <c r="BL11">
+        <v>1.77</v>
+      </c>
+      <c r="BM11">
+        <v>2.02</v>
+      </c>
+      <c r="BN11">
+        <v>2.18</v>
+      </c>
+      <c r="BO11">
+        <v>1.7</v>
+      </c>
+      <c r="BP11">
+        <v>2.38</v>
+      </c>
+      <c r="BQ11">
+        <v>1.53</v>
+      </c>
+      <c r="BR11">
+        <v>3.08</v>
+      </c>
+      <c r="BS11">
+        <v>1.33</v>
+      </c>
+      <c r="BT11">
+        <v>3.7</v>
+      </c>
+      <c r="BU11">
+        <v>1.25</v>
+      </c>
+      <c r="BV11">
+        <v>3.72</v>
+      </c>
+      <c r="BW11">
+        <v>1.22</v>
+      </c>
+      <c r="BX11">
+        <v>4.32</v>
+      </c>
+      <c r="BY11">
+        <v>1.2</v>
+      </c>
+      <c r="BZ11">
+        <v>6.6</v>
+      </c>
+      <c r="CA11">
+        <v>1.06</v>
+      </c>
+      <c r="CB11">
+        <v>7.6</v>
+      </c>
+      <c r="CC11">
+        <v>1.07</v>
+      </c>
+      <c r="CD11">
+        <v>7.3</v>
+      </c>
+      <c r="CE11">
+        <v>1.05</v>
+      </c>
+      <c r="CF11">
+        <v>8</v>
+      </c>
+      <c r="CG11">
+        <v>1.06</v>
+      </c>
+      <c r="CL11">
+        <v>13</v>
+      </c>
+      <c r="CM11">
+        <v>1.02</v>
+      </c>
+      <c r="CN11">
+        <v>15</v>
+      </c>
+      <c r="CO11">
+        <v>1.02</v>
+      </c>
+      <c r="CT11">
+        <v>17</v>
+      </c>
+      <c r="CU11">
+        <v>1.01</v>
+      </c>
+      <c r="CV11">
+        <v>17</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>204</v>
+      </c>
+      <c r="DJ11">
+        <v>1.65</v>
+      </c>
+      <c r="DK11">
+        <v>2.26</v>
+      </c>
+      <c r="DL11">
+        <v>1.95</v>
+      </c>
+      <c r="DM11">
+        <v>1.87</v>
+      </c>
+      <c r="DN11">
+        <v>1.44</v>
+      </c>
+      <c r="DO11">
+        <v>2.61</v>
+      </c>
+      <c r="DP11">
+        <v>2.62</v>
+      </c>
+      <c r="DQ11">
+        <v>1.44</v>
+      </c>
+      <c r="DR11">
+        <v>1.23</v>
+      </c>
+      <c r="DS11">
+        <v>3.8</v>
+      </c>
+      <c r="DT11">
+        <v>4.02</v>
+      </c>
+      <c r="DU11">
+        <v>1.21</v>
+      </c>
+      <c r="DV11">
+        <v>1.09</v>
+      </c>
+      <c r="DW11">
+        <v>6.45</v>
+      </c>
+      <c r="DX11">
+        <v>6.05</v>
+      </c>
+      <c r="DY11">
+        <v>1.1</v>
+      </c>
+      <c r="DZ11">
+        <v>1.02</v>
+      </c>
+      <c r="EA11">
+        <v>10</v>
+      </c>
+      <c r="EJ11">
+        <v>8</v>
+      </c>
+      <c r="EK11">
+        <v>8.5</v>
+      </c>
+      <c r="EL11">
+        <v>14</v>
+      </c>
+      <c r="EM11">
+        <v>31</v>
+      </c>
+      <c r="EN11">
+        <v>7.5</v>
+      </c>
+      <c r="EO11">
+        <v>6</v>
+      </c>
+      <c r="EP11">
+        <v>10</v>
+      </c>
+      <c r="EQ11">
+        <v>23</v>
+      </c>
+      <c r="ER11">
+        <v>11</v>
+      </c>
+      <c r="ES11">
+        <v>9</v>
+      </c>
+      <c r="ET11">
+        <v>14</v>
+      </c>
+      <c r="EU11">
+        <v>36</v>
+      </c>
+      <c r="EV11">
+        <v>23</v>
+      </c>
+      <c r="EW11">
+        <v>21</v>
+      </c>
+      <c r="EX11">
+        <v>31</v>
+      </c>
+      <c r="EY11">
+        <v>76</v>
+      </c>
+      <c r="EZ11">
+        <v>101</v>
+      </c>
+      <c r="FA11">
+        <v>81</v>
+      </c>
+      <c r="FB11">
+        <v>101</v>
+      </c>
+      <c r="FC11">
+        <v>201</v>
+      </c>
+      <c r="FD11">
+        <v>61</v>
+      </c>
+      <c r="FE11">
+        <v>61</v>
+      </c>
+      <c r="FF11">
+        <v>91</v>
+      </c>
+      <c r="FG11">
+        <v>201</v>
+      </c>
+      <c r="FH11">
         <v>201</v>
       </c>
     </row>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -505,52 +505,40 @@
     <t>FT_Odd_CS_4x4</t>
   </si>
   <si>
-    <t>12/06/2023</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>19:15</t>
-  </si>
-  <si>
-    <t>21:45</t>
+    <t>13/06/2023</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
   </si>
   <si>
     <t>ARGENTINA - LIGA PROFESIONAL</t>
   </si>
   <si>
-    <t>Newells Old Boys</t>
-  </si>
-  <si>
-    <t>San Lorenzo</t>
-  </si>
-  <si>
-    <t>Banfield</t>
-  </si>
-  <si>
-    <t>Instituto</t>
-  </si>
-  <si>
-    <t>Velez Sarsfield</t>
-  </si>
-  <si>
-    <t>Union de Santa Fe</t>
-  </si>
-  <si>
-    <t>Central Cordoba</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Argentinos Jrs</t>
+    <t>Colon Santa Fe</t>
+  </si>
+  <si>
+    <t>Defensa y Justicia</t>
+  </si>
+  <si>
+    <t>Atl. Tucuman</t>
+  </si>
+  <si>
+    <t>Gimnasia L.P.</t>
+  </si>
+  <si>
+    <t>Estudiantes L.P.</t>
+  </si>
+  <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Huracan</t>
   </si>
   <si>
     <t>ROUND 20</t>
@@ -911,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH6"/>
+  <dimension ref="A1:FH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1410,7 +1398,7 @@
     </row>
     <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>163</v>
@@ -1419,64 +1407,64 @@
         <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H2">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="I2">
         <v>1.91</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K2">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P2">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q2">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R2">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="S2">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="T2">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="U2">
         <v>1.53</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W2">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
         <v>3.75</v>
@@ -1485,13 +1473,13 @@
         <v>1.25</v>
       </c>
       <c r="Z2">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AB2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC2">
         <v>1.05</v>
@@ -1509,46 +1497,46 @@
         <v>1.05</v>
       </c>
       <c r="AH2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AI2">
         <v>3.1</v>
       </c>
       <c r="AJ2">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK2">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="AL2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AM2">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="AN2">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="AO2">
         <v>1.36</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
+        <v>1.36</v>
+      </c>
+      <c r="AS2">
         <v>1.33</v>
       </c>
-      <c r="AS2">
-        <v>1.73</v>
-      </c>
       <c r="AT2">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU2">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AV2">
         <v>2.1</v>
@@ -1557,46 +1545,46 @@
         <v>1.67</v>
       </c>
       <c r="AX2">
+        <v>1.1</v>
+      </c>
+      <c r="AY2">
+        <v>7</v>
+      </c>
+      <c r="AZ2">
         <v>1.11</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>6.5</v>
       </c>
-      <c r="AZ2">
-        <v>1.08</v>
-      </c>
-      <c r="BA2">
-        <v>7.5</v>
-      </c>
       <c r="BB2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BC2">
-        <v>4.65</v>
+        <v>5.35</v>
       </c>
       <c r="BD2">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="BE2">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="BF2">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BG2">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="BH2">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BI2">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="BJ2">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BK2">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BL2">
         <v>1.93</v>
@@ -1605,34 +1593,34 @@
         <v>1.93</v>
       </c>
       <c r="BN2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BO2">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BP2">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BQ2">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BR2">
-        <v>4.55</v>
+        <v>3.92</v>
       </c>
       <c r="BS2">
+        <v>1.19</v>
+      </c>
+      <c r="BT2">
+        <v>4.2</v>
+      </c>
+      <c r="BU2">
+        <v>1.2</v>
+      </c>
+      <c r="BV2">
+        <v>5</v>
+      </c>
+      <c r="BW2">
         <v>1.17</v>
-      </c>
-      <c r="BT2">
-        <v>4</v>
-      </c>
-      <c r="BU2">
-        <v>1.21</v>
-      </c>
-      <c r="BV2">
-        <v>5.5</v>
-      </c>
-      <c r="BW2">
-        <v>1.14</v>
       </c>
       <c r="BX2">
         <v>5</v>
@@ -1641,22 +1629,22 @@
         <v>1.17</v>
       </c>
       <c r="BZ2">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="CA2">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CB2">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="CC2">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="CD2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CE2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="CF2">
         <v>11</v>
@@ -1665,13 +1653,13 @@
         <v>1.05</v>
       </c>
       <c r="CL2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CM2">
         <v>1.01</v>
       </c>
       <c r="CN2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CO2">
         <v>1.01</v>
@@ -1680,7 +1668,7 @@
         <v>51</v>
       </c>
       <c r="CU2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CV2">
         <v>51</v>
@@ -1689,420 +1677,432 @@
         <v>51</v>
       </c>
       <c r="DJ2">
+        <v>2.38</v>
+      </c>
+      <c r="DK2">
+        <v>1.55</v>
+      </c>
+      <c r="DL2">
+        <v>2.85</v>
+      </c>
+      <c r="DM2">
         <v>1.4</v>
       </c>
-      <c r="DK2">
-        <v>2.85</v>
-      </c>
-      <c r="DL2">
-        <v>1.7</v>
-      </c>
-      <c r="DM2">
-        <v>2.1</v>
-      </c>
       <c r="DN2">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="DO2">
-        <v>3.45</v>
+        <v>1.9</v>
       </c>
       <c r="DP2">
-        <v>2.35</v>
+        <v>4.4</v>
       </c>
       <c r="DQ2">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="DR2">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="DS2">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="DT2">
-        <v>3.55</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="DU2">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="DV2">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="DW2">
-        <v>9.35</v>
+        <v>4.1</v>
       </c>
       <c r="DX2">
-        <v>5.5</v>
+        <v>11.6</v>
       </c>
       <c r="DY2">
-        <v>1.15</v>
-      </c>
-      <c r="EB2">
-        <v>8.4</v>
-      </c>
-      <c r="EC2">
-        <v>1.03</v>
+        <v>1.01</v>
+      </c>
+      <c r="DZ2">
+        <v>1.12</v>
+      </c>
+      <c r="EA2">
+        <v>6.25</v>
       </c>
       <c r="EJ2">
+        <v>6.5</v>
+      </c>
+      <c r="EK2">
         <v>6</v>
       </c>
-      <c r="EK2">
+      <c r="EL2">
+        <v>9.5</v>
+      </c>
+      <c r="EM2">
+        <v>21</v>
+      </c>
+      <c r="EN2">
         <v>8</v>
       </c>
-      <c r="EL2">
+      <c r="EO2">
+        <v>6</v>
+      </c>
+      <c r="EP2">
+        <v>10</v>
+      </c>
+      <c r="EQ2">
+        <v>21</v>
+      </c>
+      <c r="ER2">
+        <v>15</v>
+      </c>
+      <c r="ES2">
+        <v>13</v>
+      </c>
+      <c r="ET2">
         <v>19</v>
       </c>
-      <c r="EM2">
-        <v>51</v>
-      </c>
-      <c r="EN2">
-        <v>5</v>
-      </c>
-      <c r="EO2">
-        <v>6.5</v>
-      </c>
-      <c r="EP2">
-        <v>15</v>
-      </c>
-      <c r="EQ2">
+      <c r="EU2">
         <v>41</v>
       </c>
-      <c r="ER2">
-        <v>8</v>
-      </c>
-      <c r="ES2">
-        <v>10</v>
-      </c>
-      <c r="ET2">
-        <v>21</v>
-      </c>
-      <c r="EU2">
-        <v>51</v>
-      </c>
       <c r="EV2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="EW2">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="EX2">
         <v>41</v>
       </c>
       <c r="EY2">
+        <v>67</v>
+      </c>
+      <c r="EZ2">
+        <v>51</v>
+      </c>
+      <c r="FA2">
+        <v>51</v>
+      </c>
+      <c r="FB2">
         <v>81</v>
       </c>
-      <c r="EZ2">
-        <v>126</v>
-      </c>
-      <c r="FA2">
-        <v>126</v>
-      </c>
-      <c r="FB2">
+      <c r="FC2">
         <v>151</v>
       </c>
-      <c r="FC2">
-        <v>351</v>
-      </c>
       <c r="FD2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="FE2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="FF2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="FG2">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="FH2">
-        <v>201</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
         <v>168</v>
       </c>
-      <c r="E3" t="s">
-        <v>170</v>
-      </c>
       <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
         <v>175</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
       </c>
       <c r="H3">
         <v>2.63</v>
       </c>
       <c r="I3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O3">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="P3">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Q3">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R3">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="S3">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="T3">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U3">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W3">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="X3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Y3">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Z3">
-        <v>9.4</v>
+        <v>8.1</v>
       </c>
       <c r="AA3">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AB3">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AC3">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AF3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AH3">
         <v>1.91</v>
       </c>
       <c r="AI3">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AJ3">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AK3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AL3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AM3">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AN3">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AO3">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AP3">
         <v>1.83</v>
       </c>
       <c r="AQ3">
+        <v>1.22</v>
+      </c>
+      <c r="AR3">
+        <v>1.33</v>
+      </c>
+      <c r="AS3">
+        <v>1.91</v>
+      </c>
+      <c r="AT3">
+        <v>2.1</v>
+      </c>
+      <c r="AU3">
+        <v>1.67</v>
+      </c>
+      <c r="AV3">
+        <v>2.1</v>
+      </c>
+      <c r="AW3">
+        <v>1.67</v>
+      </c>
+      <c r="AX3">
+        <v>1.08</v>
+      </c>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+      <c r="AZ3">
+        <v>1.08</v>
+      </c>
+      <c r="BA3">
+        <v>7.5</v>
+      </c>
+      <c r="BB3">
+        <v>1.1</v>
+      </c>
+      <c r="BC3">
+        <v>5.55</v>
+      </c>
+      <c r="BD3">
+        <v>1.09</v>
+      </c>
+      <c r="BE3">
+        <v>6.5</v>
+      </c>
+      <c r="BF3">
+        <v>1.44</v>
+      </c>
+      <c r="BG3">
+        <v>2.63</v>
+      </c>
+      <c r="BH3">
+        <v>1.4</v>
+      </c>
+      <c r="BI3">
+        <v>2.75</v>
+      </c>
+      <c r="BJ3">
+        <v>1.8</v>
+      </c>
+      <c r="BK3">
+        <v>2.05</v>
+      </c>
+      <c r="BL3">
+        <v>1.77</v>
+      </c>
+      <c r="BM3">
+        <v>2.1</v>
+      </c>
+      <c r="BN3">
+        <v>2.35</v>
+      </c>
+      <c r="BO3">
+        <v>1.57</v>
+      </c>
+      <c r="BP3">
+        <v>2.35</v>
+      </c>
+      <c r="BQ3">
+        <v>1.57</v>
+      </c>
+      <c r="BR3">
+        <v>3.7</v>
+      </c>
+      <c r="BS3">
+        <v>1.24</v>
+      </c>
+      <c r="BT3">
+        <v>3.3</v>
+      </c>
+      <c r="BU3">
+        <v>1.31</v>
+      </c>
+      <c r="BV3">
+        <v>4.5</v>
+      </c>
+      <c r="BW3">
         <v>1.18</v>
       </c>
-      <c r="AR3">
-        <v>1.36</v>
-      </c>
-      <c r="AS3">
-        <v>1.95</v>
-      </c>
-      <c r="AT3">
-        <v>2.5</v>
-      </c>
-      <c r="AU3">
-        <v>1.5</v>
-      </c>
-      <c r="AV3">
-        <v>2.5</v>
-      </c>
-      <c r="AW3">
-        <v>1.5</v>
-      </c>
-      <c r="AX3">
-        <v>1.13</v>
-      </c>
-      <c r="AY3">
-        <v>6</v>
-      </c>
-      <c r="AZ3">
-        <v>1.13</v>
-      </c>
-      <c r="BA3">
-        <v>6</v>
-      </c>
-      <c r="BB3">
-        <v>1.15</v>
-      </c>
-      <c r="BC3">
-        <v>4.85</v>
-      </c>
-      <c r="BD3">
-        <v>1.11</v>
-      </c>
-      <c r="BE3">
-        <v>5.9</v>
-      </c>
-      <c r="BF3">
-        <v>1.57</v>
-      </c>
-      <c r="BG3">
-        <v>2.25</v>
-      </c>
-      <c r="BH3">
-        <v>1.57</v>
-      </c>
-      <c r="BI3">
-        <v>2.25</v>
-      </c>
-      <c r="BJ3">
-        <v>2.1</v>
-      </c>
-      <c r="BK3">
-        <v>1.77</v>
-      </c>
-      <c r="BL3">
-        <v>2.05</v>
-      </c>
-      <c r="BM3">
-        <v>1.8</v>
-      </c>
-      <c r="BN3">
-        <v>2.88</v>
-      </c>
-      <c r="BO3">
-        <v>1.4</v>
-      </c>
-      <c r="BP3">
-        <v>2.88</v>
-      </c>
-      <c r="BQ3">
-        <v>1.4</v>
-      </c>
-      <c r="BR3">
-        <v>4.35</v>
-      </c>
-      <c r="BS3">
-        <v>1.16</v>
-      </c>
-      <c r="BT3">
-        <v>3.5</v>
-      </c>
-      <c r="BU3">
-        <v>1.28</v>
-      </c>
-      <c r="BV3">
-        <v>6</v>
-      </c>
-      <c r="BW3">
-        <v>1.13</v>
-      </c>
       <c r="BX3">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="BY3">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="BZ3">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="CA3">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="CB3">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="CC3">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="CD3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="CE3">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="CF3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="CG3">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="CL3">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="CM3">
         <v>1.01</v>
       </c>
       <c r="CN3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="CO3">
-        <v>1.01</v>
+        <v>1.02</v>
+      </c>
+      <c r="CT3">
+        <v>51</v>
+      </c>
+      <c r="CU3">
+        <v>50</v>
+      </c>
+      <c r="CV3">
+        <v>51</v>
+      </c>
+      <c r="CW3">
+        <v>51</v>
       </c>
       <c r="DJ3">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="DK3">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="DL3">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="DM3">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="DN3">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="DO3">
-        <v>4.15</v>
+        <v>3.55</v>
       </c>
       <c r="DP3">
         <v>2.15</v>
@@ -2111,94 +2111,94 @@
         <v>1.68</v>
       </c>
       <c r="DR3">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="DS3">
-        <v>6.8</v>
+        <v>5.75</v>
       </c>
       <c r="DT3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="DU3">
-        <v>1.32</v>
+        <v>1.35</v>
+      </c>
+      <c r="DV3">
+        <v>1.02</v>
+      </c>
+      <c r="DW3">
+        <v>10.4</v>
       </c>
       <c r="DX3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="DY3">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="EB3">
-        <v>8.15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="EC3">
         <v>1.05</v>
       </c>
-      <c r="EF3">
-        <v>11.5</v>
-      </c>
-      <c r="EG3">
-        <v>1.01</v>
-      </c>
       <c r="EJ3">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="EK3">
         <v>9.5</v>
       </c>
       <c r="EL3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="EM3">
         <v>51</v>
       </c>
       <c r="EN3">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="EO3">
         <v>6.5</v>
       </c>
       <c r="EP3">
+        <v>15</v>
+      </c>
+      <c r="EQ3">
+        <v>41</v>
+      </c>
+      <c r="ER3">
+        <v>8</v>
+      </c>
+      <c r="ES3">
+        <v>9</v>
+      </c>
+      <c r="ET3">
         <v>19</v>
       </c>
-      <c r="EQ3">
+      <c r="EU3">
         <v>51</v>
-      </c>
-      <c r="ER3">
-        <v>7</v>
-      </c>
-      <c r="ES3">
-        <v>10</v>
-      </c>
-      <c r="ET3">
-        <v>23</v>
-      </c>
-      <c r="EU3">
-        <v>67</v>
       </c>
       <c r="EV3">
         <v>15</v>
       </c>
       <c r="EW3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="EX3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="EY3">
+        <v>67</v>
+      </c>
+      <c r="EZ3">
+        <v>126</v>
+      </c>
+      <c r="FA3">
         <v>101</v>
       </c>
-      <c r="EZ3">
-        <v>201</v>
-      </c>
-      <c r="FA3">
-        <v>151</v>
-      </c>
       <c r="FB3">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="FC3">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="FD3">
         <v>34</v>
@@ -2207,13 +2207,13 @@
         <v>41</v>
       </c>
       <c r="FF3">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="FG3">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="FH3">
-        <v>201</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:164">
@@ -2224,133 +2224,133 @@
         <v>163</v>
       </c>
       <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L4">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>1.5</v>
+      </c>
+      <c r="O4">
         <v>2.5</v>
       </c>
-      <c r="N4">
+      <c r="P4">
+        <v>1.53</v>
+      </c>
+      <c r="Q4">
+        <v>2.38</v>
+      </c>
+      <c r="R4">
+        <v>2.2</v>
+      </c>
+      <c r="S4">
+        <v>1.63</v>
+      </c>
+      <c r="T4">
+        <v>2.26</v>
+      </c>
+      <c r="U4">
+        <v>1.59</v>
+      </c>
+      <c r="V4">
+        <v>3.5</v>
+      </c>
+      <c r="W4">
+        <v>1.29</v>
+      </c>
+      <c r="X4">
+        <v>3.75</v>
+      </c>
+      <c r="Y4">
+        <v>1.25</v>
+      </c>
+      <c r="Z4">
+        <v>7.8</v>
+      </c>
+      <c r="AA4">
+        <v>1.06</v>
+      </c>
+      <c r="AB4">
+        <v>8.4</v>
+      </c>
+      <c r="AC4">
+        <v>1.06</v>
+      </c>
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
+        <v>1.06</v>
+      </c>
+      <c r="AF4">
+        <v>11</v>
+      </c>
+      <c r="AG4">
+        <v>1.05</v>
+      </c>
+      <c r="AH4">
+        <v>2.7</v>
+      </c>
+      <c r="AI4">
+        <v>3.1</v>
+      </c>
+      <c r="AJ4">
+        <v>2.8</v>
+      </c>
+      <c r="AK4">
+        <v>2.3</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <v>3.2</v>
+      </c>
+      <c r="AN4">
+        <v>1.4</v>
+      </c>
+      <c r="AO4">
+        <v>1.36</v>
+      </c>
+      <c r="AP4">
         <v>1.44</v>
       </c>
-      <c r="O4">
-        <v>2.63</v>
-      </c>
-      <c r="P4">
-        <v>1.44</v>
-      </c>
-      <c r="Q4">
-        <v>2.63</v>
-      </c>
-      <c r="R4">
-        <v>2.05</v>
-      </c>
-      <c r="S4">
-        <v>1.75</v>
-      </c>
-      <c r="T4">
-        <v>2.05</v>
-      </c>
-      <c r="U4">
-        <v>1.75</v>
-      </c>
-      <c r="V4">
-        <v>3.25</v>
-      </c>
-      <c r="W4">
-        <v>1.33</v>
-      </c>
-      <c r="X4">
-        <v>3.25</v>
-      </c>
-      <c r="Y4">
-        <v>1.33</v>
-      </c>
-      <c r="Z4">
-        <v>6.6</v>
-      </c>
-      <c r="AA4">
-        <v>1.09</v>
-      </c>
-      <c r="AB4">
-        <v>6.65</v>
-      </c>
-      <c r="AC4">
-        <v>1.09</v>
-      </c>
-      <c r="AD4">
-        <v>9</v>
-      </c>
-      <c r="AE4">
-        <v>1.07</v>
-      </c>
-      <c r="AF4">
-        <v>10</v>
-      </c>
-      <c r="AG4">
-        <v>1.06</v>
-      </c>
-      <c r="AH4">
-        <v>5.5</v>
-      </c>
-      <c r="AI4">
-        <v>3.4</v>
-      </c>
-      <c r="AJ4">
-        <v>1.75</v>
-      </c>
-      <c r="AK4">
-        <v>3.75</v>
-      </c>
-      <c r="AL4">
-        <v>3.4</v>
-      </c>
-      <c r="AM4">
-        <v>1.8</v>
-      </c>
-      <c r="AN4">
-        <v>2</v>
-      </c>
-      <c r="AO4">
-        <v>1.3</v>
-      </c>
-      <c r="AP4">
-        <v>1.14</v>
-      </c>
       <c r="AQ4">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="AR4">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AS4">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
         <v>1.95</v>
@@ -2359,280 +2359,268 @@
         <v>1.8</v>
       </c>
       <c r="AV4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AW4">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AX4">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AY4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ4">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="BA4">
+        <v>7</v>
+      </c>
+      <c r="BB4">
+        <v>1.09</v>
+      </c>
+      <c r="BC4">
+        <v>5.8</v>
+      </c>
+      <c r="BD4">
+        <v>1.13</v>
+      </c>
+      <c r="BE4">
+        <v>5.4</v>
+      </c>
+      <c r="BF4">
+        <v>1.4</v>
+      </c>
+      <c r="BG4">
+        <v>2.75</v>
+      </c>
+      <c r="BH4">
+        <v>1.44</v>
+      </c>
+      <c r="BI4">
+        <v>2.63</v>
+      </c>
+      <c r="BJ4">
+        <v>1.82</v>
+      </c>
+      <c r="BK4">
+        <v>2.02</v>
+      </c>
+      <c r="BL4">
+        <v>1.88</v>
+      </c>
+      <c r="BM4">
+        <v>1.98</v>
+      </c>
+      <c r="BN4">
+        <v>2.3</v>
+      </c>
+      <c r="BO4">
+        <v>1.6</v>
+      </c>
+      <c r="BP4">
+        <v>2.5</v>
+      </c>
+      <c r="BQ4">
+        <v>1.5</v>
+      </c>
+      <c r="BR4">
+        <v>3.54</v>
+      </c>
+      <c r="BS4">
+        <v>1.26</v>
+      </c>
+      <c r="BT4">
+        <v>3.9</v>
+      </c>
+      <c r="BU4">
+        <v>1.23</v>
+      </c>
+      <c r="BV4">
+        <v>4.33</v>
+      </c>
+      <c r="BW4">
+        <v>1.2</v>
+      </c>
+      <c r="BX4">
+        <v>5</v>
+      </c>
+      <c r="BY4">
+        <v>1.17</v>
+      </c>
+      <c r="BZ4">
+        <v>7.6</v>
+      </c>
+      <c r="CA4">
+        <v>1.04</v>
+      </c>
+      <c r="CB4">
         <v>8.5</v>
       </c>
-      <c r="BB4">
+      <c r="CC4">
         <v>1.05</v>
       </c>
-      <c r="BC4">
-        <v>6.9</v>
-      </c>
-      <c r="BD4">
-        <v>1.07</v>
-      </c>
-      <c r="BE4">
-        <v>7.4</v>
-      </c>
-      <c r="BF4">
-        <v>1.33</v>
-      </c>
-      <c r="BG4">
-        <v>3.25</v>
-      </c>
-      <c r="BH4">
-        <v>1.36</v>
-      </c>
-      <c r="BI4">
-        <v>3</v>
-      </c>
-      <c r="BJ4">
-        <v>1.55</v>
-      </c>
-      <c r="BK4">
-        <v>2.32</v>
-      </c>
-      <c r="BL4">
-        <v>1.52</v>
-      </c>
-      <c r="BM4">
-        <v>2.43</v>
-      </c>
-      <c r="BN4">
-        <v>2.08</v>
-      </c>
-      <c r="BO4">
-        <v>1.73</v>
-      </c>
-      <c r="BP4">
-        <v>2.15</v>
-      </c>
-      <c r="BQ4">
-        <v>1.67</v>
-      </c>
-      <c r="BR4">
-        <v>2.93</v>
-      </c>
-      <c r="BS4">
-        <v>1.36</v>
-      </c>
-      <c r="BT4">
-        <v>2.8</v>
-      </c>
-      <c r="BU4">
-        <v>1.4</v>
-      </c>
-      <c r="BV4">
-        <v>3.75</v>
-      </c>
-      <c r="BW4">
-        <v>1.25</v>
-      </c>
-      <c r="BX4">
-        <v>4</v>
-      </c>
-      <c r="BY4">
-        <v>1.22</v>
-      </c>
-      <c r="BZ4">
-        <v>6.2</v>
-      </c>
-      <c r="CA4">
-        <v>1.07</v>
-      </c>
-      <c r="CB4">
-        <v>5.8</v>
-      </c>
-      <c r="CC4">
-        <v>1.11</v>
-      </c>
       <c r="CD4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CE4">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="CF4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CG4">
-        <v>1.07</v>
-      </c>
-      <c r="CH4">
-        <v>11.5</v>
-      </c>
-      <c r="CI4">
-        <v>1.02</v>
-      </c>
-      <c r="CJ4">
-        <v>11.5</v>
-      </c>
-      <c r="CK4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="CL4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CM4">
         <v>1.02</v>
       </c>
       <c r="CN4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="CO4">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="CT4">
+        <v>51</v>
+      </c>
+      <c r="CU4">
+        <v>50</v>
+      </c>
+      <c r="CV4">
+        <v>51</v>
+      </c>
+      <c r="CW4">
+        <v>51</v>
+      </c>
+      <c r="DJ4">
+        <v>1.9</v>
+      </c>
+      <c r="DK4">
+        <v>1.95</v>
+      </c>
+      <c r="DL4">
+        <v>2.25</v>
+      </c>
+      <c r="DM4">
+        <v>1.63</v>
+      </c>
+      <c r="DN4">
+        <v>1.6</v>
+      </c>
+      <c r="DO4">
+        <v>2.3</v>
+      </c>
+      <c r="DP4">
+        <v>3.3</v>
+      </c>
+      <c r="DQ4">
+        <v>1.32</v>
+      </c>
+      <c r="DR4">
+        <v>1.3</v>
+      </c>
+      <c r="DS4">
+        <v>3.45</v>
+      </c>
+      <c r="DT4">
+        <v>5.5</v>
+      </c>
+      <c r="DU4">
+        <v>1.15</v>
+      </c>
+      <c r="DV4">
+        <v>1.15</v>
+      </c>
+      <c r="DW4">
+        <v>5.5</v>
+      </c>
+      <c r="DX4">
+        <v>7</v>
+      </c>
+      <c r="DY4">
+        <v>1.1</v>
+      </c>
+      <c r="DZ4">
+        <v>1.1</v>
+      </c>
+      <c r="EA4">
+        <v>7</v>
+      </c>
+      <c r="EJ4">
+        <v>7.5</v>
+      </c>
+      <c r="EK4">
+        <v>7.5</v>
+      </c>
+      <c r="EL4">
+        <v>13</v>
+      </c>
+      <c r="EM4">
+        <v>29</v>
+      </c>
+      <c r="EN4">
+        <v>7.5</v>
+      </c>
+      <c r="EO4">
+        <v>6</v>
+      </c>
+      <c r="EP4">
+        <v>11</v>
+      </c>
+      <c r="EQ4">
+        <v>23</v>
+      </c>
+      <c r="ER4">
+        <v>12</v>
+      </c>
+      <c r="ES4">
+        <v>11</v>
+      </c>
+      <c r="ET4">
+        <v>15</v>
+      </c>
+      <c r="EU4">
+        <v>41</v>
+      </c>
+      <c r="EV4">
+        <v>26</v>
+      </c>
+      <c r="EW4">
+        <v>23</v>
+      </c>
+      <c r="EX4">
         <v>34</v>
-      </c>
-      <c r="CU4">
-        <v>34</v>
-      </c>
-      <c r="CV4">
-        <v>41</v>
-      </c>
-      <c r="CW4">
-        <v>41</v>
-      </c>
-      <c r="DJ4">
-        <v>3.55</v>
-      </c>
-      <c r="DK4">
-        <v>1.27</v>
-      </c>
-      <c r="DL4">
-        <v>4.15</v>
-      </c>
-      <c r="DM4">
-        <v>1.22</v>
-      </c>
-      <c r="DN4">
-        <v>2.42</v>
-      </c>
-      <c r="DO4">
-        <v>1.52</v>
-      </c>
-      <c r="DP4">
-        <v>6.4</v>
-      </c>
-      <c r="DQ4">
-        <v>1.11</v>
-      </c>
-      <c r="DR4">
-        <v>1.82</v>
-      </c>
-      <c r="DS4">
-        <v>2.02</v>
-      </c>
-      <c r="DV4">
-        <v>1.43</v>
-      </c>
-      <c r="DW4">
-        <v>2.75</v>
-      </c>
-      <c r="DZ4">
-        <v>1.24</v>
-      </c>
-      <c r="EA4">
-        <v>3.9</v>
-      </c>
-      <c r="ED4">
-        <v>1.12</v>
-      </c>
-      <c r="EE4">
-        <v>6.25</v>
-      </c>
-      <c r="EH4">
-        <v>1.03</v>
-      </c>
-      <c r="EI4">
-        <v>9.4</v>
-      </c>
-      <c r="EJ4">
-        <v>8.5</v>
-      </c>
-      <c r="EK4">
-        <v>6.5</v>
-      </c>
-      <c r="EL4">
-        <v>7.5</v>
-      </c>
-      <c r="EM4">
-        <v>13</v>
-      </c>
-      <c r="EN4">
-        <v>12</v>
-      </c>
-      <c r="EO4">
-        <v>6.5</v>
-      </c>
-      <c r="EP4">
-        <v>8.5</v>
-      </c>
-      <c r="EQ4">
-        <v>15</v>
-      </c>
-      <c r="ER4">
-        <v>23</v>
-      </c>
-      <c r="ES4">
-        <v>17</v>
-      </c>
-      <c r="ET4">
-        <v>17</v>
-      </c>
-      <c r="EU4">
-        <v>29</v>
-      </c>
-      <c r="EV4">
-        <v>51</v>
-      </c>
-      <c r="EW4">
-        <v>41</v>
-      </c>
-      <c r="EX4">
-        <v>41</v>
       </c>
       <c r="EY4">
         <v>51</v>
       </c>
       <c r="EZ4">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="FA4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="FB4">
+        <v>81</v>
+      </c>
+      <c r="FC4">
+        <v>151</v>
+      </c>
+      <c r="FD4">
         <v>51</v>
       </c>
-      <c r="FC4">
-        <v>126</v>
-      </c>
-      <c r="FD4">
+      <c r="FE4">
+        <v>51</v>
+      </c>
+      <c r="FF4">
+        <v>67</v>
+      </c>
+      <c r="FG4">
         <v>151</v>
-      </c>
-      <c r="FE4">
-        <v>101</v>
-      </c>
-      <c r="FF4">
-        <v>126</v>
-      </c>
-      <c r="FG4">
-        <v>201</v>
       </c>
       <c r="FH4">
         <v>351</v>
@@ -2640,130 +2628,130 @@
     </row>
     <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H5">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R5">
+        <v>2.44</v>
+      </c>
+      <c r="S5">
+        <v>1.52</v>
+      </c>
+      <c r="T5">
         <v>2.17</v>
-      </c>
-      <c r="S5">
-        <v>1.65</v>
-      </c>
-      <c r="T5">
-        <v>2.18</v>
       </c>
       <c r="U5">
         <v>1.64</v>
       </c>
       <c r="V5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z5">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AA5">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="AC5">
         <v>1.06</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE5">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AF5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG5">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AH5">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AI5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AJ5">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AK5">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AL5">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AM5">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="AN5">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AO5">
         <v>1.36</v>
       </c>
       <c r="AP5">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -2772,139 +2760,139 @@
         <v>1.36</v>
       </c>
       <c r="AS5">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AT5">
+        <v>2.05</v>
+      </c>
+      <c r="AU5">
+        <v>1.7</v>
+      </c>
+      <c r="AV5">
+        <v>2.05</v>
+      </c>
+      <c r="AW5">
+        <v>1.7</v>
+      </c>
+      <c r="AX5">
+        <v>1.1</v>
+      </c>
+      <c r="AY5">
+        <v>7</v>
+      </c>
+      <c r="AZ5">
+        <v>1.11</v>
+      </c>
+      <c r="BA5">
+        <v>6.5</v>
+      </c>
+      <c r="BB5">
+        <v>1.12</v>
+      </c>
+      <c r="BC5">
+        <v>4.95</v>
+      </c>
+      <c r="BD5">
+        <v>1.12</v>
+      </c>
+      <c r="BE5">
+        <v>5.8</v>
+      </c>
+      <c r="BF5">
+        <v>1.5</v>
+      </c>
+      <c r="BG5">
+        <v>2.5</v>
+      </c>
+      <c r="BH5">
+        <v>1.5</v>
+      </c>
+      <c r="BI5">
+        <v>2.5</v>
+      </c>
+      <c r="BJ5">
+        <v>1.93</v>
+      </c>
+      <c r="BK5">
+        <v>1.93</v>
+      </c>
+      <c r="BL5">
+        <v>1.9</v>
+      </c>
+      <c r="BM5">
         <v>1.95</v>
       </c>
-      <c r="AU5">
-        <v>1.8</v>
-      </c>
-      <c r="AV5">
-        <v>1.95</v>
-      </c>
-      <c r="AW5">
-        <v>1.8</v>
-      </c>
-      <c r="AX5">
-        <v>1.08</v>
-      </c>
-      <c r="AY5">
-        <v>8</v>
-      </c>
-      <c r="AZ5">
-        <v>1.08</v>
-      </c>
-      <c r="BA5">
-        <v>7.5</v>
-      </c>
-      <c r="BB5">
-        <v>1.08</v>
-      </c>
-      <c r="BC5">
-        <v>5.95</v>
-      </c>
-      <c r="BD5">
-        <v>1.08</v>
-      </c>
-      <c r="BE5">
-        <v>5.85</v>
-      </c>
-      <c r="BF5">
-        <v>1.4</v>
-      </c>
-      <c r="BG5">
-        <v>2.75</v>
-      </c>
-      <c r="BH5">
-        <v>1.4</v>
-      </c>
-      <c r="BI5">
-        <v>2.75</v>
-      </c>
-      <c r="BJ5">
-        <v>1.7</v>
-      </c>
-      <c r="BK5">
-        <v>2.05</v>
-      </c>
-      <c r="BL5">
-        <v>1.75</v>
-      </c>
-      <c r="BM5">
-        <v>2.06</v>
-      </c>
       <c r="BN5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="BO5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BP5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="BQ5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BR5">
-        <v>3.46</v>
+        <v>4.25</v>
       </c>
       <c r="BS5">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="BT5">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="BU5">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BV5">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="BW5">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BX5">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="BY5">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BZ5">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="CA5">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="CB5">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="CC5">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="CD5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CE5">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="CF5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CG5">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="CL5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="CM5">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="CN5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="CO5">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="CT5">
         <v>51</v>
@@ -2919,70 +2907,70 @@
         <v>51</v>
       </c>
       <c r="DJ5">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="DK5">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="DL5">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="DM5">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="DN5">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="DO5">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="DP5">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="DQ5">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="DR5">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="DS5">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="DT5">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="DU5">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="DV5">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="DW5">
-        <v>6.6</v>
+        <v>5.75</v>
       </c>
       <c r="DX5">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="DY5">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="DZ5">
         <v>1.03</v>
       </c>
       <c r="EA5">
-        <v>9.6</v>
+        <v>7.95</v>
       </c>
       <c r="EJ5">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="EK5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EL5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="EM5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="EN5">
         <v>7</v>
@@ -2991,34 +2979,34 @@
         <v>6</v>
       </c>
       <c r="EP5">
+        <v>11</v>
+      </c>
+      <c r="EQ5">
+        <v>26</v>
+      </c>
+      <c r="ER5">
         <v>12</v>
       </c>
-      <c r="EQ5">
-        <v>29</v>
-      </c>
-      <c r="ER5">
+      <c r="ES5">
         <v>11</v>
       </c>
-      <c r="ES5">
-        <v>10</v>
-      </c>
       <c r="ET5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="EU5">
         <v>41</v>
       </c>
       <c r="EV5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="EW5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="EX5">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="EY5">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="EZ5">
         <v>67</v>
@@ -3030,7 +3018,7 @@
         <v>81</v>
       </c>
       <c r="FC5">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="FD5">
         <v>51</v>
@@ -3039,411 +3027,13 @@
         <v>51</v>
       </c>
       <c r="FF5">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="FG5">
         <v>151</v>
       </c>
       <c r="FH5">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:164">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>1.91</v>
-      </c>
-      <c r="J6">
-        <v>3.4</v>
-      </c>
-      <c r="K6">
-        <v>3.75</v>
-      </c>
-      <c r="L6">
-        <v>1.91</v>
-      </c>
-      <c r="M6">
-        <v>3.4</v>
-      </c>
-      <c r="N6">
-        <v>1.57</v>
-      </c>
-      <c r="O6">
-        <v>2.25</v>
-      </c>
-      <c r="P6">
-        <v>1.62</v>
-      </c>
-      <c r="Q6">
-        <v>2.2</v>
-      </c>
-      <c r="R6">
-        <v>2.46</v>
-      </c>
-      <c r="S6">
-        <v>1.51</v>
-      </c>
-      <c r="T6">
-        <v>2.44</v>
-      </c>
-      <c r="U6">
-        <v>1.52</v>
-      </c>
-      <c r="V6">
-        <v>3.75</v>
-      </c>
-      <c r="W6">
-        <v>1.25</v>
-      </c>
-      <c r="X6">
-        <v>4</v>
-      </c>
-      <c r="Y6">
-        <v>1.22</v>
-      </c>
-      <c r="Z6">
-        <v>9.1</v>
-      </c>
-      <c r="AA6">
-        <v>1.04</v>
-      </c>
-      <c r="AB6">
-        <v>9</v>
-      </c>
-      <c r="AC6">
-        <v>1.05</v>
-      </c>
-      <c r="AD6">
-        <v>13</v>
-      </c>
-      <c r="AE6">
-        <v>1.04</v>
-      </c>
-      <c r="AF6">
-        <v>13</v>
-      </c>
-      <c r="AG6">
-        <v>1.04</v>
-      </c>
-      <c r="AH6">
-        <v>3.1</v>
-      </c>
-      <c r="AI6">
-        <v>3</v>
-      </c>
-      <c r="AJ6">
-        <v>2.5</v>
-      </c>
-      <c r="AK6">
-        <v>2.88</v>
-      </c>
-      <c r="AL6">
-        <v>2.9</v>
-      </c>
-      <c r="AM6">
-        <v>2.5</v>
-      </c>
-      <c r="AN6">
-        <v>1.5</v>
-      </c>
-      <c r="AO6">
-        <v>1.36</v>
-      </c>
-      <c r="AP6">
-        <v>1.36</v>
-      </c>
-      <c r="AQ6">
-        <v>1.5</v>
-      </c>
-      <c r="AR6">
-        <v>1.4</v>
-      </c>
-      <c r="AS6">
-        <v>1.4</v>
-      </c>
-      <c r="AT6">
-        <v>2.1</v>
-      </c>
-      <c r="AU6">
-        <v>1.67</v>
-      </c>
-      <c r="AV6">
-        <v>2.2</v>
-      </c>
-      <c r="AW6">
-        <v>1.62</v>
-      </c>
-      <c r="AX6">
-        <v>1.11</v>
-      </c>
-      <c r="AY6">
-        <v>6.5</v>
-      </c>
-      <c r="AZ6">
-        <v>1.13</v>
-      </c>
-      <c r="BA6">
-        <v>6</v>
-      </c>
-      <c r="BB6">
-        <v>1.14</v>
-      </c>
-      <c r="BC6">
-        <v>5.05</v>
-      </c>
-      <c r="BD6">
-        <v>1.13</v>
-      </c>
-      <c r="BE6">
-        <v>5.15</v>
-      </c>
-      <c r="BF6">
-        <v>1.53</v>
-      </c>
-      <c r="BG6">
-        <v>2.38</v>
-      </c>
-      <c r="BH6">
-        <v>1.53</v>
-      </c>
-      <c r="BI6">
-        <v>2.38</v>
-      </c>
-      <c r="BJ6">
-        <v>2.05</v>
-      </c>
-      <c r="BK6">
-        <v>1.8</v>
-      </c>
-      <c r="BL6">
-        <v>2.05</v>
-      </c>
-      <c r="BM6">
-        <v>1.8</v>
-      </c>
-      <c r="BN6">
-        <v>2.7</v>
-      </c>
-      <c r="BO6">
-        <v>1.44</v>
-      </c>
-      <c r="BP6">
-        <v>2.7</v>
-      </c>
-      <c r="BQ6">
-        <v>1.44</v>
-      </c>
-      <c r="BR6">
-        <v>4.15</v>
-      </c>
-      <c r="BS6">
-        <v>1.17</v>
-      </c>
-      <c r="BT6">
-        <v>4.1</v>
-      </c>
-      <c r="BU6">
-        <v>1.18</v>
-      </c>
-      <c r="BV6">
-        <v>5.5</v>
-      </c>
-      <c r="BW6">
-        <v>1.14</v>
-      </c>
-      <c r="BX6">
-        <v>5.5</v>
-      </c>
-      <c r="BY6">
-        <v>1.14</v>
-      </c>
-      <c r="BZ6">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="CA6">
-        <v>1.01</v>
-      </c>
-      <c r="CB6">
-        <v>9.1</v>
-      </c>
-      <c r="CC6">
-        <v>1.02</v>
-      </c>
-      <c r="CD6">
-        <v>13</v>
-      </c>
-      <c r="CE6">
-        <v>1.04</v>
-      </c>
-      <c r="CF6">
-        <v>13</v>
-      </c>
-      <c r="CG6">
-        <v>1.04</v>
-      </c>
-      <c r="CL6">
-        <v>29</v>
-      </c>
-      <c r="CM6">
-        <v>1.01</v>
-      </c>
-      <c r="CN6">
-        <v>29</v>
-      </c>
-      <c r="CO6">
-        <v>1.01</v>
-      </c>
-      <c r="DJ6">
-        <v>2.1</v>
-      </c>
-      <c r="DK6">
-        <v>1.7</v>
-      </c>
-      <c r="DL6">
-        <v>2.5</v>
-      </c>
-      <c r="DM6">
-        <v>1.5</v>
-      </c>
-      <c r="DN6">
-        <v>1.75</v>
-      </c>
-      <c r="DO6">
-        <v>2.13</v>
-      </c>
-      <c r="DP6">
-        <v>3.8</v>
-      </c>
-      <c r="DQ6">
-        <v>1.25</v>
-      </c>
-      <c r="DR6">
-        <v>1.38</v>
-      </c>
-      <c r="DS6">
-        <v>3</v>
-      </c>
-      <c r="DT6">
-        <v>6.8</v>
-      </c>
-      <c r="DU6">
-        <v>1.1</v>
-      </c>
-      <c r="DV6">
-        <v>1.17</v>
-      </c>
-      <c r="DW6">
-        <v>5</v>
-      </c>
-      <c r="DX6">
-        <v>10.6</v>
-      </c>
-      <c r="DY6">
-        <v>1.02</v>
-      </c>
-      <c r="DZ6">
-        <v>1.06</v>
-      </c>
-      <c r="EA6">
-        <v>7.46</v>
-      </c>
-      <c r="EJ6">
-        <v>6</v>
-      </c>
-      <c r="EK6">
-        <v>6</v>
-      </c>
-      <c r="EL6">
-        <v>10</v>
-      </c>
-      <c r="EM6">
-        <v>23</v>
-      </c>
-      <c r="EN6">
-        <v>7</v>
-      </c>
-      <c r="EO6">
-        <v>6</v>
-      </c>
-      <c r="EP6">
-        <v>11</v>
-      </c>
-      <c r="EQ6">
-        <v>26</v>
-      </c>
-      <c r="ER6">
-        <v>13</v>
-      </c>
-      <c r="ES6">
-        <v>12</v>
-      </c>
-      <c r="ET6">
-        <v>19</v>
-      </c>
-      <c r="EU6">
-        <v>41</v>
-      </c>
-      <c r="EV6">
-        <v>34</v>
-      </c>
-      <c r="EW6">
-        <v>29</v>
-      </c>
-      <c r="EX6">
-        <v>41</v>
-      </c>
-      <c r="EY6">
-        <v>81</v>
-      </c>
-      <c r="EZ6">
-        <v>51</v>
-      </c>
-      <c r="FA6">
-        <v>51</v>
-      </c>
-      <c r="FB6">
-        <v>81</v>
-      </c>
-      <c r="FC6">
-        <v>201</v>
-      </c>
-      <c r="FD6">
-        <v>81</v>
-      </c>
-      <c r="FE6">
-        <v>67</v>
-      </c>
-      <c r="FF6">
-        <v>101</v>
-      </c>
-      <c r="FG6">
-        <v>201</v>
-      </c>
-      <c r="FH6">
-        <v>201</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -503,24 +503,6 @@
   </si>
   <si>
     <t>FT_Odd_CS_4x4</t>
-  </si>
-  <si>
-    <t>14/06/2023</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>USA - MLS</t>
-  </si>
-  <si>
-    <t>Los Angeles FC</t>
-  </si>
-  <si>
-    <t>Houston Dynamo</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -878,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH2"/>
+  <dimension ref="B1:FH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:164">
+    <row r="1" spans="2:164">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,434 +1355,6 @@
       </c>
       <c r="FH1" s="1" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:164">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2.4</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>1.91</v>
-      </c>
-      <c r="L2">
-        <v>2.5</v>
-      </c>
-      <c r="M2">
-        <v>6.5</v>
-      </c>
-      <c r="N2">
-        <v>1.3</v>
-      </c>
-      <c r="O2">
-        <v>3.4</v>
-      </c>
-      <c r="P2">
-        <v>1.29</v>
-      </c>
-      <c r="Q2">
-        <v>3.5</v>
-      </c>
-      <c r="R2">
-        <v>1.56</v>
-      </c>
-      <c r="S2">
-        <v>2.34</v>
-      </c>
-      <c r="T2">
-        <v>1.6</v>
-      </c>
-      <c r="U2">
-        <v>2.26</v>
-      </c>
-      <c r="V2">
-        <v>2.5</v>
-      </c>
-      <c r="W2">
-        <v>1.5</v>
-      </c>
-      <c r="X2">
-        <v>2.38</v>
-      </c>
-      <c r="Y2">
-        <v>1.53</v>
-      </c>
-      <c r="Z2">
-        <v>4.15</v>
-      </c>
-      <c r="AA2">
-        <v>1.21</v>
-      </c>
-      <c r="AB2">
-        <v>4.44</v>
-      </c>
-      <c r="AC2">
-        <v>1.19</v>
-      </c>
-      <c r="AD2">
-        <v>6</v>
-      </c>
-      <c r="AE2">
-        <v>1.13</v>
-      </c>
-      <c r="AF2">
-        <v>5.5</v>
-      </c>
-      <c r="AG2">
-        <v>1.14</v>
-      </c>
-      <c r="AH2">
-        <v>1.5</v>
-      </c>
-      <c r="AI2">
-        <v>4.5</v>
-      </c>
-      <c r="AJ2">
-        <v>5.75</v>
-      </c>
-      <c r="AK2">
-        <v>1.4</v>
-      </c>
-      <c r="AL2">
-        <v>4.75</v>
-      </c>
-      <c r="AM2">
-        <v>7</v>
-      </c>
-      <c r="AN2">
-        <v>1.14</v>
-      </c>
-      <c r="AO2">
-        <v>1.18</v>
-      </c>
-      <c r="AP2">
-        <v>2.5</v>
-      </c>
-      <c r="AQ2">
-        <v>1.1</v>
-      </c>
-      <c r="AR2">
-        <v>1.18</v>
-      </c>
-      <c r="AS2">
-        <v>2.75</v>
-      </c>
-      <c r="AT2">
-        <v>1.8</v>
-      </c>
-      <c r="AU2">
-        <v>1.95</v>
-      </c>
-      <c r="AV2">
-        <v>1.8</v>
-      </c>
-      <c r="AW2">
-        <v>1.95</v>
-      </c>
-      <c r="AX2">
-        <v>1.03</v>
-      </c>
-      <c r="AY2">
-        <v>15</v>
-      </c>
-      <c r="AZ2">
-        <v>1.03</v>
-      </c>
-      <c r="BA2">
-        <v>15</v>
-      </c>
-      <c r="BB2">
-        <v>1.03</v>
-      </c>
-      <c r="BC2">
-        <v>10.5</v>
-      </c>
-      <c r="BD2">
-        <v>1.03</v>
-      </c>
-      <c r="BE2">
-        <v>10.5</v>
-      </c>
-      <c r="BF2">
-        <v>1.18</v>
-      </c>
-      <c r="BG2">
-        <v>4.5</v>
-      </c>
-      <c r="BH2">
-        <v>1.18</v>
-      </c>
-      <c r="BI2">
-        <v>4.5</v>
-      </c>
-      <c r="BJ2">
-        <v>1.23</v>
-      </c>
-      <c r="BK2">
-        <v>3.56</v>
-      </c>
-      <c r="BL2">
-        <v>1.27</v>
-      </c>
-      <c r="BM2">
-        <v>3.46</v>
-      </c>
-      <c r="BN2">
-        <v>1.62</v>
-      </c>
-      <c r="BO2">
-        <v>2.25</v>
-      </c>
-      <c r="BP2">
-        <v>1.6</v>
-      </c>
-      <c r="BQ2">
-        <v>2.3</v>
-      </c>
-      <c r="BR2">
-        <v>2.05</v>
-      </c>
-      <c r="BS2">
-        <v>1.8</v>
-      </c>
-      <c r="BT2">
-        <v>2.02</v>
-      </c>
-      <c r="BU2">
-        <v>1.82</v>
-      </c>
-      <c r="BV2">
-        <v>2.5</v>
-      </c>
-      <c r="BW2">
-        <v>1.5</v>
-      </c>
-      <c r="BX2">
-        <v>2.5</v>
-      </c>
-      <c r="BY2">
-        <v>1.5</v>
-      </c>
-      <c r="BZ2">
-        <v>3.54</v>
-      </c>
-      <c r="CA2">
-        <v>1.26</v>
-      </c>
-      <c r="CB2">
-        <v>3.64</v>
-      </c>
-      <c r="CC2">
-        <v>1.22</v>
-      </c>
-      <c r="CD2">
-        <v>4.5</v>
-      </c>
-      <c r="CE2">
-        <v>1.18</v>
-      </c>
-      <c r="CF2">
-        <v>4.33</v>
-      </c>
-      <c r="CG2">
-        <v>1.2</v>
-      </c>
-      <c r="CH2">
-        <v>6.8</v>
-      </c>
-      <c r="CI2">
-        <v>1.06</v>
-      </c>
-      <c r="CJ2">
-        <v>7.4</v>
-      </c>
-      <c r="CK2">
-        <v>1.05</v>
-      </c>
-      <c r="CL2">
-        <v>10</v>
-      </c>
-      <c r="CM2">
-        <v>1.06</v>
-      </c>
-      <c r="CN2">
-        <v>9</v>
-      </c>
-      <c r="CO2">
-        <v>1.07</v>
-      </c>
-      <c r="CT2">
-        <v>19</v>
-      </c>
-      <c r="CU2">
-        <v>1.02</v>
-      </c>
-      <c r="CV2">
-        <v>19</v>
-      </c>
-      <c r="CW2">
-        <v>1.02</v>
-      </c>
-      <c r="DB2">
-        <v>41</v>
-      </c>
-      <c r="DC2">
-        <v>41</v>
-      </c>
-      <c r="DD2">
-        <v>34</v>
-      </c>
-      <c r="DE2">
-        <v>34</v>
-      </c>
-      <c r="DJ2">
-        <v>1.19</v>
-      </c>
-      <c r="DK2">
-        <v>4.5</v>
-      </c>
-      <c r="DL2">
-        <v>1.32</v>
-      </c>
-      <c r="DM2">
-        <v>3.3</v>
-      </c>
-      <c r="DN2">
-        <v>1.16</v>
-      </c>
-      <c r="DO2">
-        <v>5.25</v>
-      </c>
-      <c r="DP2">
-        <v>1.57</v>
-      </c>
-      <c r="DQ2">
-        <v>2.35</v>
-      </c>
-      <c r="DT2">
-        <v>2.05</v>
-      </c>
-      <c r="DU2">
-        <v>1.8</v>
-      </c>
-      <c r="DX2">
-        <v>2.6</v>
-      </c>
-      <c r="DY2">
-        <v>1.48</v>
-      </c>
-      <c r="EB2">
-        <v>3.7</v>
-      </c>
-      <c r="EC2">
-        <v>1.26</v>
-      </c>
-      <c r="EF2">
-        <v>5.25</v>
-      </c>
-      <c r="EG2">
-        <v>1.16</v>
-      </c>
-      <c r="EJ2">
-        <v>15</v>
-      </c>
-      <c r="EK2">
-        <v>17</v>
-      </c>
-      <c r="EL2">
-        <v>34</v>
-      </c>
-      <c r="EM2">
-        <v>67</v>
-      </c>
-      <c r="EN2">
-        <v>8</v>
-      </c>
-      <c r="EO2">
-        <v>8.5</v>
-      </c>
-      <c r="EP2">
-        <v>17</v>
-      </c>
-      <c r="EQ2">
-        <v>41</v>
-      </c>
-      <c r="ER2">
-        <v>7.5</v>
-      </c>
-      <c r="ES2">
-        <v>8.5</v>
-      </c>
-      <c r="ET2">
-        <v>17</v>
-      </c>
-      <c r="EU2">
-        <v>41</v>
-      </c>
-      <c r="EV2">
-        <v>11</v>
-      </c>
-      <c r="EW2">
-        <v>12</v>
-      </c>
-      <c r="EX2">
-        <v>23</v>
-      </c>
-      <c r="EY2">
-        <v>51</v>
-      </c>
-      <c r="EZ2">
-        <v>201</v>
-      </c>
-      <c r="FA2">
-        <v>101</v>
-      </c>
-      <c r="FB2">
-        <v>101</v>
-      </c>
-      <c r="FC2">
-        <v>126</v>
-      </c>
-      <c r="FD2">
-        <v>19</v>
-      </c>
-      <c r="FE2">
-        <v>21</v>
-      </c>
-      <c r="FF2">
-        <v>41</v>
-      </c>
-      <c r="FG2">
-        <v>81</v>
-      </c>
-      <c r="FH2">
-        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -503,6 +503,84 @@
   </si>
   <si>
     <t>FT_Odd_CS_4x4</t>
+  </si>
+  <si>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>SPAIN - LALIGA2</t>
+  </si>
+  <si>
+    <t>USA - MLS</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>DC United</t>
+  </si>
+  <si>
+    <t>New England Revolution</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>Sporting Kansas City</t>
+  </si>
+  <si>
+    <t>San Jose Earthquakes</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Columbus Crew</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
+  </si>
+  <si>
+    <t>Orlando City</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROMOTION </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.06</t>
   </si>
 </sst>
 </file>
@@ -860,13 +938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:FH1"/>
+  <dimension ref="A1:FH8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:164">
+    <row r="1" spans="1:164">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,6 +1433,3032 @@
       </c>
       <c r="FH1" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:164">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1.91</v>
+      </c>
+      <c r="J2">
+        <v>4.33</v>
+      </c>
+      <c r="K2">
+        <v>3.1</v>
+      </c>
+      <c r="L2">
+        <v>1.91</v>
+      </c>
+      <c r="M2">
+        <v>4.33</v>
+      </c>
+      <c r="N2">
+        <v>1.57</v>
+      </c>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>1.57</v>
+      </c>
+      <c r="Q2">
+        <v>2.25</v>
+      </c>
+      <c r="R2">
+        <v>2.49</v>
+      </c>
+      <c r="S2">
+        <v>1.5</v>
+      </c>
+      <c r="T2">
+        <v>2.33</v>
+      </c>
+      <c r="U2">
+        <v>1.56</v>
+      </c>
+      <c r="V2">
+        <v>3.75</v>
+      </c>
+      <c r="W2">
+        <v>1.25</v>
+      </c>
+      <c r="X2">
+        <v>3.75</v>
+      </c>
+      <c r="Y2">
+        <v>1.25</v>
+      </c>
+      <c r="Z2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>1.05</v>
+      </c>
+      <c r="AB2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>1.05</v>
+      </c>
+      <c r="AD2">
+        <v>13</v>
+      </c>
+      <c r="AE2">
+        <v>1.04</v>
+      </c>
+      <c r="AF2">
+        <v>13</v>
+      </c>
+      <c r="AG2">
+        <v>1.04</v>
+      </c>
+      <c r="AH2">
+        <v>2.2</v>
+      </c>
+      <c r="AI2">
+        <v>3</v>
+      </c>
+      <c r="AJ2">
+        <v>3.75</v>
+      </c>
+      <c r="AK2">
+        <v>2.25</v>
+      </c>
+      <c r="AL2">
+        <v>3</v>
+      </c>
+      <c r="AM2">
+        <v>3.6</v>
+      </c>
+      <c r="AN2">
+        <v>1.25</v>
+      </c>
+      <c r="AO2">
+        <v>1.36</v>
+      </c>
+      <c r="AP2">
+        <v>1.67</v>
+      </c>
+      <c r="AQ2">
+        <v>1.29</v>
+      </c>
+      <c r="AR2">
+        <v>1.36</v>
+      </c>
+      <c r="AS2">
+        <v>1.62</v>
+      </c>
+      <c r="AT2">
+        <v>2.2</v>
+      </c>
+      <c r="AU2">
+        <v>1.62</v>
+      </c>
+      <c r="AV2">
+        <v>2.2</v>
+      </c>
+      <c r="AW2">
+        <v>1.62</v>
+      </c>
+      <c r="AX2">
+        <v>1.11</v>
+      </c>
+      <c r="AY2">
+        <v>6.5</v>
+      </c>
+      <c r="AZ2">
+        <v>1.13</v>
+      </c>
+      <c r="BA2">
+        <v>6</v>
+      </c>
+      <c r="BB2">
+        <v>1.16</v>
+      </c>
+      <c r="BC2">
+        <v>4.7</v>
+      </c>
+      <c r="BD2">
+        <v>1.15</v>
+      </c>
+      <c r="BE2">
+        <v>5</v>
+      </c>
+      <c r="BF2">
+        <v>1.5</v>
+      </c>
+      <c r="BG2">
+        <v>2.5</v>
+      </c>
+      <c r="BH2">
+        <v>1.53</v>
+      </c>
+      <c r="BI2">
+        <v>2.38</v>
+      </c>
+      <c r="BJ2">
+        <v>1.98</v>
+      </c>
+      <c r="BK2">
+        <v>1.88</v>
+      </c>
+      <c r="BL2">
+        <v>2.02</v>
+      </c>
+      <c r="BM2">
+        <v>1.82</v>
+      </c>
+      <c r="BN2">
+        <v>2.6</v>
+      </c>
+      <c r="BO2">
+        <v>1.48</v>
+      </c>
+      <c r="BP2">
+        <v>2.6</v>
+      </c>
+      <c r="BQ2">
+        <v>1.48</v>
+      </c>
+      <c r="BR2">
+        <v>3.9</v>
+      </c>
+      <c r="BS2">
+        <v>1.19</v>
+      </c>
+      <c r="BT2">
+        <v>4.1</v>
+      </c>
+      <c r="BU2">
+        <v>1.21</v>
+      </c>
+      <c r="BV2">
+        <v>5</v>
+      </c>
+      <c r="BW2">
+        <v>1.17</v>
+      </c>
+      <c r="BX2">
+        <v>5.5</v>
+      </c>
+      <c r="BY2">
+        <v>1.14</v>
+      </c>
+      <c r="BZ2">
+        <v>8.6</v>
+      </c>
+      <c r="CA2">
+        <v>1.02</v>
+      </c>
+      <c r="CB2">
+        <v>9.1</v>
+      </c>
+      <c r="CC2">
+        <v>1.04</v>
+      </c>
+      <c r="CD2">
+        <v>13</v>
+      </c>
+      <c r="CE2">
+        <v>1.04</v>
+      </c>
+      <c r="CF2">
+        <v>13</v>
+      </c>
+      <c r="CG2">
+        <v>1.04</v>
+      </c>
+      <c r="CL2">
+        <v>26</v>
+      </c>
+      <c r="CM2">
+        <v>1.01</v>
+      </c>
+      <c r="CN2">
+        <v>26</v>
+      </c>
+      <c r="CO2">
+        <v>1.01</v>
+      </c>
+      <c r="DJ2">
+        <v>1.52</v>
+      </c>
+      <c r="DK2">
+        <v>2.42</v>
+      </c>
+      <c r="DL2">
+        <v>1.88</v>
+      </c>
+      <c r="DM2">
+        <v>1.98</v>
+      </c>
+      <c r="DN2">
+        <v>1.38</v>
+      </c>
+      <c r="DO2">
+        <v>3</v>
+      </c>
+      <c r="DP2">
+        <v>2.6</v>
+      </c>
+      <c r="DQ2">
+        <v>1.48</v>
+      </c>
+      <c r="DR2">
+        <v>1.19</v>
+      </c>
+      <c r="DS2">
+        <v>4.5</v>
+      </c>
+      <c r="DT2">
+        <v>4</v>
+      </c>
+      <c r="DU2">
+        <v>1.23</v>
+      </c>
+      <c r="DV2">
+        <v>1.05</v>
+      </c>
+      <c r="DW2">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="DX2">
+        <v>6</v>
+      </c>
+      <c r="DY2">
+        <v>1.13</v>
+      </c>
+      <c r="DZ2">
+        <v>1.01</v>
+      </c>
+      <c r="EA2">
+        <v>11.7</v>
+      </c>
+      <c r="EB2">
+        <v>10</v>
+      </c>
+      <c r="EC2">
+        <v>1.02</v>
+      </c>
+      <c r="EJ2">
+        <v>6.5</v>
+      </c>
+      <c r="EK2">
+        <v>8</v>
+      </c>
+      <c r="EL2">
+        <v>17</v>
+      </c>
+      <c r="EM2">
+        <v>41</v>
+      </c>
+      <c r="EN2">
+        <v>6</v>
+      </c>
+      <c r="EO2">
+        <v>6</v>
+      </c>
+      <c r="EP2">
+        <v>13</v>
+      </c>
+      <c r="EQ2">
+        <v>34</v>
+      </c>
+      <c r="ER2">
+        <v>9</v>
+      </c>
+      <c r="ES2">
+        <v>10</v>
+      </c>
+      <c r="ET2">
+        <v>19</v>
+      </c>
+      <c r="EU2">
+        <v>51</v>
+      </c>
+      <c r="EV2">
+        <v>21</v>
+      </c>
+      <c r="EW2">
+        <v>21</v>
+      </c>
+      <c r="EX2">
+        <v>41</v>
+      </c>
+      <c r="EY2">
+        <v>67</v>
+      </c>
+      <c r="EZ2">
+        <v>101</v>
+      </c>
+      <c r="FA2">
+        <v>81</v>
+      </c>
+      <c r="FB2">
+        <v>126</v>
+      </c>
+      <c r="FC2">
+        <v>251</v>
+      </c>
+      <c r="FD2">
+        <v>41</v>
+      </c>
+      <c r="FE2">
+        <v>51</v>
+      </c>
+      <c r="FF2">
+        <v>81</v>
+      </c>
+      <c r="FG2">
+        <v>201</v>
+      </c>
+      <c r="FH2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3">
+        <v>2.75</v>
+      </c>
+      <c r="I3">
+        <v>2.25</v>
+      </c>
+      <c r="J3">
+        <v>3.75</v>
+      </c>
+      <c r="K3">
+        <v>2.88</v>
+      </c>
+      <c r="L3">
+        <v>2.2</v>
+      </c>
+      <c r="M3">
+        <v>3.6</v>
+      </c>
+      <c r="N3">
+        <v>1.36</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1.36</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1.77</v>
+      </c>
+      <c r="S3">
+        <v>2.02</v>
+      </c>
+      <c r="T3">
+        <v>1.8</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2.63</v>
+      </c>
+      <c r="W3">
+        <v>1.44</v>
+      </c>
+      <c r="X3">
+        <v>2.63</v>
+      </c>
+      <c r="Y3">
+        <v>1.44</v>
+      </c>
+      <c r="Z3">
+        <v>5.2</v>
+      </c>
+      <c r="AA3">
+        <v>1.14</v>
+      </c>
+      <c r="AB3">
+        <v>4.44</v>
+      </c>
+      <c r="AC3">
+        <v>1.18</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>1.1</v>
+      </c>
+      <c r="AF3">
+        <v>7</v>
+      </c>
+      <c r="AG3">
+        <v>1.1</v>
+      </c>
+      <c r="AH3">
+        <v>2.15</v>
+      </c>
+      <c r="AI3">
+        <v>3.5</v>
+      </c>
+      <c r="AJ3">
+        <v>3.3</v>
+      </c>
+      <c r="AK3">
+        <v>2.2</v>
+      </c>
+      <c r="AL3">
+        <v>3.5</v>
+      </c>
+      <c r="AM3">
+        <v>3.1</v>
+      </c>
+      <c r="AN3">
+        <v>1.33</v>
+      </c>
+      <c r="AO3">
+        <v>1.29</v>
+      </c>
+      <c r="AP3">
+        <v>1.67</v>
+      </c>
+      <c r="AQ3">
+        <v>1.36</v>
+      </c>
+      <c r="AR3">
+        <v>1.29</v>
+      </c>
+      <c r="AS3">
+        <v>1.67</v>
+      </c>
+      <c r="AT3">
+        <v>1.67</v>
+      </c>
+      <c r="AU3">
+        <v>2.1</v>
+      </c>
+      <c r="AV3">
+        <v>1.67</v>
+      </c>
+      <c r="AW3">
+        <v>2.1</v>
+      </c>
+      <c r="AX3">
+        <v>1.04</v>
+      </c>
+      <c r="AY3">
+        <v>13</v>
+      </c>
+      <c r="AZ3">
+        <v>1.04</v>
+      </c>
+      <c r="BA3">
+        <v>12</v>
+      </c>
+      <c r="BB3">
+        <v>1.02</v>
+      </c>
+      <c r="BC3">
+        <v>8.9</v>
+      </c>
+      <c r="BD3">
+        <v>1.03</v>
+      </c>
+      <c r="BE3">
+        <v>10</v>
+      </c>
+      <c r="BF3">
+        <v>1.22</v>
+      </c>
+      <c r="BG3">
+        <v>4</v>
+      </c>
+      <c r="BH3">
+        <v>1.25</v>
+      </c>
+      <c r="BI3">
+        <v>3.75</v>
+      </c>
+      <c r="BJ3">
+        <v>1.36</v>
+      </c>
+      <c r="BK3">
+        <v>2.93</v>
+      </c>
+      <c r="BL3">
+        <v>1.27</v>
+      </c>
+      <c r="BM3">
+        <v>3.5</v>
+      </c>
+      <c r="BN3">
+        <v>1.8</v>
+      </c>
+      <c r="BO3">
+        <v>2</v>
+      </c>
+      <c r="BP3">
+        <v>1.82</v>
+      </c>
+      <c r="BQ3">
+        <v>2.02</v>
+      </c>
+      <c r="BR3">
+        <v>2.3</v>
+      </c>
+      <c r="BS3">
+        <v>1.56</v>
+      </c>
+      <c r="BT3">
+        <v>1.98</v>
+      </c>
+      <c r="BU3">
+        <v>1.77</v>
+      </c>
+      <c r="BV3">
+        <v>2.75</v>
+      </c>
+      <c r="BW3">
+        <v>1.4</v>
+      </c>
+      <c r="BX3">
+        <v>3</v>
+      </c>
+      <c r="BY3">
+        <v>1.36</v>
+      </c>
+      <c r="BZ3">
+        <v>4.55</v>
+      </c>
+      <c r="CA3">
+        <v>1.15</v>
+      </c>
+      <c r="CB3">
+        <v>3.8</v>
+      </c>
+      <c r="CC3">
+        <v>1.24</v>
+      </c>
+      <c r="CD3">
+        <v>5.5</v>
+      </c>
+      <c r="CE3">
+        <v>1.14</v>
+      </c>
+      <c r="CF3">
+        <v>6</v>
+      </c>
+      <c r="CG3">
+        <v>1.13</v>
+      </c>
+      <c r="CH3">
+        <v>9.1</v>
+      </c>
+      <c r="CI3">
+        <v>1.02</v>
+      </c>
+      <c r="CJ3">
+        <v>7.2</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL3">
+        <v>11</v>
+      </c>
+      <c r="CM3">
+        <v>1.05</v>
+      </c>
+      <c r="CN3">
+        <v>13</v>
+      </c>
+      <c r="CO3">
+        <v>1.04</v>
+      </c>
+      <c r="CT3">
+        <v>23</v>
+      </c>
+      <c r="CU3">
+        <v>1.01</v>
+      </c>
+      <c r="CV3">
+        <v>26</v>
+      </c>
+      <c r="CW3">
+        <v>1.01</v>
+      </c>
+      <c r="DB3">
+        <v>51</v>
+      </c>
+      <c r="DC3">
+        <v>50</v>
+      </c>
+      <c r="DD3">
+        <v>51</v>
+      </c>
+      <c r="DE3">
+        <v>50</v>
+      </c>
+      <c r="DJ3">
+        <v>1.57</v>
+      </c>
+      <c r="DK3">
+        <v>2.35</v>
+      </c>
+      <c r="DL3">
+        <v>1.9</v>
+      </c>
+      <c r="DM3">
+        <v>1.95</v>
+      </c>
+      <c r="DN3">
+        <v>1.45</v>
+      </c>
+      <c r="DO3">
+        <v>2.67</v>
+      </c>
+      <c r="DP3">
+        <v>2.5</v>
+      </c>
+      <c r="DQ3">
+        <v>1.5</v>
+      </c>
+      <c r="DR3">
+        <v>1.24</v>
+      </c>
+      <c r="DS3">
+        <v>3.9</v>
+      </c>
+      <c r="DT3">
+        <v>3.55</v>
+      </c>
+      <c r="DU3">
+        <v>1.27</v>
+      </c>
+      <c r="DV3">
+        <v>1.12</v>
+      </c>
+      <c r="DW3">
+        <v>6.25</v>
+      </c>
+      <c r="DX3">
+        <v>5.25</v>
+      </c>
+      <c r="DY3">
+        <v>1.16</v>
+      </c>
+      <c r="DZ3">
+        <v>1.03</v>
+      </c>
+      <c r="EA3">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="EJ3">
+        <v>12</v>
+      </c>
+      <c r="EK3">
+        <v>12</v>
+      </c>
+      <c r="EL3">
+        <v>17</v>
+      </c>
+      <c r="EM3">
+        <v>34</v>
+      </c>
+      <c r="EN3">
+        <v>9</v>
+      </c>
+      <c r="EO3">
+        <v>6.5</v>
+      </c>
+      <c r="EP3">
+        <v>12</v>
+      </c>
+      <c r="EQ3">
+        <v>23</v>
+      </c>
+      <c r="ER3">
+        <v>11</v>
+      </c>
+      <c r="ES3">
+        <v>9</v>
+      </c>
+      <c r="ET3">
+        <v>13</v>
+      </c>
+      <c r="EU3">
+        <v>29</v>
+      </c>
+      <c r="EV3">
+        <v>21</v>
+      </c>
+      <c r="EW3">
+        <v>17</v>
+      </c>
+      <c r="EX3">
+        <v>23</v>
+      </c>
+      <c r="EY3">
+        <v>41</v>
+      </c>
+      <c r="EZ3">
+        <v>67</v>
+      </c>
+      <c r="FA3">
+        <v>51</v>
+      </c>
+      <c r="FB3">
+        <v>51</v>
+      </c>
+      <c r="FC3">
+        <v>81</v>
+      </c>
+      <c r="FD3">
+        <v>41</v>
+      </c>
+      <c r="FE3">
+        <v>34</v>
+      </c>
+      <c r="FF3">
+        <v>41</v>
+      </c>
+      <c r="FG3">
+        <v>81</v>
+      </c>
+      <c r="FH3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4">
+        <v>2.3</v>
+      </c>
+      <c r="I4">
+        <v>2.3</v>
+      </c>
+      <c r="J4">
+        <v>4.75</v>
+      </c>
+      <c r="K4">
+        <v>2.25</v>
+      </c>
+      <c r="L4">
+        <v>2.38</v>
+      </c>
+      <c r="M4">
+        <v>4.75</v>
+      </c>
+      <c r="N4">
+        <v>1.33</v>
+      </c>
+      <c r="O4">
+        <v>3.25</v>
+      </c>
+      <c r="P4">
+        <v>1.33</v>
+      </c>
+      <c r="Q4">
+        <v>3.25</v>
+      </c>
+      <c r="R4">
+        <v>1.7</v>
+      </c>
+      <c r="S4">
+        <v>2.1</v>
+      </c>
+      <c r="T4">
+        <v>1.7</v>
+      </c>
+      <c r="U4">
+        <v>2.1</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>1.5</v>
+      </c>
+      <c r="X4">
+        <v>2.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.5</v>
+      </c>
+      <c r="Z4">
+        <v>4.75</v>
+      </c>
+      <c r="AA4">
+        <v>1.17</v>
+      </c>
+      <c r="AB4">
+        <v>4.74</v>
+      </c>
+      <c r="AC4">
+        <v>1.17</v>
+      </c>
+      <c r="AD4">
+        <v>6.5</v>
+      </c>
+      <c r="AE4">
+        <v>1.11</v>
+      </c>
+      <c r="AF4">
+        <v>6.5</v>
+      </c>
+      <c r="AG4">
+        <v>1.11</v>
+      </c>
+      <c r="AH4">
+        <v>1.73</v>
+      </c>
+      <c r="AI4">
+        <v>4</v>
+      </c>
+      <c r="AJ4">
+        <v>4.5</v>
+      </c>
+      <c r="AK4">
+        <v>1.67</v>
+      </c>
+      <c r="AL4">
+        <v>4</v>
+      </c>
+      <c r="AM4">
+        <v>4.5</v>
+      </c>
+      <c r="AN4">
+        <v>1.18</v>
+      </c>
+      <c r="AO4">
+        <v>1.22</v>
+      </c>
+      <c r="AP4">
+        <v>2.05</v>
+      </c>
+      <c r="AQ4">
+        <v>1.18</v>
+      </c>
+      <c r="AR4">
+        <v>1.22</v>
+      </c>
+      <c r="AS4">
+        <v>2.15</v>
+      </c>
+      <c r="AT4">
+        <v>1.7</v>
+      </c>
+      <c r="AU4">
+        <v>2.05</v>
+      </c>
+      <c r="AV4">
+        <v>1.75</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>1.04</v>
+      </c>
+      <c r="AY4">
+        <v>13</v>
+      </c>
+      <c r="AZ4">
+        <v>1.04</v>
+      </c>
+      <c r="BA4">
+        <v>13</v>
+      </c>
+      <c r="BB4">
+        <v>1.01</v>
+      </c>
+      <c r="BC4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BD4">
+        <v>1.04</v>
+      </c>
+      <c r="BE4">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF4">
+        <v>1.22</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>1.22</v>
+      </c>
+      <c r="BI4">
+        <v>4</v>
+      </c>
+      <c r="BJ4">
+        <v>1.31</v>
+      </c>
+      <c r="BK4">
+        <v>3.2</v>
+      </c>
+      <c r="BL4">
+        <v>1.31</v>
+      </c>
+      <c r="BM4">
+        <v>3.3</v>
+      </c>
+      <c r="BN4">
+        <v>1.7</v>
+      </c>
+      <c r="BO4">
+        <v>2.1</v>
+      </c>
+      <c r="BP4">
+        <v>1.7</v>
+      </c>
+      <c r="BQ4">
+        <v>2.1</v>
+      </c>
+      <c r="BR4">
+        <v>2.13</v>
+      </c>
+      <c r="BS4">
+        <v>1.65</v>
+      </c>
+      <c r="BT4">
+        <v>2.1</v>
+      </c>
+      <c r="BU4">
+        <v>1.69</v>
+      </c>
+      <c r="BV4">
+        <v>2.75</v>
+      </c>
+      <c r="BW4">
+        <v>1.4</v>
+      </c>
+      <c r="BX4">
+        <v>2.75</v>
+      </c>
+      <c r="BY4">
+        <v>1.4</v>
+      </c>
+      <c r="BZ4">
+        <v>4.05</v>
+      </c>
+      <c r="CA4">
+        <v>1.18</v>
+      </c>
+      <c r="CB4">
+        <v>4</v>
+      </c>
+      <c r="CC4">
+        <v>1.22</v>
+      </c>
+      <c r="CD4">
+        <v>5</v>
+      </c>
+      <c r="CE4">
+        <v>1.17</v>
+      </c>
+      <c r="CF4">
+        <v>5</v>
+      </c>
+      <c r="CG4">
+        <v>1.17</v>
+      </c>
+      <c r="CH4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="CI4">
+        <v>1.03</v>
+      </c>
+      <c r="CJ4">
+        <v>7.8</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL4">
+        <v>11</v>
+      </c>
+      <c r="CM4">
+        <v>1.05</v>
+      </c>
+      <c r="CN4">
+        <v>11</v>
+      </c>
+      <c r="CO4">
+        <v>1.05</v>
+      </c>
+      <c r="CT4">
+        <v>21</v>
+      </c>
+      <c r="CU4">
+        <v>1.02</v>
+      </c>
+      <c r="CV4">
+        <v>21</v>
+      </c>
+      <c r="CW4">
+        <v>1.02</v>
+      </c>
+      <c r="DB4">
+        <v>51</v>
+      </c>
+      <c r="DC4">
+        <v>50</v>
+      </c>
+      <c r="DD4">
+        <v>51</v>
+      </c>
+      <c r="DE4">
+        <v>50</v>
+      </c>
+      <c r="DJ4">
+        <v>1.3</v>
+      </c>
+      <c r="DK4">
+        <v>3.45</v>
+      </c>
+      <c r="DL4">
+        <v>1.48</v>
+      </c>
+      <c r="DM4">
+        <v>2.6</v>
+      </c>
+      <c r="DN4">
+        <v>1.24</v>
+      </c>
+      <c r="DO4">
+        <v>3.9</v>
+      </c>
+      <c r="DP4">
+        <v>1.88</v>
+      </c>
+      <c r="DQ4">
+        <v>1.98</v>
+      </c>
+      <c r="DR4">
+        <v>1.13</v>
+      </c>
+      <c r="DS4">
+        <v>5.9</v>
+      </c>
+      <c r="DT4">
+        <v>2.42</v>
+      </c>
+      <c r="DU4">
+        <v>1.52</v>
+      </c>
+      <c r="DV4">
+        <v>1.05</v>
+      </c>
+      <c r="DW4">
+        <v>8.25</v>
+      </c>
+      <c r="DX4">
+        <v>3.45</v>
+      </c>
+      <c r="DY4">
+        <v>1.3</v>
+      </c>
+      <c r="DZ4">
+        <v>1.01</v>
+      </c>
+      <c r="EA4">
+        <v>11.5</v>
+      </c>
+      <c r="EB4">
+        <v>5.25</v>
+      </c>
+      <c r="EC4">
+        <v>1.16</v>
+      </c>
+      <c r="EF4">
+        <v>7</v>
+      </c>
+      <c r="EG4">
+        <v>1.1</v>
+      </c>
+      <c r="EJ4">
+        <v>13</v>
+      </c>
+      <c r="EK4">
+        <v>15</v>
+      </c>
+      <c r="EL4">
+        <v>23</v>
+      </c>
+      <c r="EM4">
+        <v>51</v>
+      </c>
+      <c r="EN4">
+        <v>8</v>
+      </c>
+      <c r="EO4">
+        <v>7.5</v>
+      </c>
+      <c r="EP4">
+        <v>15</v>
+      </c>
+      <c r="EQ4">
+        <v>34</v>
+      </c>
+      <c r="ER4">
+        <v>9</v>
+      </c>
+      <c r="ES4">
+        <v>8.5</v>
+      </c>
+      <c r="ET4">
+        <v>15</v>
+      </c>
+      <c r="EU4">
+        <v>34</v>
+      </c>
+      <c r="EV4">
+        <v>13</v>
+      </c>
+      <c r="EW4">
+        <v>13</v>
+      </c>
+      <c r="EX4">
+        <v>23</v>
+      </c>
+      <c r="EY4">
+        <v>41</v>
+      </c>
+      <c r="EZ4">
+        <v>101</v>
+      </c>
+      <c r="FA4">
+        <v>67</v>
+      </c>
+      <c r="FB4">
+        <v>81</v>
+      </c>
+      <c r="FC4">
+        <v>101</v>
+      </c>
+      <c r="FD4">
+        <v>26</v>
+      </c>
+      <c r="FE4">
+        <v>26</v>
+      </c>
+      <c r="FF4">
+        <v>41</v>
+      </c>
+      <c r="FG4">
+        <v>67</v>
+      </c>
+      <c r="FH4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5">
+        <v>2.4</v>
+      </c>
+      <c r="I5">
+        <v>2.3</v>
+      </c>
+      <c r="J5">
+        <v>4.33</v>
+      </c>
+      <c r="K5">
+        <v>2.4</v>
+      </c>
+      <c r="L5">
+        <v>2.3</v>
+      </c>
+      <c r="M5">
+        <v>4.33</v>
+      </c>
+      <c r="N5">
+        <v>1.33</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>1.33</v>
+      </c>
+      <c r="Q5">
+        <v>3.25</v>
+      </c>
+      <c r="R5">
+        <v>1.75</v>
+      </c>
+      <c r="S5">
+        <v>2.05</v>
+      </c>
+      <c r="T5">
+        <v>1.73</v>
+      </c>
+      <c r="U5">
+        <v>2.08</v>
+      </c>
+      <c r="V5">
+        <v>2.63</v>
+      </c>
+      <c r="W5">
+        <v>1.44</v>
+      </c>
+      <c r="X5">
+        <v>2.63</v>
+      </c>
+      <c r="Y5">
+        <v>1.44</v>
+      </c>
+      <c r="Z5">
+        <v>5.05</v>
+      </c>
+      <c r="AA5">
+        <v>1.15</v>
+      </c>
+      <c r="AB5">
+        <v>4.7</v>
+      </c>
+      <c r="AC5">
+        <v>1.17</v>
+      </c>
+      <c r="AD5">
+        <v>6.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.11</v>
+      </c>
+      <c r="AF5">
+        <v>6.5</v>
+      </c>
+      <c r="AG5">
+        <v>1.11</v>
+      </c>
+      <c r="AH5">
+        <v>1.83</v>
+      </c>
+      <c r="AI5">
+        <v>3.75</v>
+      </c>
+      <c r="AJ5">
+        <v>4.2</v>
+      </c>
+      <c r="AK5">
+        <v>1.8</v>
+      </c>
+      <c r="AL5">
+        <v>3.75</v>
+      </c>
+      <c r="AM5">
+        <v>4</v>
+      </c>
+      <c r="AN5">
+        <v>1.22</v>
+      </c>
+      <c r="AO5">
+        <v>1.25</v>
+      </c>
+      <c r="AP5">
+        <v>1.91</v>
+      </c>
+      <c r="AQ5">
+        <v>1.22</v>
+      </c>
+      <c r="AR5">
+        <v>1.25</v>
+      </c>
+      <c r="AS5">
+        <v>1.95</v>
+      </c>
+      <c r="AT5">
+        <v>1.7</v>
+      </c>
+      <c r="AU5">
+        <v>2.05</v>
+      </c>
+      <c r="AV5">
+        <v>1.7</v>
+      </c>
+      <c r="AW5">
+        <v>2.05</v>
+      </c>
+      <c r="AX5">
+        <v>1.04</v>
+      </c>
+      <c r="AY5">
+        <v>13</v>
+      </c>
+      <c r="AZ5">
+        <v>1.04</v>
+      </c>
+      <c r="BA5">
+        <v>13</v>
+      </c>
+      <c r="BB5">
+        <v>1.02</v>
+      </c>
+      <c r="BC5">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BD5">
+        <v>1.04</v>
+      </c>
+      <c r="BE5">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF5">
+        <v>1.22</v>
+      </c>
+      <c r="BG5">
+        <v>4</v>
+      </c>
+      <c r="BH5">
+        <v>1.22</v>
+      </c>
+      <c r="BI5">
+        <v>4</v>
+      </c>
+      <c r="BJ5">
+        <v>1.35</v>
+      </c>
+      <c r="BK5">
+        <v>2.98</v>
+      </c>
+      <c r="BL5">
+        <v>1.31</v>
+      </c>
+      <c r="BM5">
+        <v>3.3</v>
+      </c>
+      <c r="BN5">
+        <v>1.75</v>
+      </c>
+      <c r="BO5">
+        <v>2.05</v>
+      </c>
+      <c r="BP5">
+        <v>1.73</v>
+      </c>
+      <c r="BQ5">
+        <v>2.08</v>
+      </c>
+      <c r="BR5">
+        <v>2.26</v>
+      </c>
+      <c r="BS5">
+        <v>1.58</v>
+      </c>
+      <c r="BT5">
+        <v>2.1</v>
+      </c>
+      <c r="BU5">
+        <v>1.69</v>
+      </c>
+      <c r="BV5">
+        <v>2.75</v>
+      </c>
+      <c r="BW5">
+        <v>1.4</v>
+      </c>
+      <c r="BX5">
+        <v>2.75</v>
+      </c>
+      <c r="BY5">
+        <v>1.4</v>
+      </c>
+      <c r="BZ5">
+        <v>4.4</v>
+      </c>
+      <c r="CA5">
+        <v>1.16</v>
+      </c>
+      <c r="CB5">
+        <v>4</v>
+      </c>
+      <c r="CC5">
+        <v>1.22</v>
+      </c>
+      <c r="CD5">
+        <v>5.5</v>
+      </c>
+      <c r="CE5">
+        <v>1.14</v>
+      </c>
+      <c r="CF5">
+        <v>5.5</v>
+      </c>
+      <c r="CG5">
+        <v>1.14</v>
+      </c>
+      <c r="CH5">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CI5">
+        <v>1.02</v>
+      </c>
+      <c r="CJ5">
+        <v>7.8</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL5">
+        <v>11</v>
+      </c>
+      <c r="CM5">
+        <v>1.05</v>
+      </c>
+      <c r="CN5">
+        <v>11</v>
+      </c>
+      <c r="CO5">
+        <v>1.05</v>
+      </c>
+      <c r="CT5">
+        <v>23</v>
+      </c>
+      <c r="CU5">
+        <v>1.01</v>
+      </c>
+      <c r="CV5">
+        <v>23</v>
+      </c>
+      <c r="CW5">
+        <v>1.01</v>
+      </c>
+      <c r="DB5">
+        <v>51</v>
+      </c>
+      <c r="DC5">
+        <v>50</v>
+      </c>
+      <c r="DD5">
+        <v>51</v>
+      </c>
+      <c r="DE5">
+        <v>50</v>
+      </c>
+      <c r="DJ5">
+        <v>1.38</v>
+      </c>
+      <c r="DK5">
+        <v>3</v>
+      </c>
+      <c r="DL5">
+        <v>1.57</v>
+      </c>
+      <c r="DM5">
+        <v>2.35</v>
+      </c>
+      <c r="DN5">
+        <v>1.3</v>
+      </c>
+      <c r="DO5">
+        <v>3.45</v>
+      </c>
+      <c r="DP5">
+        <v>2.05</v>
+      </c>
+      <c r="DQ5">
+        <v>1.75</v>
+      </c>
+      <c r="DR5">
+        <v>1.16</v>
+      </c>
+      <c r="DS5">
+        <v>5.25</v>
+      </c>
+      <c r="DT5">
+        <v>2.75</v>
+      </c>
+      <c r="DU5">
+        <v>1.43</v>
+      </c>
+      <c r="DV5">
+        <v>1.04</v>
+      </c>
+      <c r="DW5">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="DX5">
+        <v>3.9</v>
+      </c>
+      <c r="DY5">
+        <v>1.24</v>
+      </c>
+      <c r="EB5">
+        <v>6</v>
+      </c>
+      <c r="EC5">
+        <v>1.13</v>
+      </c>
+      <c r="EF5">
+        <v>8.65</v>
+      </c>
+      <c r="EG5">
+        <v>1.04</v>
+      </c>
+      <c r="EJ5">
+        <v>12</v>
+      </c>
+      <c r="EK5">
+        <v>13</v>
+      </c>
+      <c r="EL5">
+        <v>21</v>
+      </c>
+      <c r="EM5">
+        <v>41</v>
+      </c>
+      <c r="EN5">
+        <v>8</v>
+      </c>
+      <c r="EO5">
+        <v>7</v>
+      </c>
+      <c r="EP5">
+        <v>13</v>
+      </c>
+      <c r="EQ5">
+        <v>34</v>
+      </c>
+      <c r="ER5">
+        <v>9.5</v>
+      </c>
+      <c r="ES5">
+        <v>8.5</v>
+      </c>
+      <c r="ET5">
+        <v>13</v>
+      </c>
+      <c r="EU5">
+        <v>34</v>
+      </c>
+      <c r="EV5">
+        <v>15</v>
+      </c>
+      <c r="EW5">
+        <v>13</v>
+      </c>
+      <c r="EX5">
+        <v>23</v>
+      </c>
+      <c r="EY5">
+        <v>41</v>
+      </c>
+      <c r="EZ5">
+        <v>101</v>
+      </c>
+      <c r="FA5">
+        <v>67</v>
+      </c>
+      <c r="FB5">
+        <v>67</v>
+      </c>
+      <c r="FC5">
+        <v>101</v>
+      </c>
+      <c r="FD5">
+        <v>29</v>
+      </c>
+      <c r="FE5">
+        <v>29</v>
+      </c>
+      <c r="FF5">
+        <v>41</v>
+      </c>
+      <c r="FG5">
+        <v>81</v>
+      </c>
+      <c r="FH5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6">
+        <v>2.25</v>
+      </c>
+      <c r="I6">
+        <v>2.3</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>2.1</v>
+      </c>
+      <c r="L6">
+        <v>2.38</v>
+      </c>
+      <c r="M6">
+        <v>5.5</v>
+      </c>
+      <c r="N6">
+        <v>1.33</v>
+      </c>
+      <c r="O6">
+        <v>3.25</v>
+      </c>
+      <c r="P6">
+        <v>1.33</v>
+      </c>
+      <c r="Q6">
+        <v>3.25</v>
+      </c>
+      <c r="R6">
+        <v>1.73</v>
+      </c>
+      <c r="S6">
+        <v>2.08</v>
+      </c>
+      <c r="T6">
+        <v>1.7</v>
+      </c>
+      <c r="U6">
+        <v>2.1</v>
+      </c>
+      <c r="V6">
+        <v>2.63</v>
+      </c>
+      <c r="W6">
+        <v>1.44</v>
+      </c>
+      <c r="X6">
+        <v>2.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.5</v>
+      </c>
+      <c r="Z6">
+        <v>4.9</v>
+      </c>
+      <c r="AA6">
+        <v>1.16</v>
+      </c>
+      <c r="AB6">
+        <v>4.74</v>
+      </c>
+      <c r="AC6">
+        <v>1.17</v>
+      </c>
+      <c r="AD6">
+        <v>6.5</v>
+      </c>
+      <c r="AE6">
+        <v>1.11</v>
+      </c>
+      <c r="AF6">
+        <v>6.5</v>
+      </c>
+      <c r="AG6">
+        <v>1.11</v>
+      </c>
+      <c r="AH6">
+        <v>1.67</v>
+      </c>
+      <c r="AI6">
+        <v>4</v>
+      </c>
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AK6">
+        <v>1.6</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>5.5</v>
+      </c>
+      <c r="AN6">
+        <v>1.17</v>
+      </c>
+      <c r="AO6">
+        <v>1.22</v>
+      </c>
+      <c r="AP6">
+        <v>2.15</v>
+      </c>
+      <c r="AQ6">
+        <v>1.17</v>
+      </c>
+      <c r="AR6">
+        <v>1.22</v>
+      </c>
+      <c r="AS6">
+        <v>2.3</v>
+      </c>
+      <c r="AT6">
+        <v>1.75</v>
+      </c>
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6">
+        <v>1.75</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>1.04</v>
+      </c>
+      <c r="AY6">
+        <v>13</v>
+      </c>
+      <c r="AZ6">
+        <v>1.04</v>
+      </c>
+      <c r="BA6">
+        <v>13</v>
+      </c>
+      <c r="BB6">
+        <v>1.01</v>
+      </c>
+      <c r="BC6">
+        <v>9.6</v>
+      </c>
+      <c r="BD6">
+        <v>1.04</v>
+      </c>
+      <c r="BE6">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF6">
+        <v>1.22</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>1.22</v>
+      </c>
+      <c r="BI6">
+        <v>4</v>
+      </c>
+      <c r="BJ6">
+        <v>1.32</v>
+      </c>
+      <c r="BK6">
+        <v>3.14</v>
+      </c>
+      <c r="BL6">
+        <v>1.31</v>
+      </c>
+      <c r="BM6">
+        <v>3.3</v>
+      </c>
+      <c r="BN6">
+        <v>1.73</v>
+      </c>
+      <c r="BO6">
+        <v>2.08</v>
+      </c>
+      <c r="BP6">
+        <v>1.7</v>
+      </c>
+      <c r="BQ6">
+        <v>2.1</v>
+      </c>
+      <c r="BR6">
+        <v>2.18</v>
+      </c>
+      <c r="BS6">
+        <v>1.62</v>
+      </c>
+      <c r="BT6">
+        <v>2.1</v>
+      </c>
+      <c r="BU6">
+        <v>1.69</v>
+      </c>
+      <c r="BV6">
+        <v>2.75</v>
+      </c>
+      <c r="BW6">
+        <v>1.4</v>
+      </c>
+      <c r="BX6">
+        <v>2.63</v>
+      </c>
+      <c r="BY6">
+        <v>1.44</v>
+      </c>
+      <c r="BZ6">
+        <v>4.2</v>
+      </c>
+      <c r="CA6">
+        <v>1.17</v>
+      </c>
+      <c r="CB6">
+        <v>4</v>
+      </c>
+      <c r="CC6">
+        <v>1.22</v>
+      </c>
+      <c r="CD6">
+        <v>5.5</v>
+      </c>
+      <c r="CE6">
+        <v>1.14</v>
+      </c>
+      <c r="CF6">
+        <v>5</v>
+      </c>
+      <c r="CG6">
+        <v>1.17</v>
+      </c>
+      <c r="CH6">
+        <v>8.4</v>
+      </c>
+      <c r="CI6">
+        <v>1.03</v>
+      </c>
+      <c r="CJ6">
+        <v>7.9</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL6">
+        <v>11</v>
+      </c>
+      <c r="CM6">
+        <v>1.05</v>
+      </c>
+      <c r="CN6">
+        <v>11</v>
+      </c>
+      <c r="CO6">
+        <v>1.05</v>
+      </c>
+      <c r="CT6">
+        <v>23</v>
+      </c>
+      <c r="CU6">
+        <v>1.01</v>
+      </c>
+      <c r="CV6">
+        <v>21</v>
+      </c>
+      <c r="CW6">
+        <v>1.02</v>
+      </c>
+      <c r="DB6">
+        <v>51</v>
+      </c>
+      <c r="DC6">
+        <v>50</v>
+      </c>
+      <c r="DD6">
+        <v>51</v>
+      </c>
+      <c r="DE6">
+        <v>41</v>
+      </c>
+      <c r="DJ6">
+        <v>1.27</v>
+      </c>
+      <c r="DK6">
+        <v>3.55</v>
+      </c>
+      <c r="DL6">
+        <v>1.45</v>
+      </c>
+      <c r="DM6">
+        <v>2.67</v>
+      </c>
+      <c r="DN6">
+        <v>1.23</v>
+      </c>
+      <c r="DO6">
+        <v>4.1</v>
+      </c>
+      <c r="DP6">
+        <v>1.85</v>
+      </c>
+      <c r="DQ6">
+        <v>2</v>
+      </c>
+      <c r="DR6">
+        <v>1.12</v>
+      </c>
+      <c r="DS6">
+        <v>6.25</v>
+      </c>
+      <c r="DT6">
+        <v>2.42</v>
+      </c>
+      <c r="DU6">
+        <v>1.52</v>
+      </c>
+      <c r="DX6">
+        <v>3.3</v>
+      </c>
+      <c r="DY6">
+        <v>1.32</v>
+      </c>
+      <c r="EB6">
+        <v>5</v>
+      </c>
+      <c r="EC6">
+        <v>1.17</v>
+      </c>
+      <c r="EF6">
+        <v>7</v>
+      </c>
+      <c r="EG6">
+        <v>1.1</v>
+      </c>
+      <c r="EJ6">
+        <v>13</v>
+      </c>
+      <c r="EK6">
+        <v>15</v>
+      </c>
+      <c r="EL6">
+        <v>26</v>
+      </c>
+      <c r="EM6">
+        <v>51</v>
+      </c>
+      <c r="EN6">
+        <v>8</v>
+      </c>
+      <c r="EO6">
+        <v>7.5</v>
+      </c>
+      <c r="EP6">
+        <v>15</v>
+      </c>
+      <c r="EQ6">
+        <v>41</v>
+      </c>
+      <c r="ER6">
+        <v>8.5</v>
+      </c>
+      <c r="ES6">
+        <v>8.5</v>
+      </c>
+      <c r="ET6">
+        <v>15</v>
+      </c>
+      <c r="EU6">
+        <v>41</v>
+      </c>
+      <c r="EV6">
+        <v>13</v>
+      </c>
+      <c r="EW6">
+        <v>13</v>
+      </c>
+      <c r="EX6">
+        <v>23</v>
+      </c>
+      <c r="EY6">
+        <v>51</v>
+      </c>
+      <c r="EZ6">
+        <v>126</v>
+      </c>
+      <c r="FA6">
+        <v>81</v>
+      </c>
+      <c r="FB6">
+        <v>81</v>
+      </c>
+      <c r="FC6">
+        <v>126</v>
+      </c>
+      <c r="FD6">
+        <v>23</v>
+      </c>
+      <c r="FE6">
+        <v>23</v>
+      </c>
+      <c r="FF6">
+        <v>41</v>
+      </c>
+      <c r="FG6">
+        <v>81</v>
+      </c>
+      <c r="FH6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2.3</v>
+      </c>
+      <c r="J7">
+        <v>3.25</v>
+      </c>
+      <c r="K7">
+        <v>3.2</v>
+      </c>
+      <c r="L7">
+        <v>2.25</v>
+      </c>
+      <c r="M7">
+        <v>3.2</v>
+      </c>
+      <c r="N7">
+        <v>1.33</v>
+      </c>
+      <c r="O7">
+        <v>3.25</v>
+      </c>
+      <c r="P7">
+        <v>1.33</v>
+      </c>
+      <c r="Q7">
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <v>1.63</v>
+      </c>
+      <c r="S7">
+        <v>2.2</v>
+      </c>
+      <c r="T7">
+        <v>1.54</v>
+      </c>
+      <c r="U7">
+        <v>2.38</v>
+      </c>
+      <c r="V7">
+        <v>2.5</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.5</v>
+      </c>
+      <c r="Z7">
+        <v>4.6</v>
+      </c>
+      <c r="AA7">
+        <v>1.18</v>
+      </c>
+      <c r="AB7">
+        <v>4.34</v>
+      </c>
+      <c r="AC7">
+        <v>1.19</v>
+      </c>
+      <c r="AD7">
+        <v>6.5</v>
+      </c>
+      <c r="AE7">
+        <v>1.11</v>
+      </c>
+      <c r="AF7">
+        <v>6.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.11</v>
+      </c>
+      <c r="AH7">
+        <v>2.5</v>
+      </c>
+      <c r="AI7">
+        <v>3.4</v>
+      </c>
+      <c r="AJ7">
+        <v>2.8</v>
+      </c>
+      <c r="AK7">
+        <v>2.4</v>
+      </c>
+      <c r="AL7">
+        <v>3.5</v>
+      </c>
+      <c r="AM7">
+        <v>2.75</v>
+      </c>
+      <c r="AN7">
+        <v>1.4</v>
+      </c>
+      <c r="AO7">
+        <v>1.3</v>
+      </c>
+      <c r="AP7">
+        <v>1.5</v>
+      </c>
+      <c r="AQ7">
+        <v>1.4</v>
+      </c>
+      <c r="AR7">
+        <v>1.29</v>
+      </c>
+      <c r="AS7">
+        <v>1.57</v>
+      </c>
+      <c r="AT7">
+        <v>1.57</v>
+      </c>
+      <c r="AU7">
+        <v>2.25</v>
+      </c>
+      <c r="AV7">
+        <v>1.57</v>
+      </c>
+      <c r="AW7">
+        <v>2.25</v>
+      </c>
+      <c r="AX7">
+        <v>1.04</v>
+      </c>
+      <c r="AY7">
+        <v>13</v>
+      </c>
+      <c r="AZ7">
+        <v>1.04</v>
+      </c>
+      <c r="BA7">
+        <v>12</v>
+      </c>
+      <c r="BB7">
+        <v>1.01</v>
+      </c>
+      <c r="BC7">
+        <v>10.2</v>
+      </c>
+      <c r="BD7">
+        <v>1.03</v>
+      </c>
+      <c r="BE7">
+        <v>10</v>
+      </c>
+      <c r="BF7">
+        <v>1.2</v>
+      </c>
+      <c r="BG7">
+        <v>4.33</v>
+      </c>
+      <c r="BH7">
+        <v>1.2</v>
+      </c>
+      <c r="BI7">
+        <v>4.33</v>
+      </c>
+      <c r="BJ7">
+        <v>1.29</v>
+      </c>
+      <c r="BK7">
+        <v>3.35</v>
+      </c>
+      <c r="BL7">
+        <v>1.25</v>
+      </c>
+      <c r="BM7">
+        <v>3.7</v>
+      </c>
+      <c r="BN7">
+        <v>1.7</v>
+      </c>
+      <c r="BO7">
+        <v>2.1</v>
+      </c>
+      <c r="BP7">
+        <v>1.67</v>
+      </c>
+      <c r="BQ7">
+        <v>2.15</v>
+      </c>
+      <c r="BR7">
+        <v>2.05</v>
+      </c>
+      <c r="BS7">
+        <v>1.7</v>
+      </c>
+      <c r="BT7">
+        <v>1.92</v>
+      </c>
+      <c r="BU7">
+        <v>1.82</v>
+      </c>
+      <c r="BV7">
+        <v>2.63</v>
+      </c>
+      <c r="BW7">
+        <v>1.44</v>
+      </c>
+      <c r="BX7">
+        <v>2.63</v>
+      </c>
+      <c r="BY7">
+        <v>1.44</v>
+      </c>
+      <c r="BZ7">
+        <v>3.88</v>
+      </c>
+      <c r="CA7">
+        <v>1.2</v>
+      </c>
+      <c r="CB7">
+        <v>3.6</v>
+      </c>
+      <c r="CC7">
+        <v>1.26</v>
+      </c>
+      <c r="CD7">
+        <v>5</v>
+      </c>
+      <c r="CE7">
+        <v>1.17</v>
+      </c>
+      <c r="CF7">
+        <v>5</v>
+      </c>
+      <c r="CG7">
+        <v>1.17</v>
+      </c>
+      <c r="CH7">
+        <v>7.8</v>
+      </c>
+      <c r="CI7">
+        <v>1.04</v>
+      </c>
+      <c r="CJ7">
+        <v>6.8</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL7">
+        <v>10</v>
+      </c>
+      <c r="CM7">
+        <v>1.06</v>
+      </c>
+      <c r="CN7">
+        <v>10</v>
+      </c>
+      <c r="CO7">
+        <v>1.06</v>
+      </c>
+      <c r="CT7">
+        <v>21</v>
+      </c>
+      <c r="CU7">
+        <v>1.02</v>
+      </c>
+      <c r="CV7">
+        <v>21</v>
+      </c>
+      <c r="CW7">
+        <v>1.02</v>
+      </c>
+      <c r="DB7">
+        <v>41</v>
+      </c>
+      <c r="DC7">
+        <v>41</v>
+      </c>
+      <c r="DD7">
+        <v>41</v>
+      </c>
+      <c r="DE7">
+        <v>41</v>
+      </c>
+      <c r="DJ7">
+        <v>1.77</v>
+      </c>
+      <c r="DK7">
+        <v>2.1</v>
+      </c>
+      <c r="DL7">
+        <v>2.08</v>
+      </c>
+      <c r="DM7">
+        <v>1.73</v>
+      </c>
+      <c r="DN7">
+        <v>1.55</v>
+      </c>
+      <c r="DO7">
+        <v>2.38</v>
+      </c>
+      <c r="DP7">
+        <v>2.85</v>
+      </c>
+      <c r="DQ7">
+        <v>1.4</v>
+      </c>
+      <c r="DR7">
+        <v>1.3</v>
+      </c>
+      <c r="DS7">
+        <v>3.45</v>
+      </c>
+      <c r="DT7">
+        <v>4.15</v>
+      </c>
+      <c r="DU7">
+        <v>1.22</v>
+      </c>
+      <c r="DV7">
+        <v>1.16</v>
+      </c>
+      <c r="DW7">
+        <v>5.25</v>
+      </c>
+      <c r="DX7">
+        <v>5.9</v>
+      </c>
+      <c r="DY7">
+        <v>1.13</v>
+      </c>
+      <c r="DZ7">
+        <v>1.1</v>
+      </c>
+      <c r="EA7">
+        <v>7</v>
+      </c>
+      <c r="EJ7">
+        <v>13</v>
+      </c>
+      <c r="EK7">
+        <v>12</v>
+      </c>
+      <c r="EL7">
+        <v>15</v>
+      </c>
+      <c r="EM7">
+        <v>29</v>
+      </c>
+      <c r="EN7">
+        <v>11</v>
+      </c>
+      <c r="EO7">
+        <v>6.5</v>
+      </c>
+      <c r="EP7">
+        <v>11</v>
+      </c>
+      <c r="EQ7">
+        <v>21</v>
+      </c>
+      <c r="ER7">
+        <v>13</v>
+      </c>
+      <c r="ES7">
+        <v>10</v>
+      </c>
+      <c r="ET7">
+        <v>11</v>
+      </c>
+      <c r="EU7">
+        <v>26</v>
+      </c>
+      <c r="EV7">
+        <v>23</v>
+      </c>
+      <c r="EW7">
+        <v>19</v>
+      </c>
+      <c r="EX7">
+        <v>23</v>
+      </c>
+      <c r="EY7">
+        <v>34</v>
+      </c>
+      <c r="EZ7">
+        <v>51</v>
+      </c>
+      <c r="FA7">
+        <v>41</v>
+      </c>
+      <c r="FB7">
+        <v>51</v>
+      </c>
+      <c r="FC7">
+        <v>67</v>
+      </c>
+      <c r="FD7">
+        <v>41</v>
+      </c>
+      <c r="FE7">
+        <v>41</v>
+      </c>
+      <c r="FF7">
+        <v>41</v>
+      </c>
+      <c r="FG7">
+        <v>67</v>
+      </c>
+      <c r="FH7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
+      <c r="A8" s="1">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8">
+        <v>2.75</v>
+      </c>
+      <c r="I8">
+        <v>2.2</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>2.4</v>
+      </c>
+      <c r="L8">
+        <v>2.3</v>
+      </c>
+      <c r="M8">
+        <v>4.33</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>2.75</v>
+      </c>
+      <c r="P8">
+        <v>1.33</v>
+      </c>
+      <c r="Q8">
+        <v>3.25</v>
+      </c>
+      <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>1.7</v>
+      </c>
+      <c r="U8">
+        <v>2.1</v>
+      </c>
+      <c r="V8">
+        <v>2.75</v>
+      </c>
+      <c r="W8">
+        <v>1.4</v>
+      </c>
+      <c r="X8">
+        <v>2.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.5</v>
+      </c>
+      <c r="Z8">
+        <v>5.85</v>
+      </c>
+      <c r="AA8">
+        <v>1.11</v>
+      </c>
+      <c r="AB8">
+        <v>4.7</v>
+      </c>
+      <c r="AC8">
+        <v>1.17</v>
+      </c>
+      <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>1.08</v>
+      </c>
+      <c r="AF8">
+        <v>6.5</v>
+      </c>
+      <c r="AG8">
+        <v>1.11</v>
+      </c>
+      <c r="AH8">
+        <v>2.05</v>
+      </c>
+      <c r="AI8">
+        <v>3.5</v>
+      </c>
+      <c r="AJ8">
+        <v>3.5</v>
+      </c>
+      <c r="AK8">
+        <v>1.8</v>
+      </c>
+      <c r="AL8">
+        <v>3.6</v>
+      </c>
+      <c r="AM8">
+        <v>4.33</v>
+      </c>
+      <c r="AN8">
+        <v>1.29</v>
+      </c>
+      <c r="AO8">
+        <v>1.29</v>
+      </c>
+      <c r="AP8">
+        <v>1.73</v>
+      </c>
+      <c r="AQ8">
+        <v>1.2</v>
+      </c>
+      <c r="AR8">
+        <v>1.29</v>
+      </c>
+      <c r="AS8">
+        <v>1.95</v>
+      </c>
+      <c r="AT8">
+        <v>1.75</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AV8">
+        <v>1.67</v>
+      </c>
+      <c r="AW8">
+        <v>2.1</v>
+      </c>
+      <c r="AX8">
+        <v>1.05</v>
+      </c>
+      <c r="AY8">
+        <v>11</v>
+      </c>
+      <c r="AZ8">
+        <v>1.04</v>
+      </c>
+      <c r="BA8">
+        <v>13</v>
+      </c>
+      <c r="BB8">
+        <v>1.04</v>
+      </c>
+      <c r="BC8">
+        <v>7.9</v>
+      </c>
+      <c r="BD8">
+        <v>1.04</v>
+      </c>
+      <c r="BE8">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF8">
+        <v>1.29</v>
+      </c>
+      <c r="BG8">
+        <v>3.5</v>
+      </c>
+      <c r="BH8">
+        <v>1.2</v>
+      </c>
+      <c r="BI8">
+        <v>4.33</v>
+      </c>
+      <c r="BJ8">
+        <v>1.44</v>
+      </c>
+      <c r="BK8">
+        <v>2.61</v>
+      </c>
+      <c r="BL8">
+        <v>1.31</v>
+      </c>
+      <c r="BM8">
+        <v>3.3</v>
+      </c>
+      <c r="BN8">
+        <v>1.95</v>
+      </c>
+      <c r="BO8">
+        <v>1.9</v>
+      </c>
+      <c r="BP8">
+        <v>1.7</v>
+      </c>
+      <c r="BQ8">
+        <v>2.1</v>
+      </c>
+      <c r="BR8">
+        <v>2.61</v>
+      </c>
+      <c r="BS8">
+        <v>1.44</v>
+      </c>
+      <c r="BT8">
+        <v>2.1</v>
+      </c>
+      <c r="BU8">
+        <v>1.69</v>
+      </c>
+      <c r="BV8">
+        <v>3.25</v>
+      </c>
+      <c r="BW8">
+        <v>1.33</v>
+      </c>
+      <c r="BX8">
+        <v>2.63</v>
+      </c>
+      <c r="BY8">
+        <v>1.44</v>
+      </c>
+      <c r="BZ8">
+        <v>5.3</v>
+      </c>
+      <c r="CA8">
+        <v>1.11</v>
+      </c>
+      <c r="CB8">
+        <v>4</v>
+      </c>
+      <c r="CC8">
+        <v>1.22</v>
+      </c>
+      <c r="CD8">
+        <v>6.5</v>
+      </c>
+      <c r="CE8">
+        <v>1.11</v>
+      </c>
+      <c r="CF8">
+        <v>5</v>
+      </c>
+      <c r="CG8">
+        <v>1.17</v>
+      </c>
+      <c r="CH8">
+        <v>10</v>
+      </c>
+      <c r="CI8">
+        <v>1.03</v>
+      </c>
+      <c r="CJ8">
+        <v>7.8</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL8">
+        <v>15</v>
+      </c>
+      <c r="CM8">
+        <v>1.03</v>
+      </c>
+      <c r="CN8">
+        <v>11</v>
+      </c>
+      <c r="CO8">
+        <v>1.05</v>
+      </c>
+      <c r="CT8">
+        <v>29</v>
+      </c>
+      <c r="CU8">
+        <v>1.01</v>
+      </c>
+      <c r="CV8">
+        <v>21</v>
+      </c>
+      <c r="CW8">
+        <v>1.02</v>
+      </c>
+      <c r="DB8">
+        <v>51</v>
+      </c>
+      <c r="DC8">
+        <v>50</v>
+      </c>
+      <c r="DD8">
+        <v>41</v>
+      </c>
+      <c r="DE8">
+        <v>41</v>
+      </c>
+      <c r="DJ8">
+        <v>1.52</v>
+      </c>
+      <c r="DK8">
+        <v>2.42</v>
+      </c>
+      <c r="DL8">
+        <v>1.8</v>
+      </c>
+      <c r="DM8">
+        <v>2.05</v>
+      </c>
+      <c r="DN8">
+        <v>1.4</v>
+      </c>
+      <c r="DO8">
+        <v>2.85</v>
+      </c>
+      <c r="DP8">
+        <v>2.35</v>
+      </c>
+      <c r="DQ8">
+        <v>1.57</v>
+      </c>
+      <c r="DR8">
+        <v>1.21</v>
+      </c>
+      <c r="DS8">
+        <v>4.25</v>
+      </c>
+      <c r="DT8">
+        <v>3.45</v>
+      </c>
+      <c r="DU8">
+        <v>1.3</v>
+      </c>
+      <c r="DV8">
+        <v>1.1</v>
+      </c>
+      <c r="DW8">
+        <v>7</v>
+      </c>
+      <c r="DX8">
+        <v>5</v>
+      </c>
+      <c r="DY8">
+        <v>1.17</v>
+      </c>
+      <c r="EB8">
+        <v>7</v>
+      </c>
+      <c r="EC8">
+        <v>1.1</v>
+      </c>
+      <c r="EJ8">
+        <v>11</v>
+      </c>
+      <c r="EK8">
+        <v>11</v>
+      </c>
+      <c r="EL8">
+        <v>17</v>
+      </c>
+      <c r="EM8">
+        <v>41</v>
+      </c>
+      <c r="EN8">
+        <v>8</v>
+      </c>
+      <c r="EO8">
+        <v>6.5</v>
+      </c>
+      <c r="EP8">
+        <v>12</v>
+      </c>
+      <c r="EQ8">
+        <v>29</v>
+      </c>
+      <c r="ER8">
+        <v>10</v>
+      </c>
+      <c r="ES8">
+        <v>9</v>
+      </c>
+      <c r="ET8">
+        <v>15</v>
+      </c>
+      <c r="EU8">
+        <v>34</v>
+      </c>
+      <c r="EV8">
+        <v>19</v>
+      </c>
+      <c r="EW8">
+        <v>17</v>
+      </c>
+      <c r="EX8">
+        <v>26</v>
+      </c>
+      <c r="EY8">
+        <v>51</v>
+      </c>
+      <c r="EZ8">
+        <v>81</v>
+      </c>
+      <c r="FA8">
+        <v>51</v>
+      </c>
+      <c r="FB8">
+        <v>67</v>
+      </c>
+      <c r="FC8">
+        <v>101</v>
+      </c>
+      <c r="FD8">
+        <v>41</v>
+      </c>
+      <c r="FE8">
+        <v>34</v>
+      </c>
+      <c r="FF8">
+        <v>51</v>
+      </c>
+      <c r="FG8">
+        <v>81</v>
+      </c>
+      <c r="FH8">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="200">
   <si>
     <t>Date</t>
   </si>
@@ -503,6 +503,117 @@
   </si>
   <si>
     <t>FT_Odd_CS_4x4</t>
+  </si>
+  <si>
+    <t>22/06/2023</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>ARGENTINA - LIGA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE A</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE B</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>America MG</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Botafogo RJ</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Flamengo RJ</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>ROUND 21</t>
+  </si>
+  <si>
+    <t>ROUND 11</t>
+  </si>
+  <si>
+    <t>ROUND 13</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.04</t>
   </si>
 </sst>
 </file>
@@ -860,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:FH1"/>
+  <dimension ref="A1:FH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:164">
+    <row r="1" spans="1:164">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,6 +1466,4208 @@
       </c>
       <c r="FH1" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:164">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2">
+        <v>3.1</v>
+      </c>
+      <c r="I2">
+        <v>1.91</v>
+      </c>
+      <c r="J2">
+        <v>4.33</v>
+      </c>
+      <c r="K2">
+        <v>3.1</v>
+      </c>
+      <c r="L2">
+        <v>1.95</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1.57</v>
+      </c>
+      <c r="O2">
+        <v>2.25</v>
+      </c>
+      <c r="P2">
+        <v>1.57</v>
+      </c>
+      <c r="Q2">
+        <v>2.25</v>
+      </c>
+      <c r="R2">
+        <v>2.44</v>
+      </c>
+      <c r="S2">
+        <v>1.52</v>
+      </c>
+      <c r="T2">
+        <v>2.3</v>
+      </c>
+      <c r="U2">
+        <v>1.57</v>
+      </c>
+      <c r="V2">
+        <v>3.75</v>
+      </c>
+      <c r="W2">
+        <v>1.25</v>
+      </c>
+      <c r="X2">
+        <v>3.75</v>
+      </c>
+      <c r="Y2">
+        <v>1.25</v>
+      </c>
+      <c r="Z2">
+        <v>9</v>
+      </c>
+      <c r="AA2">
+        <v>1.05</v>
+      </c>
+      <c r="AB2">
+        <v>8.6</v>
+      </c>
+      <c r="AC2">
+        <v>1.05</v>
+      </c>
+      <c r="AD2">
+        <v>13</v>
+      </c>
+      <c r="AE2">
+        <v>1.04</v>
+      </c>
+      <c r="AF2">
+        <v>11</v>
+      </c>
+      <c r="AG2">
+        <v>1.05</v>
+      </c>
+      <c r="AH2">
+        <v>2.25</v>
+      </c>
+      <c r="AI2">
+        <v>3</v>
+      </c>
+      <c r="AJ2">
+        <v>3.5</v>
+      </c>
+      <c r="AK2">
+        <v>2.25</v>
+      </c>
+      <c r="AL2">
+        <v>3</v>
+      </c>
+      <c r="AM2">
+        <v>3.3</v>
+      </c>
+      <c r="AN2">
+        <v>1.29</v>
+      </c>
+      <c r="AO2">
+        <v>1.36</v>
+      </c>
+      <c r="AP2">
+        <v>1.62</v>
+      </c>
+      <c r="AQ2">
+        <v>1.33</v>
+      </c>
+      <c r="AR2">
+        <v>1.36</v>
+      </c>
+      <c r="AS2">
+        <v>1.62</v>
+      </c>
+      <c r="AT2">
+        <v>2.1</v>
+      </c>
+      <c r="AU2">
+        <v>1.67</v>
+      </c>
+      <c r="AV2">
+        <v>2.1</v>
+      </c>
+      <c r="AW2">
+        <v>1.67</v>
+      </c>
+      <c r="AX2">
+        <v>1.1</v>
+      </c>
+      <c r="AY2">
+        <v>7</v>
+      </c>
+      <c r="AZ2">
+        <v>1.11</v>
+      </c>
+      <c r="BA2">
+        <v>6.5</v>
+      </c>
+      <c r="BB2">
+        <v>1.12</v>
+      </c>
+      <c r="BC2">
+        <v>4.95</v>
+      </c>
+      <c r="BD2">
+        <v>1.17</v>
+      </c>
+      <c r="BE2">
+        <v>5.1</v>
+      </c>
+      <c r="BF2">
+        <v>1.5</v>
+      </c>
+      <c r="BG2">
+        <v>2.5</v>
+      </c>
+      <c r="BH2">
+        <v>1.5</v>
+      </c>
+      <c r="BI2">
+        <v>2.5</v>
+      </c>
+      <c r="BJ2">
+        <v>1.95</v>
+      </c>
+      <c r="BK2">
+        <v>1.9</v>
+      </c>
+      <c r="BL2">
+        <v>1.93</v>
+      </c>
+      <c r="BM2">
+        <v>1.93</v>
+      </c>
+      <c r="BN2">
+        <v>2.6</v>
+      </c>
+      <c r="BO2">
+        <v>1.48</v>
+      </c>
+      <c r="BP2">
+        <v>2.5</v>
+      </c>
+      <c r="BQ2">
+        <v>1.5</v>
+      </c>
+      <c r="BR2">
+        <v>4.25</v>
+      </c>
+      <c r="BS2">
+        <v>1.19</v>
+      </c>
+      <c r="BT2">
+        <v>4.1</v>
+      </c>
+      <c r="BU2">
+        <v>1.25</v>
+      </c>
+      <c r="BV2">
+        <v>5</v>
+      </c>
+      <c r="BW2">
+        <v>1.17</v>
+      </c>
+      <c r="BX2">
+        <v>5</v>
+      </c>
+      <c r="BY2">
+        <v>1.17</v>
+      </c>
+      <c r="BZ2">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>1.02</v>
+      </c>
+      <c r="CB2">
+        <v>8</v>
+      </c>
+      <c r="CC2">
+        <v>1.08</v>
+      </c>
+      <c r="CD2">
+        <v>13</v>
+      </c>
+      <c r="CE2">
+        <v>1.04</v>
+      </c>
+      <c r="CF2">
+        <v>11</v>
+      </c>
+      <c r="CG2">
+        <v>1.05</v>
+      </c>
+      <c r="CL2">
+        <v>26</v>
+      </c>
+      <c r="CM2">
+        <v>1.01</v>
+      </c>
+      <c r="CN2">
+        <v>26</v>
+      </c>
+      <c r="CO2">
+        <v>1.01</v>
+      </c>
+      <c r="CT2">
+        <v>51</v>
+      </c>
+      <c r="CU2">
+        <v>50</v>
+      </c>
+      <c r="CV2">
+        <v>51</v>
+      </c>
+      <c r="CW2">
+        <v>50</v>
+      </c>
+      <c r="DJ2">
+        <v>1.53</v>
+      </c>
+      <c r="DK2">
+        <v>2.43</v>
+      </c>
+      <c r="DL2">
+        <v>1.9</v>
+      </c>
+      <c r="DM2">
+        <v>1.95</v>
+      </c>
+      <c r="DN2">
+        <v>1.38</v>
+      </c>
+      <c r="DO2">
+        <v>3</v>
+      </c>
+      <c r="DP2">
+        <v>2.6</v>
+      </c>
+      <c r="DQ2">
+        <v>1.48</v>
+      </c>
+      <c r="DR2">
+        <v>1.19</v>
+      </c>
+      <c r="DS2">
+        <v>4.5</v>
+      </c>
+      <c r="DT2">
+        <v>4.15</v>
+      </c>
+      <c r="DU2">
+        <v>1.22</v>
+      </c>
+      <c r="DV2">
+        <v>1.04</v>
+      </c>
+      <c r="DW2">
+        <v>7.55</v>
+      </c>
+      <c r="DX2">
+        <v>6.25</v>
+      </c>
+      <c r="DY2">
+        <v>1.12</v>
+      </c>
+      <c r="DZ2">
+        <v>1.01</v>
+      </c>
+      <c r="EA2">
+        <v>9.65</v>
+      </c>
+      <c r="EJ2">
+        <v>6.5</v>
+      </c>
+      <c r="EK2">
+        <v>8</v>
+      </c>
+      <c r="EL2">
+        <v>15</v>
+      </c>
+      <c r="EM2">
+        <v>41</v>
+      </c>
+      <c r="EN2">
+        <v>6</v>
+      </c>
+      <c r="EO2">
+        <v>6</v>
+      </c>
+      <c r="EP2">
+        <v>13</v>
+      </c>
+      <c r="EQ2">
+        <v>34</v>
+      </c>
+      <c r="ER2">
+        <v>9.5</v>
+      </c>
+      <c r="ES2">
+        <v>10</v>
+      </c>
+      <c r="ET2">
+        <v>19</v>
+      </c>
+      <c r="EU2">
+        <v>41</v>
+      </c>
+      <c r="EV2">
+        <v>21</v>
+      </c>
+      <c r="EW2">
+        <v>23</v>
+      </c>
+      <c r="EX2">
+        <v>41</v>
+      </c>
+      <c r="EY2">
+        <v>67</v>
+      </c>
+      <c r="EZ2">
+        <v>81</v>
+      </c>
+      <c r="FA2">
+        <v>81</v>
+      </c>
+      <c r="FB2">
+        <v>101</v>
+      </c>
+      <c r="FC2">
+        <v>251</v>
+      </c>
+      <c r="FD2">
+        <v>51</v>
+      </c>
+      <c r="FE2">
+        <v>51</v>
+      </c>
+      <c r="FF2">
+        <v>81</v>
+      </c>
+      <c r="FG2">
+        <v>201</v>
+      </c>
+      <c r="FH2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3">
+        <v>2.4</v>
+      </c>
+      <c r="I3">
+        <v>2.1</v>
+      </c>
+      <c r="J3">
+        <v>5.5</v>
+      </c>
+      <c r="K3">
+        <v>2.4</v>
+      </c>
+      <c r="L3">
+        <v>2.1</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>1.44</v>
+      </c>
+      <c r="O3">
+        <v>2.63</v>
+      </c>
+      <c r="P3">
+        <v>1.44</v>
+      </c>
+      <c r="Q3">
+        <v>2.63</v>
+      </c>
+      <c r="R3">
+        <v>2.08</v>
+      </c>
+      <c r="S3">
+        <v>1.73</v>
+      </c>
+      <c r="T3">
+        <v>2.1</v>
+      </c>
+      <c r="U3">
+        <v>1.7</v>
+      </c>
+      <c r="V3">
+        <v>3.25</v>
+      </c>
+      <c r="W3">
+        <v>1.33</v>
+      </c>
+      <c r="X3">
+        <v>3.25</v>
+      </c>
+      <c r="Y3">
+        <v>1.33</v>
+      </c>
+      <c r="Z3">
+        <v>6.8</v>
+      </c>
+      <c r="AA3">
+        <v>1.09</v>
+      </c>
+      <c r="AB3">
+        <v>6.9</v>
+      </c>
+      <c r="AC3">
+        <v>1.08</v>
+      </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3">
+        <v>1.07</v>
+      </c>
+      <c r="AF3">
+        <v>10</v>
+      </c>
+      <c r="AG3">
+        <v>1.06</v>
+      </c>
+      <c r="AH3">
+        <v>1.75</v>
+      </c>
+      <c r="AI3">
+        <v>3.75</v>
+      </c>
+      <c r="AJ3">
+        <v>4.5</v>
+      </c>
+      <c r="AK3">
+        <v>1.73</v>
+      </c>
+      <c r="AL3">
+        <v>3.3</v>
+      </c>
+      <c r="AM3">
+        <v>4.5</v>
+      </c>
+      <c r="AN3">
+        <v>1.18</v>
+      </c>
+      <c r="AO3">
+        <v>1.25</v>
+      </c>
+      <c r="AP3">
+        <v>2</v>
+      </c>
+      <c r="AQ3">
+        <v>1.17</v>
+      </c>
+      <c r="AR3">
+        <v>1.3</v>
+      </c>
+      <c r="AS3">
+        <v>1.91</v>
+      </c>
+      <c r="AT3">
+        <v>2.05</v>
+      </c>
+      <c r="AU3">
+        <v>1.7</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
+        <v>1.75</v>
+      </c>
+      <c r="AX3">
+        <v>1.06</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>1.07</v>
+      </c>
+      <c r="BA3">
+        <v>8.5</v>
+      </c>
+      <c r="BB3">
+        <v>1.06</v>
+      </c>
+      <c r="BC3">
+        <v>6.75</v>
+      </c>
+      <c r="BD3">
+        <v>1.09</v>
+      </c>
+      <c r="BE3">
+        <v>6.7</v>
+      </c>
+      <c r="BF3">
+        <v>1.36</v>
+      </c>
+      <c r="BG3">
+        <v>3</v>
+      </c>
+      <c r="BH3">
+        <v>1.36</v>
+      </c>
+      <c r="BI3">
+        <v>3</v>
+      </c>
+      <c r="BJ3">
+        <v>1.57</v>
+      </c>
+      <c r="BK3">
+        <v>2.28</v>
+      </c>
+      <c r="BL3">
+        <v>1.59</v>
+      </c>
+      <c r="BM3">
+        <v>2.28</v>
+      </c>
+      <c r="BN3">
+        <v>2.1</v>
+      </c>
+      <c r="BO3">
+        <v>1.7</v>
+      </c>
+      <c r="BP3">
+        <v>2.15</v>
+      </c>
+      <c r="BQ3">
+        <v>1.67</v>
+      </c>
+      <c r="BR3">
+        <v>3.04</v>
+      </c>
+      <c r="BS3">
+        <v>1.34</v>
+      </c>
+      <c r="BT3">
+        <v>3</v>
+      </c>
+      <c r="BU3">
+        <v>1.36</v>
+      </c>
+      <c r="BV3">
+        <v>3.75</v>
+      </c>
+      <c r="BW3">
+        <v>1.25</v>
+      </c>
+      <c r="BX3">
+        <v>4</v>
+      </c>
+      <c r="BY3">
+        <v>1.22</v>
+      </c>
+      <c r="BZ3">
+        <v>6.35</v>
+      </c>
+      <c r="CA3">
+        <v>1.07</v>
+      </c>
+      <c r="CB3">
+        <v>6.4</v>
+      </c>
+      <c r="CC3">
+        <v>1.1</v>
+      </c>
+      <c r="CD3">
+        <v>9</v>
+      </c>
+      <c r="CE3">
+        <v>1.07</v>
+      </c>
+      <c r="CF3">
+        <v>9</v>
+      </c>
+      <c r="CG3">
+        <v>1.07</v>
+      </c>
+      <c r="CH3">
+        <v>12.5</v>
+      </c>
+      <c r="CI3">
+        <v>1.01</v>
+      </c>
+      <c r="CJ3">
+        <v>12.5</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL3">
+        <v>19</v>
+      </c>
+      <c r="CM3">
+        <v>1.02</v>
+      </c>
+      <c r="CN3">
+        <v>19</v>
+      </c>
+      <c r="CO3">
+        <v>1.02</v>
+      </c>
+      <c r="CT3">
+        <v>41</v>
+      </c>
+      <c r="CU3">
+        <v>41</v>
+      </c>
+      <c r="CV3">
+        <v>41</v>
+      </c>
+      <c r="CW3">
+        <v>41</v>
+      </c>
+      <c r="DJ3">
+        <v>1.3</v>
+      </c>
+      <c r="DK3">
+        <v>3.45</v>
+      </c>
+      <c r="DL3">
+        <v>1.5</v>
+      </c>
+      <c r="DM3">
+        <v>2.5</v>
+      </c>
+      <c r="DN3">
+        <v>1.24</v>
+      </c>
+      <c r="DO3">
+        <v>3.9</v>
+      </c>
+      <c r="DP3">
+        <v>1.98</v>
+      </c>
+      <c r="DQ3">
+        <v>1.88</v>
+      </c>
+      <c r="DR3">
+        <v>1.13</v>
+      </c>
+      <c r="DS3">
+        <v>6</v>
+      </c>
+      <c r="DT3">
+        <v>2.68</v>
+      </c>
+      <c r="DU3">
+        <v>1.45</v>
+      </c>
+      <c r="DX3">
+        <v>3.8</v>
+      </c>
+      <c r="DY3">
+        <v>1.25</v>
+      </c>
+      <c r="EB3">
+        <v>6</v>
+      </c>
+      <c r="EC3">
+        <v>1.13</v>
+      </c>
+      <c r="EF3">
+        <v>8.85</v>
+      </c>
+      <c r="EG3">
+        <v>1.04</v>
+      </c>
+      <c r="EJ3">
+        <v>9</v>
+      </c>
+      <c r="EK3">
+        <v>10</v>
+      </c>
+      <c r="EL3">
+        <v>21</v>
+      </c>
+      <c r="EM3">
+        <v>51</v>
+      </c>
+      <c r="EN3">
+        <v>6</v>
+      </c>
+      <c r="EO3">
+        <v>7</v>
+      </c>
+      <c r="EP3">
+        <v>15</v>
+      </c>
+      <c r="EQ3">
+        <v>41</v>
+      </c>
+      <c r="ER3">
+        <v>7.5</v>
+      </c>
+      <c r="ES3">
+        <v>8.5</v>
+      </c>
+      <c r="ET3">
+        <v>19</v>
+      </c>
+      <c r="EU3">
+        <v>41</v>
+      </c>
+      <c r="EV3">
+        <v>13</v>
+      </c>
+      <c r="EW3">
+        <v>15</v>
+      </c>
+      <c r="EX3">
+        <v>34</v>
+      </c>
+      <c r="EY3">
+        <v>67</v>
+      </c>
+      <c r="EZ3">
+        <v>151</v>
+      </c>
+      <c r="FA3">
+        <v>101</v>
+      </c>
+      <c r="FB3">
+        <v>126</v>
+      </c>
+      <c r="FC3">
+        <v>201</v>
+      </c>
+      <c r="FD3">
+        <v>29</v>
+      </c>
+      <c r="FE3">
+        <v>34</v>
+      </c>
+      <c r="FF3">
+        <v>51</v>
+      </c>
+      <c r="FG3">
+        <v>126</v>
+      </c>
+      <c r="FH3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4">
+        <v>2.25</v>
+      </c>
+      <c r="I4">
+        <v>2.25</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>2.3</v>
+      </c>
+      <c r="L4">
+        <v>2.2</v>
+      </c>
+      <c r="M4">
+        <v>5.5</v>
+      </c>
+      <c r="N4">
+        <v>1.36</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1.98</v>
+      </c>
+      <c r="U4">
+        <v>1.82</v>
+      </c>
+      <c r="V4">
+        <v>2.75</v>
+      </c>
+      <c r="W4">
+        <v>1.4</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>1.36</v>
+      </c>
+      <c r="Z4">
+        <v>5.5</v>
+      </c>
+      <c r="AA4">
+        <v>1.13</v>
+      </c>
+      <c r="AB4">
+        <v>6.3</v>
+      </c>
+      <c r="AC4">
+        <v>1.1</v>
+      </c>
+      <c r="AD4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>1.1</v>
+      </c>
+      <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>1.08</v>
+      </c>
+      <c r="AH4">
+        <v>1.65</v>
+      </c>
+      <c r="AI4">
+        <v>3.8</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4">
+        <v>1.67</v>
+      </c>
+      <c r="AL4">
+        <v>3.75</v>
+      </c>
+      <c r="AM4">
+        <v>5</v>
+      </c>
+      <c r="AN4">
+        <v>1.17</v>
+      </c>
+      <c r="AO4">
+        <v>1.25</v>
+      </c>
+      <c r="AP4">
+        <v>2.2</v>
+      </c>
+      <c r="AQ4">
+        <v>1.17</v>
+      </c>
+      <c r="AR4">
+        <v>1.25</v>
+      </c>
+      <c r="AS4">
+        <v>2.15</v>
+      </c>
+      <c r="AT4">
+        <v>1.91</v>
+      </c>
+      <c r="AU4">
+        <v>1.91</v>
+      </c>
+      <c r="AV4">
+        <v>1.95</v>
+      </c>
+      <c r="AW4">
+        <v>1.8</v>
+      </c>
+      <c r="AX4">
+        <v>1.04</v>
+      </c>
+      <c r="AY4">
+        <v>13</v>
+      </c>
+      <c r="AZ4">
+        <v>1.06</v>
+      </c>
+      <c r="BA4">
+        <v>9.5</v>
+      </c>
+      <c r="BB4">
+        <v>1.03</v>
+      </c>
+      <c r="BC4">
+        <v>8.5</v>
+      </c>
+      <c r="BD4">
+        <v>1.09</v>
+      </c>
+      <c r="BE4">
+        <v>7.5</v>
+      </c>
+      <c r="BF4">
+        <v>1.25</v>
+      </c>
+      <c r="BG4">
+        <v>3.75</v>
+      </c>
+      <c r="BH4">
+        <v>1.3</v>
+      </c>
+      <c r="BI4">
+        <v>3.4</v>
+      </c>
+      <c r="BJ4">
+        <v>1.4</v>
+      </c>
+      <c r="BK4">
+        <v>2.76</v>
+      </c>
+      <c r="BL4">
+        <v>1.55</v>
+      </c>
+      <c r="BM4">
+        <v>2.44</v>
+      </c>
+      <c r="BN4">
+        <v>1.85</v>
+      </c>
+      <c r="BO4">
+        <v>2</v>
+      </c>
+      <c r="BP4">
+        <v>2</v>
+      </c>
+      <c r="BQ4">
+        <v>1.8</v>
+      </c>
+      <c r="BR4">
+        <v>2.42</v>
+      </c>
+      <c r="BS4">
+        <v>1.51</v>
+      </c>
+      <c r="BT4">
+        <v>2.9</v>
+      </c>
+      <c r="BU4">
+        <v>1.41</v>
+      </c>
+      <c r="BV4">
+        <v>3</v>
+      </c>
+      <c r="BW4">
+        <v>1.36</v>
+      </c>
+      <c r="BX4">
+        <v>3.5</v>
+      </c>
+      <c r="BY4">
+        <v>1.29</v>
+      </c>
+      <c r="BZ4">
+        <v>4.9</v>
+      </c>
+      <c r="CA4">
+        <v>1.13</v>
+      </c>
+      <c r="CB4">
+        <v>6.2</v>
+      </c>
+      <c r="CC4">
+        <v>1.12</v>
+      </c>
+      <c r="CD4">
+        <v>6</v>
+      </c>
+      <c r="CE4">
+        <v>1.13</v>
+      </c>
+      <c r="CF4">
+        <v>7</v>
+      </c>
+      <c r="CG4">
+        <v>1.1</v>
+      </c>
+      <c r="CH4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="CI4">
+        <v>1.01</v>
+      </c>
+      <c r="CJ4">
+        <v>13</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>198</v>
+      </c>
+      <c r="CL4">
+        <v>13</v>
+      </c>
+      <c r="CM4">
+        <v>1.04</v>
+      </c>
+      <c r="CN4">
+        <v>15</v>
+      </c>
+      <c r="CO4">
+        <v>1.03</v>
+      </c>
+      <c r="CT4">
+        <v>26</v>
+      </c>
+      <c r="CU4">
+        <v>1.01</v>
+      </c>
+      <c r="CV4">
+        <v>29</v>
+      </c>
+      <c r="CW4">
+        <v>1.01</v>
+      </c>
+      <c r="DB4">
+        <v>51</v>
+      </c>
+      <c r="DC4">
+        <v>50</v>
+      </c>
+      <c r="DD4">
+        <v>51</v>
+      </c>
+      <c r="DE4">
+        <v>50</v>
+      </c>
+      <c r="DJ4">
+        <v>1.28</v>
+      </c>
+      <c r="DK4">
+        <v>3.55</v>
+      </c>
+      <c r="DL4">
+        <v>1.45</v>
+      </c>
+      <c r="DM4">
+        <v>2.68</v>
+      </c>
+      <c r="DN4">
+        <v>1.22</v>
+      </c>
+      <c r="DO4">
+        <v>4.15</v>
+      </c>
+      <c r="DP4">
+        <v>1.85</v>
+      </c>
+      <c r="DQ4">
+        <v>2</v>
+      </c>
+      <c r="DR4">
+        <v>1.12</v>
+      </c>
+      <c r="DS4">
+        <v>6.4</v>
+      </c>
+      <c r="DT4">
+        <v>2.43</v>
+      </c>
+      <c r="DU4">
+        <v>1.53</v>
+      </c>
+      <c r="DX4">
+        <v>3.45</v>
+      </c>
+      <c r="DY4">
+        <v>1.3</v>
+      </c>
+      <c r="EB4">
+        <v>5.25</v>
+      </c>
+      <c r="EC4">
+        <v>1.16</v>
+      </c>
+      <c r="EF4">
+        <v>7</v>
+      </c>
+      <c r="EG4">
+        <v>1.1</v>
+      </c>
+      <c r="EJ4">
+        <v>11</v>
+      </c>
+      <c r="EK4">
+        <v>13</v>
+      </c>
+      <c r="EL4">
+        <v>26</v>
+      </c>
+      <c r="EM4">
+        <v>51</v>
+      </c>
+      <c r="EN4">
+        <v>7</v>
+      </c>
+      <c r="EO4">
+        <v>7.5</v>
+      </c>
+      <c r="EP4">
+        <v>15</v>
+      </c>
+      <c r="EQ4">
+        <v>41</v>
+      </c>
+      <c r="ER4">
+        <v>8</v>
+      </c>
+      <c r="ES4">
+        <v>8.5</v>
+      </c>
+      <c r="ET4">
+        <v>17</v>
+      </c>
+      <c r="EU4">
+        <v>41</v>
+      </c>
+      <c r="EV4">
+        <v>12</v>
+      </c>
+      <c r="EW4">
+        <v>13</v>
+      </c>
+      <c r="EX4">
+        <v>26</v>
+      </c>
+      <c r="EY4">
+        <v>51</v>
+      </c>
+      <c r="EZ4">
+        <v>151</v>
+      </c>
+      <c r="FA4">
+        <v>101</v>
+      </c>
+      <c r="FB4">
+        <v>101</v>
+      </c>
+      <c r="FC4">
+        <v>151</v>
+      </c>
+      <c r="FD4">
+        <v>26</v>
+      </c>
+      <c r="FE4">
+        <v>26</v>
+      </c>
+      <c r="FF4">
+        <v>41</v>
+      </c>
+      <c r="FG4">
+        <v>81</v>
+      </c>
+      <c r="FH4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5">
+        <v>1.83</v>
+      </c>
+      <c r="I5">
+        <v>2.4</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>1.8</v>
+      </c>
+      <c r="L5">
+        <v>2.5</v>
+      </c>
+      <c r="M5">
+        <v>8.5</v>
+      </c>
+      <c r="N5">
+        <v>1.33</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>1.33</v>
+      </c>
+      <c r="Q5">
+        <v>3.25</v>
+      </c>
+      <c r="R5">
+        <v>1.73</v>
+      </c>
+      <c r="S5">
+        <v>2.08</v>
+      </c>
+      <c r="T5">
+        <v>1.75</v>
+      </c>
+      <c r="U5">
+        <v>2.05</v>
+      </c>
+      <c r="V5">
+        <v>2.63</v>
+      </c>
+      <c r="W5">
+        <v>1.44</v>
+      </c>
+      <c r="X5">
+        <v>2.63</v>
+      </c>
+      <c r="Y5">
+        <v>1.44</v>
+      </c>
+      <c r="Z5">
+        <v>5.1</v>
+      </c>
+      <c r="AA5">
+        <v>1.15</v>
+      </c>
+      <c r="AB5">
+        <v>5.25</v>
+      </c>
+      <c r="AC5">
+        <v>1.14</v>
+      </c>
+      <c r="AD5">
+        <v>6.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.11</v>
+      </c>
+      <c r="AF5">
+        <v>6.5</v>
+      </c>
+      <c r="AG5">
+        <v>1.11</v>
+      </c>
+      <c r="AH5">
+        <v>1.33</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>8.5</v>
+      </c>
+      <c r="AK5">
+        <v>1.3</v>
+      </c>
+      <c r="AL5">
+        <v>4.5</v>
+      </c>
+      <c r="AM5">
+        <v>10</v>
+      </c>
+      <c r="AN5">
+        <v>1.08</v>
+      </c>
+      <c r="AO5">
+        <v>1.17</v>
+      </c>
+      <c r="AP5">
+        <v>3.25</v>
+      </c>
+      <c r="AQ5">
+        <v>1.06</v>
+      </c>
+      <c r="AR5">
+        <v>1.18</v>
+      </c>
+      <c r="AS5">
+        <v>3.4</v>
+      </c>
+      <c r="AT5">
+        <v>2.2</v>
+      </c>
+      <c r="AU5">
+        <v>1.62</v>
+      </c>
+      <c r="AV5">
+        <v>2.2</v>
+      </c>
+      <c r="AW5">
+        <v>1.62</v>
+      </c>
+      <c r="AX5">
+        <v>1.04</v>
+      </c>
+      <c r="AY5">
+        <v>13</v>
+      </c>
+      <c r="AZ5">
+        <v>1.05</v>
+      </c>
+      <c r="BA5">
+        <v>11</v>
+      </c>
+      <c r="BB5">
+        <v>1.02</v>
+      </c>
+      <c r="BC5">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BD5">
+        <v>1.04</v>
+      </c>
+      <c r="BE5">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF5">
+        <v>1.22</v>
+      </c>
+      <c r="BG5">
+        <v>4</v>
+      </c>
+      <c r="BH5">
+        <v>1.22</v>
+      </c>
+      <c r="BI5">
+        <v>4</v>
+      </c>
+      <c r="BJ5">
+        <v>1.35</v>
+      </c>
+      <c r="BK5">
+        <v>2.98</v>
+      </c>
+      <c r="BL5">
+        <v>1.36</v>
+      </c>
+      <c r="BM5">
+        <v>3</v>
+      </c>
+      <c r="BN5">
+        <v>1.75</v>
+      </c>
+      <c r="BO5">
+        <v>2.05</v>
+      </c>
+      <c r="BP5">
+        <v>1.8</v>
+      </c>
+      <c r="BQ5">
+        <v>2</v>
+      </c>
+      <c r="BR5">
+        <v>2.28</v>
+      </c>
+      <c r="BS5">
+        <v>1.57</v>
+      </c>
+      <c r="BT5">
+        <v>2.3</v>
+      </c>
+      <c r="BU5">
+        <v>1.58</v>
+      </c>
+      <c r="BV5">
+        <v>2.75</v>
+      </c>
+      <c r="BW5">
+        <v>1.4</v>
+      </c>
+      <c r="BX5">
+        <v>3</v>
+      </c>
+      <c r="BY5">
+        <v>1.36</v>
+      </c>
+      <c r="BZ5">
+        <v>4.45</v>
+      </c>
+      <c r="CA5">
+        <v>1.15</v>
+      </c>
+      <c r="CB5">
+        <v>4.5</v>
+      </c>
+      <c r="CC5">
+        <v>1.18</v>
+      </c>
+      <c r="CD5">
+        <v>5.5</v>
+      </c>
+      <c r="CE5">
+        <v>1.14</v>
+      </c>
+      <c r="CF5">
+        <v>5.5</v>
+      </c>
+      <c r="CG5">
+        <v>1.14</v>
+      </c>
+      <c r="CH5">
+        <v>8.9</v>
+      </c>
+      <c r="CI5">
+        <v>1.02</v>
+      </c>
+      <c r="CJ5">
+        <v>9</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>199</v>
+      </c>
+      <c r="CL5">
+        <v>11</v>
+      </c>
+      <c r="CM5">
+        <v>1.05</v>
+      </c>
+      <c r="CN5">
+        <v>11</v>
+      </c>
+      <c r="CO5">
+        <v>1.05</v>
+      </c>
+      <c r="CT5">
+        <v>23</v>
+      </c>
+      <c r="CU5">
+        <v>1.01</v>
+      </c>
+      <c r="CV5">
+        <v>23</v>
+      </c>
+      <c r="CW5">
+        <v>1.01</v>
+      </c>
+      <c r="DB5">
+        <v>51</v>
+      </c>
+      <c r="DC5">
+        <v>50</v>
+      </c>
+      <c r="DD5">
+        <v>51</v>
+      </c>
+      <c r="DE5">
+        <v>50</v>
+      </c>
+      <c r="DJ5">
+        <v>1.11</v>
+      </c>
+      <c r="DK5">
+        <v>6.6</v>
+      </c>
+      <c r="DL5">
+        <v>1.22</v>
+      </c>
+      <c r="DM5">
+        <v>4.15</v>
+      </c>
+      <c r="DN5">
+        <v>1.11</v>
+      </c>
+      <c r="DO5">
+        <v>6.8</v>
+      </c>
+      <c r="DP5">
+        <v>1.4</v>
+      </c>
+      <c r="DQ5">
+        <v>2.85</v>
+      </c>
+      <c r="DT5">
+        <v>1.75</v>
+      </c>
+      <c r="DU5">
+        <v>2.05</v>
+      </c>
+      <c r="DX5">
+        <v>2.3</v>
+      </c>
+      <c r="DY5">
+        <v>1.6</v>
+      </c>
+      <c r="EB5">
+        <v>3.1</v>
+      </c>
+      <c r="EC5">
+        <v>1.35</v>
+      </c>
+      <c r="EF5">
+        <v>4.25</v>
+      </c>
+      <c r="EG5">
+        <v>1.21</v>
+      </c>
+      <c r="EJ5">
+        <v>12</v>
+      </c>
+      <c r="EK5">
+        <v>19</v>
+      </c>
+      <c r="EL5">
+        <v>41</v>
+      </c>
+      <c r="EM5">
+        <v>101</v>
+      </c>
+      <c r="EN5">
+        <v>6.5</v>
+      </c>
+      <c r="EO5">
+        <v>10</v>
+      </c>
+      <c r="EP5">
+        <v>23</v>
+      </c>
+      <c r="EQ5">
+        <v>67</v>
+      </c>
+      <c r="ER5">
+        <v>6</v>
+      </c>
+      <c r="ES5">
+        <v>9</v>
+      </c>
+      <c r="ET5">
+        <v>23</v>
+      </c>
+      <c r="EU5">
+        <v>51</v>
+      </c>
+      <c r="EV5">
+        <v>8</v>
+      </c>
+      <c r="EW5">
+        <v>12</v>
+      </c>
+      <c r="EX5">
+        <v>29</v>
+      </c>
+      <c r="EY5">
+        <v>81</v>
+      </c>
+      <c r="EZ5">
+        <v>451</v>
+      </c>
+      <c r="FA5">
+        <v>251</v>
+      </c>
+      <c r="FB5">
+        <v>201</v>
+      </c>
+      <c r="FC5">
+        <v>301</v>
+      </c>
+      <c r="FD5">
+        <v>15</v>
+      </c>
+      <c r="FE5">
+        <v>21</v>
+      </c>
+      <c r="FF5">
+        <v>41</v>
+      </c>
+      <c r="FG5">
+        <v>126</v>
+      </c>
+      <c r="FH5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6">
+        <v>3.75</v>
+      </c>
+      <c r="I6">
+        <v>1.95</v>
+      </c>
+      <c r="J6">
+        <v>3.25</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>2.05</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>1.53</v>
+      </c>
+      <c r="O6">
+        <v>2.38</v>
+      </c>
+      <c r="P6">
+        <v>1.5</v>
+      </c>
+      <c r="Q6">
+        <v>2.5</v>
+      </c>
+      <c r="R6">
+        <v>2.26</v>
+      </c>
+      <c r="S6">
+        <v>1.6</v>
+      </c>
+      <c r="T6">
+        <v>2.1</v>
+      </c>
+      <c r="U6">
+        <v>1.66</v>
+      </c>
+      <c r="V6">
+        <v>3.5</v>
+      </c>
+      <c r="W6">
+        <v>1.29</v>
+      </c>
+      <c r="X6">
+        <v>3.4</v>
+      </c>
+      <c r="Y6">
+        <v>1.3</v>
+      </c>
+      <c r="Z6">
+        <v>8.1</v>
+      </c>
+      <c r="AA6">
+        <v>1.06</v>
+      </c>
+      <c r="AB6">
+        <v>7.4</v>
+      </c>
+      <c r="AC6">
+        <v>1.07</v>
+      </c>
+      <c r="AD6">
+        <v>11</v>
+      </c>
+      <c r="AE6">
+        <v>1.05</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+      <c r="AG6">
+        <v>1.06</v>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
+      </c>
+      <c r="AJ6">
+        <v>2.5</v>
+      </c>
+      <c r="AK6">
+        <v>3.2</v>
+      </c>
+      <c r="AL6">
+        <v>3.2</v>
+      </c>
+      <c r="AM6">
+        <v>2.2</v>
+      </c>
+      <c r="AN6">
+        <v>1.5</v>
+      </c>
+      <c r="AO6">
+        <v>1.36</v>
+      </c>
+      <c r="AP6">
+        <v>1.36</v>
+      </c>
+      <c r="AQ6">
+        <v>1.67</v>
+      </c>
+      <c r="AR6">
+        <v>1.36</v>
+      </c>
+      <c r="AS6">
+        <v>1.36</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
+      <c r="AU6">
+        <v>1.75</v>
+      </c>
+      <c r="AV6">
+        <v>1.95</v>
+      </c>
+      <c r="AW6">
+        <v>1.8</v>
+      </c>
+      <c r="AX6">
+        <v>1.08</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>1.08</v>
+      </c>
+      <c r="BA6">
+        <v>8</v>
+      </c>
+      <c r="BB6">
+        <v>1.09</v>
+      </c>
+      <c r="BC6">
+        <v>5.6</v>
+      </c>
+      <c r="BD6">
+        <v>1.12</v>
+      </c>
+      <c r="BE6">
+        <v>6.2</v>
+      </c>
+      <c r="BF6">
+        <v>1.44</v>
+      </c>
+      <c r="BG6">
+        <v>2.63</v>
+      </c>
+      <c r="BH6">
+        <v>1.4</v>
+      </c>
+      <c r="BI6">
+        <v>2.75</v>
+      </c>
+      <c r="BJ6">
+        <v>1.8</v>
+      </c>
+      <c r="BK6">
+        <v>2.05</v>
+      </c>
+      <c r="BL6">
+        <v>1.8</v>
+      </c>
+      <c r="BM6">
+        <v>2.05</v>
+      </c>
+      <c r="BN6">
+        <v>2.4</v>
+      </c>
+      <c r="BO6">
+        <v>1.53</v>
+      </c>
+      <c r="BP6">
+        <v>2.2</v>
+      </c>
+      <c r="BQ6">
+        <v>1.65</v>
+      </c>
+      <c r="BR6">
+        <v>3.62</v>
+      </c>
+      <c r="BS6">
+        <v>1.25</v>
+      </c>
+      <c r="BT6">
+        <v>3.3</v>
+      </c>
+      <c r="BU6">
+        <v>1.33</v>
+      </c>
+      <c r="BV6">
+        <v>4.5</v>
+      </c>
+      <c r="BW6">
+        <v>1.18</v>
+      </c>
+      <c r="BX6">
+        <v>4</v>
+      </c>
+      <c r="BY6">
+        <v>1.22</v>
+      </c>
+      <c r="BZ6">
+        <v>8</v>
+      </c>
+      <c r="CA6">
+        <v>1.03</v>
+      </c>
+      <c r="CB6">
+        <v>7.5</v>
+      </c>
+      <c r="CC6">
+        <v>1.09</v>
+      </c>
+      <c r="CD6">
+        <v>11</v>
+      </c>
+      <c r="CE6">
+        <v>1.05</v>
+      </c>
+      <c r="CF6">
+        <v>9</v>
+      </c>
+      <c r="CG6">
+        <v>1.07</v>
+      </c>
+      <c r="CH6">
+        <v>18</v>
+      </c>
+      <c r="CI6">
+        <v>1.01</v>
+      </c>
+      <c r="CJ6">
+        <v>15</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL6">
+        <v>23</v>
+      </c>
+      <c r="CM6">
+        <v>1.01</v>
+      </c>
+      <c r="CN6">
+        <v>19</v>
+      </c>
+      <c r="CO6">
+        <v>1.02</v>
+      </c>
+      <c r="CT6">
+        <v>51</v>
+      </c>
+      <c r="CU6">
+        <v>50</v>
+      </c>
+      <c r="CV6">
+        <v>41</v>
+      </c>
+      <c r="CW6">
+        <v>41</v>
+      </c>
+      <c r="DJ6">
+        <v>2.1</v>
+      </c>
+      <c r="DK6">
+        <v>1.78</v>
+      </c>
+      <c r="DL6">
+        <v>2.43</v>
+      </c>
+      <c r="DM6">
+        <v>1.53</v>
+      </c>
+      <c r="DN6">
+        <v>1.7</v>
+      </c>
+      <c r="DO6">
+        <v>2.1</v>
+      </c>
+      <c r="DP6">
+        <v>3.55</v>
+      </c>
+      <c r="DQ6">
+        <v>1.28</v>
+      </c>
+      <c r="DR6">
+        <v>1.35</v>
+      </c>
+      <c r="DS6">
+        <v>3.1</v>
+      </c>
+      <c r="DT6">
+        <v>6</v>
+      </c>
+      <c r="DU6">
+        <v>1.13</v>
+      </c>
+      <c r="DV6">
+        <v>1.17</v>
+      </c>
+      <c r="DW6">
+        <v>5</v>
+      </c>
+      <c r="DX6">
+        <v>9.85</v>
+      </c>
+      <c r="DY6">
+        <v>1.03</v>
+      </c>
+      <c r="DZ6">
+        <v>1.1</v>
+      </c>
+      <c r="EA6">
+        <v>7</v>
+      </c>
+      <c r="EJ6">
+        <v>7</v>
+      </c>
+      <c r="EK6">
+        <v>7</v>
+      </c>
+      <c r="EL6">
+        <v>11</v>
+      </c>
+      <c r="EM6">
+        <v>23</v>
+      </c>
+      <c r="EN6">
+        <v>7.5</v>
+      </c>
+      <c r="EO6">
+        <v>6</v>
+      </c>
+      <c r="EP6">
+        <v>10</v>
+      </c>
+      <c r="EQ6">
+        <v>23</v>
+      </c>
+      <c r="ER6">
+        <v>13</v>
+      </c>
+      <c r="ES6">
+        <v>12</v>
+      </c>
+      <c r="ET6">
+        <v>17</v>
+      </c>
+      <c r="EU6">
+        <v>41</v>
+      </c>
+      <c r="EV6">
+        <v>34</v>
+      </c>
+      <c r="EW6">
+        <v>29</v>
+      </c>
+      <c r="EX6">
+        <v>41</v>
+      </c>
+      <c r="EY6">
+        <v>67</v>
+      </c>
+      <c r="EZ6">
+        <v>51</v>
+      </c>
+      <c r="FA6">
+        <v>51</v>
+      </c>
+      <c r="FB6">
+        <v>67</v>
+      </c>
+      <c r="FC6">
+        <v>151</v>
+      </c>
+      <c r="FD6">
+        <v>67</v>
+      </c>
+      <c r="FE6">
+        <v>67</v>
+      </c>
+      <c r="FF6">
+        <v>81</v>
+      </c>
+      <c r="FG6">
+        <v>151</v>
+      </c>
+      <c r="FH6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7">
+        <v>3.75</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3.1</v>
+      </c>
+      <c r="K7">
+        <v>3.75</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3.2</v>
+      </c>
+      <c r="N7">
+        <v>1.5</v>
+      </c>
+      <c r="O7">
+        <v>2.5</v>
+      </c>
+      <c r="P7">
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>2.18</v>
+      </c>
+      <c r="S7">
+        <v>1.64</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1.72</v>
+      </c>
+      <c r="V7">
+        <v>3.4</v>
+      </c>
+      <c r="W7">
+        <v>1.3</v>
+      </c>
+      <c r="X7">
+        <v>3.4</v>
+      </c>
+      <c r="Y7">
+        <v>1.3</v>
+      </c>
+      <c r="Z7">
+        <v>7.6</v>
+      </c>
+      <c r="AA7">
+        <v>1.07</v>
+      </c>
+      <c r="AB7">
+        <v>7</v>
+      </c>
+      <c r="AC7">
+        <v>1.08</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>1.06</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>1.06</v>
+      </c>
+      <c r="AH7">
+        <v>3.25</v>
+      </c>
+      <c r="AI7">
+        <v>3.2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.3</v>
+      </c>
+      <c r="AK7">
+        <v>2.9</v>
+      </c>
+      <c r="AL7">
+        <v>3.2</v>
+      </c>
+      <c r="AM7">
+        <v>2.38</v>
+      </c>
+      <c r="AN7">
+        <v>1.57</v>
+      </c>
+      <c r="AO7">
+        <v>1.36</v>
+      </c>
+      <c r="AP7">
+        <v>1.33</v>
+      </c>
+      <c r="AQ7">
+        <v>1.53</v>
+      </c>
+      <c r="AR7">
+        <v>1.36</v>
+      </c>
+      <c r="AS7">
+        <v>1.4</v>
+      </c>
+      <c r="AT7">
+        <v>1.95</v>
+      </c>
+      <c r="AU7">
+        <v>1.8</v>
+      </c>
+      <c r="AV7">
+        <v>1.95</v>
+      </c>
+      <c r="AW7">
+        <v>1.8</v>
+      </c>
+      <c r="AX7">
+        <v>1.08</v>
+      </c>
+      <c r="AY7">
+        <v>8</v>
+      </c>
+      <c r="AZ7">
+        <v>1.08</v>
+      </c>
+      <c r="BA7">
+        <v>8</v>
+      </c>
+      <c r="BB7">
+        <v>1.08</v>
+      </c>
+      <c r="BC7">
+        <v>5.9</v>
+      </c>
+      <c r="BD7">
+        <v>1.11</v>
+      </c>
+      <c r="BE7">
+        <v>6.6</v>
+      </c>
+      <c r="BF7">
+        <v>1.4</v>
+      </c>
+      <c r="BG7">
+        <v>2.75</v>
+      </c>
+      <c r="BH7">
+        <v>1.4</v>
+      </c>
+      <c r="BI7">
+        <v>2.75</v>
+      </c>
+      <c r="BJ7">
+        <v>1.7</v>
+      </c>
+      <c r="BK7">
+        <v>2.05</v>
+      </c>
+      <c r="BL7">
+        <v>1.62</v>
+      </c>
+      <c r="BM7">
+        <v>2.3</v>
+      </c>
+      <c r="BN7">
+        <v>2.25</v>
+      </c>
+      <c r="BO7">
+        <v>1.62</v>
+      </c>
+      <c r="BP7">
+        <v>2.25</v>
+      </c>
+      <c r="BQ7">
+        <v>1.62</v>
+      </c>
+      <c r="BR7">
+        <v>3.46</v>
+      </c>
+      <c r="BS7">
+        <v>1.27</v>
+      </c>
+      <c r="BT7">
+        <v>3.1</v>
+      </c>
+      <c r="BU7">
+        <v>1.37</v>
+      </c>
+      <c r="BV7">
+        <v>4.33</v>
+      </c>
+      <c r="BW7">
+        <v>1.2</v>
+      </c>
+      <c r="BX7">
+        <v>4.33</v>
+      </c>
+      <c r="BY7">
+        <v>1.2</v>
+      </c>
+      <c r="BZ7">
+        <v>7.4</v>
+      </c>
+      <c r="CA7">
+        <v>1.04</v>
+      </c>
+      <c r="CB7">
+        <v>6.8</v>
+      </c>
+      <c r="CC7">
+        <v>1.1</v>
+      </c>
+      <c r="CD7">
+        <v>10</v>
+      </c>
+      <c r="CE7">
+        <v>1.06</v>
+      </c>
+      <c r="CF7">
+        <v>10</v>
+      </c>
+      <c r="CG7">
+        <v>1.06</v>
+      </c>
+      <c r="CH7">
+        <v>16.5</v>
+      </c>
+      <c r="CI7">
+        <v>1.01</v>
+      </c>
+      <c r="CJ7">
+        <v>14</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>198</v>
+      </c>
+      <c r="CL7">
+        <v>21</v>
+      </c>
+      <c r="CM7">
+        <v>1.02</v>
+      </c>
+      <c r="CN7">
+        <v>21</v>
+      </c>
+      <c r="CO7">
+        <v>1.02</v>
+      </c>
+      <c r="CT7">
+        <v>51</v>
+      </c>
+      <c r="CU7">
+        <v>50</v>
+      </c>
+      <c r="CV7">
+        <v>51</v>
+      </c>
+      <c r="CW7">
+        <v>50</v>
+      </c>
+      <c r="DJ7">
+        <v>2.2</v>
+      </c>
+      <c r="DK7">
+        <v>1.7</v>
+      </c>
+      <c r="DL7">
+        <v>2.5</v>
+      </c>
+      <c r="DM7">
+        <v>1.5</v>
+      </c>
+      <c r="DN7">
+        <v>1.78</v>
+      </c>
+      <c r="DO7">
+        <v>2.03</v>
+      </c>
+      <c r="DP7">
+        <v>3.7</v>
+      </c>
+      <c r="DQ7">
+        <v>1.26</v>
+      </c>
+      <c r="DR7">
+        <v>1.4</v>
+      </c>
+      <c r="DS7">
+        <v>2.85</v>
+      </c>
+      <c r="DT7">
+        <v>6.25</v>
+      </c>
+      <c r="DU7">
+        <v>1.12</v>
+      </c>
+      <c r="DV7">
+        <v>1.2</v>
+      </c>
+      <c r="DW7">
+        <v>4.4</v>
+      </c>
+      <c r="DX7">
+        <v>10.2</v>
+      </c>
+      <c r="DY7">
+        <v>1.02</v>
+      </c>
+      <c r="DZ7">
+        <v>1.11</v>
+      </c>
+      <c r="EA7">
+        <v>6.6</v>
+      </c>
+      <c r="EJ7">
+        <v>8</v>
+      </c>
+      <c r="EK7">
+        <v>7</v>
+      </c>
+      <c r="EL7">
+        <v>11</v>
+      </c>
+      <c r="EM7">
+        <v>23</v>
+      </c>
+      <c r="EN7">
+        <v>8</v>
+      </c>
+      <c r="EO7">
+        <v>6</v>
+      </c>
+      <c r="EP7">
+        <v>10</v>
+      </c>
+      <c r="EQ7">
+        <v>21</v>
+      </c>
+      <c r="ER7">
+        <v>15</v>
+      </c>
+      <c r="ES7">
+        <v>12</v>
+      </c>
+      <c r="ET7">
+        <v>17</v>
+      </c>
+      <c r="EU7">
+        <v>34</v>
+      </c>
+      <c r="EV7">
+        <v>34</v>
+      </c>
+      <c r="EW7">
+        <v>26</v>
+      </c>
+      <c r="EX7">
+        <v>41</v>
+      </c>
+      <c r="EY7">
+        <v>51</v>
+      </c>
+      <c r="EZ7">
+        <v>51</v>
+      </c>
+      <c r="FA7">
+        <v>41</v>
+      </c>
+      <c r="FB7">
+        <v>67</v>
+      </c>
+      <c r="FC7">
+        <v>126</v>
+      </c>
+      <c r="FD7">
+        <v>67</v>
+      </c>
+      <c r="FE7">
+        <v>51</v>
+      </c>
+      <c r="FF7">
+        <v>81</v>
+      </c>
+      <c r="FG7">
+        <v>151</v>
+      </c>
+      <c r="FH7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>2.1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>1.44</v>
+      </c>
+      <c r="O8">
+        <v>2.63</v>
+      </c>
+      <c r="P8">
+        <v>1.44</v>
+      </c>
+      <c r="Q8">
+        <v>2.63</v>
+      </c>
+      <c r="R8">
+        <v>2.1</v>
+      </c>
+      <c r="S8">
+        <v>1.7</v>
+      </c>
+      <c r="T8">
+        <v>2.05</v>
+      </c>
+      <c r="U8">
+        <v>1.75</v>
+      </c>
+      <c r="V8">
+        <v>3.25</v>
+      </c>
+      <c r="W8">
+        <v>1.33</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>1.36</v>
+      </c>
+      <c r="Z8">
+        <v>6.8</v>
+      </c>
+      <c r="AA8">
+        <v>1.09</v>
+      </c>
+      <c r="AB8">
+        <v>6.6</v>
+      </c>
+      <c r="AC8">
+        <v>1.09</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>1.06</v>
+      </c>
+      <c r="AF8">
+        <v>9</v>
+      </c>
+      <c r="AG8">
+        <v>1.07</v>
+      </c>
+      <c r="AH8">
+        <v>1.8</v>
+      </c>
+      <c r="AI8">
+        <v>3.4</v>
+      </c>
+      <c r="AJ8">
+        <v>4.5</v>
+      </c>
+      <c r="AK8">
+        <v>1.8</v>
+      </c>
+      <c r="AL8">
+        <v>3.5</v>
+      </c>
+      <c r="AM8">
+        <v>4.33</v>
+      </c>
+      <c r="AN8">
+        <v>1.18</v>
+      </c>
+      <c r="AO8">
+        <v>1.3</v>
+      </c>
+      <c r="AP8">
+        <v>1.95</v>
+      </c>
+      <c r="AQ8">
+        <v>1.2</v>
+      </c>
+      <c r="AR8">
+        <v>1.29</v>
+      </c>
+      <c r="AS8">
+        <v>1.95</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8">
+        <v>1.75</v>
+      </c>
+      <c r="AV8">
+        <v>1.95</v>
+      </c>
+      <c r="AW8">
+        <v>1.8</v>
+      </c>
+      <c r="AX8">
+        <v>1.07</v>
+      </c>
+      <c r="AY8">
+        <v>8.5</v>
+      </c>
+      <c r="AZ8">
+        <v>1.07</v>
+      </c>
+      <c r="BA8">
+        <v>9</v>
+      </c>
+      <c r="BB8">
+        <v>1.06</v>
+      </c>
+      <c r="BC8">
+        <v>6.75</v>
+      </c>
+      <c r="BD8">
+        <v>1.09</v>
+      </c>
+      <c r="BE8">
+        <v>7.2</v>
+      </c>
+      <c r="BF8">
+        <v>1.36</v>
+      </c>
+      <c r="BG8">
+        <v>3</v>
+      </c>
+      <c r="BH8">
+        <v>1.33</v>
+      </c>
+      <c r="BI8">
+        <v>3.25</v>
+      </c>
+      <c r="BJ8">
+        <v>1.57</v>
+      </c>
+      <c r="BK8">
+        <v>2.28</v>
+      </c>
+      <c r="BL8">
+        <v>1.58</v>
+      </c>
+      <c r="BM8">
+        <v>2.37</v>
+      </c>
+      <c r="BN8">
+        <v>2.15</v>
+      </c>
+      <c r="BO8">
+        <v>1.67</v>
+      </c>
+      <c r="BP8">
+        <v>2.05</v>
+      </c>
+      <c r="BQ8">
+        <v>1.75</v>
+      </c>
+      <c r="BR8">
+        <v>3.04</v>
+      </c>
+      <c r="BS8">
+        <v>1.34</v>
+      </c>
+      <c r="BT8">
+        <v>3</v>
+      </c>
+      <c r="BU8">
+        <v>1.39</v>
+      </c>
+      <c r="BV8">
+        <v>3.75</v>
+      </c>
+      <c r="BW8">
+        <v>1.25</v>
+      </c>
+      <c r="BX8">
+        <v>3.75</v>
+      </c>
+      <c r="BY8">
+        <v>1.25</v>
+      </c>
+      <c r="BZ8">
+        <v>6.35</v>
+      </c>
+      <c r="CA8">
+        <v>1.07</v>
+      </c>
+      <c r="CB8">
+        <v>6.5</v>
+      </c>
+      <c r="CC8">
+        <v>1.11</v>
+      </c>
+      <c r="CD8">
+        <v>9</v>
+      </c>
+      <c r="CE8">
+        <v>1.07</v>
+      </c>
+      <c r="CF8">
+        <v>8</v>
+      </c>
+      <c r="CG8">
+        <v>1.08</v>
+      </c>
+      <c r="CH8">
+        <v>13.5</v>
+      </c>
+      <c r="CI8">
+        <v>1.02</v>
+      </c>
+      <c r="CJ8">
+        <v>13.5</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>198</v>
+      </c>
+      <c r="CL8">
+        <v>19</v>
+      </c>
+      <c r="CM8">
+        <v>1.02</v>
+      </c>
+      <c r="CN8">
+        <v>17</v>
+      </c>
+      <c r="CO8">
+        <v>1.02</v>
+      </c>
+      <c r="CT8">
+        <v>41</v>
+      </c>
+      <c r="CU8">
+        <v>41</v>
+      </c>
+      <c r="CV8">
+        <v>34</v>
+      </c>
+      <c r="CW8">
+        <v>34</v>
+      </c>
+      <c r="DJ8">
+        <v>1.33</v>
+      </c>
+      <c r="DK8">
+        <v>3.3</v>
+      </c>
+      <c r="DL8">
+        <v>1.55</v>
+      </c>
+      <c r="DM8">
+        <v>2.38</v>
+      </c>
+      <c r="DN8">
+        <v>1.25</v>
+      </c>
+      <c r="DO8">
+        <v>3.8</v>
+      </c>
+      <c r="DP8">
+        <v>2.03</v>
+      </c>
+      <c r="DQ8">
+        <v>1.78</v>
+      </c>
+      <c r="DR8">
+        <v>1.13</v>
+      </c>
+      <c r="DS8">
+        <v>6</v>
+      </c>
+      <c r="DT8">
+        <v>2.85</v>
+      </c>
+      <c r="DU8">
+        <v>1.4</v>
+      </c>
+      <c r="DX8">
+        <v>4.1</v>
+      </c>
+      <c r="DY8">
+        <v>1.23</v>
+      </c>
+      <c r="EB8">
+        <v>6.6</v>
+      </c>
+      <c r="EC8">
+        <v>1.11</v>
+      </c>
+      <c r="EF8">
+        <v>9.85</v>
+      </c>
+      <c r="EG8">
+        <v>1.03</v>
+      </c>
+      <c r="EJ8">
+        <v>8.5</v>
+      </c>
+      <c r="EK8">
+        <v>11</v>
+      </c>
+      <c r="EL8">
+        <v>23</v>
+      </c>
+      <c r="EM8">
+        <v>51</v>
+      </c>
+      <c r="EN8">
+        <v>6</v>
+      </c>
+      <c r="EO8">
+        <v>6.5</v>
+      </c>
+      <c r="EP8">
+        <v>15</v>
+      </c>
+      <c r="EQ8">
+        <v>41</v>
+      </c>
+      <c r="ER8">
+        <v>7.5</v>
+      </c>
+      <c r="ES8">
+        <v>8.5</v>
+      </c>
+      <c r="ET8">
+        <v>17</v>
+      </c>
+      <c r="EU8">
+        <v>41</v>
+      </c>
+      <c r="EV8">
+        <v>15</v>
+      </c>
+      <c r="EW8">
+        <v>15</v>
+      </c>
+      <c r="EX8">
+        <v>29</v>
+      </c>
+      <c r="EY8">
+        <v>67</v>
+      </c>
+      <c r="EZ8">
+        <v>151</v>
+      </c>
+      <c r="FA8">
+        <v>101</v>
+      </c>
+      <c r="FB8">
+        <v>126</v>
+      </c>
+      <c r="FC8">
+        <v>201</v>
+      </c>
+      <c r="FD8">
+        <v>29</v>
+      </c>
+      <c r="FE8">
+        <v>34</v>
+      </c>
+      <c r="FF8">
+        <v>51</v>
+      </c>
+      <c r="FG8">
+        <v>126</v>
+      </c>
+      <c r="FH8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9">
+        <v>3.75</v>
+      </c>
+      <c r="I9">
+        <v>2.2</v>
+      </c>
+      <c r="J9">
+        <v>2.88</v>
+      </c>
+      <c r="K9">
+        <v>3.75</v>
+      </c>
+      <c r="L9">
+        <v>2.2</v>
+      </c>
+      <c r="M9">
+        <v>2.75</v>
+      </c>
+      <c r="N9">
+        <v>1.4</v>
+      </c>
+      <c r="O9">
+        <v>2.75</v>
+      </c>
+      <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>2.75</v>
+      </c>
+      <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>1.9</v>
+      </c>
+      <c r="U9">
+        <v>1.9</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>2.75</v>
+      </c>
+      <c r="Y9">
+        <v>1.4</v>
+      </c>
+      <c r="Z9">
+        <v>5.8</v>
+      </c>
+      <c r="AA9">
+        <v>1.12</v>
+      </c>
+      <c r="AB9">
+        <v>5.85</v>
+      </c>
+      <c r="AC9">
+        <v>1.12</v>
+      </c>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>1.08</v>
+      </c>
+      <c r="AF9">
+        <v>8</v>
+      </c>
+      <c r="AG9">
+        <v>1.08</v>
+      </c>
+      <c r="AH9">
+        <v>3.25</v>
+      </c>
+      <c r="AI9">
+        <v>3.4</v>
+      </c>
+      <c r="AJ9">
+        <v>2.15</v>
+      </c>
+      <c r="AK9">
+        <v>3.3</v>
+      </c>
+      <c r="AL9">
+        <v>3.4</v>
+      </c>
+      <c r="AM9">
+        <v>2.1</v>
+      </c>
+      <c r="AN9">
+        <v>1.67</v>
+      </c>
+      <c r="AO9">
+        <v>1.3</v>
+      </c>
+      <c r="AP9">
+        <v>1.33</v>
+      </c>
+      <c r="AQ9">
+        <v>1.7</v>
+      </c>
+      <c r="AR9">
+        <v>1.3</v>
+      </c>
+      <c r="AS9">
+        <v>1.33</v>
+      </c>
+      <c r="AT9">
+        <v>1.75</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>1.75</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>1.05</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
+        <v>1.05</v>
+      </c>
+      <c r="BA9">
+        <v>11</v>
+      </c>
+      <c r="BB9">
+        <v>1.03</v>
+      </c>
+      <c r="BC9">
+        <v>8</v>
+      </c>
+      <c r="BD9">
+        <v>1.08</v>
+      </c>
+      <c r="BE9">
+        <v>8.1</v>
+      </c>
+      <c r="BF9">
+        <v>1.29</v>
+      </c>
+      <c r="BG9">
+        <v>3.5</v>
+      </c>
+      <c r="BH9">
+        <v>1.29</v>
+      </c>
+      <c r="BI9">
+        <v>3.5</v>
+      </c>
+      <c r="BJ9">
+        <v>1.44</v>
+      </c>
+      <c r="BK9">
+        <v>2.62</v>
+      </c>
+      <c r="BL9">
+        <v>1.48</v>
+      </c>
+      <c r="BM9">
+        <v>2.65</v>
+      </c>
+      <c r="BN9">
+        <v>1.95</v>
+      </c>
+      <c r="BO9">
+        <v>1.9</v>
+      </c>
+      <c r="BP9">
+        <v>1.9</v>
+      </c>
+      <c r="BQ9">
+        <v>1.9</v>
+      </c>
+      <c r="BR9">
+        <v>2.56</v>
+      </c>
+      <c r="BS9">
+        <v>1.46</v>
+      </c>
+      <c r="BT9">
+        <v>2.7</v>
+      </c>
+      <c r="BU9">
+        <v>1.47</v>
+      </c>
+      <c r="BV9">
+        <v>3.25</v>
+      </c>
+      <c r="BW9">
+        <v>1.33</v>
+      </c>
+      <c r="BX9">
+        <v>3.25</v>
+      </c>
+      <c r="BY9">
+        <v>1.33</v>
+      </c>
+      <c r="BZ9">
+        <v>5.2</v>
+      </c>
+      <c r="CA9">
+        <v>1.11</v>
+      </c>
+      <c r="CB9">
+        <v>5.6</v>
+      </c>
+      <c r="CC9">
+        <v>1.15</v>
+      </c>
+      <c r="CD9">
+        <v>6.5</v>
+      </c>
+      <c r="CE9">
+        <v>1.11</v>
+      </c>
+      <c r="CF9">
+        <v>6.5</v>
+      </c>
+      <c r="CG9">
+        <v>1.11</v>
+      </c>
+      <c r="CL9">
+        <v>15</v>
+      </c>
+      <c r="CM9">
+        <v>1.03</v>
+      </c>
+      <c r="CN9">
+        <v>15</v>
+      </c>
+      <c r="CO9">
+        <v>1.03</v>
+      </c>
+      <c r="CT9">
+        <v>29</v>
+      </c>
+      <c r="CU9">
+        <v>1.01</v>
+      </c>
+      <c r="CV9">
+        <v>29</v>
+      </c>
+      <c r="CW9">
+        <v>1.01</v>
+      </c>
+      <c r="DB9">
+        <v>51</v>
+      </c>
+      <c r="DC9">
+        <v>50</v>
+      </c>
+      <c r="DD9">
+        <v>51</v>
+      </c>
+      <c r="DE9">
+        <v>50</v>
+      </c>
+      <c r="DJ9">
+        <v>2.25</v>
+      </c>
+      <c r="DK9">
+        <v>1.63</v>
+      </c>
+      <c r="DL9">
+        <v>2.6</v>
+      </c>
+      <c r="DM9">
+        <v>1.48</v>
+      </c>
+      <c r="DN9">
+        <v>1.88</v>
+      </c>
+      <c r="DO9">
+        <v>1.98</v>
+      </c>
+      <c r="DP9">
+        <v>3.7</v>
+      </c>
+      <c r="DQ9">
+        <v>1.26</v>
+      </c>
+      <c r="DR9">
+        <v>1.48</v>
+      </c>
+      <c r="DS9">
+        <v>2.6</v>
+      </c>
+      <c r="DT9">
+        <v>6</v>
+      </c>
+      <c r="DU9">
+        <v>1.13</v>
+      </c>
+      <c r="DV9">
+        <v>1.25</v>
+      </c>
+      <c r="DW9">
+        <v>3.8</v>
+      </c>
+      <c r="DX9">
+        <v>9.25</v>
+      </c>
+      <c r="DY9">
+        <v>1.03</v>
+      </c>
+      <c r="DZ9">
+        <v>1.14</v>
+      </c>
+      <c r="EA9">
+        <v>5.75</v>
+      </c>
+      <c r="EJ9">
+        <v>10</v>
+      </c>
+      <c r="EK9">
+        <v>8</v>
+      </c>
+      <c r="EL9">
+        <v>11</v>
+      </c>
+      <c r="EM9">
+        <v>21</v>
+      </c>
+      <c r="EN9">
+        <v>10</v>
+      </c>
+      <c r="EO9">
+        <v>6.5</v>
+      </c>
+      <c r="EP9">
+        <v>9</v>
+      </c>
+      <c r="EQ9">
+        <v>17</v>
+      </c>
+      <c r="ER9">
+        <v>17</v>
+      </c>
+      <c r="ES9">
+        <v>11</v>
+      </c>
+      <c r="ET9">
+        <v>13</v>
+      </c>
+      <c r="EU9">
+        <v>26</v>
+      </c>
+      <c r="EV9">
+        <v>34</v>
+      </c>
+      <c r="EW9">
+        <v>26</v>
+      </c>
+      <c r="EX9">
+        <v>34</v>
+      </c>
+      <c r="EY9">
+        <v>41</v>
+      </c>
+      <c r="EZ9">
+        <v>41</v>
+      </c>
+      <c r="FA9">
+        <v>41</v>
+      </c>
+      <c r="FB9">
+        <v>51</v>
+      </c>
+      <c r="FC9">
+        <v>81</v>
+      </c>
+      <c r="FD9">
+        <v>67</v>
+      </c>
+      <c r="FE9">
+        <v>51</v>
+      </c>
+      <c r="FF9">
+        <v>67</v>
+      </c>
+      <c r="FG9">
+        <v>101</v>
+      </c>
+      <c r="FH9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10">
+        <v>2.18</v>
+      </c>
+      <c r="I10">
+        <v>2.1</v>
+      </c>
+      <c r="J10">
+        <v>6.7</v>
+      </c>
+      <c r="K10">
+        <v>2.52</v>
+      </c>
+      <c r="L10">
+        <v>2.07</v>
+      </c>
+      <c r="M10">
+        <v>4.91</v>
+      </c>
+      <c r="N10">
+        <v>1.47</v>
+      </c>
+      <c r="O10">
+        <v>2.58</v>
+      </c>
+      <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>2.75</v>
+      </c>
+      <c r="R10">
+        <v>2.1</v>
+      </c>
+      <c r="S10">
+        <v>1.69</v>
+      </c>
+      <c r="T10">
+        <v>2.23</v>
+      </c>
+      <c r="U10">
+        <v>1.61</v>
+      </c>
+      <c r="V10">
+        <v>3.22</v>
+      </c>
+      <c r="W10">
+        <v>1.32</v>
+      </c>
+      <c r="X10">
+        <v>2.97</v>
+      </c>
+      <c r="Y10">
+        <v>1.31</v>
+      </c>
+      <c r="Z10">
+        <v>7.3</v>
+      </c>
+      <c r="AA10">
+        <v>1.08</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>1.08</v>
+      </c>
+      <c r="AD10">
+        <v>8.6</v>
+      </c>
+      <c r="AE10">
+        <v>1.05</v>
+      </c>
+      <c r="AF10">
+        <v>7.3</v>
+      </c>
+      <c r="AG10">
+        <v>1.06</v>
+      </c>
+      <c r="AH10">
+        <v>1.6</v>
+      </c>
+      <c r="AI10">
+        <v>3.82</v>
+      </c>
+      <c r="AJ10">
+        <v>5.97</v>
+      </c>
+      <c r="AK10">
+        <v>1.86</v>
+      </c>
+      <c r="AL10">
+        <v>3.25</v>
+      </c>
+      <c r="AM10">
+        <v>4.23</v>
+      </c>
+      <c r="AN10">
+        <v>1.12</v>
+      </c>
+      <c r="AO10">
+        <v>1.26</v>
+      </c>
+      <c r="AP10">
+        <v>2.36</v>
+      </c>
+      <c r="AQ10">
+        <v>1.12</v>
+      </c>
+      <c r="AR10">
+        <v>1.25</v>
+      </c>
+      <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <v>2.23</v>
+      </c>
+      <c r="AU10">
+        <v>1.62</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>1.77</v>
+      </c>
+      <c r="AX10">
+        <v>1.04</v>
+      </c>
+      <c r="AY10">
+        <v>7.6</v>
+      </c>
+      <c r="AZ10">
+        <v>1.05</v>
+      </c>
+      <c r="BA10">
+        <v>8</v>
+      </c>
+      <c r="BB10">
+        <v>1.07</v>
+      </c>
+      <c r="BC10">
+        <v>6.25</v>
+      </c>
+      <c r="BD10">
+        <v>1.09</v>
+      </c>
+      <c r="BE10">
+        <v>6.7</v>
+      </c>
+      <c r="BF10">
+        <v>1.37</v>
+      </c>
+      <c r="BG10">
+        <v>2.79</v>
+      </c>
+      <c r="BH10">
+        <v>1.33</v>
+      </c>
+      <c r="BI10">
+        <v>3</v>
+      </c>
+      <c r="BJ10">
+        <v>1.65</v>
+      </c>
+      <c r="BK10">
+        <v>2.13</v>
+      </c>
+      <c r="BL10">
+        <v>1.58</v>
+      </c>
+      <c r="BM10">
+        <v>2.28</v>
+      </c>
+      <c r="BN10">
+        <v>2.25</v>
+      </c>
+      <c r="BO10">
+        <v>1.66</v>
+      </c>
+      <c r="BP10">
+        <v>2.1</v>
+      </c>
+      <c r="BQ10">
+        <v>1.65</v>
+      </c>
+      <c r="BR10">
+        <v>3.25</v>
+      </c>
+      <c r="BS10">
+        <v>1.3</v>
+      </c>
+      <c r="BT10">
+        <v>3</v>
+      </c>
+      <c r="BU10">
+        <v>1.36</v>
+      </c>
+      <c r="BV10">
+        <v>3.95</v>
+      </c>
+      <c r="BW10">
+        <v>1.2</v>
+      </c>
+      <c r="BX10">
+        <v>4</v>
+      </c>
+      <c r="BY10">
+        <v>1.2</v>
+      </c>
+      <c r="BZ10">
+        <v>7</v>
+      </c>
+      <c r="CA10">
+        <v>1.05</v>
+      </c>
+      <c r="CB10">
+        <v>6</v>
+      </c>
+      <c r="CC10">
+        <v>1.11</v>
+      </c>
+      <c r="CD10">
+        <v>7.7</v>
+      </c>
+      <c r="CE10">
+        <v>1.04</v>
+      </c>
+      <c r="CF10">
+        <v>8</v>
+      </c>
+      <c r="CG10">
+        <v>1.05</v>
+      </c>
+      <c r="CL10">
+        <v>13</v>
+      </c>
+      <c r="CM10">
+        <v>1.02</v>
+      </c>
+      <c r="CN10">
+        <v>13</v>
+      </c>
+      <c r="CO10">
+        <v>1.02</v>
+      </c>
+      <c r="CT10">
+        <v>17</v>
+      </c>
+      <c r="CU10">
+        <v>1.01</v>
+      </c>
+      <c r="CV10">
+        <v>17</v>
+      </c>
+      <c r="CW10">
+        <v>1.01</v>
+      </c>
+      <c r="DJ10">
+        <v>1.17</v>
+      </c>
+      <c r="DK10">
+        <v>4.4</v>
+      </c>
+      <c r="DL10">
+        <v>1.36</v>
+      </c>
+      <c r="DM10">
+        <v>2.92</v>
+      </c>
+      <c r="DN10">
+        <v>1.14</v>
+      </c>
+      <c r="DO10">
+        <v>4.96</v>
+      </c>
+      <c r="DP10">
+        <v>1.76</v>
+      </c>
+      <c r="DQ10">
+        <v>2.09</v>
+      </c>
+      <c r="DR10">
+        <v>1.05</v>
+      </c>
+      <c r="DS10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="DT10">
+        <v>2.34</v>
+      </c>
+      <c r="DU10">
+        <v>1.54</v>
+      </c>
+      <c r="DX10">
+        <v>3.32</v>
+      </c>
+      <c r="DY10">
+        <v>1.29</v>
+      </c>
+      <c r="EB10">
+        <v>5.09</v>
+      </c>
+      <c r="EC10">
+        <v>1.14</v>
+      </c>
+      <c r="EF10">
+        <v>7.5</v>
+      </c>
+      <c r="EG10">
+        <v>1.06</v>
+      </c>
+      <c r="EJ10">
+        <v>8.5</v>
+      </c>
+      <c r="EK10">
+        <v>14</v>
+      </c>
+      <c r="EL10">
+        <v>34</v>
+      </c>
+      <c r="EM10">
+        <v>101</v>
+      </c>
+      <c r="EN10">
+        <v>5</v>
+      </c>
+      <c r="EO10">
+        <v>7</v>
+      </c>
+      <c r="EP10">
+        <v>20</v>
+      </c>
+      <c r="EQ10">
+        <v>67</v>
+      </c>
+      <c r="ER10">
+        <v>6.5</v>
+      </c>
+      <c r="ES10">
+        <v>8</v>
+      </c>
+      <c r="ET10">
+        <v>19</v>
+      </c>
+      <c r="EU10">
+        <v>81</v>
+      </c>
+      <c r="EV10">
+        <v>11</v>
+      </c>
+      <c r="EW10">
+        <v>13</v>
+      </c>
+      <c r="EX10">
+        <v>31</v>
+      </c>
+      <c r="EY10">
+        <v>126</v>
+      </c>
+      <c r="EZ10">
+        <v>201</v>
+      </c>
+      <c r="FA10">
+        <v>201</v>
+      </c>
+      <c r="FB10">
+        <v>201</v>
+      </c>
+      <c r="FC10">
+        <v>201</v>
+      </c>
+      <c r="FD10">
+        <v>23</v>
+      </c>
+      <c r="FE10">
+        <v>31</v>
+      </c>
+      <c r="FF10">
+        <v>76</v>
+      </c>
+      <c r="FG10">
+        <v>201</v>
+      </c>
+      <c r="FH10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
+      <c r="A11" s="1">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11">
+        <v>3.6</v>
+      </c>
+      <c r="I11">
+        <v>1.91</v>
+      </c>
+      <c r="J11">
+        <v>3.6</v>
+      </c>
+      <c r="K11">
+        <v>3.4</v>
+      </c>
+      <c r="L11">
+        <v>1.95</v>
+      </c>
+      <c r="M11">
+        <v>3.75</v>
+      </c>
+      <c r="N11">
+        <v>1.57</v>
+      </c>
+      <c r="O11">
+        <v>2.25</v>
+      </c>
+      <c r="P11">
+        <v>1.53</v>
+      </c>
+      <c r="Q11">
+        <v>2.38</v>
+      </c>
+      <c r="R11">
+        <v>2.41</v>
+      </c>
+      <c r="S11">
+        <v>1.53</v>
+      </c>
+      <c r="T11">
+        <v>2.25</v>
+      </c>
+      <c r="U11">
+        <v>1.6</v>
+      </c>
+      <c r="V11">
+        <v>3.75</v>
+      </c>
+      <c r="W11">
+        <v>1.25</v>
+      </c>
+      <c r="X11">
+        <v>3.75</v>
+      </c>
+      <c r="Y11">
+        <v>1.25</v>
+      </c>
+      <c r="Z11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA11">
+        <v>1.05</v>
+      </c>
+      <c r="AB11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>1.06</v>
+      </c>
+      <c r="AD11">
+        <v>13</v>
+      </c>
+      <c r="AE11">
+        <v>1.04</v>
+      </c>
+      <c r="AF11">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>1.05</v>
+      </c>
+      <c r="AH11">
+        <v>2.75</v>
+      </c>
+      <c r="AI11">
+        <v>2.9</v>
+      </c>
+      <c r="AJ11">
+        <v>2.8</v>
+      </c>
+      <c r="AK11">
+        <v>2.55</v>
+      </c>
+      <c r="AL11">
+        <v>2.9</v>
+      </c>
+      <c r="AM11">
+        <v>2.8</v>
+      </c>
+      <c r="AN11">
+        <v>1.4</v>
+      </c>
+      <c r="AO11">
+        <v>1.4</v>
+      </c>
+      <c r="AP11">
+        <v>1.4</v>
+      </c>
+      <c r="AQ11">
+        <v>1.4</v>
+      </c>
+      <c r="AR11">
+        <v>1.4</v>
+      </c>
+      <c r="AS11">
+        <v>1.5</v>
+      </c>
+      <c r="AT11">
+        <v>2.1</v>
+      </c>
+      <c r="AU11">
+        <v>1.67</v>
+      </c>
+      <c r="AV11">
+        <v>2.05</v>
+      </c>
+      <c r="AW11">
+        <v>1.7</v>
+      </c>
+      <c r="AX11">
+        <v>1.11</v>
+      </c>
+      <c r="AY11">
+        <v>6.5</v>
+      </c>
+      <c r="AZ11">
+        <v>1.1</v>
+      </c>
+      <c r="BA11">
+        <v>7</v>
+      </c>
+      <c r="BB11">
+        <v>1.14</v>
+      </c>
+      <c r="BC11">
+        <v>5.1</v>
+      </c>
+      <c r="BD11">
+        <v>1.14</v>
+      </c>
+      <c r="BE11">
+        <v>5.2</v>
+      </c>
+      <c r="BF11">
+        <v>1.5</v>
+      </c>
+      <c r="BG11">
+        <v>2.5</v>
+      </c>
+      <c r="BH11">
+        <v>1.44</v>
+      </c>
+      <c r="BI11">
+        <v>2.63</v>
+      </c>
+      <c r="BJ11">
+        <v>1.98</v>
+      </c>
+      <c r="BK11">
+        <v>1.88</v>
+      </c>
+      <c r="BL11">
+        <v>1.88</v>
+      </c>
+      <c r="BM11">
+        <v>1.98</v>
+      </c>
+      <c r="BN11">
+        <v>2.6</v>
+      </c>
+      <c r="BO11">
+        <v>1.48</v>
+      </c>
+      <c r="BP11">
+        <v>2.5</v>
+      </c>
+      <c r="BQ11">
+        <v>1.5</v>
+      </c>
+      <c r="BR11">
+        <v>3.92</v>
+      </c>
+      <c r="BS11">
+        <v>1.19</v>
+      </c>
+      <c r="BT11">
+        <v>3.9</v>
+      </c>
+      <c r="BU11">
+        <v>1.23</v>
+      </c>
+      <c r="BV11">
+        <v>5</v>
+      </c>
+      <c r="BW11">
+        <v>1.17</v>
+      </c>
+      <c r="BX11">
+        <v>5</v>
+      </c>
+      <c r="BY11">
+        <v>1.17</v>
+      </c>
+      <c r="BZ11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CA11">
+        <v>1.02</v>
+      </c>
+      <c r="CB11">
+        <v>8.4</v>
+      </c>
+      <c r="CC11">
+        <v>1.05</v>
+      </c>
+      <c r="CD11">
+        <v>13</v>
+      </c>
+      <c r="CE11">
+        <v>1.04</v>
+      </c>
+      <c r="CF11">
+        <v>11</v>
+      </c>
+      <c r="CG11">
+        <v>1.05</v>
+      </c>
+      <c r="CL11">
+        <v>26</v>
+      </c>
+      <c r="CM11">
+        <v>1.01</v>
+      </c>
+      <c r="CN11">
+        <v>26</v>
+      </c>
+      <c r="CO11">
+        <v>1.01</v>
+      </c>
+      <c r="CT11">
+        <v>51</v>
+      </c>
+      <c r="CU11">
+        <v>50</v>
+      </c>
+      <c r="CV11">
+        <v>51</v>
+      </c>
+      <c r="CW11">
+        <v>50</v>
+      </c>
+      <c r="DJ11">
+        <v>1.88</v>
+      </c>
+      <c r="DK11">
+        <v>1.98</v>
+      </c>
+      <c r="DL11">
+        <v>2.25</v>
+      </c>
+      <c r="DM11">
+        <v>1.63</v>
+      </c>
+      <c r="DN11">
+        <v>1.58</v>
+      </c>
+      <c r="DO11">
+        <v>2.35</v>
+      </c>
+      <c r="DP11">
+        <v>3.3</v>
+      </c>
+      <c r="DQ11">
+        <v>1.33</v>
+      </c>
+      <c r="DR11">
+        <v>1.3</v>
+      </c>
+      <c r="DS11">
+        <v>3.45</v>
+      </c>
+      <c r="DT11">
+        <v>5.75</v>
+      </c>
+      <c r="DU11">
+        <v>1.14</v>
+      </c>
+      <c r="DV11">
+        <v>1.13</v>
+      </c>
+      <c r="DW11">
+        <v>5.9</v>
+      </c>
+      <c r="DX11">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="DY11">
+        <v>1.04</v>
+      </c>
+      <c r="DZ11">
+        <v>1.04</v>
+      </c>
+      <c r="EA11">
+        <v>8.85</v>
+      </c>
+      <c r="EJ11">
+        <v>6.5</v>
+      </c>
+      <c r="EK11">
+        <v>7</v>
+      </c>
+      <c r="EL11">
+        <v>12</v>
+      </c>
+      <c r="EM11">
+        <v>29</v>
+      </c>
+      <c r="EN11">
+        <v>7</v>
+      </c>
+      <c r="EO11">
+        <v>6</v>
+      </c>
+      <c r="EP11">
+        <v>11</v>
+      </c>
+      <c r="EQ11">
+        <v>29</v>
+      </c>
+      <c r="ER11">
+        <v>12</v>
+      </c>
+      <c r="ES11">
+        <v>11</v>
+      </c>
+      <c r="ET11">
+        <v>19</v>
+      </c>
+      <c r="EU11">
+        <v>41</v>
+      </c>
+      <c r="EV11">
+        <v>29</v>
+      </c>
+      <c r="EW11">
+        <v>26</v>
+      </c>
+      <c r="EX11">
+        <v>41</v>
+      </c>
+      <c r="EY11">
+        <v>67</v>
+      </c>
+      <c r="EZ11">
+        <v>67</v>
+      </c>
+      <c r="FA11">
+        <v>51</v>
+      </c>
+      <c r="FB11">
+        <v>81</v>
+      </c>
+      <c r="FC11">
+        <v>201</v>
+      </c>
+      <c r="FD11">
+        <v>67</v>
+      </c>
+      <c r="FE11">
+        <v>51</v>
+      </c>
+      <c r="FF11">
+        <v>81</v>
+      </c>
+      <c r="FG11">
+        <v>201</v>
+      </c>
+      <c r="FH11">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
   <si>
     <t>Date</t>
   </si>
@@ -505,7 +505,7 @@
     <t>FT_Odd_CS_4x4</t>
   </si>
   <si>
-    <t>27/06/2023</t>
+    <t>28/06/2023</t>
   </si>
   <si>
     <t>19:00</t>
@@ -517,31 +517,61 @@
     <t>BRAZIL - SERIE B</t>
   </si>
   <si>
-    <t>Chapecoense-SC</t>
-  </si>
-  <si>
-    <t>Criciuma</t>
-  </si>
-  <si>
-    <t>Novorizontino</t>
-  </si>
-  <si>
-    <t>Vila Nova FC</t>
-  </si>
-  <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
-    <t>CRB</t>
-  </si>
-  <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
-    <t>Tombense</t>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Ceara</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Vitoria</t>
+  </si>
+  <si>
+    <t>Atletico GO</t>
+  </si>
+  <si>
+    <t>Avai</t>
+  </si>
+  <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
+    <t>Ponte Preta</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Sampaio Correa</t>
   </si>
   <si>
     <t>ROUND 14</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.01</t>
   </si>
 </sst>
 </file>
@@ -899,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH5"/>
+  <dimension ref="A1:FH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1413,289 +1443,301 @@
         <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H2">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="I2">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J2">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="K2">
-        <v>4.64</v>
+        <v>3.4</v>
       </c>
       <c r="L2">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="M2">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O2">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="P2">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q2">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R2">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="S2">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="T2">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="U2">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="V2">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="W2">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Z2">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AA2">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AB2">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AC2">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD2">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AF2">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG2">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AH2">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="AI2">
         <v>3.02</v>
       </c>
       <c r="AJ2">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="AK2">
-        <v>3.46</v>
+        <v>2.88</v>
       </c>
       <c r="AL2">
         <v>3</v>
       </c>
       <c r="AM2">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="AN2">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AO2">
         <v>1.38</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AQ2">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AS2">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT2">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AU2">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AV2">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AW2">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AX2">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AY2">
-        <v>6.45</v>
-      </c>
-      <c r="AZ2">
-        <v>1.06</v>
+        <v>6.7</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>180</v>
       </c>
       <c r="BA2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BB2">
         <v>1.1</v>
       </c>
       <c r="BC2">
-        <v>5.35</v>
+        <v>5.55</v>
       </c>
       <c r="BD2">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="BE2">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="BF2">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="BG2">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="BH2">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BI2">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="BJ2">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="BK2">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="BL2">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BM2">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="BN2">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="BO2">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="BP2">
         <v>2.25</v>
       </c>
       <c r="BQ2">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="BR2">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="BS2">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BT2">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="BU2">
         <v>1.3</v>
       </c>
       <c r="BV2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="BW2">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BX2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BY2">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="BZ2">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="CA2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="CB2">
         <v>7</v>
       </c>
       <c r="CC2">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="CD2">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="CE2">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="CF2">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="CG2">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="CL2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CM2">
         <v>1.02</v>
       </c>
       <c r="CN2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CO2">
         <v>1.02</v>
       </c>
+      <c r="CT2">
+        <v>17</v>
+      </c>
+      <c r="CU2">
+        <v>1.01</v>
+      </c>
+      <c r="CV2">
+        <v>21</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>184</v>
+      </c>
       <c r="DJ2">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="DK2">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="DL2">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="DM2">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="DN2">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="DO2">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="DP2">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="DQ2">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="DR2">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="DS2">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="DT2">
-        <v>6.13</v>
+        <v>5.86</v>
       </c>
       <c r="DU2">
         <v>1.1</v>
@@ -1704,10 +1746,10 @@
         <v>1.16</v>
       </c>
       <c r="DW2">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="DX2">
-        <v>9.550000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="DY2">
         <v>1.03</v>
@@ -1716,19 +1758,13 @@
         <v>1.07</v>
       </c>
       <c r="EA2">
-        <v>6.97</v>
-      </c>
-      <c r="ED2">
-        <v>1.03</v>
-      </c>
-      <c r="EE2">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="EJ2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="EK2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="EL2">
         <v>11</v>
@@ -1737,10 +1773,10 @@
         <v>23</v>
       </c>
       <c r="EN2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="EO2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="EP2">
         <v>9.5</v>
@@ -1752,28 +1788,28 @@
         <v>13</v>
       </c>
       <c r="ES2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="ET2">
         <v>14</v>
       </c>
       <c r="EU2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="EV2">
+        <v>31</v>
+      </c>
+      <c r="EW2">
+        <v>23</v>
+      </c>
+      <c r="EX2">
         <v>36</v>
       </c>
-      <c r="EW2">
-        <v>26</v>
-      </c>
-      <c r="EX2">
-        <v>41</v>
-      </c>
       <c r="EY2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="EZ2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="FA2">
         <v>71</v>
@@ -1785,10 +1821,10 @@
         <v>201</v>
       </c>
       <c r="FD2">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="FE2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="FF2">
         <v>126</v>
@@ -1817,34 +1853,34 @@
         <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H3">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="I3">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="J3">
-        <v>5.85</v>
+        <v>5.57</v>
       </c>
       <c r="K3">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M3">
-        <v>5.05</v>
+        <v>6.14</v>
       </c>
       <c r="N3">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="O3">
-        <v>2.41</v>
+        <v>2.64</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1853,328 +1889,340 @@
         <v>2.63</v>
       </c>
       <c r="R3">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="S3">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="T3">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="U3">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="V3">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="W3">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>1.36</v>
+      </c>
+      <c r="Z3">
+        <v>7</v>
+      </c>
+      <c r="AA3">
+        <v>1.08</v>
+      </c>
+      <c r="AB3">
+        <v>7.3</v>
+      </c>
+      <c r="AC3">
+        <v>1.07</v>
+      </c>
+      <c r="AD3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>1.06</v>
+      </c>
+      <c r="AF3">
+        <v>7.5</v>
+      </c>
+      <c r="AG3">
+        <v>1.07</v>
+      </c>
+      <c r="AH3">
+        <v>1.75</v>
+      </c>
+      <c r="AI3">
+        <v>3.62</v>
+      </c>
+      <c r="AJ3">
+        <v>4.86</v>
+      </c>
+      <c r="AK3">
+        <v>1.62</v>
+      </c>
+      <c r="AL3">
+        <v>3.5</v>
+      </c>
+      <c r="AM3">
+        <v>5.92</v>
+      </c>
+      <c r="AN3">
+        <v>1.17</v>
+      </c>
+      <c r="AO3">
+        <v>1.29</v>
+      </c>
+      <c r="AP3">
+        <v>2.09</v>
+      </c>
+      <c r="AQ3">
+        <v>1.11</v>
+      </c>
+      <c r="AR3">
+        <v>1.29</v>
+      </c>
+      <c r="AS3">
+        <v>2.25</v>
+      </c>
+      <c r="AT3">
+        <v>2.04</v>
+      </c>
+      <c r="AU3">
+        <v>1.74</v>
+      </c>
+      <c r="AV3">
+        <v>2.15</v>
+      </c>
+      <c r="AW3">
+        <v>1.67</v>
+      </c>
+      <c r="AX3">
+        <v>1.04</v>
+      </c>
+      <c r="AY3">
+        <v>7.8</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>1.06</v>
+      </c>
+      <c r="BC3">
+        <v>6.55</v>
+      </c>
+      <c r="BD3">
+        <v>1.07</v>
+      </c>
+      <c r="BE3">
+        <v>6.25</v>
+      </c>
+      <c r="BF3">
+        <v>1.35</v>
+      </c>
+      <c r="BG3">
+        <v>2.88</v>
+      </c>
+      <c r="BH3">
+        <v>1.4</v>
+      </c>
+      <c r="BI3">
+        <v>2.75</v>
+      </c>
+      <c r="BJ3">
+        <v>1.6</v>
+      </c>
+      <c r="BK3">
+        <v>2.22</v>
+      </c>
+      <c r="BL3">
+        <v>1.65</v>
+      </c>
+      <c r="BM3">
+        <v>2.13</v>
+      </c>
+      <c r="BN3">
+        <v>2.18</v>
+      </c>
+      <c r="BO3">
+        <v>1.7</v>
+      </c>
+      <c r="BP3">
+        <v>2.2</v>
+      </c>
+      <c r="BQ3">
+        <v>1.62</v>
+      </c>
+      <c r="BR3">
+        <v>3.08</v>
+      </c>
+      <c r="BS3">
+        <v>1.33</v>
+      </c>
+      <c r="BT3">
         <v>3.25</v>
-      </c>
-      <c r="Y3">
-        <v>1.33</v>
-      </c>
-      <c r="Z3">
-        <v>9</v>
-      </c>
-      <c r="AA3">
-        <v>1.05</v>
-      </c>
-      <c r="AB3">
-        <v>7.9</v>
-      </c>
-      <c r="AC3">
-        <v>1.06</v>
-      </c>
-      <c r="AD3">
-        <v>10.2</v>
-      </c>
-      <c r="AE3">
-        <v>1.03</v>
-      </c>
-      <c r="AF3">
-        <v>8</v>
-      </c>
-      <c r="AG3">
-        <v>1.06</v>
-      </c>
-      <c r="AH3">
-        <v>1.83</v>
-      </c>
-      <c r="AI3">
-        <v>3.34</v>
-      </c>
-      <c r="AJ3">
-        <v>4.78</v>
-      </c>
-      <c r="AK3">
-        <v>1.82</v>
-      </c>
-      <c r="AL3">
-        <v>3.2</v>
-      </c>
-      <c r="AM3">
-        <v>4.78</v>
-      </c>
-      <c r="AN3">
-        <v>1.18</v>
-      </c>
-      <c r="AO3">
-        <v>1.33</v>
-      </c>
-      <c r="AP3">
-        <v>1.99</v>
-      </c>
-      <c r="AQ3">
-        <v>1.17</v>
-      </c>
-      <c r="AR3">
-        <v>1.33</v>
-      </c>
-      <c r="AS3">
-        <v>1.95</v>
-      </c>
-      <c r="AT3">
-        <v>2.31</v>
-      </c>
-      <c r="AU3">
-        <v>1.58</v>
-      </c>
-      <c r="AV3">
-        <v>2.1</v>
-      </c>
-      <c r="AW3">
-        <v>1.7</v>
-      </c>
-      <c r="AX3">
-        <v>1.07</v>
-      </c>
-      <c r="AY3">
-        <v>6.3</v>
-      </c>
-      <c r="AZ3">
-        <v>1.1</v>
-      </c>
-      <c r="BA3">
-        <v>6.5</v>
-      </c>
-      <c r="BB3">
-        <v>1.12</v>
-      </c>
-      <c r="BC3">
-        <v>5</v>
-      </c>
-      <c r="BD3">
-        <v>1.12</v>
-      </c>
-      <c r="BE3">
-        <v>5.7</v>
-      </c>
-      <c r="BF3">
-        <v>1.49</v>
-      </c>
-      <c r="BG3">
-        <v>2.4</v>
-      </c>
-      <c r="BH3">
-        <v>1.44</v>
-      </c>
-      <c r="BI3">
-        <v>2.63</v>
-      </c>
-      <c r="BJ3">
-        <v>1.9</v>
-      </c>
-      <c r="BK3">
-        <v>1.82</v>
-      </c>
-      <c r="BL3">
-        <v>1.76</v>
-      </c>
-      <c r="BM3">
-        <v>2.02</v>
-      </c>
-      <c r="BN3">
-        <v>2.62</v>
-      </c>
-      <c r="BO3">
-        <v>1.5</v>
-      </c>
-      <c r="BP3">
-        <v>2.3</v>
-      </c>
-      <c r="BQ3">
-        <v>1.57</v>
-      </c>
-      <c r="BR3">
-        <v>4.2</v>
-      </c>
-      <c r="BS3">
-        <v>1.19</v>
-      </c>
-      <c r="BT3">
-        <v>3.4</v>
       </c>
       <c r="BU3">
         <v>1.3</v>
       </c>
       <c r="BV3">
-        <v>4.95</v>
+        <v>3.72</v>
       </c>
       <c r="BW3">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="BX3">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BY3">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BZ3">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="CA3">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="CB3">
         <v>7</v>
       </c>
       <c r="CC3">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="CD3">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="CE3">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="CF3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="CG3">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="CL3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CM3">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CN3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CO3">
         <v>1.02</v>
       </c>
+      <c r="CT3">
+        <v>17</v>
+      </c>
+      <c r="CU3">
+        <v>1.01</v>
+      </c>
+      <c r="CV3">
+        <v>17</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>185</v>
+      </c>
       <c r="DJ3">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="DK3">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="DL3">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="DM3">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="DN3">
         <v>1.21</v>
       </c>
       <c r="DO3">
-        <v>3.81</v>
+        <v>3.99</v>
       </c>
       <c r="DP3">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="DQ3">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="DR3">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="DS3">
-        <v>5.96</v>
+        <v>6.32</v>
       </c>
       <c r="DT3">
-        <v>2.98</v>
+        <v>2.68</v>
       </c>
       <c r="DU3">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="DX3">
-        <v>4.36</v>
+        <v>3.84</v>
       </c>
       <c r="DY3">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="EB3">
-        <v>6.86</v>
+        <v>6.14</v>
       </c>
       <c r="EC3">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="EF3">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="EG3">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="EJ3">
+        <v>8.5</v>
+      </c>
+      <c r="EK3">
+        <v>12</v>
+      </c>
+      <c r="EL3">
+        <v>26</v>
+      </c>
+      <c r="EM3">
+        <v>71</v>
+      </c>
+      <c r="EN3">
+        <v>6</v>
+      </c>
+      <c r="EO3">
         <v>6.5</v>
       </c>
-      <c r="EK3">
-        <v>10</v>
-      </c>
-      <c r="EL3">
-        <v>23</v>
-      </c>
-      <c r="EM3">
-        <v>81</v>
-      </c>
-      <c r="EN3">
-        <v>5</v>
-      </c>
-      <c r="EO3">
-        <v>6</v>
-      </c>
       <c r="EP3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="EQ3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="ER3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="ES3">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="ET3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="EU3">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="EV3">
         <v>13</v>
       </c>
       <c r="EW3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="EX3">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="EY3">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="EZ3">
         <v>201</v>
       </c>
       <c r="FA3">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="FB3">
         <v>201</v>
@@ -2183,13 +2231,13 @@
         <v>201</v>
       </c>
       <c r="FD3">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="FE3">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="FF3">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="FG3">
         <v>201</v>
@@ -2200,7 +2248,7 @@
     </row>
     <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>163</v>
@@ -2215,46 +2263,46 @@
         <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H4">
-        <v>2.14</v>
+        <v>3.15</v>
       </c>
       <c r="I4">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="J4">
-        <v>7.37</v>
+        <v>3.85</v>
       </c>
       <c r="K4">
-        <v>2.31</v>
+        <v>3.17</v>
       </c>
       <c r="L4">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="M4">
-        <v>6.49</v>
+        <v>4.01</v>
       </c>
       <c r="N4">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="O4">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q4">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R4">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="S4">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T4">
         <v>2.4</v>
@@ -2263,10 +2311,10 @@
         <v>1.53</v>
       </c>
       <c r="V4">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="W4">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X4">
         <v>3.25</v>
@@ -2275,10 +2323,10 @@
         <v>1.29</v>
       </c>
       <c r="Z4">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AA4">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AB4">
         <v>7.9</v>
@@ -2287,82 +2335,82 @@
         <v>1.06</v>
       </c>
       <c r="AD4">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="AE4">
+        <v>1.04</v>
+      </c>
+      <c r="AF4">
+        <v>8.5</v>
+      </c>
+      <c r="AG4">
         <v>1.05</v>
       </c>
-      <c r="AF4">
-        <v>9.5</v>
-      </c>
-      <c r="AG4">
-        <v>1.04</v>
-      </c>
       <c r="AH4">
+        <v>2.47</v>
+      </c>
+      <c r="AI4">
+        <v>3.18</v>
+      </c>
+      <c r="AJ4">
+        <v>2.99</v>
+      </c>
+      <c r="AK4">
+        <v>2.32</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <v>3.05</v>
+      </c>
+      <c r="AN4">
+        <v>1.39</v>
+      </c>
+      <c r="AO4">
+        <v>1.35</v>
+      </c>
+      <c r="AP4">
         <v>1.55</v>
       </c>
-      <c r="AI4">
-        <v>3.82</v>
-      </c>
-      <c r="AJ4">
-        <v>6.7</v>
-      </c>
-      <c r="AK4">
-        <v>1.59</v>
-      </c>
-      <c r="AL4">
-        <v>3.5</v>
-      </c>
-      <c r="AM4">
-        <v>5.55</v>
-      </c>
-      <c r="AN4">
-        <v>1.1</v>
-      </c>
-      <c r="AO4">
-        <v>1.26</v>
-      </c>
-      <c r="AP4">
-        <v>2.48</v>
-      </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AR4">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AS4">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="AT4">
-        <v>2.31</v>
+        <v>1.98</v>
       </c>
       <c r="AU4">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AV4">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AW4">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AX4">
         <v>1.05</v>
       </c>
       <c r="AY4">
-        <v>7.2</v>
-      </c>
-      <c r="AZ4">
-        <v>1.06</v>
+        <v>7</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>181</v>
       </c>
       <c r="BA4">
         <v>7.5</v>
       </c>
       <c r="BB4">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="BC4">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="BD4">
         <v>1.11</v>
@@ -2371,22 +2419,22 @@
         <v>5.8</v>
       </c>
       <c r="BF4">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BG4">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="BH4">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BI4">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="BJ4">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="BK4">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
       <c r="BL4">
         <v>1.7</v>
@@ -2395,10 +2443,10 @@
         <v>2.07</v>
       </c>
       <c r="BN4">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="BO4">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="BP4">
         <v>2.25</v>
@@ -2407,22 +2455,22 @@
         <v>1.57</v>
       </c>
       <c r="BR4">
-        <v>3.2</v>
+        <v>3.54</v>
       </c>
       <c r="BS4">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="BT4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BU4">
         <v>1.3</v>
       </c>
       <c r="BV4">
-        <v>3.82</v>
+        <v>4.3</v>
       </c>
       <c r="BW4">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="BX4">
         <v>4.5</v>
@@ -2431,10 +2479,10 @@
         <v>1.17</v>
       </c>
       <c r="BZ4">
-        <v>6.85</v>
+        <v>7.8</v>
       </c>
       <c r="CA4">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="CB4">
         <v>7</v>
@@ -2443,10 +2491,10 @@
         <v>1.08</v>
       </c>
       <c r="CD4">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="CE4">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="CF4">
         <v>9</v>
@@ -2455,7 +2503,7 @@
         <v>1.03</v>
       </c>
       <c r="CL4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CM4">
         <v>1.02</v>
@@ -2467,127 +2515,127 @@
         <v>1.02</v>
       </c>
       <c r="DJ4">
-        <v>1.14</v>
+        <v>1.74</v>
       </c>
       <c r="DK4">
-        <v>4.9</v>
+        <v>2.11</v>
       </c>
       <c r="DL4">
-        <v>1.33</v>
+        <v>2.08</v>
       </c>
       <c r="DM4">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="DN4">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="DO4">
-        <v>5.61</v>
+        <v>2.44</v>
       </c>
       <c r="DP4">
-        <v>1.7</v>
+        <v>2.89</v>
       </c>
       <c r="DQ4">
-        <v>2.19</v>
+        <v>1.37</v>
       </c>
       <c r="DR4">
+        <v>1.25</v>
+      </c>
+      <c r="DS4">
+        <v>3.62</v>
+      </c>
+      <c r="DT4">
+        <v>4.6</v>
+      </c>
+      <c r="DU4">
+        <v>1.17</v>
+      </c>
+      <c r="DV4">
+        <v>1.1</v>
+      </c>
+      <c r="DW4">
+        <v>6.07</v>
+      </c>
+      <c r="DX4">
+        <v>7.07</v>
+      </c>
+      <c r="DY4">
+        <v>1.07</v>
+      </c>
+      <c r="DZ4">
         <v>1.03</v>
       </c>
-      <c r="DS4">
-        <v>9.35</v>
-      </c>
-      <c r="DT4">
-        <v>2.22</v>
-      </c>
-      <c r="DU4">
-        <v>1.6</v>
-      </c>
-      <c r="DX4">
-        <v>3.06</v>
-      </c>
-      <c r="DY4">
-        <v>1.34</v>
-      </c>
-      <c r="EB4">
-        <v>4.62</v>
-      </c>
-      <c r="EC4">
-        <v>1.16</v>
-      </c>
-      <c r="EF4">
-        <v>6.75</v>
-      </c>
-      <c r="EG4">
-        <v>1.08</v>
+      <c r="EA4">
+        <v>9.65</v>
       </c>
       <c r="EJ4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EK4">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="EL4">
+        <v>12</v>
+      </c>
+      <c r="EM4">
+        <v>26</v>
+      </c>
+      <c r="EN4">
+        <v>7</v>
+      </c>
+      <c r="EO4">
+        <v>5.5</v>
+      </c>
+      <c r="EP4">
+        <v>10</v>
+      </c>
+      <c r="EQ4">
+        <v>23</v>
+      </c>
+      <c r="ER4">
+        <v>11</v>
+      </c>
+      <c r="ES4">
+        <v>9.5</v>
+      </c>
+      <c r="ET4">
+        <v>15</v>
+      </c>
+      <c r="EU4">
         <v>36</v>
       </c>
-      <c r="EM4">
+      <c r="EV4">
+        <v>26</v>
+      </c>
+      <c r="EW4">
+        <v>23</v>
+      </c>
+      <c r="EX4">
+        <v>36</v>
+      </c>
+      <c r="EY4">
+        <v>91</v>
+      </c>
+      <c r="EZ4">
+        <v>91</v>
+      </c>
+      <c r="FA4">
+        <v>81</v>
+      </c>
+      <c r="FB4">
         <v>126</v>
-      </c>
-      <c r="EN4">
-        <v>5</v>
-      </c>
-      <c r="EO4">
-        <v>7.5</v>
-      </c>
-      <c r="EP4">
-        <v>21</v>
-      </c>
-      <c r="EQ4">
-        <v>81</v>
-      </c>
-      <c r="ER4">
-        <v>6</v>
-      </c>
-      <c r="ES4">
-        <v>8</v>
-      </c>
-      <c r="ET4">
-        <v>21</v>
-      </c>
-      <c r="EU4">
-        <v>101</v>
-      </c>
-      <c r="EV4">
-        <v>10</v>
-      </c>
-      <c r="EW4">
-        <v>13</v>
-      </c>
-      <c r="EX4">
-        <v>34</v>
-      </c>
-      <c r="EY4">
-        <v>151</v>
-      </c>
-      <c r="EZ4">
-        <v>201</v>
-      </c>
-      <c r="FA4">
-        <v>201</v>
-      </c>
-      <c r="FB4">
-        <v>201</v>
       </c>
       <c r="FC4">
         <v>201</v>
       </c>
       <c r="FD4">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="FE4">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="FF4">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="FG4">
         <v>201</v>
@@ -2598,7 +2646,7 @@
     </row>
     <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
@@ -2613,46 +2661,46 @@
         <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H5">
-        <v>2.29</v>
+        <v>2.71</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J5">
-        <v>6.77</v>
+        <v>4.92</v>
       </c>
       <c r="K5">
-        <v>2.36</v>
+        <v>3.12</v>
       </c>
       <c r="L5">
-        <v>2.03</v>
+        <v>1.96</v>
       </c>
       <c r="M5">
-        <v>6.29</v>
+        <v>4.07</v>
       </c>
       <c r="N5">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O5">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="P5">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q5">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R5">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="S5">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="T5">
         <v>2.4</v>
@@ -2661,10 +2709,10 @@
         <v>1.53</v>
       </c>
       <c r="V5">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="W5">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X5">
         <v>3.25</v>
@@ -2673,10 +2721,10 @@
         <v>1.29</v>
       </c>
       <c r="Z5">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AA5">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
         <v>7.9</v>
@@ -2685,10 +2733,10 @@
         <v>1.06</v>
       </c>
       <c r="AD5">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="AE5">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AF5">
         <v>9.5</v>
@@ -2697,70 +2745,70 @@
         <v>1.04</v>
       </c>
       <c r="AH5">
-        <v>1.66</v>
+        <v>2.05</v>
       </c>
       <c r="AI5">
-        <v>3.54</v>
+        <v>3.22</v>
       </c>
       <c r="AJ5">
-        <v>5.9</v>
+        <v>3.92</v>
       </c>
       <c r="AK5">
-        <v>1.62</v>
+        <v>2.22</v>
       </c>
       <c r="AL5">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AM5">
-        <v>5.54</v>
+        <v>3.17</v>
       </c>
       <c r="AN5">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AO5">
+        <v>1.34</v>
+      </c>
+      <c r="AP5">
+        <v>1.78</v>
+      </c>
+      <c r="AQ5">
         <v>1.3</v>
       </c>
-      <c r="AP5">
-        <v>2.24</v>
-      </c>
-      <c r="AQ5">
-        <v>1.1</v>
-      </c>
       <c r="AR5">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AS5">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="AT5">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AU5">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AV5">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AW5">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AX5">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AY5">
-        <v>6.7</v>
-      </c>
-      <c r="AZ5">
-        <v>1.06</v>
+        <v>6.65</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>181</v>
       </c>
       <c r="BA5">
         <v>7.5</v>
       </c>
       <c r="BB5">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="BC5">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="BD5">
         <v>1.11</v>
@@ -2769,22 +2817,22 @@
         <v>5.8</v>
       </c>
       <c r="BF5">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="BG5">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="BH5">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BI5">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="BJ5">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="BK5">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BL5">
         <v>1.7</v>
@@ -2793,10 +2841,10 @@
         <v>2.07</v>
       </c>
       <c r="BN5">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="BO5">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="BP5">
         <v>2.25</v>
@@ -2805,22 +2853,22 @@
         <v>1.57</v>
       </c>
       <c r="BR5">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="BS5">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="BT5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BU5">
         <v>1.3</v>
       </c>
       <c r="BV5">
-        <v>4.3</v>
+        <v>4.65</v>
       </c>
       <c r="BW5">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BX5">
         <v>4.5</v>
@@ -2829,10 +2877,10 @@
         <v>1.17</v>
       </c>
       <c r="BZ5">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="CA5">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="CB5">
         <v>7</v>
@@ -2841,10 +2889,10 @@
         <v>1.08</v>
       </c>
       <c r="CD5">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="CE5">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="CF5">
         <v>9</v>
@@ -2865,112 +2913,118 @@
         <v>1.02</v>
       </c>
       <c r="DJ5">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="DK5">
-        <v>4.2</v>
+        <v>2.79</v>
       </c>
       <c r="DL5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="DM5">
-        <v>2.76</v>
+        <v>2.05</v>
       </c>
       <c r="DN5">
+        <v>1.31</v>
+      </c>
+      <c r="DO5">
+        <v>3.18</v>
+      </c>
+      <c r="DP5">
+        <v>2.3</v>
+      </c>
+      <c r="DQ5">
+        <v>1.56</v>
+      </c>
+      <c r="DR5">
         <v>1.15</v>
       </c>
-      <c r="DO5">
-        <v>4.85</v>
-      </c>
-      <c r="DP5">
-        <v>1.84</v>
-      </c>
-      <c r="DQ5">
-        <v>1.98</v>
-      </c>
-      <c r="DR5">
-        <v>1.05</v>
-      </c>
       <c r="DS5">
-        <v>8</v>
+        <v>4.95</v>
       </c>
       <c r="DT5">
-        <v>2.49</v>
+        <v>3.52</v>
       </c>
       <c r="DU5">
-        <v>1.48</v>
+        <v>1.26</v>
+      </c>
+      <c r="DV5">
+        <v>1.03</v>
+      </c>
+      <c r="DW5">
+        <v>9.300000000000001</v>
       </c>
       <c r="DX5">
-        <v>3.48</v>
+        <v>5.27</v>
       </c>
       <c r="DY5">
-        <v>1.27</v>
+        <v>1.13</v>
+      </c>
+      <c r="DZ5">
+        <v>1.01</v>
+      </c>
+      <c r="EA5">
+        <v>11.7</v>
       </c>
       <c r="EB5">
-        <v>5.52</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="EC5">
-        <v>1.12</v>
-      </c>
-      <c r="EF5">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="EG5">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="EJ5">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="EK5">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="EL5">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="EM5">
+        <v>41</v>
+      </c>
+      <c r="EN5">
+        <v>6</v>
+      </c>
+      <c r="EO5">
+        <v>6</v>
+      </c>
+      <c r="EP5">
+        <v>13</v>
+      </c>
+      <c r="EQ5">
+        <v>36</v>
+      </c>
+      <c r="ER5">
+        <v>9</v>
+      </c>
+      <c r="ES5">
+        <v>9</v>
+      </c>
+      <c r="ET5">
+        <v>18</v>
+      </c>
+      <c r="EU5">
+        <v>51</v>
+      </c>
+      <c r="EV5">
+        <v>19</v>
+      </c>
+      <c r="EW5">
+        <v>21</v>
+      </c>
+      <c r="EX5">
+        <v>41</v>
+      </c>
+      <c r="EY5">
+        <v>101</v>
+      </c>
+      <c r="EZ5">
+        <v>176</v>
+      </c>
+      <c r="FA5">
         <v>126</v>
-      </c>
-      <c r="EN5">
-        <v>5</v>
-      </c>
-      <c r="EO5">
-        <v>7</v>
-      </c>
-      <c r="EP5">
-        <v>20</v>
-      </c>
-      <c r="EQ5">
-        <v>81</v>
-      </c>
-      <c r="ER5">
-        <v>6.5</v>
-      </c>
-      <c r="ES5">
-        <v>8</v>
-      </c>
-      <c r="ET5">
-        <v>21</v>
-      </c>
-      <c r="EU5">
-        <v>91</v>
-      </c>
-      <c r="EV5">
-        <v>11</v>
-      </c>
-      <c r="EW5">
-        <v>15</v>
-      </c>
-      <c r="EX5">
-        <v>36</v>
-      </c>
-      <c r="EY5">
-        <v>176</v>
-      </c>
-      <c r="EZ5">
-        <v>201</v>
-      </c>
-      <c r="FA5">
-        <v>201</v>
       </c>
       <c r="FB5">
         <v>201</v>
@@ -2979,18 +3033,826 @@
         <v>201</v>
       </c>
       <c r="FD5">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="FE5">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="FF5">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="FG5">
         <v>201</v>
       </c>
       <c r="FH5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
+      <c r="A6" s="1">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6">
+        <v>3.74</v>
+      </c>
+      <c r="I6">
+        <v>1.95</v>
+      </c>
+      <c r="J6">
+        <v>3.27</v>
+      </c>
+      <c r="K6">
+        <v>3.4</v>
+      </c>
+      <c r="L6">
+        <v>1.93</v>
+      </c>
+      <c r="M6">
+        <v>3.4</v>
+      </c>
+      <c r="N6">
+        <v>1.52</v>
+      </c>
+      <c r="O6">
+        <v>2.44</v>
+      </c>
+      <c r="P6">
+        <v>1.44</v>
+      </c>
+      <c r="Q6">
+        <v>2.62</v>
+      </c>
+      <c r="R6">
+        <v>2.28</v>
+      </c>
+      <c r="S6">
+        <v>1.59</v>
+      </c>
+      <c r="T6">
+        <v>2.35</v>
+      </c>
+      <c r="U6">
+        <v>1.55</v>
+      </c>
+      <c r="V6">
+        <v>3.44</v>
+      </c>
+      <c r="W6">
+        <v>1.29</v>
+      </c>
+      <c r="X6">
+        <v>3.2</v>
+      </c>
+      <c r="Y6">
+        <v>1.3</v>
+      </c>
+      <c r="Z6">
+        <v>8.1</v>
+      </c>
+      <c r="AA6">
+        <v>1.06</v>
+      </c>
+      <c r="AB6">
+        <v>7.1</v>
+      </c>
+      <c r="AC6">
+        <v>1.08</v>
+      </c>
+      <c r="AD6">
+        <v>9.4</v>
+      </c>
+      <c r="AE6">
+        <v>1.04</v>
+      </c>
+      <c r="AF6">
+        <v>8.5</v>
+      </c>
+      <c r="AG6">
+        <v>1.05</v>
+      </c>
+      <c r="AH6">
+        <v>2.89</v>
+      </c>
+      <c r="AI6">
+        <v>3.22</v>
+      </c>
+      <c r="AJ6">
+        <v>2.54</v>
+      </c>
+      <c r="AK6">
+        <v>2.6</v>
+      </c>
+      <c r="AL6">
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <v>2.62</v>
+      </c>
+      <c r="AN6">
+        <v>1.51</v>
+      </c>
+      <c r="AO6">
+        <v>1.34</v>
+      </c>
+      <c r="AP6">
+        <v>1.41</v>
+      </c>
+      <c r="AQ6">
+        <v>1.4</v>
+      </c>
+      <c r="AR6">
+        <v>1.33</v>
+      </c>
+      <c r="AS6">
+        <v>1.4</v>
+      </c>
+      <c r="AT6">
+        <v>2.01</v>
+      </c>
+      <c r="AU6">
+        <v>1.76</v>
+      </c>
+      <c r="AV6">
+        <v>1.85</v>
+      </c>
+      <c r="AW6">
+        <v>1.85</v>
+      </c>
+      <c r="AX6">
+        <v>1.06</v>
+      </c>
+      <c r="AY6">
+        <v>6.8</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA6">
+        <v>8</v>
+      </c>
+      <c r="BB6">
+        <v>1.1</v>
+      </c>
+      <c r="BC6">
+        <v>5.55</v>
+      </c>
+      <c r="BD6">
+        <v>1.11</v>
+      </c>
+      <c r="BE6">
+        <v>6</v>
+      </c>
+      <c r="BF6">
+        <v>1.43</v>
+      </c>
+      <c r="BG6">
+        <v>2.57</v>
+      </c>
+      <c r="BH6">
+        <v>1.33</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>1.78</v>
+      </c>
+      <c r="BK6">
+        <v>1.95</v>
+      </c>
+      <c r="BL6">
+        <v>1.66</v>
+      </c>
+      <c r="BM6">
+        <v>2.13</v>
+      </c>
+      <c r="BN6">
+        <v>2.43</v>
+      </c>
+      <c r="BO6">
+        <v>1.57</v>
+      </c>
+      <c r="BP6">
+        <v>2.2</v>
+      </c>
+      <c r="BQ6">
+        <v>1.6</v>
+      </c>
+      <c r="BR6">
+        <v>3.7</v>
+      </c>
+      <c r="BS6">
+        <v>1.24</v>
+      </c>
+      <c r="BT6">
+        <v>3.2</v>
+      </c>
+      <c r="BU6">
+        <v>1.32</v>
+      </c>
+      <c r="BV6">
+        <v>4.45</v>
+      </c>
+      <c r="BW6">
+        <v>1.16</v>
+      </c>
+      <c r="BX6">
+        <v>4</v>
+      </c>
+      <c r="BY6">
+        <v>1.2</v>
+      </c>
+      <c r="BZ6">
+        <v>8</v>
+      </c>
+      <c r="CA6">
+        <v>1.03</v>
+      </c>
+      <c r="CB6">
+        <v>6.7</v>
+      </c>
+      <c r="CC6">
+        <v>1.09</v>
+      </c>
+      <c r="CD6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CE6">
+        <v>1.02</v>
+      </c>
+      <c r="CF6">
+        <v>8</v>
+      </c>
+      <c r="CG6">
+        <v>1.05</v>
+      </c>
+      <c r="CL6">
+        <v>15</v>
+      </c>
+      <c r="CM6">
+        <v>1.02</v>
+      </c>
+      <c r="CN6">
+        <v>13</v>
+      </c>
+      <c r="CO6">
+        <v>1.02</v>
+      </c>
+      <c r="DJ6">
+        <v>2.03</v>
+      </c>
+      <c r="DK6">
+        <v>1.8</v>
+      </c>
+      <c r="DL6">
+        <v>2.43</v>
+      </c>
+      <c r="DM6">
+        <v>1.57</v>
+      </c>
+      <c r="DN6">
+        <v>1.67</v>
+      </c>
+      <c r="DO6">
+        <v>2.1</v>
+      </c>
+      <c r="DP6">
+        <v>3.47</v>
+      </c>
+      <c r="DQ6">
+        <v>1.27</v>
+      </c>
+      <c r="DR6">
+        <v>1.35</v>
+      </c>
+      <c r="DS6">
+        <v>2.99</v>
+      </c>
+      <c r="DT6">
+        <v>5.87</v>
+      </c>
+      <c r="DU6">
+        <v>1.11</v>
+      </c>
+      <c r="DV6">
+        <v>1.15</v>
+      </c>
+      <c r="DW6">
+        <v>4.86</v>
+      </c>
+      <c r="DX6">
+        <v>9.35</v>
+      </c>
+      <c r="DY6">
+        <v>1.03</v>
+      </c>
+      <c r="DZ6">
+        <v>1.06</v>
+      </c>
+      <c r="EA6">
+        <v>7.65</v>
+      </c>
+      <c r="EJ6">
+        <v>7</v>
+      </c>
+      <c r="EK6">
+        <v>7.5</v>
+      </c>
+      <c r="EL6">
+        <v>12</v>
+      </c>
+      <c r="EM6">
+        <v>26</v>
+      </c>
+      <c r="EN6">
+        <v>7</v>
+      </c>
+      <c r="EO6">
+        <v>5.5</v>
+      </c>
+      <c r="EP6">
+        <v>10</v>
+      </c>
+      <c r="EQ6">
+        <v>23</v>
+      </c>
+      <c r="ER6">
+        <v>12</v>
+      </c>
+      <c r="ES6">
+        <v>10</v>
+      </c>
+      <c r="ET6">
+        <v>15</v>
+      </c>
+      <c r="EU6">
+        <v>36</v>
+      </c>
+      <c r="EV6">
+        <v>31</v>
+      </c>
+      <c r="EW6">
+        <v>23</v>
+      </c>
+      <c r="EX6">
+        <v>41</v>
+      </c>
+      <c r="EY6">
+        <v>91</v>
+      </c>
+      <c r="EZ6">
+        <v>91</v>
+      </c>
+      <c r="FA6">
+        <v>76</v>
+      </c>
+      <c r="FB6">
+        <v>126</v>
+      </c>
+      <c r="FC6">
+        <v>201</v>
+      </c>
+      <c r="FD6">
+        <v>91</v>
+      </c>
+      <c r="FE6">
+        <v>91</v>
+      </c>
+      <c r="FF6">
+        <v>126</v>
+      </c>
+      <c r="FG6">
+        <v>201</v>
+      </c>
+      <c r="FH6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7">
+        <v>2.27</v>
+      </c>
+      <c r="I7">
+        <v>2.11</v>
+      </c>
+      <c r="J7">
+        <v>5.83</v>
+      </c>
+      <c r="K7">
+        <v>2.22</v>
+      </c>
+      <c r="L7">
+        <v>2.05</v>
+      </c>
+      <c r="M7">
+        <v>5.8</v>
+      </c>
+      <c r="N7">
+        <v>1.44</v>
+      </c>
+      <c r="O7">
+        <v>2.66</v>
+      </c>
+      <c r="P7">
+        <v>1.44</v>
+      </c>
+      <c r="Q7">
+        <v>2.63</v>
+      </c>
+      <c r="R7">
+        <v>2.03</v>
+      </c>
+      <c r="S7">
+        <v>1.74</v>
+      </c>
+      <c r="T7">
+        <v>2.15</v>
+      </c>
+      <c r="U7">
+        <v>1.66</v>
+      </c>
+      <c r="V7">
+        <v>3.1</v>
+      </c>
+      <c r="W7">
+        <v>1.34</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>1.36</v>
+      </c>
+      <c r="Z7">
+        <v>6.8</v>
+      </c>
+      <c r="AA7">
+        <v>1.09</v>
+      </c>
+      <c r="AB7">
+        <v>7.5</v>
+      </c>
+      <c r="AC7">
+        <v>1.07</v>
+      </c>
+      <c r="AD7">
+        <v>8.1</v>
+      </c>
+      <c r="AE7">
+        <v>1.06</v>
+      </c>
+      <c r="AF7">
+        <v>7.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.07</v>
+      </c>
+      <c r="AH7">
+        <v>1.7</v>
+      </c>
+      <c r="AI7">
+        <v>3.7</v>
+      </c>
+      <c r="AJ7">
+        <v>5.1</v>
+      </c>
+      <c r="AK7">
+        <v>1.62</v>
+      </c>
+      <c r="AL7">
+        <v>3.5</v>
+      </c>
+      <c r="AM7">
+        <v>5.75</v>
+      </c>
+      <c r="AN7">
+        <v>1.16</v>
+      </c>
+      <c r="AO7">
+        <v>1.28</v>
+      </c>
+      <c r="AP7">
+        <v>2.17</v>
+      </c>
+      <c r="AQ7">
+        <v>1.11</v>
+      </c>
+      <c r="AR7">
+        <v>1.29</v>
+      </c>
+      <c r="AS7">
+        <v>2.2</v>
+      </c>
+      <c r="AT7">
+        <v>2.05</v>
+      </c>
+      <c r="AU7">
+        <v>1.73</v>
+      </c>
+      <c r="AV7">
+        <v>2.2</v>
+      </c>
+      <c r="AW7">
+        <v>1.64</v>
+      </c>
+      <c r="AX7">
+        <v>1.03</v>
+      </c>
+      <c r="AY7">
+        <v>8</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA7">
+        <v>6.5</v>
+      </c>
+      <c r="BB7">
+        <v>1.06</v>
+      </c>
+      <c r="BC7">
+        <v>6.65</v>
+      </c>
+      <c r="BD7">
+        <v>1.08</v>
+      </c>
+      <c r="BE7">
+        <v>6.05</v>
+      </c>
+      <c r="BF7">
+        <v>1.34</v>
+      </c>
+      <c r="BG7">
+        <v>2.93</v>
+      </c>
+      <c r="BH7">
+        <v>1.4</v>
+      </c>
+      <c r="BI7">
+        <v>2.75</v>
+      </c>
+      <c r="BJ7">
+        <v>1.58</v>
+      </c>
+      <c r="BK7">
+        <v>2.26</v>
+      </c>
+      <c r="BL7">
+        <v>1.68</v>
+      </c>
+      <c r="BM7">
+        <v>2.08</v>
+      </c>
+      <c r="BN7">
+        <v>2.14</v>
+      </c>
+      <c r="BO7">
+        <v>1.72</v>
+      </c>
+      <c r="BP7">
+        <v>2.25</v>
+      </c>
+      <c r="BQ7">
+        <v>1.6</v>
+      </c>
+      <c r="BR7">
+        <v>3.06</v>
+      </c>
+      <c r="BS7">
+        <v>1.33</v>
+      </c>
+      <c r="BT7">
+        <v>3.4</v>
+      </c>
+      <c r="BU7">
+        <v>1.28</v>
+      </c>
+      <c r="BV7">
+        <v>3.72</v>
+      </c>
+      <c r="BW7">
+        <v>1.22</v>
+      </c>
+      <c r="BX7">
+        <v>4</v>
+      </c>
+      <c r="BY7">
+        <v>1.22</v>
+      </c>
+      <c r="BZ7">
+        <v>6.45</v>
+      </c>
+      <c r="CA7">
+        <v>1.07</v>
+      </c>
+      <c r="CB7">
+        <v>7.3</v>
+      </c>
+      <c r="CC7">
+        <v>1.05</v>
+      </c>
+      <c r="CD7">
+        <v>7.2</v>
+      </c>
+      <c r="CE7">
+        <v>1.05</v>
+      </c>
+      <c r="CF7">
+        <v>8</v>
+      </c>
+      <c r="CG7">
+        <v>1.06</v>
+      </c>
+      <c r="CL7">
+        <v>13</v>
+      </c>
+      <c r="CM7">
+        <v>1.02</v>
+      </c>
+      <c r="CN7">
+        <v>15</v>
+      </c>
+      <c r="CO7">
+        <v>1.02</v>
+      </c>
+      <c r="CT7">
+        <v>17</v>
+      </c>
+      <c r="CU7">
+        <v>1.01</v>
+      </c>
+      <c r="CV7">
+        <v>17</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>185</v>
+      </c>
+      <c r="DJ7">
+        <v>1.23</v>
+      </c>
+      <c r="DK7">
+        <v>3.72</v>
+      </c>
+      <c r="DL7">
+        <v>1.44</v>
+      </c>
+      <c r="DM7">
+        <v>2.62</v>
+      </c>
+      <c r="DN7">
+        <v>1.19</v>
+      </c>
+      <c r="DO7">
+        <v>4.25</v>
+      </c>
+      <c r="DP7">
+        <v>1.88</v>
+      </c>
+      <c r="DQ7">
+        <v>1.94</v>
+      </c>
+      <c r="DR7">
+        <v>1.08</v>
+      </c>
+      <c r="DS7">
+        <v>6.8</v>
+      </c>
+      <c r="DT7">
+        <v>2.55</v>
+      </c>
+      <c r="DU7">
+        <v>1.46</v>
+      </c>
+      <c r="DX7">
+        <v>3.56</v>
+      </c>
+      <c r="DY7">
+        <v>1.26</v>
+      </c>
+      <c r="EB7">
+        <v>5.67</v>
+      </c>
+      <c r="EC7">
+        <v>1.11</v>
+      </c>
+      <c r="EF7">
+        <v>8.35</v>
+      </c>
+      <c r="EG7">
+        <v>1.05</v>
+      </c>
+      <c r="EJ7">
+        <v>8.5</v>
+      </c>
+      <c r="EK7">
+        <v>12</v>
+      </c>
+      <c r="EL7">
+        <v>26</v>
+      </c>
+      <c r="EM7">
+        <v>81</v>
+      </c>
+      <c r="EN7">
+        <v>5.5</v>
+      </c>
+      <c r="EO7">
+        <v>6.5</v>
+      </c>
+      <c r="EP7">
+        <v>17</v>
+      </c>
+      <c r="EQ7">
+        <v>61</v>
+      </c>
+      <c r="ER7">
+        <v>6.5</v>
+      </c>
+      <c r="ES7">
+        <v>8</v>
+      </c>
+      <c r="ET7">
+        <v>17</v>
+      </c>
+      <c r="EU7">
+        <v>71</v>
+      </c>
+      <c r="EV7">
+        <v>11</v>
+      </c>
+      <c r="EW7">
+        <v>14</v>
+      </c>
+      <c r="EX7">
+        <v>31</v>
+      </c>
+      <c r="EY7">
+        <v>101</v>
+      </c>
+      <c r="EZ7">
+        <v>201</v>
+      </c>
+      <c r="FA7">
+        <v>201</v>
+      </c>
+      <c r="FB7">
+        <v>201</v>
+      </c>
+      <c r="FC7">
+        <v>201</v>
+      </c>
+      <c r="FD7">
+        <v>26</v>
+      </c>
+      <c r="FE7">
+        <v>34</v>
+      </c>
+      <c r="FF7">
+        <v>81</v>
+      </c>
+      <c r="FG7">
+        <v>201</v>
+      </c>
+      <c r="FH7">
         <v>201</v>
       </c>
     </row>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="200">
   <si>
     <t>Date</t>
   </si>
@@ -503,6 +503,117 @@
   </si>
   <si>
     <t>FT_Odd_CS_4x4</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>IRELAND - PREMIER DIVISION</t>
+  </si>
+  <si>
+    <t>ARGENTINA - LIGA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>BRAZIL - SERIE B</t>
+  </si>
+  <si>
+    <t>MEXICO - LIGA MX</t>
+  </si>
+  <si>
+    <t>Cork City</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>St. Patricks</t>
+  </si>
+  <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>Atl. Tucuman</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Tombense</t>
+  </si>
+  <si>
+    <t>Club America</t>
+  </si>
+  <si>
+    <t>Mazatlan FC</t>
+  </si>
+  <si>
+    <t>Drogheda</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>UC Dublin</t>
+  </si>
+  <si>
+    <t>Lanus</t>
+  </si>
+  <si>
+    <t>Union de Santa Fe</t>
+  </si>
+  <si>
+    <t>Arsenal Sarandi</t>
+  </si>
+  <si>
+    <t>Chapecoense-SC</t>
+  </si>
+  <si>
+    <t>Juarez</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>ROUND 22</t>
+  </si>
+  <si>
+    <t>ROUND 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APERTURA </t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -860,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:FH1"/>
+  <dimension ref="A1:FH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:164">
+    <row r="1" spans="1:164">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,6 +1466,4624 @@
       </c>
       <c r="FH1" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:164">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2">
+        <v>2.88</v>
+      </c>
+      <c r="I2">
+        <v>2.2</v>
+      </c>
+      <c r="J2">
+        <v>3.6</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2.2</v>
+      </c>
+      <c r="M2">
+        <v>3.6</v>
+      </c>
+      <c r="N2">
+        <v>1.4</v>
+      </c>
+      <c r="O2">
+        <v>2.75</v>
+      </c>
+      <c r="P2">
+        <v>1.4</v>
+      </c>
+      <c r="Q2">
+        <v>2.75</v>
+      </c>
+      <c r="R2">
+        <v>1.9</v>
+      </c>
+      <c r="S2">
+        <v>1.9</v>
+      </c>
+      <c r="T2">
+        <v>1.93</v>
+      </c>
+      <c r="U2">
+        <v>1.88</v>
+      </c>
+      <c r="V2">
+        <v>2.75</v>
+      </c>
+      <c r="W2">
+        <v>1.4</v>
+      </c>
+      <c r="X2">
+        <v>2.75</v>
+      </c>
+      <c r="Y2">
+        <v>1.4</v>
+      </c>
+      <c r="Z2">
+        <v>5.8</v>
+      </c>
+      <c r="AA2">
+        <v>1.12</v>
+      </c>
+      <c r="AB2">
+        <v>6.2</v>
+      </c>
+      <c r="AC2">
+        <v>1.1</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>1.08</v>
+      </c>
+      <c r="AF2">
+        <v>8</v>
+      </c>
+      <c r="AG2">
+        <v>1.08</v>
+      </c>
+      <c r="AH2">
+        <v>2.3</v>
+      </c>
+      <c r="AI2">
+        <v>3.3</v>
+      </c>
+      <c r="AJ2">
+        <v>3.1</v>
+      </c>
+      <c r="AK2">
+        <v>2.2</v>
+      </c>
+      <c r="AL2">
+        <v>3.25</v>
+      </c>
+      <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2">
+        <v>1.36</v>
+      </c>
+      <c r="AO2">
+        <v>1.33</v>
+      </c>
+      <c r="AP2">
+        <v>1.57</v>
+      </c>
+      <c r="AQ2">
+        <v>1.33</v>
+      </c>
+      <c r="AR2">
+        <v>1.3</v>
+      </c>
+      <c r="AS2">
+        <v>1.57</v>
+      </c>
+      <c r="AT2">
+        <v>1.7</v>
+      </c>
+      <c r="AU2">
+        <v>2.05</v>
+      </c>
+      <c r="AV2">
+        <v>1.75</v>
+      </c>
+      <c r="AW2">
+        <v>2</v>
+      </c>
+      <c r="AX2">
+        <v>1.05</v>
+      </c>
+      <c r="AY2">
+        <v>11</v>
+      </c>
+      <c r="AZ2">
+        <v>1.06</v>
+      </c>
+      <c r="BA2">
+        <v>10</v>
+      </c>
+      <c r="BB2">
+        <v>1.03</v>
+      </c>
+      <c r="BC2">
+        <v>8</v>
+      </c>
+      <c r="BD2">
+        <v>1.07</v>
+      </c>
+      <c r="BE2">
+        <v>7.2</v>
+      </c>
+      <c r="BF2">
+        <v>1.29</v>
+      </c>
+      <c r="BG2">
+        <v>3.5</v>
+      </c>
+      <c r="BH2">
+        <v>1.29</v>
+      </c>
+      <c r="BI2">
+        <v>3.5</v>
+      </c>
+      <c r="BJ2">
+        <v>1.44</v>
+      </c>
+      <c r="BK2">
+        <v>2.62</v>
+      </c>
+      <c r="BL2">
+        <v>1.51</v>
+      </c>
+      <c r="BM2">
+        <v>2.46</v>
+      </c>
+      <c r="BN2">
+        <v>1.95</v>
+      </c>
+      <c r="BO2">
+        <v>1.9</v>
+      </c>
+      <c r="BP2">
+        <v>1.98</v>
+      </c>
+      <c r="BQ2">
+        <v>1.88</v>
+      </c>
+      <c r="BR2">
+        <v>2.56</v>
+      </c>
+      <c r="BS2">
+        <v>1.46</v>
+      </c>
+      <c r="BT2">
+        <v>2.75</v>
+      </c>
+      <c r="BU2">
+        <v>1.41</v>
+      </c>
+      <c r="BV2">
+        <v>3.25</v>
+      </c>
+      <c r="BW2">
+        <v>1.33</v>
+      </c>
+      <c r="BX2">
+        <v>3.4</v>
+      </c>
+      <c r="BY2">
+        <v>1.3</v>
+      </c>
+      <c r="BZ2">
+        <v>5.2</v>
+      </c>
+      <c r="CA2">
+        <v>1.11</v>
+      </c>
+      <c r="CB2">
+        <v>5.6</v>
+      </c>
+      <c r="CC2">
+        <v>1.12</v>
+      </c>
+      <c r="CD2">
+        <v>6.5</v>
+      </c>
+      <c r="CE2">
+        <v>1.11</v>
+      </c>
+      <c r="CF2">
+        <v>6.5</v>
+      </c>
+      <c r="CG2">
+        <v>1.11</v>
+      </c>
+      <c r="CL2">
+        <v>15</v>
+      </c>
+      <c r="CM2">
+        <v>1.03</v>
+      </c>
+      <c r="CN2">
+        <v>15</v>
+      </c>
+      <c r="CO2">
+        <v>1.03</v>
+      </c>
+      <c r="CT2">
+        <v>29</v>
+      </c>
+      <c r="CU2">
+        <v>1.01</v>
+      </c>
+      <c r="CV2">
+        <v>29</v>
+      </c>
+      <c r="CW2">
+        <v>1.01</v>
+      </c>
+      <c r="DJ2">
+        <v>1.63</v>
+      </c>
+      <c r="DK2">
+        <v>2.25</v>
+      </c>
+      <c r="DL2">
+        <v>1.98</v>
+      </c>
+      <c r="DM2">
+        <v>1.88</v>
+      </c>
+      <c r="DN2">
+        <v>1.45</v>
+      </c>
+      <c r="DO2">
+        <v>2.68</v>
+      </c>
+      <c r="DP2">
+        <v>2.6</v>
+      </c>
+      <c r="DQ2">
+        <v>1.48</v>
+      </c>
+      <c r="DR2">
+        <v>1.25</v>
+      </c>
+      <c r="DS2">
+        <v>3.8</v>
+      </c>
+      <c r="DT2">
+        <v>3.9</v>
+      </c>
+      <c r="DU2">
+        <v>1.24</v>
+      </c>
+      <c r="DV2">
+        <v>1.13</v>
+      </c>
+      <c r="DW2">
+        <v>6</v>
+      </c>
+      <c r="DX2">
+        <v>5.75</v>
+      </c>
+      <c r="DY2">
+        <v>1.14</v>
+      </c>
+      <c r="DZ2">
+        <v>1.03</v>
+      </c>
+      <c r="EA2">
+        <v>9.15</v>
+      </c>
+      <c r="EJ2">
+        <v>10</v>
+      </c>
+      <c r="EK2">
+        <v>10</v>
+      </c>
+      <c r="EL2">
+        <v>17</v>
+      </c>
+      <c r="EM2">
+        <v>34</v>
+      </c>
+      <c r="EN2">
+        <v>8.5</v>
+      </c>
+      <c r="EO2">
+        <v>6.5</v>
+      </c>
+      <c r="EP2">
+        <v>12</v>
+      </c>
+      <c r="EQ2">
+        <v>23</v>
+      </c>
+      <c r="ER2">
+        <v>11</v>
+      </c>
+      <c r="ES2">
+        <v>9</v>
+      </c>
+      <c r="ET2">
+        <v>13</v>
+      </c>
+      <c r="EU2">
+        <v>34</v>
+      </c>
+      <c r="EV2">
+        <v>21</v>
+      </c>
+      <c r="EW2">
+        <v>17</v>
+      </c>
+      <c r="EX2">
+        <v>26</v>
+      </c>
+      <c r="EY2">
+        <v>41</v>
+      </c>
+      <c r="EZ2">
+        <v>67</v>
+      </c>
+      <c r="FA2">
+        <v>51</v>
+      </c>
+      <c r="FB2">
+        <v>67</v>
+      </c>
+      <c r="FC2">
+        <v>101</v>
+      </c>
+      <c r="FD2">
+        <v>41</v>
+      </c>
+      <c r="FE2">
+        <v>41</v>
+      </c>
+      <c r="FF2">
+        <v>51</v>
+      </c>
+      <c r="FG2">
+        <v>81</v>
+      </c>
+      <c r="FH2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3">
+        <v>4.33</v>
+      </c>
+      <c r="I3">
+        <v>2.2</v>
+      </c>
+      <c r="J3">
+        <v>2.5</v>
+      </c>
+      <c r="K3">
+        <v>4.5</v>
+      </c>
+      <c r="L3">
+        <v>2.2</v>
+      </c>
+      <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>1.36</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3">
+        <v>2.75</v>
+      </c>
+      <c r="R3">
+        <v>1.85</v>
+      </c>
+      <c r="S3">
+        <v>1.95</v>
+      </c>
+      <c r="T3">
+        <v>1.85</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>2.75</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>2.75</v>
+      </c>
+      <c r="Y3">
+        <v>1.4</v>
+      </c>
+      <c r="Z3">
+        <v>5.65</v>
+      </c>
+      <c r="AA3">
+        <v>1.12</v>
+      </c>
+      <c r="AB3">
+        <v>6.45</v>
+      </c>
+      <c r="AC3">
+        <v>1.1</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>1.1</v>
+      </c>
+      <c r="AF3">
+        <v>8</v>
+      </c>
+      <c r="AG3">
+        <v>1.08</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>3.75</v>
+      </c>
+      <c r="AJ3">
+        <v>1.83</v>
+      </c>
+      <c r="AK3">
+        <v>4</v>
+      </c>
+      <c r="AL3">
+        <v>3.75</v>
+      </c>
+      <c r="AM3">
+        <v>1.83</v>
+      </c>
+      <c r="AN3">
+        <v>1.91</v>
+      </c>
+      <c r="AO3">
+        <v>1.25</v>
+      </c>
+      <c r="AP3">
+        <v>1.22</v>
+      </c>
+      <c r="AQ3">
+        <v>1.91</v>
+      </c>
+      <c r="AR3">
+        <v>1.25</v>
+      </c>
+      <c r="AS3">
+        <v>1.22</v>
+      </c>
+      <c r="AT3">
+        <v>1.8</v>
+      </c>
+      <c r="AU3">
+        <v>1.95</v>
+      </c>
+      <c r="AV3">
+        <v>1.8</v>
+      </c>
+      <c r="AW3">
+        <v>1.95</v>
+      </c>
+      <c r="AX3">
+        <v>1.05</v>
+      </c>
+      <c r="AY3">
+        <v>11</v>
+      </c>
+      <c r="AZ3">
+        <v>1.05</v>
+      </c>
+      <c r="BA3">
+        <v>11</v>
+      </c>
+      <c r="BB3">
+        <v>1.03</v>
+      </c>
+      <c r="BC3">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BD3">
+        <v>1.08</v>
+      </c>
+      <c r="BE3">
+        <v>7</v>
+      </c>
+      <c r="BF3">
+        <v>1.29</v>
+      </c>
+      <c r="BG3">
+        <v>3.5</v>
+      </c>
+      <c r="BH3">
+        <v>1.29</v>
+      </c>
+      <c r="BI3">
+        <v>3.5</v>
+      </c>
+      <c r="BJ3">
+        <v>1.42</v>
+      </c>
+      <c r="BK3">
+        <v>2.69</v>
+      </c>
+      <c r="BL3">
+        <v>1.54</v>
+      </c>
+      <c r="BM3">
+        <v>2.4</v>
+      </c>
+      <c r="BN3">
+        <v>1.9</v>
+      </c>
+      <c r="BO3">
+        <v>1.95</v>
+      </c>
+      <c r="BP3">
+        <v>1.93</v>
+      </c>
+      <c r="BQ3">
+        <v>1.93</v>
+      </c>
+      <c r="BR3">
+        <v>2.5</v>
+      </c>
+      <c r="BS3">
+        <v>1.48</v>
+      </c>
+      <c r="BT3">
+        <v>2.85</v>
+      </c>
+      <c r="BU3">
+        <v>1.39</v>
+      </c>
+      <c r="BV3">
+        <v>3.25</v>
+      </c>
+      <c r="BW3">
+        <v>1.33</v>
+      </c>
+      <c r="BX3">
+        <v>3.25</v>
+      </c>
+      <c r="BY3">
+        <v>1.33</v>
+      </c>
+      <c r="BZ3">
+        <v>5.05</v>
+      </c>
+      <c r="CA3">
+        <v>1.12</v>
+      </c>
+      <c r="CB3">
+        <v>5.8</v>
+      </c>
+      <c r="CC3">
+        <v>1.11</v>
+      </c>
+      <c r="CD3">
+        <v>6.5</v>
+      </c>
+      <c r="CE3">
+        <v>1.11</v>
+      </c>
+      <c r="CF3">
+        <v>6.5</v>
+      </c>
+      <c r="CG3">
+        <v>1.11</v>
+      </c>
+      <c r="CH3">
+        <v>10.2</v>
+      </c>
+      <c r="CI3">
+        <v>1.01</v>
+      </c>
+      <c r="CJ3">
+        <v>11.5</v>
+      </c>
+      <c r="CK3">
+        <v>1.02</v>
+      </c>
+      <c r="CL3">
+        <v>13</v>
+      </c>
+      <c r="CM3">
+        <v>1.04</v>
+      </c>
+      <c r="CN3">
+        <v>15</v>
+      </c>
+      <c r="CO3">
+        <v>1.03</v>
+      </c>
+      <c r="CT3">
+        <v>26</v>
+      </c>
+      <c r="CU3">
+        <v>1.01</v>
+      </c>
+      <c r="CV3">
+        <v>29</v>
+      </c>
+      <c r="CW3">
+        <v>1.01</v>
+      </c>
+      <c r="DB3">
+        <v>51</v>
+      </c>
+      <c r="DC3">
+        <v>50</v>
+      </c>
+      <c r="DD3">
+        <v>51</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>197</v>
+      </c>
+      <c r="DJ3">
+        <v>2.75</v>
+      </c>
+      <c r="DK3">
+        <v>1.43</v>
+      </c>
+      <c r="DL3">
+        <v>3.3</v>
+      </c>
+      <c r="DM3">
+        <v>1.33</v>
+      </c>
+      <c r="DN3">
+        <v>2.2</v>
+      </c>
+      <c r="DO3">
+        <v>1.65</v>
+      </c>
+      <c r="DP3">
+        <v>4.65</v>
+      </c>
+      <c r="DQ3">
+        <v>1.18</v>
+      </c>
+      <c r="DR3">
+        <v>1.7</v>
+      </c>
+      <c r="DS3">
+        <v>2.1</v>
+      </c>
+      <c r="DT3">
+        <v>8.1</v>
+      </c>
+      <c r="DU3">
+        <v>1.05</v>
+      </c>
+      <c r="DV3">
+        <v>1.38</v>
+      </c>
+      <c r="DW3">
+        <v>3</v>
+      </c>
+      <c r="DX3">
+        <v>11.6</v>
+      </c>
+      <c r="DY3">
+        <v>1.01</v>
+      </c>
+      <c r="DZ3">
+        <v>1.21</v>
+      </c>
+      <c r="EA3">
+        <v>4.25</v>
+      </c>
+      <c r="ED3">
+        <v>1.11</v>
+      </c>
+      <c r="EE3">
+        <v>6.8</v>
+      </c>
+      <c r="EJ3">
+        <v>11</v>
+      </c>
+      <c r="EK3">
+        <v>7.5</v>
+      </c>
+      <c r="EL3">
+        <v>9</v>
+      </c>
+      <c r="EM3">
+        <v>15</v>
+      </c>
+      <c r="EN3">
+        <v>11</v>
+      </c>
+      <c r="EO3">
+        <v>7</v>
+      </c>
+      <c r="EP3">
+        <v>8.5</v>
+      </c>
+      <c r="EQ3">
+        <v>15</v>
+      </c>
+      <c r="ER3">
+        <v>21</v>
+      </c>
+      <c r="ES3">
+        <v>13</v>
+      </c>
+      <c r="ET3">
+        <v>15</v>
+      </c>
+      <c r="EU3">
+        <v>26</v>
+      </c>
+      <c r="EV3">
+        <v>41</v>
+      </c>
+      <c r="EW3">
+        <v>29</v>
+      </c>
+      <c r="EX3">
+        <v>34</v>
+      </c>
+      <c r="EY3">
+        <v>51</v>
+      </c>
+      <c r="EZ3">
+        <v>34</v>
+      </c>
+      <c r="FA3">
+        <v>29</v>
+      </c>
+      <c r="FB3">
+        <v>41</v>
+      </c>
+      <c r="FC3">
+        <v>81</v>
+      </c>
+      <c r="FD3">
+        <v>101</v>
+      </c>
+      <c r="FE3">
+        <v>67</v>
+      </c>
+      <c r="FF3">
+        <v>81</v>
+      </c>
+      <c r="FG3">
+        <v>126</v>
+      </c>
+      <c r="FH3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4">
+        <v>4.5</v>
+      </c>
+      <c r="I4">
+        <v>1.95</v>
+      </c>
+      <c r="J4">
+        <v>2.88</v>
+      </c>
+      <c r="K4">
+        <v>4.33</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2.88</v>
+      </c>
+      <c r="N4">
+        <v>1.57</v>
+      </c>
+      <c r="O4">
+        <v>2.25</v>
+      </c>
+      <c r="P4">
+        <v>1.5</v>
+      </c>
+      <c r="Q4">
+        <v>2.5</v>
+      </c>
+      <c r="R4">
+        <v>2.39</v>
+      </c>
+      <c r="S4">
+        <v>1.54</v>
+      </c>
+      <c r="T4">
+        <v>2.1</v>
+      </c>
+      <c r="U4">
+        <v>1.69</v>
+      </c>
+      <c r="V4">
+        <v>3.75</v>
+      </c>
+      <c r="W4">
+        <v>1.25</v>
+      </c>
+      <c r="X4">
+        <v>3.4</v>
+      </c>
+      <c r="Y4">
+        <v>1.3</v>
+      </c>
+      <c r="Z4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>1.05</v>
+      </c>
+      <c r="AB4">
+        <v>7.5</v>
+      </c>
+      <c r="AC4">
+        <v>1.07</v>
+      </c>
+      <c r="AD4">
+        <v>11</v>
+      </c>
+      <c r="AE4">
+        <v>1.05</v>
+      </c>
+      <c r="AF4">
+        <v>10</v>
+      </c>
+      <c r="AG4">
+        <v>1.06</v>
+      </c>
+      <c r="AH4">
+        <v>3.8</v>
+      </c>
+      <c r="AI4">
+        <v>3.1</v>
+      </c>
+      <c r="AJ4">
+        <v>2.1</v>
+      </c>
+      <c r="AK4">
+        <v>3.6</v>
+      </c>
+      <c r="AL4">
+        <v>3.2</v>
+      </c>
+      <c r="AM4">
+        <v>2.1</v>
+      </c>
+      <c r="AN4">
+        <v>1.7</v>
+      </c>
+      <c r="AO4">
+        <v>1.36</v>
+      </c>
+      <c r="AP4">
+        <v>1.25</v>
+      </c>
+      <c r="AQ4">
+        <v>1.7</v>
+      </c>
+      <c r="AR4">
+        <v>1.36</v>
+      </c>
+      <c r="AS4">
+        <v>1.29</v>
+      </c>
+      <c r="AT4">
+        <v>2.1</v>
+      </c>
+      <c r="AU4">
+        <v>1.67</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>1.75</v>
+      </c>
+      <c r="AX4">
+        <v>1.1</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>1.08</v>
+      </c>
+      <c r="BA4">
+        <v>7.5</v>
+      </c>
+      <c r="BB4">
+        <v>1.11</v>
+      </c>
+      <c r="BC4">
+        <v>5.1</v>
+      </c>
+      <c r="BD4">
+        <v>1.11</v>
+      </c>
+      <c r="BE4">
+        <v>5.8</v>
+      </c>
+      <c r="BF4">
+        <v>1.5</v>
+      </c>
+      <c r="BG4">
+        <v>2.5</v>
+      </c>
+      <c r="BH4">
+        <v>1.4</v>
+      </c>
+      <c r="BI4">
+        <v>2.75</v>
+      </c>
+      <c r="BJ4">
+        <v>1.93</v>
+      </c>
+      <c r="BK4">
+        <v>1.93</v>
+      </c>
+      <c r="BL4">
+        <v>1.88</v>
+      </c>
+      <c r="BM4">
+        <v>1.98</v>
+      </c>
+      <c r="BN4">
+        <v>2.5</v>
+      </c>
+      <c r="BO4">
+        <v>1.5</v>
+      </c>
+      <c r="BP4">
+        <v>2.3</v>
+      </c>
+      <c r="BQ4">
+        <v>1.6</v>
+      </c>
+      <c r="BR4">
+        <v>4</v>
+      </c>
+      <c r="BS4">
+        <v>1.21</v>
+      </c>
+      <c r="BT4">
+        <v>3.5</v>
+      </c>
+      <c r="BU4">
+        <v>1.28</v>
+      </c>
+      <c r="BV4">
+        <v>5</v>
+      </c>
+      <c r="BW4">
+        <v>1.17</v>
+      </c>
+      <c r="BX4">
+        <v>4.33</v>
+      </c>
+      <c r="BY4">
+        <v>1.2</v>
+      </c>
+      <c r="BZ4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CA4">
+        <v>1.02</v>
+      </c>
+      <c r="CB4">
+        <v>7.2</v>
+      </c>
+      <c r="CC4">
+        <v>1.07</v>
+      </c>
+      <c r="CD4">
+        <v>11</v>
+      </c>
+      <c r="CE4">
+        <v>1.05</v>
+      </c>
+      <c r="CF4">
+        <v>10</v>
+      </c>
+      <c r="CG4">
+        <v>1.06</v>
+      </c>
+      <c r="CL4">
+        <v>26</v>
+      </c>
+      <c r="CM4">
+        <v>1.01</v>
+      </c>
+      <c r="CN4">
+        <v>21</v>
+      </c>
+      <c r="CO4">
+        <v>1.02</v>
+      </c>
+      <c r="CT4">
+        <v>51</v>
+      </c>
+      <c r="CU4">
+        <v>50</v>
+      </c>
+      <c r="CV4">
+        <v>51</v>
+      </c>
+      <c r="CW4">
+        <v>50</v>
+      </c>
+      <c r="DJ4">
+        <v>2.6</v>
+      </c>
+      <c r="DK4">
+        <v>1.48</v>
+      </c>
+      <c r="DL4">
+        <v>3.1</v>
+      </c>
+      <c r="DM4">
+        <v>1.35</v>
+      </c>
+      <c r="DN4">
+        <v>2.05</v>
+      </c>
+      <c r="DO4">
+        <v>1.8</v>
+      </c>
+      <c r="DP4">
+        <v>4.8</v>
+      </c>
+      <c r="DQ4">
+        <v>1.18</v>
+      </c>
+      <c r="DR4">
+        <v>1.53</v>
+      </c>
+      <c r="DS4">
+        <v>2.43</v>
+      </c>
+      <c r="DT4">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="DU4">
+        <v>1.03</v>
+      </c>
+      <c r="DV4">
+        <v>1.26</v>
+      </c>
+      <c r="DW4">
+        <v>3.7</v>
+      </c>
+      <c r="DX4">
+        <v>11.6</v>
+      </c>
+      <c r="DY4">
+        <v>1.01</v>
+      </c>
+      <c r="DZ4">
+        <v>1.14</v>
+      </c>
+      <c r="EA4">
+        <v>5.75</v>
+      </c>
+      <c r="ED4">
+        <v>1.03</v>
+      </c>
+      <c r="EE4">
+        <v>9.85</v>
+      </c>
+      <c r="EH4">
+        <v>1.01</v>
+      </c>
+      <c r="EI4">
+        <v>11.8</v>
+      </c>
+      <c r="EJ4">
+        <v>6.5</v>
+      </c>
+      <c r="EK4">
+        <v>6</v>
+      </c>
+      <c r="EL4">
+        <v>8.5</v>
+      </c>
+      <c r="EM4">
+        <v>19</v>
+      </c>
+      <c r="EN4">
+        <v>8.5</v>
+      </c>
+      <c r="EO4">
+        <v>6</v>
+      </c>
+      <c r="EP4">
+        <v>9.5</v>
+      </c>
+      <c r="EQ4">
+        <v>21</v>
+      </c>
+      <c r="ER4">
+        <v>17</v>
+      </c>
+      <c r="ES4">
+        <v>15</v>
+      </c>
+      <c r="ET4">
+        <v>19</v>
+      </c>
+      <c r="EU4">
+        <v>41</v>
+      </c>
+      <c r="EV4">
+        <v>41</v>
+      </c>
+      <c r="EW4">
+        <v>41</v>
+      </c>
+      <c r="EX4">
+        <v>51</v>
+      </c>
+      <c r="EY4">
+        <v>67</v>
+      </c>
+      <c r="EZ4">
+        <v>41</v>
+      </c>
+      <c r="FA4">
+        <v>41</v>
+      </c>
+      <c r="FB4">
+        <v>67</v>
+      </c>
+      <c r="FC4">
+        <v>151</v>
+      </c>
+      <c r="FD4">
+        <v>101</v>
+      </c>
+      <c r="FE4">
+        <v>81</v>
+      </c>
+      <c r="FF4">
+        <v>126</v>
+      </c>
+      <c r="FG4">
+        <v>251</v>
+      </c>
+      <c r="FH4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5">
+        <v>4.33</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3.5</v>
+      </c>
+      <c r="L5">
+        <v>2.05</v>
+      </c>
+      <c r="M5">
+        <v>3.25</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>2.5</v>
+      </c>
+      <c r="P5">
+        <v>1.44</v>
+      </c>
+      <c r="Q5">
+        <v>2.63</v>
+      </c>
+      <c r="R5">
+        <v>2.1</v>
+      </c>
+      <c r="S5">
+        <v>1.7</v>
+      </c>
+      <c r="T5">
+        <v>2.1</v>
+      </c>
+      <c r="U5">
+        <v>1.7</v>
+      </c>
+      <c r="V5">
+        <v>3.5</v>
+      </c>
+      <c r="W5">
+        <v>1.29</v>
+      </c>
+      <c r="X5">
+        <v>3.25</v>
+      </c>
+      <c r="Y5">
+        <v>1.33</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>1.06</v>
+      </c>
+      <c r="AB5">
+        <v>6.25</v>
+      </c>
+      <c r="AC5">
+        <v>1.1</v>
+      </c>
+      <c r="AD5">
+        <v>11</v>
+      </c>
+      <c r="AE5">
+        <v>1.05</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>1.06</v>
+      </c>
+      <c r="AH5">
+        <v>3.5</v>
+      </c>
+      <c r="AI5">
+        <v>3.1</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2</v>
+      </c>
+      <c r="AK5">
+        <v>2.63</v>
+      </c>
+      <c r="AL5">
+        <v>3.1</v>
+      </c>
+      <c r="AM5">
+        <v>2.5</v>
+      </c>
+      <c r="AN5">
+        <v>1.67</v>
+      </c>
+      <c r="AO5">
+        <v>1.36</v>
+      </c>
+      <c r="AP5">
+        <v>1.29</v>
+      </c>
+      <c r="AQ5">
+        <v>1.44</v>
+      </c>
+      <c r="AR5">
+        <v>1.33</v>
+      </c>
+      <c r="AS5">
+        <v>1.4</v>
+      </c>
+      <c r="AT5">
+        <v>2</v>
+      </c>
+      <c r="AU5">
+        <v>1.75</v>
+      </c>
+      <c r="AV5">
+        <v>1.91</v>
+      </c>
+      <c r="AW5">
+        <v>1.91</v>
+      </c>
+      <c r="AX5">
+        <v>1.08</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>1.07</v>
+      </c>
+      <c r="BA5">
+        <v>8.5</v>
+      </c>
+      <c r="BB5">
+        <v>1.09</v>
+      </c>
+      <c r="BC5">
+        <v>5.7</v>
+      </c>
+      <c r="BD5">
+        <v>1.08</v>
+      </c>
+      <c r="BE5">
+        <v>7</v>
+      </c>
+      <c r="BF5">
+        <v>1.4</v>
+      </c>
+      <c r="BG5">
+        <v>2.75</v>
+      </c>
+      <c r="BH5">
+        <v>1.36</v>
+      </c>
+      <c r="BI5">
+        <v>3</v>
+      </c>
+      <c r="BJ5">
+        <v>1.78</v>
+      </c>
+      <c r="BK5">
+        <v>2.1</v>
+      </c>
+      <c r="BL5">
+        <v>1.78</v>
+      </c>
+      <c r="BM5">
+        <v>2.1</v>
+      </c>
+      <c r="BN5">
+        <v>2.3</v>
+      </c>
+      <c r="BO5">
+        <v>1.6</v>
+      </c>
+      <c r="BP5">
+        <v>2.1</v>
+      </c>
+      <c r="BQ5">
+        <v>1.7</v>
+      </c>
+      <c r="BR5">
+        <v>3.62</v>
+      </c>
+      <c r="BS5">
+        <v>1.25</v>
+      </c>
+      <c r="BT5">
+        <v>2.85</v>
+      </c>
+      <c r="BU5">
+        <v>1.39</v>
+      </c>
+      <c r="BV5">
+        <v>4.33</v>
+      </c>
+      <c r="BW5">
+        <v>1.2</v>
+      </c>
+      <c r="BX5">
+        <v>3.75</v>
+      </c>
+      <c r="BY5">
+        <v>1.25</v>
+      </c>
+      <c r="BZ5">
+        <v>7.8</v>
+      </c>
+      <c r="CA5">
+        <v>1.04</v>
+      </c>
+      <c r="CB5">
+        <v>5.8</v>
+      </c>
+      <c r="CC5">
+        <v>1.11</v>
+      </c>
+      <c r="CD5">
+        <v>10</v>
+      </c>
+      <c r="CE5">
+        <v>1.06</v>
+      </c>
+      <c r="CF5">
+        <v>8</v>
+      </c>
+      <c r="CG5">
+        <v>1.08</v>
+      </c>
+      <c r="CH5">
+        <v>11.5</v>
+      </c>
+      <c r="CI5">
+        <v>1.02</v>
+      </c>
+      <c r="CJ5">
+        <v>11.5</v>
+      </c>
+      <c r="CK5">
+        <v>1.02</v>
+      </c>
+      <c r="CL5">
+        <v>21</v>
+      </c>
+      <c r="CM5">
+        <v>1.02</v>
+      </c>
+      <c r="CN5">
+        <v>19</v>
+      </c>
+      <c r="CO5">
+        <v>1.02</v>
+      </c>
+      <c r="CT5">
+        <v>51</v>
+      </c>
+      <c r="CU5">
+        <v>50</v>
+      </c>
+      <c r="CV5">
+        <v>41</v>
+      </c>
+      <c r="CW5">
+        <v>41</v>
+      </c>
+      <c r="DJ5">
+        <v>2.43</v>
+      </c>
+      <c r="DK5">
+        <v>1.53</v>
+      </c>
+      <c r="DL5">
+        <v>3</v>
+      </c>
+      <c r="DM5">
+        <v>1.38</v>
+      </c>
+      <c r="DN5">
+        <v>1.98</v>
+      </c>
+      <c r="DO5">
+        <v>1.88</v>
+      </c>
+      <c r="DP5">
+        <v>4.4</v>
+      </c>
+      <c r="DQ5">
+        <v>1.2</v>
+      </c>
+      <c r="DR5">
+        <v>1.48</v>
+      </c>
+      <c r="DS5">
+        <v>2.6</v>
+      </c>
+      <c r="DT5">
+        <v>6.8</v>
+      </c>
+      <c r="DU5">
+        <v>1.11</v>
+      </c>
+      <c r="DV5">
+        <v>1.24</v>
+      </c>
+      <c r="DW5">
+        <v>3.9</v>
+      </c>
+      <c r="DX5">
+        <v>11.8</v>
+      </c>
+      <c r="DY5">
+        <v>1.01</v>
+      </c>
+      <c r="DZ5">
+        <v>1.13</v>
+      </c>
+      <c r="EA5">
+        <v>5.9</v>
+      </c>
+      <c r="EJ5">
+        <v>7.5</v>
+      </c>
+      <c r="EK5">
+        <v>6.5</v>
+      </c>
+      <c r="EL5">
+        <v>9.5</v>
+      </c>
+      <c r="EM5">
+        <v>21</v>
+      </c>
+      <c r="EN5">
+        <v>9</v>
+      </c>
+      <c r="EO5">
+        <v>6</v>
+      </c>
+      <c r="EP5">
+        <v>9.5</v>
+      </c>
+      <c r="EQ5">
+        <v>21</v>
+      </c>
+      <c r="ER5">
+        <v>17</v>
+      </c>
+      <c r="ES5">
+        <v>13</v>
+      </c>
+      <c r="ET5">
+        <v>17</v>
+      </c>
+      <c r="EU5">
+        <v>34</v>
+      </c>
+      <c r="EV5">
+        <v>41</v>
+      </c>
+      <c r="EW5">
+        <v>34</v>
+      </c>
+      <c r="EX5">
+        <v>41</v>
+      </c>
+      <c r="EY5">
+        <v>51</v>
+      </c>
+      <c r="EZ5">
+        <v>41</v>
+      </c>
+      <c r="FA5">
+        <v>41</v>
+      </c>
+      <c r="FB5">
+        <v>67</v>
+      </c>
+      <c r="FC5">
+        <v>151</v>
+      </c>
+      <c r="FD5">
+        <v>81</v>
+      </c>
+      <c r="FE5">
+        <v>67</v>
+      </c>
+      <c r="FF5">
+        <v>101</v>
+      </c>
+      <c r="FG5">
+        <v>201</v>
+      </c>
+      <c r="FH5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6">
+        <v>1.44</v>
+      </c>
+      <c r="I6">
+        <v>3.1</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>1.53</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>1.22</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>1.25</v>
+      </c>
+      <c r="Q6">
+        <v>3.75</v>
+      </c>
+      <c r="R6">
+        <v>1.43</v>
+      </c>
+      <c r="S6">
+        <v>2.71</v>
+      </c>
+      <c r="T6">
+        <v>1.57</v>
+      </c>
+      <c r="U6">
+        <v>2.32</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>1.73</v>
+      </c>
+      <c r="X6">
+        <v>2.1</v>
+      </c>
+      <c r="Y6">
+        <v>1.67</v>
+      </c>
+      <c r="Z6">
+        <v>3.44</v>
+      </c>
+      <c r="AA6">
+        <v>1.29</v>
+      </c>
+      <c r="AB6">
+        <v>4.33</v>
+      </c>
+      <c r="AC6">
+        <v>1.19</v>
+      </c>
+      <c r="AD6">
+        <v>4.33</v>
+      </c>
+      <c r="AE6">
+        <v>1.2</v>
+      </c>
+      <c r="AF6">
+        <v>4.5</v>
+      </c>
+      <c r="AG6">
+        <v>1.18</v>
+      </c>
+      <c r="AH6">
+        <v>1.13</v>
+      </c>
+      <c r="AI6">
+        <v>7.5</v>
+      </c>
+      <c r="AJ6">
+        <v>19</v>
+      </c>
+      <c r="AK6">
+        <v>1.17</v>
+      </c>
+      <c r="AL6">
+        <v>7</v>
+      </c>
+      <c r="AM6">
+        <v>15</v>
+      </c>
+      <c r="AN6">
+        <v>1.02</v>
+      </c>
+      <c r="AO6">
+        <v>1.1</v>
+      </c>
+      <c r="AP6">
+        <v>6</v>
+      </c>
+      <c r="AQ6">
+        <v>1.03</v>
+      </c>
+      <c r="AR6">
+        <v>1.1</v>
+      </c>
+      <c r="AS6">
+        <v>5</v>
+      </c>
+      <c r="AT6">
+        <v>2.2</v>
+      </c>
+      <c r="AU6">
+        <v>1.62</v>
+      </c>
+      <c r="AV6">
+        <v>2.2</v>
+      </c>
+      <c r="AW6">
+        <v>1.62</v>
+      </c>
+      <c r="AX6">
+        <v>1.02</v>
+      </c>
+      <c r="AY6">
+        <v>19</v>
+      </c>
+      <c r="AZ6">
+        <v>1.03</v>
+      </c>
+      <c r="BA6">
+        <v>17</v>
+      </c>
+      <c r="BB6">
+        <v>1.01</v>
+      </c>
+      <c r="BC6">
+        <v>12</v>
+      </c>
+      <c r="BD6">
+        <v>1.03</v>
+      </c>
+      <c r="BE6">
+        <v>9.9</v>
+      </c>
+      <c r="BF6">
+        <v>1.13</v>
+      </c>
+      <c r="BG6">
+        <v>6</v>
+      </c>
+      <c r="BH6">
+        <v>1.14</v>
+      </c>
+      <c r="BI6">
+        <v>5.5</v>
+      </c>
+      <c r="BJ6">
+        <v>1.15</v>
+      </c>
+      <c r="BK6">
+        <v>4.55</v>
+      </c>
+      <c r="BL6">
+        <v>1.28</v>
+      </c>
+      <c r="BM6">
+        <v>3.5</v>
+      </c>
+      <c r="BN6">
+        <v>1.44</v>
+      </c>
+      <c r="BO6">
+        <v>2.7</v>
+      </c>
+      <c r="BP6">
+        <v>1.48</v>
+      </c>
+      <c r="BQ6">
+        <v>2.6</v>
+      </c>
+      <c r="BR6">
+        <v>1.64</v>
+      </c>
+      <c r="BS6">
+        <v>2.15</v>
+      </c>
+      <c r="BT6">
+        <v>1.98</v>
+      </c>
+      <c r="BU6">
+        <v>1.77</v>
+      </c>
+      <c r="BV6">
+        <v>2</v>
+      </c>
+      <c r="BW6">
+        <v>1.73</v>
+      </c>
+      <c r="BX6">
+        <v>2.1</v>
+      </c>
+      <c r="BY6">
+        <v>1.67</v>
+      </c>
+      <c r="BZ6">
+        <v>2.76</v>
+      </c>
+      <c r="CA6">
+        <v>1.4</v>
+      </c>
+      <c r="CB6">
+        <v>3.8</v>
+      </c>
+      <c r="CC6">
+        <v>1.24</v>
+      </c>
+      <c r="CD6">
+        <v>3.5</v>
+      </c>
+      <c r="CE6">
+        <v>1.29</v>
+      </c>
+      <c r="CF6">
+        <v>3.75</v>
+      </c>
+      <c r="CG6">
+        <v>1.25</v>
+      </c>
+      <c r="CH6">
+        <v>5.05</v>
+      </c>
+      <c r="CI6">
+        <v>1.12</v>
+      </c>
+      <c r="CJ6">
+        <v>7.3</v>
+      </c>
+      <c r="CK6">
+        <v>1.07</v>
+      </c>
+      <c r="CL6">
+        <v>6.5</v>
+      </c>
+      <c r="CM6">
+        <v>1.11</v>
+      </c>
+      <c r="CN6">
+        <v>7</v>
+      </c>
+      <c r="CO6">
+        <v>1.1</v>
+      </c>
+      <c r="CP6">
+        <v>9.4</v>
+      </c>
+      <c r="CQ6">
+        <v>1.01</v>
+      </c>
+      <c r="CR6">
+        <v>9.5</v>
+      </c>
+      <c r="CS6">
+        <v>1.01</v>
+      </c>
+      <c r="CT6">
+        <v>13</v>
+      </c>
+      <c r="CU6">
+        <v>1.04</v>
+      </c>
+      <c r="CV6">
+        <v>15</v>
+      </c>
+      <c r="CW6">
+        <v>1.03</v>
+      </c>
+      <c r="DB6">
+        <v>26</v>
+      </c>
+      <c r="DC6">
+        <v>1.01</v>
+      </c>
+      <c r="DD6">
+        <v>26</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>198</v>
+      </c>
+      <c r="DF6">
+        <v>51</v>
+      </c>
+      <c r="DG6">
+        <v>50</v>
+      </c>
+      <c r="DH6">
+        <v>51</v>
+      </c>
+      <c r="DI6">
+        <v>50</v>
+      </c>
+      <c r="DJ6">
+        <v>1.02</v>
+      </c>
+      <c r="DK6">
+        <v>14.5</v>
+      </c>
+      <c r="DL6">
+        <v>1.1</v>
+      </c>
+      <c r="DM6">
+        <v>7</v>
+      </c>
+      <c r="DP6">
+        <v>1.16</v>
+      </c>
+      <c r="DQ6">
+        <v>5.25</v>
+      </c>
+      <c r="DT6">
+        <v>1.3</v>
+      </c>
+      <c r="DU6">
+        <v>3.45</v>
+      </c>
+      <c r="DX6">
+        <v>1.53</v>
+      </c>
+      <c r="DY6">
+        <v>2.43</v>
+      </c>
+      <c r="EB6">
+        <v>1.93</v>
+      </c>
+      <c r="EC6">
+        <v>1.93</v>
+      </c>
+      <c r="EF6">
+        <v>2.38</v>
+      </c>
+      <c r="EG6">
+        <v>1.55</v>
+      </c>
+      <c r="EJ6">
+        <v>19</v>
+      </c>
+      <c r="EK6">
+        <v>41</v>
+      </c>
+      <c r="EL6">
+        <v>81</v>
+      </c>
+      <c r="EM6">
+        <v>301</v>
+      </c>
+      <c r="EN6">
+        <v>9.5</v>
+      </c>
+      <c r="EO6">
+        <v>15</v>
+      </c>
+      <c r="EP6">
+        <v>41</v>
+      </c>
+      <c r="EQ6">
+        <v>126</v>
+      </c>
+      <c r="ER6">
+        <v>6.5</v>
+      </c>
+      <c r="ES6">
+        <v>11</v>
+      </c>
+      <c r="ET6">
+        <v>29</v>
+      </c>
+      <c r="EU6">
+        <v>81</v>
+      </c>
+      <c r="EV6">
+        <v>6.5</v>
+      </c>
+      <c r="EW6">
+        <v>11</v>
+      </c>
+      <c r="EX6">
+        <v>34</v>
+      </c>
+      <c r="EY6">
+        <v>81</v>
+      </c>
+      <c r="EZ6">
+        <v>201</v>
+      </c>
+      <c r="FA6">
+        <v>501</v>
+      </c>
+      <c r="FB6">
+        <v>451</v>
+      </c>
+      <c r="FC6">
+        <v>451</v>
+      </c>
+      <c r="FD6">
+        <v>8.5</v>
+      </c>
+      <c r="FE6">
+        <v>15</v>
+      </c>
+      <c r="FF6">
+        <v>41</v>
+      </c>
+      <c r="FG6">
+        <v>101</v>
+      </c>
+      <c r="FH6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7">
+        <v>3.75</v>
+      </c>
+      <c r="I7">
+        <v>1.91</v>
+      </c>
+      <c r="J7">
+        <v>3.6</v>
+      </c>
+      <c r="K7">
+        <v>3.6</v>
+      </c>
+      <c r="L7">
+        <v>1.91</v>
+      </c>
+      <c r="M7">
+        <v>3.6</v>
+      </c>
+      <c r="N7">
+        <v>1.62</v>
+      </c>
+      <c r="O7">
+        <v>2.2</v>
+      </c>
+      <c r="P7">
+        <v>1.57</v>
+      </c>
+      <c r="Q7">
+        <v>2.25</v>
+      </c>
+      <c r="R7">
+        <v>2.46</v>
+      </c>
+      <c r="S7">
+        <v>1.51</v>
+      </c>
+      <c r="T7">
+        <v>2.4</v>
+      </c>
+      <c r="U7">
+        <v>1.53</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>1.22</v>
+      </c>
+      <c r="X7">
+        <v>3.75</v>
+      </c>
+      <c r="Y7">
+        <v>1.25</v>
+      </c>
+      <c r="Z7">
+        <v>9.1</v>
+      </c>
+      <c r="AA7">
+        <v>1.04</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+      <c r="AC7">
+        <v>1.05</v>
+      </c>
+      <c r="AD7">
+        <v>13</v>
+      </c>
+      <c r="AE7">
+        <v>1.04</v>
+      </c>
+      <c r="AF7">
+        <v>13</v>
+      </c>
+      <c r="AG7">
+        <v>1.04</v>
+      </c>
+      <c r="AH7">
+        <v>2.9</v>
+      </c>
+      <c r="AI7">
+        <v>2.88</v>
+      </c>
+      <c r="AJ7">
+        <v>2.8</v>
+      </c>
+      <c r="AK7">
+        <v>2.75</v>
+      </c>
+      <c r="AL7">
+        <v>2.88</v>
+      </c>
+      <c r="AM7">
+        <v>2.63</v>
+      </c>
+      <c r="AN7">
+        <v>1.4</v>
+      </c>
+      <c r="AO7">
+        <v>1.4</v>
+      </c>
+      <c r="AP7">
+        <v>1.4</v>
+      </c>
+      <c r="AQ7">
+        <v>1.44</v>
+      </c>
+      <c r="AR7">
+        <v>1.4</v>
+      </c>
+      <c r="AS7">
+        <v>1.4</v>
+      </c>
+      <c r="AT7">
+        <v>2.1</v>
+      </c>
+      <c r="AU7">
+        <v>1.67</v>
+      </c>
+      <c r="AV7">
+        <v>2.1</v>
+      </c>
+      <c r="AW7">
+        <v>1.67</v>
+      </c>
+      <c r="AX7">
+        <v>1.11</v>
+      </c>
+      <c r="AY7">
+        <v>6.5</v>
+      </c>
+      <c r="AZ7">
+        <v>1.13</v>
+      </c>
+      <c r="BA7">
+        <v>6</v>
+      </c>
+      <c r="BB7">
+        <v>1.14</v>
+      </c>
+      <c r="BC7">
+        <v>5</v>
+      </c>
+      <c r="BD7">
+        <v>1.17</v>
+      </c>
+      <c r="BE7">
+        <v>4.6</v>
+      </c>
+      <c r="BF7">
+        <v>1.53</v>
+      </c>
+      <c r="BG7">
+        <v>2.38</v>
+      </c>
+      <c r="BH7">
+        <v>1.5</v>
+      </c>
+      <c r="BI7">
+        <v>2.5</v>
+      </c>
+      <c r="BJ7">
+        <v>2.05</v>
+      </c>
+      <c r="BK7">
+        <v>1.8</v>
+      </c>
+      <c r="BL7">
+        <v>1.98</v>
+      </c>
+      <c r="BM7">
+        <v>1.88</v>
+      </c>
+      <c r="BN7">
+        <v>2.7</v>
+      </c>
+      <c r="BO7">
+        <v>1.44</v>
+      </c>
+      <c r="BP7">
+        <v>2.6</v>
+      </c>
+      <c r="BQ7">
+        <v>1.48</v>
+      </c>
+      <c r="BR7">
+        <v>4.15</v>
+      </c>
+      <c r="BS7">
+        <v>1.18</v>
+      </c>
+      <c r="BT7">
+        <v>4.3</v>
+      </c>
+      <c r="BU7">
+        <v>1.2</v>
+      </c>
+      <c r="BV7">
+        <v>5.5</v>
+      </c>
+      <c r="BW7">
+        <v>1.14</v>
+      </c>
+      <c r="BX7">
+        <v>5.5</v>
+      </c>
+      <c r="BY7">
+        <v>1.14</v>
+      </c>
+      <c r="BZ7">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CA7">
+        <v>1.02</v>
+      </c>
+      <c r="CB7">
+        <v>9.6</v>
+      </c>
+      <c r="CC7">
+        <v>1.04</v>
+      </c>
+      <c r="CD7">
+        <v>13</v>
+      </c>
+      <c r="CE7">
+        <v>1.04</v>
+      </c>
+      <c r="CF7">
+        <v>13</v>
+      </c>
+      <c r="CG7">
+        <v>1.04</v>
+      </c>
+      <c r="CL7">
+        <v>29</v>
+      </c>
+      <c r="CM7">
+        <v>1.01</v>
+      </c>
+      <c r="CN7">
+        <v>26</v>
+      </c>
+      <c r="CO7">
+        <v>1.01</v>
+      </c>
+      <c r="DJ7">
+        <v>2</v>
+      </c>
+      <c r="DK7">
+        <v>1.85</v>
+      </c>
+      <c r="DL7">
+        <v>2.38</v>
+      </c>
+      <c r="DM7">
+        <v>1.55</v>
+      </c>
+      <c r="DN7">
+        <v>1.63</v>
+      </c>
+      <c r="DO7">
+        <v>2.25</v>
+      </c>
+      <c r="DP7">
+        <v>3.55</v>
+      </c>
+      <c r="DQ7">
+        <v>1.28</v>
+      </c>
+      <c r="DR7">
+        <v>1.3</v>
+      </c>
+      <c r="DS7">
+        <v>3.45</v>
+      </c>
+      <c r="DT7">
+        <v>6.25</v>
+      </c>
+      <c r="DU7">
+        <v>1.12</v>
+      </c>
+      <c r="DV7">
+        <v>1.14</v>
+      </c>
+      <c r="DW7">
+        <v>5.75</v>
+      </c>
+      <c r="DX7">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="DY7">
+        <v>1.03</v>
+      </c>
+      <c r="DZ7">
+        <v>1.05</v>
+      </c>
+      <c r="EA7">
+        <v>8.25</v>
+      </c>
+      <c r="EJ7">
+        <v>6</v>
+      </c>
+      <c r="EK7">
+        <v>6.5</v>
+      </c>
+      <c r="EL7">
+        <v>12</v>
+      </c>
+      <c r="EM7">
+        <v>29</v>
+      </c>
+      <c r="EN7">
+        <v>7</v>
+      </c>
+      <c r="EO7">
+        <v>5.5</v>
+      </c>
+      <c r="EP7">
+        <v>11</v>
+      </c>
+      <c r="EQ7">
+        <v>29</v>
+      </c>
+      <c r="ER7">
+        <v>12</v>
+      </c>
+      <c r="ES7">
+        <v>12</v>
+      </c>
+      <c r="ET7">
+        <v>19</v>
+      </c>
+      <c r="EU7">
+        <v>41</v>
+      </c>
+      <c r="EV7">
+        <v>29</v>
+      </c>
+      <c r="EW7">
+        <v>29</v>
+      </c>
+      <c r="EX7">
+        <v>41</v>
+      </c>
+      <c r="EY7">
+        <v>67</v>
+      </c>
+      <c r="EZ7">
+        <v>67</v>
+      </c>
+      <c r="FA7">
+        <v>67</v>
+      </c>
+      <c r="FB7">
+        <v>101</v>
+      </c>
+      <c r="FC7">
+        <v>201</v>
+      </c>
+      <c r="FD7">
+        <v>67</v>
+      </c>
+      <c r="FE7">
+        <v>67</v>
+      </c>
+      <c r="FF7">
+        <v>101</v>
+      </c>
+      <c r="FG7">
+        <v>201</v>
+      </c>
+      <c r="FH7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1.95</v>
+      </c>
+      <c r="J8">
+        <v>4.33</v>
+      </c>
+      <c r="K8">
+        <v>2.88</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4.33</v>
+      </c>
+      <c r="N8">
+        <v>1.57</v>
+      </c>
+      <c r="O8">
+        <v>2.25</v>
+      </c>
+      <c r="P8">
+        <v>1.53</v>
+      </c>
+      <c r="Q8">
+        <v>2.38</v>
+      </c>
+      <c r="R8">
+        <v>2.44</v>
+      </c>
+      <c r="S8">
+        <v>1.52</v>
+      </c>
+      <c r="T8">
+        <v>2.17</v>
+      </c>
+      <c r="U8">
+        <v>1.64</v>
+      </c>
+      <c r="V8">
+        <v>3.75</v>
+      </c>
+      <c r="W8">
+        <v>1.25</v>
+      </c>
+      <c r="X8">
+        <v>3.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.29</v>
+      </c>
+      <c r="Z8">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>1.05</v>
+      </c>
+      <c r="AB8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>1.06</v>
+      </c>
+      <c r="AD8">
+        <v>13</v>
+      </c>
+      <c r="AE8">
+        <v>1.04</v>
+      </c>
+      <c r="AF8">
+        <v>11</v>
+      </c>
+      <c r="AG8">
+        <v>1.05</v>
+      </c>
+      <c r="AH8">
+        <v>2.15</v>
+      </c>
+      <c r="AI8">
+        <v>3.1</v>
+      </c>
+      <c r="AJ8">
+        <v>3.75</v>
+      </c>
+      <c r="AK8">
+        <v>2.05</v>
+      </c>
+      <c r="AL8">
+        <v>3.1</v>
+      </c>
+      <c r="AM8">
+        <v>3.5</v>
+      </c>
+      <c r="AN8">
+        <v>1.25</v>
+      </c>
+      <c r="AO8">
+        <v>1.36</v>
+      </c>
+      <c r="AP8">
+        <v>1.67</v>
+      </c>
+      <c r="AQ8">
+        <v>1.25</v>
+      </c>
+      <c r="AR8">
+        <v>1.33</v>
+      </c>
+      <c r="AS8">
+        <v>1.67</v>
+      </c>
+      <c r="AT8">
+        <v>2.1</v>
+      </c>
+      <c r="AU8">
+        <v>1.67</v>
+      </c>
+      <c r="AV8">
+        <v>2.05</v>
+      </c>
+      <c r="AW8">
+        <v>1.7</v>
+      </c>
+      <c r="AX8">
+        <v>1.1</v>
+      </c>
+      <c r="AY8">
+        <v>7</v>
+      </c>
+      <c r="AZ8">
+        <v>1.08</v>
+      </c>
+      <c r="BA8">
+        <v>7.5</v>
+      </c>
+      <c r="BB8">
+        <v>1.13</v>
+      </c>
+      <c r="BC8">
+        <v>4.85</v>
+      </c>
+      <c r="BD8">
+        <v>1.12</v>
+      </c>
+      <c r="BE8">
+        <v>5.6</v>
+      </c>
+      <c r="BF8">
+        <v>1.5</v>
+      </c>
+      <c r="BG8">
+        <v>2.5</v>
+      </c>
+      <c r="BH8">
+        <v>1.44</v>
+      </c>
+      <c r="BI8">
+        <v>2.63</v>
+      </c>
+      <c r="BJ8">
+        <v>1.9</v>
+      </c>
+      <c r="BK8">
+        <v>1.95</v>
+      </c>
+      <c r="BL8">
+        <v>1.88</v>
+      </c>
+      <c r="BM8">
+        <v>1.98</v>
+      </c>
+      <c r="BN8">
+        <v>2.5</v>
+      </c>
+      <c r="BO8">
+        <v>1.5</v>
+      </c>
+      <c r="BP8">
+        <v>2.35</v>
+      </c>
+      <c r="BQ8">
+        <v>1.57</v>
+      </c>
+      <c r="BR8">
+        <v>4</v>
+      </c>
+      <c r="BS8">
+        <v>1.21</v>
+      </c>
+      <c r="BT8">
+        <v>3.7</v>
+      </c>
+      <c r="BU8">
+        <v>1.26</v>
+      </c>
+      <c r="BV8">
+        <v>5</v>
+      </c>
+      <c r="BW8">
+        <v>1.17</v>
+      </c>
+      <c r="BX8">
+        <v>4.5</v>
+      </c>
+      <c r="BY8">
+        <v>1.18</v>
+      </c>
+      <c r="BZ8">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CA8">
+        <v>1.02</v>
+      </c>
+      <c r="CB8">
+        <v>7.9</v>
+      </c>
+      <c r="CC8">
+        <v>1.06</v>
+      </c>
+      <c r="CD8">
+        <v>11</v>
+      </c>
+      <c r="CE8">
+        <v>1.05</v>
+      </c>
+      <c r="CF8">
+        <v>11</v>
+      </c>
+      <c r="CG8">
+        <v>1.05</v>
+      </c>
+      <c r="CL8">
+        <v>26</v>
+      </c>
+      <c r="CM8">
+        <v>1.01</v>
+      </c>
+      <c r="CN8">
+        <v>23</v>
+      </c>
+      <c r="CO8">
+        <v>1.01</v>
+      </c>
+      <c r="CT8">
+        <v>51</v>
+      </c>
+      <c r="CU8">
+        <v>50</v>
+      </c>
+      <c r="CV8">
+        <v>51</v>
+      </c>
+      <c r="CW8">
+        <v>50</v>
+      </c>
+      <c r="DJ8">
+        <v>1.45</v>
+      </c>
+      <c r="DK8">
+        <v>2.68</v>
+      </c>
+      <c r="DL8">
+        <v>1.75</v>
+      </c>
+      <c r="DM8">
+        <v>2.05</v>
+      </c>
+      <c r="DN8">
+        <v>1.33</v>
+      </c>
+      <c r="DO8">
+        <v>3.3</v>
+      </c>
+      <c r="DP8">
+        <v>2.38</v>
+      </c>
+      <c r="DQ8">
+        <v>1.55</v>
+      </c>
+      <c r="DR8">
+        <v>1.17</v>
+      </c>
+      <c r="DS8">
+        <v>5</v>
+      </c>
+      <c r="DT8">
+        <v>3.7</v>
+      </c>
+      <c r="DU8">
+        <v>1.26</v>
+      </c>
+      <c r="DV8">
+        <v>1.03</v>
+      </c>
+      <c r="DW8">
+        <v>8.25</v>
+      </c>
+      <c r="DX8">
+        <v>5.75</v>
+      </c>
+      <c r="DY8">
+        <v>1.14</v>
+      </c>
+      <c r="EB8">
+        <v>8.5</v>
+      </c>
+      <c r="EC8">
+        <v>1.03</v>
+      </c>
+      <c r="EJ8">
+        <v>6.5</v>
+      </c>
+      <c r="EK8">
+        <v>8</v>
+      </c>
+      <c r="EL8">
+        <v>17</v>
+      </c>
+      <c r="EM8">
+        <v>41</v>
+      </c>
+      <c r="EN8">
+        <v>6</v>
+      </c>
+      <c r="EO8">
+        <v>6</v>
+      </c>
+      <c r="EP8">
+        <v>13</v>
+      </c>
+      <c r="EQ8">
+        <v>34</v>
+      </c>
+      <c r="ER8">
+        <v>9</v>
+      </c>
+      <c r="ES8">
+        <v>10</v>
+      </c>
+      <c r="ET8">
+        <v>19</v>
+      </c>
+      <c r="EU8">
+        <v>41</v>
+      </c>
+      <c r="EV8">
+        <v>19</v>
+      </c>
+      <c r="EW8">
+        <v>21</v>
+      </c>
+      <c r="EX8">
+        <v>41</v>
+      </c>
+      <c r="EY8">
+        <v>81</v>
+      </c>
+      <c r="EZ8">
+        <v>101</v>
+      </c>
+      <c r="FA8">
+        <v>81</v>
+      </c>
+      <c r="FB8">
+        <v>126</v>
+      </c>
+      <c r="FC8">
+        <v>251</v>
+      </c>
+      <c r="FD8">
+        <v>41</v>
+      </c>
+      <c r="FE8">
+        <v>51</v>
+      </c>
+      <c r="FF8">
+        <v>81</v>
+      </c>
+      <c r="FG8">
+        <v>151</v>
+      </c>
+      <c r="FH8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9">
+        <v>2.5</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>2.3</v>
+      </c>
+      <c r="L9">
+        <v>2.1</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>1.53</v>
+      </c>
+      <c r="O9">
+        <v>2.38</v>
+      </c>
+      <c r="P9">
+        <v>1.5</v>
+      </c>
+      <c r="Q9">
+        <v>2.5</v>
+      </c>
+      <c r="R9">
+        <v>2.36</v>
+      </c>
+      <c r="S9">
+        <v>1.55</v>
+      </c>
+      <c r="T9">
+        <v>2.02</v>
+      </c>
+      <c r="U9">
+        <v>1.74</v>
+      </c>
+      <c r="V9">
+        <v>3.75</v>
+      </c>
+      <c r="W9">
+        <v>1.25</v>
+      </c>
+      <c r="X9">
+        <v>3.4</v>
+      </c>
+      <c r="Y9">
+        <v>1.3</v>
+      </c>
+      <c r="Z9">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>1.05</v>
+      </c>
+      <c r="AB9">
+        <v>7.4</v>
+      </c>
+      <c r="AC9">
+        <v>1.07</v>
+      </c>
+      <c r="AD9">
+        <v>11</v>
+      </c>
+      <c r="AE9">
+        <v>1.05</v>
+      </c>
+      <c r="AF9">
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <v>1.06</v>
+      </c>
+      <c r="AH9">
+        <v>1.75</v>
+      </c>
+      <c r="AI9">
+        <v>3.3</v>
+      </c>
+      <c r="AJ9">
+        <v>5.75</v>
+      </c>
+      <c r="AK9">
+        <v>1.62</v>
+      </c>
+      <c r="AL9">
+        <v>3.4</v>
+      </c>
+      <c r="AM9">
+        <v>5.5</v>
+      </c>
+      <c r="AN9">
+        <v>1.14</v>
+      </c>
+      <c r="AO9">
+        <v>1.33</v>
+      </c>
+      <c r="AP9">
+        <v>2</v>
+      </c>
+      <c r="AQ9">
+        <v>1.14</v>
+      </c>
+      <c r="AR9">
+        <v>1.3</v>
+      </c>
+      <c r="AS9">
+        <v>2.25</v>
+      </c>
+      <c r="AT9">
+        <v>2.25</v>
+      </c>
+      <c r="AU9">
+        <v>1.57</v>
+      </c>
+      <c r="AV9">
+        <v>2.1</v>
+      </c>
+      <c r="AW9">
+        <v>1.67</v>
+      </c>
+      <c r="AX9">
+        <v>1.1</v>
+      </c>
+      <c r="AY9">
+        <v>7</v>
+      </c>
+      <c r="AZ9">
+        <v>1.08</v>
+      </c>
+      <c r="BA9">
+        <v>7.5</v>
+      </c>
+      <c r="BB9">
+        <v>1.11</v>
+      </c>
+      <c r="BC9">
+        <v>5.2</v>
+      </c>
+      <c r="BD9">
+        <v>1.1</v>
+      </c>
+      <c r="BE9">
+        <v>6.3</v>
+      </c>
+      <c r="BF9">
+        <v>1.5</v>
+      </c>
+      <c r="BG9">
+        <v>2.5</v>
+      </c>
+      <c r="BH9">
+        <v>1.36</v>
+      </c>
+      <c r="BI9">
+        <v>3</v>
+      </c>
+      <c r="BJ9">
+        <v>1.98</v>
+      </c>
+      <c r="BK9">
+        <v>1.88</v>
+      </c>
+      <c r="BL9">
+        <v>1.83</v>
+      </c>
+      <c r="BM9">
+        <v>2.03</v>
+      </c>
+      <c r="BN9">
+        <v>2.6</v>
+      </c>
+      <c r="BO9">
+        <v>1.48</v>
+      </c>
+      <c r="BP9">
+        <v>2.2</v>
+      </c>
+      <c r="BQ9">
+        <v>1.65</v>
+      </c>
+      <c r="BR9">
+        <v>4</v>
+      </c>
+      <c r="BS9">
+        <v>1.21</v>
+      </c>
+      <c r="BT9">
+        <v>3.2</v>
+      </c>
+      <c r="BU9">
+        <v>1.32</v>
+      </c>
+      <c r="BV9">
+        <v>5.5</v>
+      </c>
+      <c r="BW9">
+        <v>1.14</v>
+      </c>
+      <c r="BX9">
+        <v>4</v>
+      </c>
+      <c r="BY9">
+        <v>1.22</v>
+      </c>
+      <c r="BZ9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="CA9">
+        <v>1.02</v>
+      </c>
+      <c r="CB9">
+        <v>6.9</v>
+      </c>
+      <c r="CC9">
+        <v>1.08</v>
+      </c>
+      <c r="CD9">
+        <v>13</v>
+      </c>
+      <c r="CE9">
+        <v>1.04</v>
+      </c>
+      <c r="CF9">
+        <v>9</v>
+      </c>
+      <c r="CG9">
+        <v>1.07</v>
+      </c>
+      <c r="CL9">
+        <v>26</v>
+      </c>
+      <c r="CM9">
+        <v>1.01</v>
+      </c>
+      <c r="CN9">
+        <v>19</v>
+      </c>
+      <c r="CO9">
+        <v>1.02</v>
+      </c>
+      <c r="CT9">
+        <v>51</v>
+      </c>
+      <c r="CU9">
+        <v>50</v>
+      </c>
+      <c r="CV9">
+        <v>41</v>
+      </c>
+      <c r="CW9">
+        <v>41</v>
+      </c>
+      <c r="DJ9">
+        <v>1.24</v>
+      </c>
+      <c r="DK9">
+        <v>3.9</v>
+      </c>
+      <c r="DL9">
+        <v>1.48</v>
+      </c>
+      <c r="DM9">
+        <v>2.6</v>
+      </c>
+      <c r="DN9">
+        <v>1.19</v>
+      </c>
+      <c r="DO9">
+        <v>4.5</v>
+      </c>
+      <c r="DP9">
+        <v>2</v>
+      </c>
+      <c r="DQ9">
+        <v>1.85</v>
+      </c>
+      <c r="DR9">
+        <v>1.1</v>
+      </c>
+      <c r="DS9">
+        <v>7</v>
+      </c>
+      <c r="DT9">
+        <v>2.75</v>
+      </c>
+      <c r="DU9">
+        <v>1.43</v>
+      </c>
+      <c r="DX9">
+        <v>4.1</v>
+      </c>
+      <c r="DY9">
+        <v>1.23</v>
+      </c>
+      <c r="EB9">
+        <v>6.8</v>
+      </c>
+      <c r="EC9">
+        <v>1.11</v>
+      </c>
+      <c r="EF9">
+        <v>10</v>
+      </c>
+      <c r="EG9">
+        <v>1.03</v>
+      </c>
+      <c r="EJ9">
+        <v>5</v>
+      </c>
+      <c r="EK9">
+        <v>15</v>
+      </c>
+      <c r="EL9">
+        <v>41</v>
+      </c>
+      <c r="EM9">
+        <v>101</v>
+      </c>
+      <c r="EN9">
+        <v>5.5</v>
+      </c>
+      <c r="EO9">
+        <v>5.5</v>
+      </c>
+      <c r="EP9">
+        <v>26</v>
+      </c>
+      <c r="EQ9">
+        <v>67</v>
+      </c>
+      <c r="ER9">
+        <v>6.5</v>
+      </c>
+      <c r="ES9">
+        <v>10</v>
+      </c>
+      <c r="ET9">
+        <v>19</v>
+      </c>
+      <c r="EU9">
+        <v>81</v>
+      </c>
+      <c r="EV9">
+        <v>12</v>
+      </c>
+      <c r="EW9">
+        <v>17</v>
+      </c>
+      <c r="EX9">
+        <v>41</v>
+      </c>
+      <c r="EY9">
+        <v>81</v>
+      </c>
+      <c r="EZ9">
+        <v>401</v>
+      </c>
+      <c r="FA9">
+        <v>251</v>
+      </c>
+      <c r="FB9">
+        <v>351</v>
+      </c>
+      <c r="FC9">
+        <v>501</v>
+      </c>
+      <c r="FD9">
+        <v>26</v>
+      </c>
+      <c r="FE9">
+        <v>34</v>
+      </c>
+      <c r="FF9">
+        <v>67</v>
+      </c>
+      <c r="FG9">
+        <v>201</v>
+      </c>
+      <c r="FH9">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10">
+        <v>2.87</v>
+      </c>
+      <c r="I10">
+        <v>1.89</v>
+      </c>
+      <c r="J10">
+        <v>4.82</v>
+      </c>
+      <c r="K10">
+        <v>2.77</v>
+      </c>
+      <c r="L10">
+        <v>1.95</v>
+      </c>
+      <c r="M10">
+        <v>4.19</v>
+      </c>
+      <c r="N10">
+        <v>1.56</v>
+      </c>
+      <c r="O10">
+        <v>2.34</v>
+      </c>
+      <c r="P10">
+        <v>1.5</v>
+      </c>
+      <c r="Q10">
+        <v>2.5</v>
+      </c>
+      <c r="R10">
+        <v>2.32</v>
+      </c>
+      <c r="S10">
+        <v>1.57</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>1.48</v>
+      </c>
+      <c r="V10">
+        <v>3.44</v>
+      </c>
+      <c r="W10">
+        <v>1.29</v>
+      </c>
+      <c r="X10">
+        <v>3.25</v>
+      </c>
+      <c r="Y10">
+        <v>1.33</v>
+      </c>
+      <c r="Z10">
+        <v>8.1</v>
+      </c>
+      <c r="AA10">
+        <v>1.06</v>
+      </c>
+      <c r="AB10">
+        <v>7.6</v>
+      </c>
+      <c r="AC10">
+        <v>1.07</v>
+      </c>
+      <c r="AD10">
+        <v>9.4</v>
+      </c>
+      <c r="AE10">
+        <v>1.04</v>
+      </c>
+      <c r="AF10">
+        <v>8</v>
+      </c>
+      <c r="AG10">
+        <v>1.06</v>
+      </c>
+      <c r="AH10">
+        <v>2.15</v>
+      </c>
+      <c r="AI10">
+        <v>3.05</v>
+      </c>
+      <c r="AJ10">
+        <v>3.82</v>
+      </c>
+      <c r="AK10">
+        <v>2.12</v>
+      </c>
+      <c r="AL10">
+        <v>3.1</v>
+      </c>
+      <c r="AM10">
+        <v>3.61</v>
+      </c>
+      <c r="AN10">
+        <v>1.26</v>
+      </c>
+      <c r="AO10">
+        <v>1.38</v>
+      </c>
+      <c r="AP10">
+        <v>1.71</v>
+      </c>
+      <c r="AQ10">
+        <v>1.25</v>
+      </c>
+      <c r="AR10">
+        <v>1.36</v>
+      </c>
+      <c r="AS10">
+        <v>1.67</v>
+      </c>
+      <c r="AT10">
+        <v>2.05</v>
+      </c>
+      <c r="AU10">
+        <v>1.73</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>1.77</v>
+      </c>
+      <c r="AX10">
+        <v>1.07</v>
+      </c>
+      <c r="AY10">
+        <v>6.3</v>
+      </c>
+      <c r="AZ10">
+        <v>1.1</v>
+      </c>
+      <c r="BA10">
+        <v>6.5</v>
+      </c>
+      <c r="BB10">
+        <v>1.11</v>
+      </c>
+      <c r="BC10">
+        <v>5.15</v>
+      </c>
+      <c r="BD10">
+        <v>1.12</v>
+      </c>
+      <c r="BE10">
+        <v>5.6</v>
+      </c>
+      <c r="BF10">
+        <v>1.44</v>
+      </c>
+      <c r="BG10">
+        <v>2.54</v>
+      </c>
+      <c r="BH10">
+        <v>1.44</v>
+      </c>
+      <c r="BI10">
+        <v>2.63</v>
+      </c>
+      <c r="BJ10">
+        <v>1.78</v>
+      </c>
+      <c r="BK10">
+        <v>1.95</v>
+      </c>
+      <c r="BL10">
+        <v>1.8</v>
+      </c>
+      <c r="BM10">
+        <v>1.98</v>
+      </c>
+      <c r="BN10">
+        <v>2.43</v>
+      </c>
+      <c r="BO10">
+        <v>1.57</v>
+      </c>
+      <c r="BP10">
+        <v>2.38</v>
+      </c>
+      <c r="BQ10">
+        <v>1.53</v>
+      </c>
+      <c r="BR10">
+        <v>3.62</v>
+      </c>
+      <c r="BS10">
+        <v>1.25</v>
+      </c>
+      <c r="BT10">
+        <v>3.7</v>
+      </c>
+      <c r="BU10">
+        <v>1.25</v>
+      </c>
+      <c r="BV10">
+        <v>4.33</v>
+      </c>
+      <c r="BW10">
+        <v>1.17</v>
+      </c>
+      <c r="BX10">
+        <v>4.33</v>
+      </c>
+      <c r="BY10">
+        <v>1.2</v>
+      </c>
+      <c r="BZ10">
+        <v>7.8</v>
+      </c>
+      <c r="CA10">
+        <v>1.04</v>
+      </c>
+      <c r="CB10">
+        <v>7.5</v>
+      </c>
+      <c r="CC10">
+        <v>1.07</v>
+      </c>
+      <c r="CD10">
+        <v>8.5</v>
+      </c>
+      <c r="CE10">
+        <v>1.03</v>
+      </c>
+      <c r="CF10">
+        <v>8</v>
+      </c>
+      <c r="CG10">
+        <v>1.06</v>
+      </c>
+      <c r="CL10">
+        <v>15</v>
+      </c>
+      <c r="CM10">
+        <v>1.02</v>
+      </c>
+      <c r="CN10">
+        <v>15</v>
+      </c>
+      <c r="CO10">
+        <v>1.02</v>
+      </c>
+      <c r="DJ10">
+        <v>1.49</v>
+      </c>
+      <c r="DK10">
+        <v>2.65</v>
+      </c>
+      <c r="DL10">
+        <v>1.81</v>
+      </c>
+      <c r="DM10">
+        <v>2.02</v>
+      </c>
+      <c r="DN10">
+        <v>1.33</v>
+      </c>
+      <c r="DO10">
+        <v>3.11</v>
+      </c>
+      <c r="DP10">
+        <v>2.44</v>
+      </c>
+      <c r="DQ10">
+        <v>1.5</v>
+      </c>
+      <c r="DR10">
+        <v>1.15</v>
+      </c>
+      <c r="DS10">
+        <v>4.8</v>
+      </c>
+      <c r="DT10">
+        <v>3.6</v>
+      </c>
+      <c r="DU10">
+        <v>1.26</v>
+      </c>
+      <c r="DV10">
+        <v>1.04</v>
+      </c>
+      <c r="DW10">
+        <v>8.6</v>
+      </c>
+      <c r="DX10">
+        <v>5.47</v>
+      </c>
+      <c r="DY10">
+        <v>1.12</v>
+      </c>
+      <c r="EB10">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="EC10">
+        <v>1.03</v>
+      </c>
+      <c r="EJ10">
+        <v>7</v>
+      </c>
+      <c r="EK10">
+        <v>9</v>
+      </c>
+      <c r="EL10">
+        <v>15</v>
+      </c>
+      <c r="EM10">
+        <v>46</v>
+      </c>
+      <c r="EN10">
+        <v>6</v>
+      </c>
+      <c r="EO10">
+        <v>5.5</v>
+      </c>
+      <c r="EP10">
+        <v>12</v>
+      </c>
+      <c r="EQ10">
+        <v>34</v>
+      </c>
+      <c r="ER10">
+        <v>9.5</v>
+      </c>
+      <c r="ES10">
+        <v>8.5</v>
+      </c>
+      <c r="ET10">
+        <v>15</v>
+      </c>
+      <c r="EU10">
+        <v>51</v>
+      </c>
+      <c r="EV10">
+        <v>19</v>
+      </c>
+      <c r="EW10">
+        <v>19</v>
+      </c>
+      <c r="EX10">
+        <v>34</v>
+      </c>
+      <c r="EY10">
+        <v>91</v>
+      </c>
+      <c r="EZ10">
+        <v>151</v>
+      </c>
+      <c r="FA10">
+        <v>101</v>
+      </c>
+      <c r="FB10">
+        <v>176</v>
+      </c>
+      <c r="FC10">
+        <v>201</v>
+      </c>
+      <c r="FD10">
+        <v>56</v>
+      </c>
+      <c r="FE10">
+        <v>56</v>
+      </c>
+      <c r="FF10">
+        <v>101</v>
+      </c>
+      <c r="FG10">
+        <v>201</v>
+      </c>
+      <c r="FH10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
+      <c r="A11" s="1">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11">
+        <v>1.83</v>
+      </c>
+      <c r="I11">
+        <v>2.5</v>
+      </c>
+      <c r="J11">
+        <v>6.5</v>
+      </c>
+      <c r="K11">
+        <v>1.83</v>
+      </c>
+      <c r="L11">
+        <v>2.5</v>
+      </c>
+      <c r="M11">
+        <v>7.5</v>
+      </c>
+      <c r="N11">
+        <v>1.29</v>
+      </c>
+      <c r="O11">
+        <v>3.5</v>
+      </c>
+      <c r="P11">
+        <v>1.3</v>
+      </c>
+      <c r="Q11">
+        <v>3.4</v>
+      </c>
+      <c r="R11">
+        <v>1.58</v>
+      </c>
+      <c r="S11">
+        <v>2.3</v>
+      </c>
+      <c r="T11">
+        <v>1.57</v>
+      </c>
+      <c r="U11">
+        <v>2.32</v>
+      </c>
+      <c r="V11">
+        <v>2.38</v>
+      </c>
+      <c r="W11">
+        <v>1.53</v>
+      </c>
+      <c r="X11">
+        <v>2.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.5</v>
+      </c>
+      <c r="Z11">
+        <v>4.3</v>
+      </c>
+      <c r="AA11">
+        <v>1.2</v>
+      </c>
+      <c r="AB11">
+        <v>4.45</v>
+      </c>
+      <c r="AC11">
+        <v>1.19</v>
+      </c>
+      <c r="AD11">
+        <v>5.5</v>
+      </c>
+      <c r="AE11">
+        <v>1.14</v>
+      </c>
+      <c r="AF11">
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <v>1.13</v>
+      </c>
+      <c r="AH11">
+        <v>1.36</v>
+      </c>
+      <c r="AI11">
+        <v>4.5</v>
+      </c>
+      <c r="AJ11">
+        <v>7.5</v>
+      </c>
+      <c r="AK11">
+        <v>1.33</v>
+      </c>
+      <c r="AL11">
+        <v>4.5</v>
+      </c>
+      <c r="AM11">
+        <v>8</v>
+      </c>
+      <c r="AN11">
+        <v>1.1</v>
+      </c>
+      <c r="AO11">
+        <v>1.18</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>1.07</v>
+      </c>
+      <c r="AR11">
+        <v>1.17</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>1.91</v>
+      </c>
+      <c r="AU11">
+        <v>1.91</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>1.75</v>
+      </c>
+      <c r="AX11">
+        <v>1.03</v>
+      </c>
+      <c r="AY11">
+        <v>15</v>
+      </c>
+      <c r="AZ11">
+        <v>1.04</v>
+      </c>
+      <c r="BA11">
+        <v>13</v>
+      </c>
+      <c r="BB11">
+        <v>1.03</v>
+      </c>
+      <c r="BC11">
+        <v>10</v>
+      </c>
+      <c r="BD11">
+        <v>1.03</v>
+      </c>
+      <c r="BE11">
+        <v>10</v>
+      </c>
+      <c r="BF11">
+        <v>1.18</v>
+      </c>
+      <c r="BG11">
+        <v>4.5</v>
+      </c>
+      <c r="BH11">
+        <v>1.2</v>
+      </c>
+      <c r="BI11">
+        <v>4.33</v>
+      </c>
+      <c r="BJ11">
+        <v>1.26</v>
+      </c>
+      <c r="BK11">
+        <v>3.54</v>
+      </c>
+      <c r="BL11">
+        <v>1.27</v>
+      </c>
+      <c r="BM11">
+        <v>3.5</v>
+      </c>
+      <c r="BN11">
+        <v>1.6</v>
+      </c>
+      <c r="BO11">
+        <v>2.3</v>
+      </c>
+      <c r="BP11">
+        <v>1.67</v>
+      </c>
+      <c r="BQ11">
+        <v>2.15</v>
+      </c>
+      <c r="BR11">
+        <v>2.1</v>
+      </c>
+      <c r="BS11">
+        <v>1.78</v>
+      </c>
+      <c r="BT11">
+        <v>2.05</v>
+      </c>
+      <c r="BU11">
+        <v>1.8</v>
+      </c>
+      <c r="BV11">
+        <v>2.5</v>
+      </c>
+      <c r="BW11">
+        <v>1.5</v>
+      </c>
+      <c r="BX11">
+        <v>2.63</v>
+      </c>
+      <c r="BY11">
+        <v>1.44</v>
+      </c>
+      <c r="BZ11">
+        <v>3.56</v>
+      </c>
+      <c r="CA11">
+        <v>1.23</v>
+      </c>
+      <c r="CB11">
+        <v>3.8</v>
+      </c>
+      <c r="CC11">
+        <v>1.24</v>
+      </c>
+      <c r="CD11">
+        <v>4.33</v>
+      </c>
+      <c r="CE11">
+        <v>1.2</v>
+      </c>
+      <c r="CF11">
+        <v>5</v>
+      </c>
+      <c r="CG11">
+        <v>1.17</v>
+      </c>
+      <c r="CH11">
+        <v>7.1</v>
+      </c>
+      <c r="CI11">
+        <v>1.05</v>
+      </c>
+      <c r="CJ11">
+        <v>7.2</v>
+      </c>
+      <c r="CK11">
+        <v>1.07</v>
+      </c>
+      <c r="CL11">
+        <v>9</v>
+      </c>
+      <c r="CM11">
+        <v>1.07</v>
+      </c>
+      <c r="CN11">
+        <v>10</v>
+      </c>
+      <c r="CO11">
+        <v>1.06</v>
+      </c>
+      <c r="CT11">
+        <v>19</v>
+      </c>
+      <c r="CU11">
+        <v>1.02</v>
+      </c>
+      <c r="CV11">
+        <v>21</v>
+      </c>
+      <c r="CW11">
+        <v>1.02</v>
+      </c>
+      <c r="DB11">
+        <v>34</v>
+      </c>
+      <c r="DC11">
+        <v>1.01</v>
+      </c>
+      <c r="DD11">
+        <v>41</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>199</v>
+      </c>
+      <c r="DJ11">
+        <v>1.13</v>
+      </c>
+      <c r="DK11">
+        <v>5.9</v>
+      </c>
+      <c r="DL11">
+        <v>1.26</v>
+      </c>
+      <c r="DM11">
+        <v>3.7</v>
+      </c>
+      <c r="DN11">
+        <v>1.12</v>
+      </c>
+      <c r="DO11">
+        <v>6.4</v>
+      </c>
+      <c r="DP11">
+        <v>1.48</v>
+      </c>
+      <c r="DQ11">
+        <v>2.6</v>
+      </c>
+      <c r="DT11">
+        <v>1.85</v>
+      </c>
+      <c r="DU11">
+        <v>2</v>
+      </c>
+      <c r="DX11">
+        <v>2.35</v>
+      </c>
+      <c r="DY11">
+        <v>1.58</v>
+      </c>
+      <c r="EB11">
+        <v>3.3</v>
+      </c>
+      <c r="EC11">
+        <v>1.33</v>
+      </c>
+      <c r="EF11">
+        <v>4.4</v>
+      </c>
+      <c r="EG11">
+        <v>1.2</v>
+      </c>
+      <c r="EJ11">
+        <v>15</v>
+      </c>
+      <c r="EK11">
+        <v>21</v>
+      </c>
+      <c r="EL11">
+        <v>41</v>
+      </c>
+      <c r="EM11">
+        <v>81</v>
+      </c>
+      <c r="EN11">
+        <v>8</v>
+      </c>
+      <c r="EO11">
+        <v>9</v>
+      </c>
+      <c r="EP11">
+        <v>21</v>
+      </c>
+      <c r="EQ11">
+        <v>51</v>
+      </c>
+      <c r="ER11">
+        <v>7</v>
+      </c>
+      <c r="ES11">
+        <v>8.5</v>
+      </c>
+      <c r="ET11">
+        <v>19</v>
+      </c>
+      <c r="EU11">
+        <v>51</v>
+      </c>
+      <c r="EV11">
+        <v>9.5</v>
+      </c>
+      <c r="EW11">
+        <v>11</v>
+      </c>
+      <c r="EX11">
+        <v>23</v>
+      </c>
+      <c r="EY11">
+        <v>51</v>
+      </c>
+      <c r="EZ11">
+        <v>301</v>
+      </c>
+      <c r="FA11">
+        <v>151</v>
+      </c>
+      <c r="FB11">
+        <v>126</v>
+      </c>
+      <c r="FC11">
+        <v>151</v>
+      </c>
+      <c r="FD11">
+        <v>17</v>
+      </c>
+      <c r="FE11">
+        <v>19</v>
+      </c>
+      <c r="FF11">
+        <v>41</v>
+      </c>
+      <c r="FG11">
+        <v>81</v>
+      </c>
+      <c r="FH11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:164">
+      <c r="A12" s="1">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12">
+        <v>4.75</v>
+      </c>
+      <c r="I12">
+        <v>2.4</v>
+      </c>
+      <c r="J12">
+        <v>2.2</v>
+      </c>
+      <c r="K12">
+        <v>4.75</v>
+      </c>
+      <c r="L12">
+        <v>2.4</v>
+      </c>
+      <c r="M12">
+        <v>2.2</v>
+      </c>
+      <c r="N12">
+        <v>1.29</v>
+      </c>
+      <c r="O12">
+        <v>3.5</v>
+      </c>
+      <c r="P12">
+        <v>1.29</v>
+      </c>
+      <c r="Q12">
+        <v>3.5</v>
+      </c>
+      <c r="R12">
+        <v>1.58</v>
+      </c>
+      <c r="S12">
+        <v>2.3</v>
+      </c>
+      <c r="T12">
+        <v>1.54</v>
+      </c>
+      <c r="U12">
+        <v>2.38</v>
+      </c>
+      <c r="V12">
+        <v>2.38</v>
+      </c>
+      <c r="W12">
+        <v>1.53</v>
+      </c>
+      <c r="X12">
+        <v>2.25</v>
+      </c>
+      <c r="Y12">
+        <v>1.57</v>
+      </c>
+      <c r="Z12">
+        <v>4.3</v>
+      </c>
+      <c r="AA12">
+        <v>1.2</v>
+      </c>
+      <c r="AB12">
+        <v>4.15</v>
+      </c>
+      <c r="AC12">
+        <v>1.21</v>
+      </c>
+      <c r="AD12">
+        <v>5.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.14</v>
+      </c>
+      <c r="AF12">
+        <v>5.5</v>
+      </c>
+      <c r="AG12">
+        <v>1.14</v>
+      </c>
+      <c r="AH12">
+        <v>4.5</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>1.65</v>
+      </c>
+      <c r="AK12">
+        <v>4.75</v>
+      </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>1.62</v>
+      </c>
+      <c r="AN12">
+        <v>2.2</v>
+      </c>
+      <c r="AO12">
+        <v>1.22</v>
+      </c>
+      <c r="AP12">
+        <v>1.18</v>
+      </c>
+      <c r="AQ12">
+        <v>2.25</v>
+      </c>
+      <c r="AR12">
+        <v>1.22</v>
+      </c>
+      <c r="AS12">
+        <v>1.18</v>
+      </c>
+      <c r="AT12">
+        <v>1.62</v>
+      </c>
+      <c r="AU12">
+        <v>2.2</v>
+      </c>
+      <c r="AV12">
+        <v>1.62</v>
+      </c>
+      <c r="AW12">
+        <v>2.2</v>
+      </c>
+      <c r="AX12">
+        <v>1.03</v>
+      </c>
+      <c r="AY12">
+        <v>17</v>
+      </c>
+      <c r="AZ12">
+        <v>1.03</v>
+      </c>
+      <c r="BA12">
+        <v>17</v>
+      </c>
+      <c r="BB12">
+        <v>1.03</v>
+      </c>
+      <c r="BC12">
+        <v>10.5</v>
+      </c>
+      <c r="BD12">
+        <v>1.03</v>
+      </c>
+      <c r="BE12">
+        <v>10.5</v>
+      </c>
+      <c r="BF12">
+        <v>1.17</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
+        <v>1.17</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>1.25</v>
+      </c>
+      <c r="BK12">
+        <v>3.62</v>
+      </c>
+      <c r="BL12">
+        <v>1.25</v>
+      </c>
+      <c r="BM12">
+        <v>3.7</v>
+      </c>
+      <c r="BN12">
+        <v>1.57</v>
+      </c>
+      <c r="BO12">
+        <v>2.35</v>
+      </c>
+      <c r="BP12">
+        <v>1.57</v>
+      </c>
+      <c r="BQ12">
+        <v>2.35</v>
+      </c>
+      <c r="BR12">
+        <v>1.98</v>
+      </c>
+      <c r="BS12">
+        <v>1.88</v>
+      </c>
+      <c r="BT12">
+        <v>2</v>
+      </c>
+      <c r="BU12">
+        <v>1.85</v>
+      </c>
+      <c r="BV12">
+        <v>2.38</v>
+      </c>
+      <c r="BW12">
+        <v>1.53</v>
+      </c>
+      <c r="BX12">
+        <v>2.38</v>
+      </c>
+      <c r="BY12">
+        <v>1.53</v>
+      </c>
+      <c r="BZ12">
+        <v>3.56</v>
+      </c>
+      <c r="CA12">
+        <v>1.23</v>
+      </c>
+      <c r="CB12">
+        <v>3.6</v>
+      </c>
+      <c r="CC12">
+        <v>1.26</v>
+      </c>
+      <c r="CD12">
+        <v>4.33</v>
+      </c>
+      <c r="CE12">
+        <v>1.2</v>
+      </c>
+      <c r="CF12">
+        <v>4.33</v>
+      </c>
+      <c r="CG12">
+        <v>1.2</v>
+      </c>
+      <c r="CH12">
+        <v>7.1</v>
+      </c>
+      <c r="CI12">
+        <v>1.05</v>
+      </c>
+      <c r="CJ12">
+        <v>6.8</v>
+      </c>
+      <c r="CK12">
+        <v>1.08</v>
+      </c>
+      <c r="CL12">
+        <v>9</v>
+      </c>
+      <c r="CM12">
+        <v>1.07</v>
+      </c>
+      <c r="CN12">
+        <v>9</v>
+      </c>
+      <c r="CO12">
+        <v>1.07</v>
+      </c>
+      <c r="CT12">
+        <v>19</v>
+      </c>
+      <c r="CU12">
+        <v>1.02</v>
+      </c>
+      <c r="CV12">
+        <v>19</v>
+      </c>
+      <c r="CW12">
+        <v>1.02</v>
+      </c>
+      <c r="DB12">
+        <v>34</v>
+      </c>
+      <c r="DC12">
+        <v>1.01</v>
+      </c>
+      <c r="DD12">
+        <v>34</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>198</v>
+      </c>
+      <c r="DJ12">
+        <v>3.3</v>
+      </c>
+      <c r="DK12">
+        <v>1.33</v>
+      </c>
+      <c r="DL12">
+        <v>3.7</v>
+      </c>
+      <c r="DM12">
+        <v>1.26</v>
+      </c>
+      <c r="DN12">
+        <v>2.5</v>
+      </c>
+      <c r="DO12">
+        <v>1.5</v>
+      </c>
+      <c r="DP12">
+        <v>5.5</v>
+      </c>
+      <c r="DQ12">
+        <v>1.15</v>
+      </c>
+      <c r="DR12">
+        <v>1.95</v>
+      </c>
+      <c r="DS12">
+        <v>1.9</v>
+      </c>
+      <c r="DV12">
+        <v>1.53</v>
+      </c>
+      <c r="DW12">
+        <v>2.43</v>
+      </c>
+      <c r="DZ12">
+        <v>1.3</v>
+      </c>
+      <c r="EA12">
+        <v>3.45</v>
+      </c>
+      <c r="ED12">
+        <v>1.17</v>
+      </c>
+      <c r="EE12">
+        <v>5</v>
+      </c>
+      <c r="EH12">
+        <v>1.1</v>
+      </c>
+      <c r="EI12">
+        <v>7</v>
+      </c>
+      <c r="EJ12">
+        <v>17</v>
+      </c>
+      <c r="EK12">
+        <v>9.5</v>
+      </c>
+      <c r="EL12">
+        <v>9.5</v>
+      </c>
+      <c r="EM12">
+        <v>13</v>
+      </c>
+      <c r="EN12">
+        <v>17</v>
+      </c>
+      <c r="EO12">
+        <v>8</v>
+      </c>
+      <c r="EP12">
+        <v>8.5</v>
+      </c>
+      <c r="EQ12">
+        <v>12</v>
+      </c>
+      <c r="ER12">
+        <v>26</v>
+      </c>
+      <c r="ES12">
+        <v>15</v>
+      </c>
+      <c r="ET12">
+        <v>13</v>
+      </c>
+      <c r="EU12">
+        <v>21</v>
+      </c>
+      <c r="EV12">
+        <v>51</v>
+      </c>
+      <c r="EW12">
+        <v>34</v>
+      </c>
+      <c r="EX12">
+        <v>34</v>
+      </c>
+      <c r="EY12">
+        <v>41</v>
+      </c>
+      <c r="EZ12">
+        <v>23</v>
+      </c>
+      <c r="FA12">
+        <v>23</v>
+      </c>
+      <c r="FB12">
+        <v>34</v>
+      </c>
+      <c r="FC12">
+        <v>51</v>
+      </c>
+      <c r="FD12">
+        <v>101</v>
+      </c>
+      <c r="FE12">
+        <v>67</v>
+      </c>
+      <c r="FF12">
+        <v>67</v>
+      </c>
+      <c r="FG12">
+        <v>81</v>
+      </c>
+      <c r="FH12">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -505,10 +505,19 @@
     <t>FT_Odd_CS_4x4</t>
   </si>
   <si>
-    <t>04/07/2023</t>
-  </si>
-  <si>
-    <t>20:00</t>
+    <t>05/07/2023</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19:30</t>
   </si>
   <si>
     <t>20:30</t>
@@ -517,58 +526,55 @@
     <t>21:30</t>
   </si>
   <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
     <t>ARGENTINA - LIGA PROFESIONAL</t>
   </si>
   <si>
     <t>USA - MLS</t>
   </si>
   <si>
-    <t>Lanus</t>
-  </si>
-  <si>
-    <t>Inter Miami</t>
-  </si>
-  <si>
-    <t>Orlando City</t>
-  </si>
-  <si>
-    <t>FC Dallas</t>
-  </si>
-  <si>
-    <t>Colorado Rapids</t>
-  </si>
-  <si>
-    <t>Los Angeles Galaxy</t>
-  </si>
-  <si>
-    <t>Velez Sarsfield</t>
-  </si>
-  <si>
-    <t>Columbus Crew</t>
-  </si>
-  <si>
-    <t>Toronto FC</t>
-  </si>
-  <si>
-    <t>DC United</t>
-  </si>
-  <si>
-    <t>Portland Timbers</t>
-  </si>
-  <si>
-    <t>Los Angeles FC</t>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Rosario Central</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>Platense</t>
+  </si>
+  <si>
+    <t>Banfield</t>
+  </si>
+  <si>
+    <t>Estudiantes L.P.</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Colon Santa Fe</t>
   </si>
   <si>
     <t>ROUND 23</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>50.0</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>163</v>
@@ -1434,136 +1440,136 @@
         <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H2">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="I2">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="L2">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M2">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N2">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O2">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P2">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Q2">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R2">
-        <v>2.61</v>
+        <v>2.44</v>
       </c>
       <c r="S2">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="T2">
-        <v>2.39</v>
+        <v>2.17</v>
       </c>
       <c r="U2">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W2">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y2">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Z2">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="AA2">
         <v>1.04</v>
       </c>
       <c r="AB2">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC2">
+        <v>1.06</v>
+      </c>
+      <c r="AD2">
+        <v>11</v>
+      </c>
+      <c r="AE2">
         <v>1.05</v>
       </c>
-      <c r="AD2">
-        <v>13</v>
-      </c>
-      <c r="AE2">
-        <v>1.04</v>
-      </c>
       <c r="AF2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AH2">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AI2">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AJ2">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AK2">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AL2">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AM2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AN2">
         <v>1.22</v>
       </c>
       <c r="AO2">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AP2">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AR2">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS2">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AV2">
         <v>2.2</v>
@@ -1572,202 +1578,214 @@
         <v>1.62</v>
       </c>
       <c r="AX2">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AY2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ2">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="BA2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB2">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="BC2">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BD2">
         <v>1.13</v>
       </c>
       <c r="BE2">
-        <v>5.15</v>
+        <v>5.5</v>
       </c>
       <c r="BF2">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BG2">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BH2">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BI2">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="BJ2">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BK2">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BL2">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="BM2">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="BN2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BO2">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BP2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BQ2">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BR2">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BS2">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="BT2">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="BU2">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BV2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BW2">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BX2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BY2">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BZ2">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="CA2">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="CB2">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="CC2">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="CD2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CE2">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="CF2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CG2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="CL2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CM2">
         <v>1.01</v>
       </c>
       <c r="CN2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="CO2">
         <v>1.01</v>
       </c>
+      <c r="CT2">
+        <v>51</v>
+      </c>
+      <c r="CU2">
+        <v>50</v>
+      </c>
+      <c r="CV2">
+        <v>51</v>
+      </c>
+      <c r="CW2">
+        <v>50</v>
+      </c>
       <c r="DJ2">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="DK2">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="DL2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="DM2">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="DN2">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="DO2">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="DP2">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="DQ2">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="DR2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="DS2">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="DT2">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="DU2">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="DV2">
         <v>1.02</v>
       </c>
       <c r="DW2">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="DX2">
-        <v>5.75</v>
+        <v>4.65</v>
       </c>
       <c r="DY2">
-        <v>1.14</v>
-      </c>
-      <c r="DZ2">
-        <v>1.02</v>
-      </c>
-      <c r="EA2">
-        <v>10.8</v>
+        <v>1.18</v>
       </c>
       <c r="EB2">
-        <v>9.85</v>
+        <v>7.19</v>
       </c>
       <c r="EC2">
-        <v>1.03</v>
+        <v>1.05</v>
+      </c>
+      <c r="EF2">
+        <v>9.6</v>
+      </c>
+      <c r="EG2">
+        <v>1.01</v>
       </c>
       <c r="EJ2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EK2">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="EL2">
         <v>19</v>
       </c>
       <c r="EM2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="EN2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="EO2">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="EP2">
         <v>15</v>
@@ -1776,10 +1794,10 @@
         <v>41</v>
       </c>
       <c r="ER2">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="ES2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="ET2">
         <v>21</v>
@@ -1788,19 +1806,19 @@
         <v>51</v>
       </c>
       <c r="EV2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="EW2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="EX2">
         <v>41</v>
       </c>
       <c r="EY2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="EZ2">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="FA2">
         <v>101</v>
@@ -1809,16 +1827,16 @@
         <v>151</v>
       </c>
       <c r="FC2">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="FD2">
+        <v>34</v>
+      </c>
+      <c r="FE2">
         <v>41</v>
       </c>
-      <c r="FE2">
-        <v>51</v>
-      </c>
       <c r="FF2">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="FG2">
         <v>201</v>
@@ -1829,7 +1847,7 @@
     </row>
     <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
@@ -1841,1193 +1859,1109 @@
         <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>184</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="M3">
+        <v>4.33</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>2.5</v>
+      </c>
+      <c r="P3">
+        <v>1.53</v>
+      </c>
+      <c r="Q3">
+        <v>2.38</v>
+      </c>
+      <c r="R3">
+        <v>2.2</v>
+      </c>
+      <c r="S3">
+        <v>1.63</v>
+      </c>
+      <c r="T3">
+        <v>2.2</v>
+      </c>
+      <c r="U3">
+        <v>1.63</v>
+      </c>
+      <c r="V3">
+        <v>3.5</v>
+      </c>
+      <c r="W3">
+        <v>1.29</v>
+      </c>
+      <c r="X3">
+        <v>3.75</v>
+      </c>
+      <c r="Y3">
+        <v>1.25</v>
+      </c>
+      <c r="Z3">
+        <v>7.7</v>
+      </c>
+      <c r="AA3">
+        <v>1.07</v>
+      </c>
+      <c r="AB3">
+        <v>7.8</v>
+      </c>
+      <c r="AC3">
+        <v>1.06</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>1.06</v>
+      </c>
+      <c r="AF3">
+        <v>11</v>
+      </c>
+      <c r="AG3">
+        <v>1.05</v>
+      </c>
+      <c r="AH3">
+        <v>2.2</v>
+      </c>
+      <c r="AI3">
         <v>3.2</v>
       </c>
-      <c r="N3">
+      <c r="AJ3">
+        <v>3.5</v>
+      </c>
+      <c r="AK3">
+        <v>2.1</v>
+      </c>
+      <c r="AL3">
+        <v>3</v>
+      </c>
+      <c r="AM3">
+        <v>3.25</v>
+      </c>
+      <c r="AN3">
+        <v>1.29</v>
+      </c>
+      <c r="AO3">
+        <v>1.36</v>
+      </c>
+      <c r="AP3">
+        <v>1.67</v>
+      </c>
+      <c r="AQ3">
         <v>1.3</v>
-      </c>
-      <c r="O3">
-        <v>3.4</v>
-      </c>
-      <c r="P3">
-        <v>1.33</v>
-      </c>
-      <c r="Q3">
-        <v>3.25</v>
-      </c>
-      <c r="R3">
-        <v>1.7</v>
-      </c>
-      <c r="S3">
-        <v>2.1</v>
-      </c>
-      <c r="T3">
-        <v>1.7</v>
-      </c>
-      <c r="U3">
-        <v>2.1</v>
-      </c>
-      <c r="V3">
-        <v>2.5</v>
-      </c>
-      <c r="W3">
-        <v>1.5</v>
-      </c>
-      <c r="X3">
-        <v>2.63</v>
-      </c>
-      <c r="Y3">
-        <v>1.44</v>
-      </c>
-      <c r="Z3">
-        <v>4.5</v>
-      </c>
-      <c r="AA3">
-        <v>1.18</v>
-      </c>
-      <c r="AB3">
-        <v>4.7</v>
-      </c>
-      <c r="AC3">
-        <v>1.18</v>
-      </c>
-      <c r="AD3">
-        <v>6</v>
-      </c>
-      <c r="AE3">
-        <v>1.13</v>
-      </c>
-      <c r="AF3">
-        <v>6.5</v>
-      </c>
-      <c r="AG3">
-        <v>1.11</v>
-      </c>
-      <c r="AH3">
-        <v>2.88</v>
-      </c>
-      <c r="AI3">
-        <v>3.5</v>
-      </c>
-      <c r="AJ3">
-        <v>2.38</v>
-      </c>
-      <c r="AK3">
-        <v>2.4</v>
-      </c>
-      <c r="AL3">
-        <v>3.2</v>
-      </c>
-      <c r="AM3">
-        <v>2.6</v>
-      </c>
-      <c r="AN3">
-        <v>1.53</v>
-      </c>
-      <c r="AO3">
-        <v>1.29</v>
-      </c>
-      <c r="AP3">
-        <v>1.4</v>
-      </c>
-      <c r="AQ3">
-        <v>1.44</v>
       </c>
       <c r="AR3">
         <v>1.33</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT3">
+        <v>2</v>
+      </c>
+      <c r="AU3">
+        <v>1.75</v>
+      </c>
+      <c r="AV3">
+        <v>2.05</v>
+      </c>
+      <c r="AW3">
+        <v>1.7</v>
+      </c>
+      <c r="AX3">
+        <v>1.08</v>
+      </c>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+      <c r="AZ3">
+        <v>1.1</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>1.09</v>
+      </c>
+      <c r="BC3">
+        <v>5.8</v>
+      </c>
+      <c r="BD3">
+        <v>1.09</v>
+      </c>
+      <c r="BE3">
+        <v>5.8</v>
+      </c>
+      <c r="BF3">
+        <v>1.4</v>
+      </c>
+      <c r="BG3">
+        <v>2.75</v>
+      </c>
+      <c r="BH3">
+        <v>1.44</v>
+      </c>
+      <c r="BI3">
+        <v>2.63</v>
+      </c>
+      <c r="BJ3">
+        <v>1.72</v>
+      </c>
+      <c r="BK3">
+        <v>2.02</v>
+      </c>
+      <c r="BL3">
+        <v>1.72</v>
+      </c>
+      <c r="BM3">
+        <v>2.02</v>
+      </c>
+      <c r="BN3">
+        <v>2.3</v>
+      </c>
+      <c r="BO3">
+        <v>1.6</v>
+      </c>
+      <c r="BP3">
+        <v>2.4</v>
+      </c>
+      <c r="BQ3">
         <v>1.53</v>
       </c>
-      <c r="AU3">
+      <c r="BR3">
+        <v>3.54</v>
+      </c>
+      <c r="BS3">
+        <v>1.26</v>
+      </c>
+      <c r="BT3">
+        <v>3.54</v>
+      </c>
+      <c r="BU3">
+        <v>1.26</v>
+      </c>
+      <c r="BV3">
+        <v>4.33</v>
+      </c>
+      <c r="BW3">
+        <v>1.2</v>
+      </c>
+      <c r="BX3">
+        <v>5</v>
+      </c>
+      <c r="BY3">
+        <v>1.17</v>
+      </c>
+      <c r="BZ3">
+        <v>7.6</v>
+      </c>
+      <c r="CA3">
+        <v>1.04</v>
+      </c>
+      <c r="CB3">
+        <v>7.6</v>
+      </c>
+      <c r="CC3">
+        <v>1.04</v>
+      </c>
+      <c r="CD3">
+        <v>10</v>
+      </c>
+      <c r="CE3">
+        <v>1.06</v>
+      </c>
+      <c r="CF3">
+        <v>11</v>
+      </c>
+      <c r="CG3">
+        <v>1.05</v>
+      </c>
+      <c r="CL3">
+        <v>21</v>
+      </c>
+      <c r="CM3">
+        <v>1.02</v>
+      </c>
+      <c r="CN3">
+        <v>23</v>
+      </c>
+      <c r="CO3">
+        <v>1.01</v>
+      </c>
+      <c r="CT3">
+        <v>51</v>
+      </c>
+      <c r="CU3">
+        <v>50</v>
+      </c>
+      <c r="CV3">
+        <v>51</v>
+      </c>
+      <c r="CW3">
+        <v>50</v>
+      </c>
+      <c r="DJ3">
+        <v>1.55</v>
+      </c>
+      <c r="DK3">
         <v>2.38</v>
       </c>
-      <c r="AV3">
-        <v>1.57</v>
-      </c>
-      <c r="AW3">
-        <v>2.25</v>
-      </c>
-      <c r="AX3">
-        <v>1.03</v>
-      </c>
-      <c r="AY3">
+      <c r="DL3">
+        <v>1.9</v>
+      </c>
+      <c r="DM3">
+        <v>1.95</v>
+      </c>
+      <c r="DN3">
+        <v>1.4</v>
+      </c>
+      <c r="DO3">
+        <v>2.85</v>
+      </c>
+      <c r="DP3">
+        <v>2.6</v>
+      </c>
+      <c r="DQ3">
+        <v>1.48</v>
+      </c>
+      <c r="DR3">
+        <v>1.21</v>
+      </c>
+      <c r="DS3">
+        <v>4.25</v>
+      </c>
+      <c r="DT3">
+        <v>3.9</v>
+      </c>
+      <c r="DU3">
+        <v>1.24</v>
+      </c>
+      <c r="DV3">
+        <v>1.06</v>
+      </c>
+      <c r="DW3">
+        <v>7.6</v>
+      </c>
+      <c r="DX3">
+        <v>5.9</v>
+      </c>
+      <c r="DY3">
+        <v>1.13</v>
+      </c>
+      <c r="DZ3">
+        <v>1.01</v>
+      </c>
+      <c r="EA3">
+        <v>11.5</v>
+      </c>
+      <c r="EB3">
+        <v>8.6</v>
+      </c>
+      <c r="EC3">
+        <v>1.04</v>
+      </c>
+      <c r="EJ3">
+        <v>7.5</v>
+      </c>
+      <c r="EK3">
+        <v>8.5</v>
+      </c>
+      <c r="EL3">
         <v>15</v>
       </c>
-      <c r="AZ3">
-        <v>1.04</v>
-      </c>
-      <c r="BA3">
+      <c r="EM3">
+        <v>41</v>
+      </c>
+      <c r="EN3">
+        <v>6.5</v>
+      </c>
+      <c r="EO3">
+        <v>6</v>
+      </c>
+      <c r="EP3">
         <v>13</v>
       </c>
-      <c r="BB3">
-        <v>1.01</v>
-      </c>
-      <c r="BC3">
-        <v>10</v>
-      </c>
-      <c r="BD3">
-        <v>1.04</v>
-      </c>
-      <c r="BE3">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF3">
-        <v>1.18</v>
-      </c>
-      <c r="BG3">
-        <v>4.5</v>
-      </c>
-      <c r="BH3">
-        <v>1.22</v>
-      </c>
-      <c r="BI3">
-        <v>4</v>
-      </c>
-      <c r="BJ3">
-        <v>1.28</v>
-      </c>
-      <c r="BK3">
-        <v>3.4</v>
-      </c>
-      <c r="BL3">
-        <v>1.31</v>
-      </c>
-      <c r="BM3">
-        <v>3.3</v>
-      </c>
-      <c r="BN3">
-        <v>1.65</v>
-      </c>
-      <c r="BO3">
-        <v>2.2</v>
-      </c>
-      <c r="BP3">
-        <v>1.7</v>
-      </c>
-      <c r="BQ3">
-        <v>2.1</v>
-      </c>
-      <c r="BR3">
-        <v>2.01</v>
-      </c>
-      <c r="BS3">
-        <v>1.73</v>
-      </c>
-      <c r="BT3">
-        <v>2.1</v>
-      </c>
-      <c r="BU3">
-        <v>1.69</v>
-      </c>
-      <c r="BV3">
-        <v>2.5</v>
-      </c>
-      <c r="BW3">
-        <v>1.5</v>
-      </c>
-      <c r="BX3">
-        <v>2.75</v>
-      </c>
-      <c r="BY3">
-        <v>1.4</v>
-      </c>
-      <c r="BZ3">
-        <v>3.65</v>
-      </c>
-      <c r="CA3">
-        <v>1.22</v>
-      </c>
-      <c r="CB3">
-        <v>4</v>
-      </c>
-      <c r="CC3">
-        <v>1.22</v>
-      </c>
-      <c r="CD3">
-        <v>4.5</v>
-      </c>
-      <c r="CE3">
-        <v>1.18</v>
-      </c>
-      <c r="CF3">
-        <v>5.5</v>
-      </c>
-      <c r="CG3">
-        <v>1.14</v>
-      </c>
-      <c r="CH3">
-        <v>7.4</v>
-      </c>
-      <c r="CI3">
-        <v>1.04</v>
-      </c>
-      <c r="CJ3">
-        <v>7.8</v>
-      </c>
-      <c r="CK3">
-        <v>1.06</v>
-      </c>
-      <c r="CL3">
-        <v>10</v>
-      </c>
-      <c r="CM3">
-        <v>1.06</v>
-      </c>
-      <c r="CN3">
-        <v>11</v>
-      </c>
-      <c r="CO3">
-        <v>1.05</v>
-      </c>
-      <c r="CT3">
-        <v>19</v>
-      </c>
-      <c r="CU3">
-        <v>1.02</v>
-      </c>
-      <c r="CV3">
-        <v>23</v>
-      </c>
-      <c r="CW3">
-        <v>1.01</v>
-      </c>
-      <c r="DB3">
+      <c r="EQ3">
+        <v>29</v>
+      </c>
+      <c r="ER3">
+        <v>9.5</v>
+      </c>
+      <c r="ES3">
+        <v>9.5</v>
+      </c>
+      <c r="ET3">
+        <v>17</v>
+      </c>
+      <c r="EU3">
         <v>41</v>
       </c>
-      <c r="DC3">
-        <v>41</v>
-      </c>
-      <c r="DD3">
-        <v>51</v>
-      </c>
-      <c r="DE3">
-        <v>50</v>
-      </c>
-      <c r="DJ3">
-        <v>2.15</v>
-      </c>
-      <c r="DK3">
-        <v>1.68</v>
-      </c>
-      <c r="DL3">
-        <v>2.5</v>
-      </c>
-      <c r="DM3">
-        <v>1.5</v>
-      </c>
-      <c r="DN3">
-        <v>1.85</v>
-      </c>
-      <c r="DO3">
-        <v>2</v>
-      </c>
-      <c r="DP3">
-        <v>3.55</v>
-      </c>
-      <c r="DQ3">
-        <v>1.28</v>
-      </c>
-      <c r="DR3">
-        <v>1.48</v>
-      </c>
-      <c r="DS3">
-        <v>2.6</v>
-      </c>
-      <c r="DT3">
-        <v>5.5</v>
-      </c>
-      <c r="DU3">
-        <v>1.15</v>
-      </c>
-      <c r="DV3">
-        <v>1.26</v>
-      </c>
-      <c r="DW3">
-        <v>3.7</v>
-      </c>
-      <c r="DX3">
-        <v>7</v>
-      </c>
-      <c r="DY3">
-        <v>1.1</v>
-      </c>
-      <c r="DZ3">
-        <v>1.15</v>
-      </c>
-      <c r="EA3">
-        <v>5.5</v>
-      </c>
-      <c r="EJ3">
-        <v>15</v>
-      </c>
-      <c r="EK3">
-        <v>11</v>
-      </c>
-      <c r="EL3">
-        <v>13</v>
-      </c>
-      <c r="EM3">
-        <v>23</v>
-      </c>
-      <c r="EN3">
-        <v>12</v>
-      </c>
-      <c r="EO3">
-        <v>7</v>
-      </c>
-      <c r="EP3">
-        <v>9.5</v>
-      </c>
-      <c r="EQ3">
-        <v>17</v>
-      </c>
-      <c r="ER3">
-        <v>17</v>
-      </c>
-      <c r="ES3">
-        <v>11</v>
-      </c>
-      <c r="ET3">
-        <v>11</v>
-      </c>
-      <c r="EU3">
+      <c r="EV3">
         <v>21</v>
-      </c>
-      <c r="EV3">
-        <v>29</v>
       </c>
       <c r="EW3">
         <v>21</v>
       </c>
       <c r="EX3">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="EY3">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="EZ3">
+        <v>81</v>
+      </c>
+      <c r="FA3">
+        <v>67</v>
+      </c>
+      <c r="FB3">
+        <v>101</v>
+      </c>
+      <c r="FC3">
+        <v>151</v>
+      </c>
+      <c r="FD3">
         <v>41</v>
-      </c>
-      <c r="FA3">
-        <v>34</v>
-      </c>
-      <c r="FB3">
-        <v>41</v>
-      </c>
-      <c r="FC3">
-        <v>67</v>
-      </c>
-      <c r="FD3">
-        <v>51</v>
       </c>
       <c r="FE3">
         <v>41</v>
       </c>
       <c r="FF3">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="FG3">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="FH3">
-        <v>126</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
         <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
         <v>184</v>
       </c>
       <c r="H4">
+        <v>3.6</v>
+      </c>
+      <c r="I4">
+        <v>1.95</v>
+      </c>
+      <c r="J4">
+        <v>3.4</v>
+      </c>
+      <c r="K4">
+        <v>3.75</v>
+      </c>
+      <c r="L4">
+        <v>1.95</v>
+      </c>
+      <c r="M4">
+        <v>3.25</v>
+      </c>
+      <c r="N4">
+        <v>1.53</v>
+      </c>
+      <c r="O4">
+        <v>2.38</v>
+      </c>
+      <c r="P4">
+        <v>1.53</v>
+      </c>
+      <c r="Q4">
+        <v>2.38</v>
+      </c>
+      <c r="R4">
+        <v>2.39</v>
+      </c>
+      <c r="S4">
+        <v>1.54</v>
+      </c>
+      <c r="T4">
+        <v>2.17</v>
+      </c>
+      <c r="U4">
+        <v>1.64</v>
+      </c>
+      <c r="V4">
+        <v>3.5</v>
+      </c>
+      <c r="W4">
+        <v>1.29</v>
+      </c>
+      <c r="X4">
+        <v>3.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.29</v>
+      </c>
+      <c r="Z4">
+        <v>8.4</v>
+      </c>
+      <c r="AA4">
+        <v>1.05</v>
+      </c>
+      <c r="AB4">
+        <v>8.1</v>
+      </c>
+      <c r="AC4">
+        <v>1.06</v>
+      </c>
+      <c r="AD4">
+        <v>11</v>
+      </c>
+      <c r="AE4">
+        <v>1.05</v>
+      </c>
+      <c r="AF4">
+        <v>11</v>
+      </c>
+      <c r="AG4">
+        <v>1.05</v>
+      </c>
+      <c r="AH4">
+        <v>3.1</v>
+      </c>
+      <c r="AI4">
+        <v>2.9</v>
+      </c>
+      <c r="AJ4">
+        <v>2.6</v>
+      </c>
+      <c r="AK4">
+        <v>2.88</v>
+      </c>
+      <c r="AL4">
+        <v>2.9</v>
+      </c>
+      <c r="AM4">
+        <v>2.38</v>
+      </c>
+      <c r="AN4">
+        <v>1.5</v>
+      </c>
+      <c r="AO4">
+        <v>1.4</v>
+      </c>
+      <c r="AP4">
+        <v>1.36</v>
+      </c>
+      <c r="AQ4">
+        <v>1.5</v>
+      </c>
+      <c r="AR4">
+        <v>1.36</v>
+      </c>
+      <c r="AS4">
+        <v>1.36</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <v>1.75</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>1.75</v>
+      </c>
+      <c r="AX4">
+        <v>1.1</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>1.1</v>
+      </c>
+      <c r="BA4">
+        <v>7</v>
+      </c>
+      <c r="BB4">
+        <v>1.12</v>
+      </c>
+      <c r="BC4">
+        <v>4.95</v>
+      </c>
+      <c r="BD4">
+        <v>1.13</v>
+      </c>
+      <c r="BE4">
+        <v>5.5</v>
+      </c>
+      <c r="BF4">
+        <v>1.44</v>
+      </c>
+      <c r="BG4">
+        <v>2.63</v>
+      </c>
+      <c r="BH4">
+        <v>1.44</v>
+      </c>
+      <c r="BI4">
+        <v>2.63</v>
+      </c>
+      <c r="BJ4">
+        <v>1.85</v>
+      </c>
+      <c r="BK4">
+        <v>2</v>
+      </c>
+      <c r="BL4">
+        <v>1.83</v>
+      </c>
+      <c r="BM4">
+        <v>2.03</v>
+      </c>
+      <c r="BN4">
+        <v>2.4</v>
+      </c>
+      <c r="BO4">
+        <v>1.53</v>
+      </c>
+      <c r="BP4">
+        <v>2.35</v>
+      </c>
+      <c r="BQ4">
+        <v>1.57</v>
+      </c>
+      <c r="BR4">
+        <v>3.8</v>
+      </c>
+      <c r="BS4">
+        <v>1.23</v>
+      </c>
+      <c r="BT4">
+        <v>3.6</v>
+      </c>
+      <c r="BU4">
+        <v>1.26</v>
+      </c>
+      <c r="BV4">
+        <v>4.5</v>
+      </c>
+      <c r="BW4">
+        <v>1.18</v>
+      </c>
+      <c r="BX4">
+        <v>4.5</v>
+      </c>
+      <c r="BY4">
+        <v>1.18</v>
+      </c>
+      <c r="BZ4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="CA4">
+        <v>1.03</v>
+      </c>
+      <c r="CB4">
+        <v>7.9</v>
+      </c>
+      <c r="CC4">
+        <v>1.06</v>
+      </c>
+      <c r="CD4">
+        <v>11</v>
+      </c>
+      <c r="CE4">
+        <v>1.05</v>
+      </c>
+      <c r="CF4">
+        <v>11</v>
+      </c>
+      <c r="CG4">
+        <v>1.05</v>
+      </c>
+      <c r="CL4">
+        <v>23</v>
+      </c>
+      <c r="CM4">
+        <v>1.01</v>
+      </c>
+      <c r="CN4">
+        <v>23</v>
+      </c>
+      <c r="CO4">
+        <v>1.01</v>
+      </c>
+      <c r="CT4">
+        <v>51</v>
+      </c>
+      <c r="CU4">
+        <v>50</v>
+      </c>
+      <c r="CV4">
+        <v>51</v>
+      </c>
+      <c r="CW4">
+        <v>50</v>
+      </c>
+      <c r="DJ4">
+        <v>2.05</v>
+      </c>
+      <c r="DK4">
+        <v>1.8</v>
+      </c>
+      <c r="DL4">
+        <v>2.43</v>
+      </c>
+      <c r="DM4">
+        <v>1.53</v>
+      </c>
+      <c r="DN4">
+        <v>1.65</v>
+      </c>
+      <c r="DO4">
         <v>2.2</v>
       </c>
-      <c r="I4">
-        <v>2.38</v>
-      </c>
-      <c r="J4">
-        <v>5.5</v>
-      </c>
-      <c r="K4">
-        <v>2.63</v>
-      </c>
-      <c r="L4">
-        <v>2.2</v>
-      </c>
-      <c r="M4">
-        <v>4.33</v>
-      </c>
-      <c r="N4">
+      <c r="DP4">
+        <v>3.55</v>
+      </c>
+      <c r="DQ4">
+        <v>1.28</v>
+      </c>
+      <c r="DR4">
         <v>1.33</v>
       </c>
-      <c r="O4">
-        <v>3.25</v>
-      </c>
-      <c r="P4">
-        <v>1.4</v>
-      </c>
-      <c r="Q4">
-        <v>2.75</v>
-      </c>
-      <c r="R4">
-        <v>1.7</v>
-      </c>
-      <c r="S4">
-        <v>2.1</v>
-      </c>
-      <c r="T4">
-        <v>1.85</v>
-      </c>
-      <c r="U4">
-        <v>1.95</v>
-      </c>
-      <c r="V4">
-        <v>2.63</v>
-      </c>
-      <c r="W4">
-        <v>1.44</v>
-      </c>
-      <c r="X4">
-        <v>2.75</v>
-      </c>
-      <c r="Y4">
-        <v>1.4</v>
-      </c>
-      <c r="Z4">
-        <v>4.9</v>
-      </c>
-      <c r="AA4">
+      <c r="DS4">
+        <v>3.3</v>
+      </c>
+      <c r="DT4">
+        <v>6</v>
+      </c>
+      <c r="DU4">
+        <v>1.13</v>
+      </c>
+      <c r="DV4">
         <v>1.16</v>
       </c>
-      <c r="AB4">
-        <v>5.45</v>
-      </c>
-      <c r="AC4">
-        <v>1.14</v>
-      </c>
-      <c r="AD4">
-        <v>6.5</v>
-      </c>
-      <c r="AE4">
-        <v>1.11</v>
-      </c>
-      <c r="AF4">
-        <v>8</v>
-      </c>
-      <c r="AG4">
-        <v>1.08</v>
-      </c>
-      <c r="AH4">
-        <v>1.6</v>
-      </c>
-      <c r="AI4">
-        <v>4</v>
-      </c>
-      <c r="AJ4">
-        <v>5.5</v>
-      </c>
-      <c r="AK4">
-        <v>1.91</v>
-      </c>
-      <c r="AL4">
-        <v>3.3</v>
-      </c>
-      <c r="AM4">
-        <v>3.5</v>
-      </c>
-      <c r="AN4">
-        <v>1.14</v>
-      </c>
-      <c r="AO4">
-        <v>1.22</v>
-      </c>
-      <c r="AP4">
-        <v>2.3</v>
-      </c>
-      <c r="AQ4">
-        <v>1.25</v>
-      </c>
-      <c r="AR4">
-        <v>1.3</v>
-      </c>
-      <c r="AS4">
-        <v>1.73</v>
-      </c>
-      <c r="AT4">
-        <v>1.8</v>
-      </c>
-      <c r="AU4">
-        <v>1.95</v>
-      </c>
-      <c r="AV4">
-        <v>1.8</v>
-      </c>
-      <c r="AW4">
-        <v>1.95</v>
-      </c>
-      <c r="AX4">
-        <v>1.04</v>
-      </c>
-      <c r="AY4">
-        <v>13</v>
-      </c>
-      <c r="AZ4">
+      <c r="DW4">
+        <v>5.25</v>
+      </c>
+      <c r="DX4">
+        <v>9.25</v>
+      </c>
+      <c r="DY4">
+        <v>1.03</v>
+      </c>
+      <c r="DZ4">
         <v>1.06</v>
       </c>
-      <c r="BA4">
-        <v>10</v>
-      </c>
-      <c r="BB4">
-        <v>1.01</v>
-      </c>
-      <c r="BC4">
-        <v>9.5</v>
-      </c>
-      <c r="BD4">
-        <v>1.06</v>
-      </c>
-      <c r="BE4">
+      <c r="EA4">
         <v>7.8</v>
       </c>
-      <c r="BF4">
-        <v>1.22</v>
-      </c>
-      <c r="BG4">
-        <v>4</v>
-      </c>
-      <c r="BH4">
-        <v>1.29</v>
-      </c>
-      <c r="BI4">
-        <v>3.5</v>
-      </c>
-      <c r="BJ4">
-        <v>1.33</v>
-      </c>
-      <c r="BK4">
-        <v>3.08</v>
-      </c>
-      <c r="BL4">
-        <v>1.44</v>
-      </c>
-      <c r="BM4">
-        <v>2.65</v>
-      </c>
-      <c r="BN4">
-        <v>1.73</v>
-      </c>
-      <c r="BO4">
-        <v>2.08</v>
-      </c>
-      <c r="BP4">
-        <v>1.95</v>
-      </c>
-      <c r="BQ4">
-        <v>1.85</v>
-      </c>
-      <c r="BR4">
-        <v>2.19</v>
-      </c>
-      <c r="BS4">
-        <v>1.62</v>
-      </c>
-      <c r="BT4">
-        <v>2.5</v>
-      </c>
-      <c r="BU4">
-        <v>1.49</v>
-      </c>
-      <c r="BV4">
-        <v>2.75</v>
-      </c>
-      <c r="BW4">
-        <v>1.4</v>
-      </c>
-      <c r="BX4">
-        <v>3.4</v>
-      </c>
-      <c r="BY4">
-        <v>1.3</v>
-      </c>
-      <c r="BZ4">
-        <v>4.25</v>
-      </c>
-      <c r="CA4">
-        <v>1.17</v>
-      </c>
-      <c r="CB4">
-        <v>5</v>
-      </c>
-      <c r="CC4">
-        <v>1.15</v>
-      </c>
-      <c r="CD4">
-        <v>5.5</v>
-      </c>
-      <c r="CE4">
-        <v>1.14</v>
-      </c>
-      <c r="CF4">
+      <c r="EJ4">
         <v>7</v>
       </c>
-      <c r="CG4">
-        <v>1.1</v>
-      </c>
-      <c r="CH4">
-        <v>8.5</v>
-      </c>
-      <c r="CI4">
-        <v>1.03</v>
-      </c>
-      <c r="CJ4">
-        <v>10</v>
-      </c>
-      <c r="CK4">
-        <v>1.03</v>
-      </c>
-      <c r="CL4">
-        <v>11</v>
-      </c>
-      <c r="CM4">
-        <v>1.05</v>
-      </c>
-      <c r="CN4">
-        <v>15</v>
-      </c>
-      <c r="CO4">
-        <v>1.03</v>
-      </c>
-      <c r="CT4">
-        <v>23</v>
-      </c>
-      <c r="CU4">
-        <v>1.01</v>
-      </c>
-      <c r="CV4">
-        <v>29</v>
-      </c>
-      <c r="CW4">
-        <v>1.01</v>
-      </c>
-      <c r="DB4">
-        <v>51</v>
-      </c>
-      <c r="DC4">
-        <v>50</v>
-      </c>
-      <c r="DD4">
-        <v>51</v>
-      </c>
-      <c r="DE4">
-        <v>50</v>
-      </c>
-      <c r="DJ4">
-        <v>1.24</v>
-      </c>
-      <c r="DK4">
-        <v>3.9</v>
-      </c>
-      <c r="DL4">
-        <v>1.43</v>
-      </c>
-      <c r="DM4">
-        <v>2.75</v>
-      </c>
-      <c r="DN4">
-        <v>1.2</v>
-      </c>
-      <c r="DO4">
-        <v>4.4</v>
-      </c>
-      <c r="DP4">
-        <v>1.75</v>
-      </c>
-      <c r="DQ4">
-        <v>2.05</v>
-      </c>
-      <c r="DR4">
-        <v>1.11</v>
-      </c>
-      <c r="DS4">
-        <v>6.6</v>
-      </c>
-      <c r="DT4">
-        <v>2.3</v>
-      </c>
-      <c r="DU4">
-        <v>1.6</v>
-      </c>
-      <c r="DV4">
-        <v>1.04</v>
-      </c>
-      <c r="DW4">
-        <v>8.6</v>
-      </c>
-      <c r="DX4">
-        <v>3.1</v>
-      </c>
-      <c r="DY4">
-        <v>1.35</v>
-      </c>
-      <c r="EB4">
-        <v>4.5</v>
-      </c>
-      <c r="EC4">
-        <v>1.19</v>
-      </c>
-      <c r="EF4">
-        <v>6.6</v>
-      </c>
-      <c r="EG4">
-        <v>1.11</v>
-      </c>
-      <c r="EJ4">
-        <v>13</v>
-      </c>
       <c r="EK4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="EL4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="EM4">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="EN4">
         <v>7.5</v>
       </c>
       <c r="EO4">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="EP4">
+        <v>11</v>
+      </c>
+      <c r="EQ4">
+        <v>23</v>
+      </c>
+      <c r="ER4">
+        <v>13</v>
+      </c>
+      <c r="ES4">
+        <v>11</v>
+      </c>
+      <c r="ET4">
         <v>17</v>
-      </c>
-      <c r="EQ4">
-        <v>41</v>
-      </c>
-      <c r="ER4">
-        <v>8</v>
-      </c>
-      <c r="ES4">
-        <v>8.5</v>
-      </c>
-      <c r="ET4">
-        <v>15</v>
       </c>
       <c r="EU4">
         <v>41</v>
       </c>
       <c r="EV4">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="EW4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="EX4">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="EY4">
         <v>51</v>
       </c>
       <c r="EZ4">
+        <v>51</v>
+      </c>
+      <c r="FA4">
+        <v>51</v>
+      </c>
+      <c r="FB4">
+        <v>81</v>
+      </c>
+      <c r="FC4">
         <v>151</v>
       </c>
-      <c r="FA4">
-        <v>101</v>
-      </c>
-      <c r="FB4">
-        <v>101</v>
-      </c>
-      <c r="FC4">
-        <v>126</v>
-      </c>
       <c r="FD4">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="FE4">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="FF4">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="FG4">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="FH4">
-        <v>201</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
         <v>184</v>
       </c>
       <c r="H5">
+        <v>3.5</v>
+      </c>
+      <c r="I5">
+        <v>1.91</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>3.75</v>
+      </c>
+      <c r="L5">
+        <v>1.83</v>
+      </c>
+      <c r="M5">
+        <v>3.6</v>
+      </c>
+      <c r="N5">
+        <v>1.62</v>
+      </c>
+      <c r="O5">
+        <v>2.2</v>
+      </c>
+      <c r="P5">
+        <v>1.62</v>
+      </c>
+      <c r="Q5">
+        <v>2.2</v>
+      </c>
+      <c r="R5">
+        <v>2.55</v>
+      </c>
+      <c r="S5">
+        <v>1.48</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>1.5</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>1.22</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>1.22</v>
+      </c>
+      <c r="Z5">
+        <v>9.4</v>
+      </c>
+      <c r="AA5">
+        <v>1.04</v>
+      </c>
+      <c r="AB5">
+        <v>9.6</v>
+      </c>
+      <c r="AC5">
+        <v>1.04</v>
+      </c>
+      <c r="AD5">
+        <v>13</v>
+      </c>
+      <c r="AE5">
+        <v>1.04</v>
+      </c>
+      <c r="AF5">
+        <v>13</v>
+      </c>
+      <c r="AG5">
+        <v>1.04</v>
+      </c>
+      <c r="AH5">
+        <v>2.63</v>
+      </c>
+      <c r="AI5">
         <v>2.88</v>
       </c>
-      <c r="I5">
+      <c r="AJ5">
+        <v>3.1</v>
+      </c>
+      <c r="AK5">
+        <v>2.7</v>
+      </c>
+      <c r="AL5">
+        <v>2.8</v>
+      </c>
+      <c r="AM5">
+        <v>2.6</v>
+      </c>
+      <c r="AN5">
+        <v>1.36</v>
+      </c>
+      <c r="AO5">
+        <v>1.4</v>
+      </c>
+      <c r="AP5">
+        <v>1.44</v>
+      </c>
+      <c r="AQ5">
+        <v>1.44</v>
+      </c>
+      <c r="AR5">
+        <v>1.36</v>
+      </c>
+      <c r="AS5">
+        <v>1.4</v>
+      </c>
+      <c r="AT5">
+        <v>2.2</v>
+      </c>
+      <c r="AU5">
+        <v>1.62</v>
+      </c>
+      <c r="AV5">
+        <v>2.2</v>
+      </c>
+      <c r="AW5">
+        <v>1.62</v>
+      </c>
+      <c r="AX5">
+        <v>1.13</v>
+      </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5">
+        <v>1.13</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>1.16</v>
+      </c>
+      <c r="BC5">
+        <v>4.7</v>
+      </c>
+      <c r="BD5">
+        <v>1.19</v>
+      </c>
+      <c r="BE5">
+        <v>4.4</v>
+      </c>
+      <c r="BF5">
+        <v>1.53</v>
+      </c>
+      <c r="BG5">
+        <v>2.38</v>
+      </c>
+      <c r="BH5">
+        <v>1.53</v>
+      </c>
+      <c r="BI5">
+        <v>2.38</v>
+      </c>
+      <c r="BJ5">
         <v>2.1</v>
       </c>
-      <c r="J5">
-        <v>3.75</v>
-      </c>
-      <c r="K5">
-        <v>2.88</v>
-      </c>
-      <c r="L5">
-        <v>2.2</v>
-      </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.4</v>
-      </c>
-      <c r="O5">
-        <v>2.75</v>
-      </c>
-      <c r="P5">
-        <v>1.36</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
-        <v>1.85</v>
-      </c>
-      <c r="T5">
+      <c r="BK5">
+        <v>1.78</v>
+      </c>
+      <c r="BL5">
+        <v>2.05</v>
+      </c>
+      <c r="BM5">
         <v>1.8</v>
       </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>1.36</v>
-      </c>
-      <c r="X5">
-        <v>2.63</v>
-      </c>
-      <c r="Y5">
+      <c r="BN5">
+        <v>2.7</v>
+      </c>
+      <c r="BO5">
         <v>1.44</v>
       </c>
-      <c r="Z5">
-        <v>5.9</v>
-      </c>
-      <c r="AA5">
-        <v>1.11</v>
-      </c>
-      <c r="AB5">
-        <v>5.05</v>
-      </c>
-      <c r="AC5">
+      <c r="BP5">
+        <v>2.7</v>
+      </c>
+      <c r="BQ5">
+        <v>1.44</v>
+      </c>
+      <c r="BR5">
+        <v>4.3</v>
+      </c>
+      <c r="BS5">
         <v>1.16</v>
       </c>
-      <c r="AD5">
-        <v>8</v>
-      </c>
-      <c r="AE5">
-        <v>1.08</v>
-      </c>
-      <c r="AF5">
-        <v>7</v>
-      </c>
-      <c r="AG5">
-        <v>1.1</v>
-      </c>
-      <c r="AH5">
-        <v>2.2</v>
-      </c>
-      <c r="AI5">
-        <v>3.4</v>
-      </c>
-      <c r="AJ5">
-        <v>3.25</v>
-      </c>
-      <c r="AK5">
-        <v>2.2</v>
-      </c>
-      <c r="AL5">
-        <v>3.2</v>
-      </c>
-      <c r="AM5">
-        <v>2.9</v>
-      </c>
-      <c r="AN5">
+      <c r="BT5">
+        <v>4.5</v>
+      </c>
+      <c r="BU5">
+        <v>1.18</v>
+      </c>
+      <c r="BV5">
+        <v>5.5</v>
+      </c>
+      <c r="BW5">
+        <v>1.14</v>
+      </c>
+      <c r="BX5">
+        <v>5.5</v>
+      </c>
+      <c r="BY5">
+        <v>1.14</v>
+      </c>
+      <c r="BZ5">
+        <v>9.6</v>
+      </c>
+      <c r="CA5">
+        <v>1.01</v>
+      </c>
+      <c r="CB5">
+        <v>10</v>
+      </c>
+      <c r="CC5">
+        <v>1.03</v>
+      </c>
+      <c r="CD5">
+        <v>13</v>
+      </c>
+      <c r="CE5">
+        <v>1.04</v>
+      </c>
+      <c r="CF5">
+        <v>13</v>
+      </c>
+      <c r="CG5">
+        <v>1.04</v>
+      </c>
+      <c r="CL5">
+        <v>29</v>
+      </c>
+      <c r="CM5">
+        <v>1.01</v>
+      </c>
+      <c r="CN5">
+        <v>29</v>
+      </c>
+      <c r="CO5">
+        <v>1.01</v>
+      </c>
+      <c r="DJ5">
+        <v>1.78</v>
+      </c>
+      <c r="DK5">
+        <v>2.1</v>
+      </c>
+      <c r="DL5">
+        <v>2.15</v>
+      </c>
+      <c r="DM5">
+        <v>1.68</v>
+      </c>
+      <c r="DN5">
+        <v>1.5</v>
+      </c>
+      <c r="DO5">
+        <v>2.5</v>
+      </c>
+      <c r="DP5">
+        <v>3.3</v>
+      </c>
+      <c r="DQ5">
         <v>1.33</v>
-      </c>
-      <c r="AO5">
-        <v>1.3</v>
-      </c>
-      <c r="AP5">
-        <v>1.67</v>
-      </c>
-      <c r="AQ5">
-        <v>1.36</v>
-      </c>
-      <c r="AR5">
-        <v>1.33</v>
-      </c>
-      <c r="AS5">
-        <v>1.57</v>
-      </c>
-      <c r="AT5">
-        <v>1.75</v>
-      </c>
-      <c r="AU5">
-        <v>2</v>
-      </c>
-      <c r="AV5">
-        <v>1.67</v>
-      </c>
-      <c r="AW5">
-        <v>2.1</v>
-      </c>
-      <c r="AX5">
-        <v>1.06</v>
-      </c>
-      <c r="AY5">
-        <v>10</v>
-      </c>
-      <c r="AZ5">
-        <v>1.05</v>
-      </c>
-      <c r="BA5">
-        <v>11</v>
-      </c>
-      <c r="BB5">
-        <v>1.04</v>
-      </c>
-      <c r="BC5">
-        <v>7.8</v>
-      </c>
-      <c r="BD5">
-        <v>1.06</v>
-      </c>
-      <c r="BE5">
-        <v>8.1</v>
-      </c>
-      <c r="BF5">
-        <v>1.29</v>
-      </c>
-      <c r="BG5">
-        <v>3.5</v>
-      </c>
-      <c r="BH5">
-        <v>1.25</v>
-      </c>
-      <c r="BI5">
-        <v>3.75</v>
-      </c>
-      <c r="BJ5">
-        <v>1.45</v>
-      </c>
-      <c r="BK5">
-        <v>2.59</v>
-      </c>
-      <c r="BL5">
-        <v>1.4</v>
-      </c>
-      <c r="BM5">
-        <v>2.8</v>
-      </c>
-      <c r="BN5">
-        <v>2</v>
-      </c>
-      <c r="BO5">
-        <v>1.85</v>
-      </c>
-      <c r="BP5">
-        <v>1.8</v>
-      </c>
-      <c r="BQ5">
-        <v>2</v>
-      </c>
-      <c r="BR5">
-        <v>2.62</v>
-      </c>
-      <c r="BS5">
-        <v>1.44</v>
-      </c>
-      <c r="BT5">
-        <v>2.4</v>
-      </c>
-      <c r="BU5">
-        <v>1.54</v>
-      </c>
-      <c r="BV5">
-        <v>3.4</v>
-      </c>
-      <c r="BW5">
-        <v>1.3</v>
-      </c>
-      <c r="BX5">
-        <v>3</v>
-      </c>
-      <c r="BY5">
-        <v>1.36</v>
-      </c>
-      <c r="BZ5">
-        <v>5.35</v>
-      </c>
-      <c r="CA5">
-        <v>1.1</v>
-      </c>
-      <c r="CB5">
-        <v>4.7</v>
-      </c>
-      <c r="CC5">
-        <v>1.17</v>
-      </c>
-      <c r="CD5">
-        <v>7</v>
-      </c>
-      <c r="CE5">
-        <v>1.1</v>
-      </c>
-      <c r="CF5">
-        <v>6</v>
-      </c>
-      <c r="CG5">
-        <v>1.13</v>
-      </c>
-      <c r="CH5">
-        <v>10.5</v>
-      </c>
-      <c r="CI5">
-        <v>1.03</v>
-      </c>
-      <c r="CJ5">
-        <v>9.5</v>
-      </c>
-      <c r="CK5">
-        <v>1.04</v>
-      </c>
-      <c r="CL5">
-        <v>15</v>
-      </c>
-      <c r="CM5">
-        <v>1.03</v>
-      </c>
-      <c r="CN5">
-        <v>13</v>
-      </c>
-      <c r="CO5">
-        <v>1.04</v>
-      </c>
-      <c r="CT5">
-        <v>29</v>
-      </c>
-      <c r="CU5">
-        <v>1.01</v>
-      </c>
-      <c r="CV5">
-        <v>26</v>
-      </c>
-      <c r="CW5">
-        <v>1.01</v>
-      </c>
-      <c r="DB5">
-        <v>51</v>
-      </c>
-      <c r="DC5">
-        <v>50</v>
-      </c>
-      <c r="DD5">
-        <v>51</v>
-      </c>
-      <c r="DE5">
-        <v>50</v>
-      </c>
-      <c r="DJ5">
-        <v>1.6</v>
-      </c>
-      <c r="DK5">
-        <v>2.3</v>
-      </c>
-      <c r="DL5">
-        <v>1.95</v>
-      </c>
-      <c r="DM5">
-        <v>1.9</v>
-      </c>
-      <c r="DN5">
-        <v>1.45</v>
-      </c>
-      <c r="DO5">
-        <v>2.68</v>
-      </c>
-      <c r="DP5">
-        <v>2.6</v>
-      </c>
-      <c r="DQ5">
-        <v>1.48</v>
       </c>
       <c r="DR5">
         <v>1.25</v>
@@ -3036,213 +2970,213 @@
         <v>3.8</v>
       </c>
       <c r="DT5">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="DU5">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="DV5">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="DW5">
-        <v>6.25</v>
+        <v>6.6</v>
       </c>
       <c r="DX5">
-        <v>5.75</v>
+        <v>7.85</v>
       </c>
       <c r="DY5">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="DZ5">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="EA5">
-        <v>9.35</v>
+        <v>10.7</v>
       </c>
       <c r="EJ5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="EK5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="EL5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="EM5">
         <v>34</v>
       </c>
       <c r="EN5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="EO5">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="EP5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EQ5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="ER5">
         <v>11</v>
       </c>
       <c r="ES5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="ET5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="EU5">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="EV5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="EW5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="EX5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="EY5">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="EZ5">
         <v>67</v>
       </c>
       <c r="FA5">
+        <v>67</v>
+      </c>
+      <c r="FB5">
+        <v>101</v>
+      </c>
+      <c r="FC5">
+        <v>251</v>
+      </c>
+      <c r="FD5">
         <v>51</v>
       </c>
-      <c r="FB5">
-        <v>67</v>
-      </c>
-      <c r="FC5">
+      <c r="FE5">
+        <v>51</v>
+      </c>
+      <c r="FF5">
         <v>101</v>
       </c>
-      <c r="FD5">
-        <v>41</v>
-      </c>
-      <c r="FE5">
-        <v>41</v>
-      </c>
-      <c r="FF5">
-        <v>51</v>
-      </c>
       <c r="FG5">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="FH5">
-        <v>201</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:164">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H6">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="I6">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J6">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K6">
         <v>2.88</v>
       </c>
       <c r="L6">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="O6">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
+        <v>1.36</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1.73</v>
+      </c>
+      <c r="S6">
+        <v>2.08</v>
+      </c>
+      <c r="T6">
+        <v>1.88</v>
+      </c>
+      <c r="U6">
+        <v>1.93</v>
+      </c>
+      <c r="V6">
+        <v>2.63</v>
+      </c>
+      <c r="W6">
         <v>1.44</v>
       </c>
-      <c r="Q6">
+      <c r="X6">
         <v>2.63</v>
       </c>
-      <c r="R6">
-        <v>1.9</v>
-      </c>
-      <c r="S6">
-        <v>1.9</v>
-      </c>
-      <c r="T6">
-        <v>1.98</v>
-      </c>
-      <c r="U6">
-        <v>1.83</v>
-      </c>
-      <c r="V6">
-        <v>2.75</v>
-      </c>
-      <c r="W6">
-        <v>1.4</v>
-      </c>
-      <c r="X6">
-        <v>3.25</v>
-      </c>
       <c r="Y6">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Z6">
-        <v>5.9</v>
+        <v>5.05</v>
       </c>
       <c r="AA6">
+        <v>1.15</v>
+      </c>
+      <c r="AB6">
+        <v>5.35</v>
+      </c>
+      <c r="AC6">
+        <v>1.14</v>
+      </c>
+      <c r="AD6">
+        <v>6.5</v>
+      </c>
+      <c r="AE6">
         <v>1.11</v>
       </c>
-      <c r="AB6">
-        <v>5.9</v>
-      </c>
-      <c r="AC6">
-        <v>1.11</v>
-      </c>
-      <c r="AD6">
-        <v>8</v>
-      </c>
-      <c r="AE6">
-        <v>1.08</v>
-      </c>
       <c r="AF6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG6">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AH6">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AI6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AJ6">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AK6">
         <v>2.1</v>
@@ -3254,13 +3188,13 @@
         <v>3</v>
       </c>
       <c r="AN6">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AO6">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -3272,244 +3206,262 @@
         <v>1.62</v>
       </c>
       <c r="AT6">
+        <v>1.67</v>
+      </c>
+      <c r="AU6">
+        <v>2.1</v>
+      </c>
+      <c r="AV6">
+        <v>1.67</v>
+      </c>
+      <c r="AW6">
+        <v>2.1</v>
+      </c>
+      <c r="AX6">
+        <v>1.04</v>
+      </c>
+      <c r="AY6">
+        <v>13</v>
+      </c>
+      <c r="AZ6">
+        <v>1.04</v>
+      </c>
+      <c r="BA6">
+        <v>12</v>
+      </c>
+      <c r="BB6">
+        <v>1.02</v>
+      </c>
+      <c r="BC6">
+        <v>9.1</v>
+      </c>
+      <c r="BD6">
+        <v>1.06</v>
+      </c>
+      <c r="BE6">
+        <v>7.7</v>
+      </c>
+      <c r="BF6">
+        <v>1.22</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>1.25</v>
+      </c>
+      <c r="BI6">
+        <v>3.75</v>
+      </c>
+      <c r="BJ6">
+        <v>1.34</v>
+      </c>
+      <c r="BK6">
+        <v>3.04</v>
+      </c>
+      <c r="BL6">
+        <v>1.44</v>
+      </c>
+      <c r="BM6">
+        <v>2.7</v>
+      </c>
+      <c r="BN6">
         <v>1.75</v>
       </c>
-      <c r="AU6">
+      <c r="BO6">
+        <v>2.05</v>
+      </c>
+      <c r="BP6">
+        <v>1.8</v>
+      </c>
+      <c r="BQ6">
         <v>2</v>
       </c>
-      <c r="AV6">
-        <v>1.91</v>
-      </c>
-      <c r="AW6">
-        <v>1.91</v>
-      </c>
-      <c r="AX6">
-        <v>1.06</v>
-      </c>
-      <c r="AY6">
+      <c r="BR6">
+        <v>2.24</v>
+      </c>
+      <c r="BS6">
+        <v>1.59</v>
+      </c>
+      <c r="BT6">
+        <v>2.5</v>
+      </c>
+      <c r="BU6">
+        <v>1.5</v>
+      </c>
+      <c r="BV6">
+        <v>2.75</v>
+      </c>
+      <c r="BW6">
+        <v>1.4</v>
+      </c>
+      <c r="BX6">
+        <v>3</v>
+      </c>
+      <c r="BY6">
+        <v>1.36</v>
+      </c>
+      <c r="BZ6">
+        <v>4.33</v>
+      </c>
+      <c r="CA6">
+        <v>1.16</v>
+      </c>
+      <c r="CB6">
+        <v>5</v>
+      </c>
+      <c r="CC6">
+        <v>1.15</v>
+      </c>
+      <c r="CD6">
+        <v>5.5</v>
+      </c>
+      <c r="CE6">
+        <v>1.14</v>
+      </c>
+      <c r="CF6">
+        <v>6</v>
+      </c>
+      <c r="CG6">
+        <v>1.13</v>
+      </c>
+      <c r="CH6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>1.02</v>
+      </c>
+      <c r="CJ6">
         <v>10</v>
       </c>
-      <c r="AZ6">
-        <v>1.06</v>
-      </c>
-      <c r="BA6">
-        <v>9.5</v>
-      </c>
-      <c r="BB6">
+      <c r="CK6">
+        <v>1.03</v>
+      </c>
+      <c r="CL6">
+        <v>11</v>
+      </c>
+      <c r="CM6">
+        <v>1.05</v>
+      </c>
+      <c r="CN6">
+        <v>13</v>
+      </c>
+      <c r="CO6">
         <v>1.04</v>
       </c>
-      <c r="BC6">
-        <v>7.7</v>
-      </c>
-      <c r="BD6">
-        <v>1.08</v>
-      </c>
-      <c r="BE6">
-        <v>7.2</v>
-      </c>
-      <c r="BF6">
-        <v>1.29</v>
-      </c>
-      <c r="BG6">
-        <v>3.5</v>
-      </c>
-      <c r="BH6">
-        <v>1.33</v>
-      </c>
-      <c r="BI6">
-        <v>3.25</v>
-      </c>
-      <c r="BJ6">
-        <v>1.46</v>
-      </c>
-      <c r="BK6">
-        <v>2.56</v>
-      </c>
-      <c r="BL6">
-        <v>1.51</v>
-      </c>
-      <c r="BM6">
-        <v>2.46</v>
-      </c>
-      <c r="BN6">
-        <v>1.95</v>
-      </c>
-      <c r="BO6">
-        <v>1.9</v>
-      </c>
-      <c r="BP6">
-        <v>2.08</v>
-      </c>
-      <c r="BQ6">
-        <v>1.73</v>
-      </c>
-      <c r="BR6">
-        <v>2.62</v>
-      </c>
-      <c r="BS6">
-        <v>1.44</v>
-      </c>
-      <c r="BT6">
-        <v>2.75</v>
-      </c>
-      <c r="BU6">
-        <v>1.42</v>
-      </c>
-      <c r="BV6">
-        <v>3.25</v>
-      </c>
-      <c r="BW6">
-        <v>1.33</v>
-      </c>
-      <c r="BX6">
-        <v>3.75</v>
-      </c>
-      <c r="BY6">
-        <v>1.25</v>
-      </c>
-      <c r="BZ6">
-        <v>5.35</v>
-      </c>
-      <c r="CA6">
-        <v>1.1</v>
-      </c>
-      <c r="CB6">
-        <v>5.6</v>
-      </c>
-      <c r="CC6">
-        <v>1.12</v>
-      </c>
-      <c r="CD6">
-        <v>6.5</v>
-      </c>
-      <c r="CE6">
-        <v>1.11</v>
-      </c>
-      <c r="CF6">
-        <v>8</v>
-      </c>
-      <c r="CG6">
-        <v>1.08</v>
-      </c>
-      <c r="CH6">
-        <v>10.5</v>
-      </c>
-      <c r="CI6">
-        <v>1.03</v>
-      </c>
-      <c r="CJ6">
-        <v>11</v>
-      </c>
-      <c r="CK6">
-        <v>1.02</v>
-      </c>
-      <c r="CL6">
-        <v>15</v>
-      </c>
-      <c r="CM6">
-        <v>1.03</v>
-      </c>
-      <c r="CN6">
-        <v>17</v>
-      </c>
-      <c r="CO6">
-        <v>1.03</v>
-      </c>
       <c r="CT6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="CU6">
         <v>1.01</v>
       </c>
       <c r="CV6">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="CW6">
         <v>1.01</v>
       </c>
+      <c r="DB6">
+        <v>51</v>
+      </c>
+      <c r="DC6">
+        <v>50</v>
+      </c>
+      <c r="DD6">
+        <v>51</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>186</v>
+      </c>
       <c r="DJ6">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="DK6">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="DL6">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="DM6">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="DN6">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="DO6">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="DP6">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="DQ6">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="DR6">
+        <v>1.16</v>
+      </c>
+      <c r="DS6">
+        <v>5.25</v>
+      </c>
+      <c r="DT6">
+        <v>2.85</v>
+      </c>
+      <c r="DU6">
+        <v>1.4</v>
+      </c>
+      <c r="DV6">
+        <v>1.1</v>
+      </c>
+      <c r="DW6">
+        <v>7</v>
+      </c>
+      <c r="DX6">
+        <v>4</v>
+      </c>
+      <c r="DY6">
         <v>1.23</v>
       </c>
-      <c r="DS6">
-        <v>4</v>
-      </c>
-      <c r="DT6">
-        <v>3.55</v>
-      </c>
-      <c r="DU6">
-        <v>1.28</v>
-      </c>
-      <c r="DV6">
-        <v>1.11</v>
-      </c>
-      <c r="DW6">
-        <v>6.6</v>
-      </c>
-      <c r="DX6">
-        <v>5.5</v>
-      </c>
-      <c r="DY6">
-        <v>1.15</v>
-      </c>
       <c r="DZ6">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="EA6">
-        <v>10</v>
+        <v>11.5</v>
+      </c>
+      <c r="EB6">
+        <v>6.25</v>
+      </c>
+      <c r="EC6">
+        <v>1.12</v>
       </c>
       <c r="EJ6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="EK6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="EL6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="EM6">
+        <v>41</v>
+      </c>
+      <c r="EN6">
+        <v>8.5</v>
+      </c>
+      <c r="EO6">
+        <v>7</v>
+      </c>
+      <c r="EP6">
+        <v>15</v>
+      </c>
+      <c r="EQ6">
         <v>34</v>
       </c>
-      <c r="EN6">
-        <v>8</v>
-      </c>
-      <c r="EO6">
-        <v>6.5</v>
-      </c>
-      <c r="EP6">
-        <v>12</v>
-      </c>
-      <c r="EQ6">
-        <v>26</v>
-      </c>
       <c r="ER6">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="ES6">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="ET6">
         <v>13</v>
@@ -3518,22 +3470,22 @@
         <v>34</v>
       </c>
       <c r="EV6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="EW6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="EX6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="EY6">
         <v>41</v>
       </c>
       <c r="EZ6">
+        <v>101</v>
+      </c>
+      <c r="FA6">
         <v>67</v>
-      </c>
-      <c r="FA6">
-        <v>51</v>
       </c>
       <c r="FB6">
         <v>67</v>
@@ -3542,90 +3494,90 @@
         <v>101</v>
       </c>
       <c r="FD6">
+        <v>29</v>
+      </c>
+      <c r="FE6">
+        <v>29</v>
+      </c>
+      <c r="FF6">
         <v>41</v>
       </c>
-      <c r="FE6">
-        <v>41</v>
-      </c>
-      <c r="FF6">
-        <v>51</v>
-      </c>
       <c r="FG6">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="FH6">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:164">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>163</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="I7">
+        <v>2.63</v>
+      </c>
+      <c r="J7">
+        <v>8.5</v>
+      </c>
+      <c r="K7">
+        <v>1.8</v>
+      </c>
+      <c r="L7">
+        <v>2.5</v>
+      </c>
+      <c r="M7">
+        <v>8.5</v>
+      </c>
+      <c r="N7">
+        <v>1.29</v>
+      </c>
+      <c r="O7">
+        <v>3.5</v>
+      </c>
+      <c r="P7">
+        <v>1.3</v>
+      </c>
+      <c r="Q7">
+        <v>3.4</v>
+      </c>
+      <c r="R7">
+        <v>1.55</v>
+      </c>
+      <c r="S7">
         <v>2.38</v>
       </c>
-      <c r="J7">
-        <v>2.5</v>
-      </c>
-      <c r="K7">
-        <v>3.1</v>
-      </c>
-      <c r="L7">
+      <c r="T7">
+        <v>1.61</v>
+      </c>
+      <c r="U7">
+        <v>2.23</v>
+      </c>
+      <c r="V7">
         <v>2.25</v>
       </c>
-      <c r="M7">
-        <v>3.25</v>
-      </c>
-      <c r="N7">
-        <v>1.3</v>
-      </c>
-      <c r="O7">
-        <v>3.4</v>
-      </c>
-      <c r="P7">
-        <v>1.33</v>
-      </c>
-      <c r="Q7">
-        <v>3.25</v>
-      </c>
-      <c r="R7">
-        <v>1.78</v>
-      </c>
-      <c r="S7">
-        <v>2.03</v>
-      </c>
-      <c r="T7">
-        <v>1.78</v>
-      </c>
-      <c r="U7">
-        <v>2.03</v>
-      </c>
-      <c r="V7">
-        <v>2.38</v>
-      </c>
       <c r="W7">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X7">
         <v>2.5</v>
@@ -3634,106 +3586,106 @@
         <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="AA7">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AB7">
-        <v>4.34</v>
+        <v>4.55</v>
       </c>
       <c r="AC7">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AD7">
+        <v>5.5</v>
+      </c>
+      <c r="AE7">
+        <v>1.14</v>
+      </c>
+      <c r="AF7">
         <v>6</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>1.13</v>
       </c>
-      <c r="AF7">
-        <v>6.5</v>
-      </c>
-      <c r="AG7">
-        <v>1.11</v>
-      </c>
       <c r="AH7">
-        <v>3.6</v>
+        <v>1.29</v>
       </c>
       <c r="AI7">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AJ7">
-        <v>1.95</v>
+        <v>12</v>
       </c>
       <c r="AK7">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AL7">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="AM7">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="AN7">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="AO7">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="AR7">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AS7">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="AT7">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AU7">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AV7">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AW7">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AX7">
         <v>1.03</v>
       </c>
       <c r="AY7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ7">
         <v>1.04</v>
       </c>
       <c r="BA7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BC7">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="BD7">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="BE7">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BF7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BG7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="BH7">
         <v>1.2</v>
@@ -3742,34 +3694,34 @@
         <v>4.33</v>
       </c>
       <c r="BJ7">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BK7">
-        <v>3.46</v>
+        <v>3.7</v>
       </c>
       <c r="BL7">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="BM7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BN7">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="BO7">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="BP7">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BQ7">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BR7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BS7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BT7">
         <v>1.98</v>
@@ -3778,10 +3730,10 @@
         <v>1.88</v>
       </c>
       <c r="BV7">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="BW7">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="BX7">
         <v>2.63</v>
@@ -3790,22 +3742,22 @@
         <v>1.44</v>
       </c>
       <c r="BZ7">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="CA7">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="CB7">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="CC7">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="CD7">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="CE7">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="CF7">
         <v>5</v>
@@ -3814,22 +3766,22 @@
         <v>1.17</v>
       </c>
       <c r="CH7">
-        <v>7.1</v>
+        <v>6.65</v>
       </c>
       <c r="CI7">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="CJ7">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="CK7">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="CL7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CM7">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="CN7">
         <v>10</v>
@@ -3837,23 +3789,11 @@
       <c r="CO7">
         <v>1.06</v>
       </c>
-      <c r="CP7">
-        <v>9.5</v>
-      </c>
-      <c r="CQ7">
-        <v>1.06</v>
-      </c>
-      <c r="CR7">
-        <v>9.5</v>
-      </c>
-      <c r="CS7">
-        <v>1.06</v>
-      </c>
       <c r="CT7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CU7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="CV7">
         <v>21</v>
@@ -3862,151 +3802,139 @@
         <v>1.02</v>
       </c>
       <c r="DB7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="DC7">
-        <v>41</v>
+        <v>1.01</v>
       </c>
       <c r="DD7">
         <v>41</v>
       </c>
-      <c r="DE7">
-        <v>41</v>
+      <c r="DE7" t="s">
+        <v>185</v>
       </c>
       <c r="DJ7">
-        <v>2.68</v>
+        <v>1.13</v>
       </c>
       <c r="DK7">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="DL7">
-        <v>3.1</v>
+        <v>1.17</v>
       </c>
       <c r="DM7">
-        <v>1.35</v>
+        <v>5</v>
       </c>
       <c r="DN7">
-        <v>2.15</v>
+        <v>1.1</v>
       </c>
       <c r="DO7">
-        <v>1.68</v>
+        <v>7</v>
       </c>
       <c r="DP7">
-        <v>4.4</v>
+        <v>1.33</v>
       </c>
       <c r="DQ7">
-        <v>1.2</v>
-      </c>
-      <c r="DR7">
-        <v>1.68</v>
-      </c>
-      <c r="DS7">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="DT7">
-        <v>7</v>
+        <v>1.58</v>
       </c>
       <c r="DU7">
-        <v>1.1</v>
-      </c>
-      <c r="DV7">
-        <v>1.38</v>
-      </c>
-      <c r="DW7">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="DX7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DY7">
-        <v>1.1</v>
-      </c>
-      <c r="DZ7">
-        <v>1.22</v>
-      </c>
-      <c r="EA7">
-        <v>4.15</v>
-      </c>
-      <c r="ED7">
-        <v>1.12</v>
-      </c>
-      <c r="EE7">
-        <v>6.4</v>
+        <v>1.85</v>
+      </c>
+      <c r="EB7">
+        <v>2.6</v>
+      </c>
+      <c r="EC7">
+        <v>1.48</v>
+      </c>
+      <c r="EF7">
+        <v>3.45</v>
+      </c>
+      <c r="EG7">
+        <v>1.3</v>
       </c>
       <c r="EJ7">
         <v>15</v>
       </c>
       <c r="EK7">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="EL7">
+        <v>51</v>
+      </c>
+      <c r="EM7">
+        <v>126</v>
+      </c>
+      <c r="EN7">
+        <v>8</v>
+      </c>
+      <c r="EO7">
+        <v>10</v>
+      </c>
+      <c r="EP7">
+        <v>29</v>
+      </c>
+      <c r="EQ7">
+        <v>67</v>
+      </c>
+      <c r="ER7">
+        <v>6.5</v>
+      </c>
+      <c r="ES7">
+        <v>9</v>
+      </c>
+      <c r="ET7">
+        <v>21</v>
+      </c>
+      <c r="EU7">
+        <v>67</v>
+      </c>
+      <c r="EV7">
+        <v>8</v>
+      </c>
+      <c r="EW7">
         <v>11</v>
-      </c>
-      <c r="EM7">
-        <v>17</v>
-      </c>
-      <c r="EN7">
-        <v>15</v>
-      </c>
-      <c r="EO7">
-        <v>7.5</v>
-      </c>
-      <c r="EP7">
-        <v>8.5</v>
-      </c>
-      <c r="EQ7">
-        <v>15</v>
-      </c>
-      <c r="ER7">
-        <v>21</v>
-      </c>
-      <c r="ES7">
-        <v>13</v>
-      </c>
-      <c r="ET7">
-        <v>12</v>
-      </c>
-      <c r="EU7">
-        <v>21</v>
-      </c>
-      <c r="EV7">
-        <v>41</v>
-      </c>
-      <c r="EW7">
-        <v>26</v>
       </c>
       <c r="EX7">
         <v>29</v>
       </c>
       <c r="EY7">
+        <v>67</v>
+      </c>
+      <c r="EZ7">
+        <v>501</v>
+      </c>
+      <c r="FA7">
+        <v>251</v>
+      </c>
+      <c r="FB7">
+        <v>251</v>
+      </c>
+      <c r="FC7">
+        <v>251</v>
+      </c>
+      <c r="FD7">
+        <v>12</v>
+      </c>
+      <c r="FE7">
+        <v>17</v>
+      </c>
+      <c r="FF7">
         <v>41</v>
       </c>
-      <c r="EZ7">
-        <v>34</v>
-      </c>
-      <c r="FA7">
-        <v>29</v>
-      </c>
-      <c r="FB7">
-        <v>41</v>
-      </c>
-      <c r="FC7">
-        <v>67</v>
-      </c>
-      <c r="FD7">
-        <v>81</v>
-      </c>
-      <c r="FE7">
-        <v>51</v>
-      </c>
-      <c r="FF7">
-        <v>51</v>
-      </c>
       <c r="FG7">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="FH7">
-        <v>126</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -505,43 +505,106 @@
     <t>FT_Odd_CS_4x4</t>
   </si>
   <si>
-    <t>11/07/2023</t>
-  </si>
-  <si>
-    <t>18:45</t>
-  </si>
-  <si>
-    <t>20:00</t>
+    <t>12/07/2023</t>
+  </si>
+  <si>
+    <t>20:30</t>
   </si>
   <si>
     <t>21:30</t>
   </si>
   <si>
-    <t>ARGENTINA - LIGA PROFESIONAL</t>
-  </si>
-  <si>
-    <t>Rosario Central</t>
-  </si>
-  <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>Atl. Tucuman</t>
-  </si>
-  <si>
-    <t>Central Cordoba</t>
-  </si>
-  <si>
-    <t>Newells Old Boys</t>
-  </si>
-  <si>
-    <t>Gimnasia L.P.</t>
-  </si>
-  <si>
-    <t>ROUND 24</t>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>USA - MLS</t>
+  </si>
+  <si>
+    <t>New England Revolution</t>
+  </si>
+  <si>
+    <t>New York Red Bulls</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
+    <t>Houston Dynamo</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>Sporting Kansas City</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>San Jose Earthquakes</t>
+  </si>
+  <si>
+    <t>Vancouver Whitecaps</t>
+  </si>
+  <si>
+    <t>Atlanta Utd</t>
+  </si>
+  <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
+    <t>CF Montreal</t>
+  </si>
+  <si>
+    <t>Minnesota United</t>
+  </si>
+  <si>
+    <t>Philadelphia Union</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Seattle Sounders</t>
+  </si>
+  <si>
+    <t>Austin FC</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.01</t>
   </si>
   <si>
     <t>50.0</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
 </sst>
 </file>
@@ -899,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH4"/>
+  <dimension ref="A1:FH10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1461,7 @@
     </row>
     <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>163</v>
@@ -1413,280 +1476,292 @@
         <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H2">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="J2">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M2">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N2">
+        <v>1.29</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
+        <v>1.3</v>
+      </c>
+      <c r="Q2">
+        <v>3.4</v>
+      </c>
+      <c r="R2">
+        <v>1.59</v>
+      </c>
+      <c r="S2">
+        <v>2.28</v>
+      </c>
+      <c r="T2">
+        <v>1.65</v>
+      </c>
+      <c r="U2">
+        <v>2.16</v>
+      </c>
+      <c r="V2">
+        <v>2.25</v>
+      </c>
+      <c r="W2">
+        <v>1.57</v>
+      </c>
+      <c r="X2">
+        <v>2.5</v>
+      </c>
+      <c r="Y2">
         <v>1.5</v>
       </c>
-      <c r="O2">
-        <v>2.5</v>
-      </c>
-      <c r="P2">
-        <v>1.5</v>
-      </c>
-      <c r="Q2">
-        <v>2.5</v>
-      </c>
-      <c r="R2">
-        <v>2.23</v>
-      </c>
-      <c r="S2">
-        <v>1.62</v>
-      </c>
-      <c r="T2">
-        <v>2.08</v>
-      </c>
-      <c r="U2">
-        <v>1.7</v>
-      </c>
-      <c r="V2">
+      <c r="Z2">
+        <v>4.15</v>
+      </c>
+      <c r="AA2">
+        <v>1.21</v>
+      </c>
+      <c r="AB2">
+        <v>4.15</v>
+      </c>
+      <c r="AC2">
+        <v>1.21</v>
+      </c>
+      <c r="AD2">
+        <v>5.5</v>
+      </c>
+      <c r="AE2">
+        <v>1.14</v>
+      </c>
+      <c r="AF2">
+        <v>6</v>
+      </c>
+      <c r="AG2">
+        <v>1.13</v>
+      </c>
+      <c r="AH2">
+        <v>1.91</v>
+      </c>
+      <c r="AI2">
+        <v>3.75</v>
+      </c>
+      <c r="AJ2">
+        <v>3.75</v>
+      </c>
+      <c r="AK2">
+        <v>1.95</v>
+      </c>
+      <c r="AL2">
         <v>3.4</v>
       </c>
-      <c r="W2">
-        <v>1.3</v>
-      </c>
-      <c r="X2">
-        <v>3.5</v>
-      </c>
-      <c r="Y2">
-        <v>1.29</v>
-      </c>
-      <c r="Z2">
-        <v>7.9</v>
-      </c>
-      <c r="AA2">
-        <v>1.06</v>
-      </c>
-      <c r="AB2">
-        <v>7.6</v>
-      </c>
-      <c r="AC2">
-        <v>1.07</v>
-      </c>
-      <c r="AD2">
-        <v>10</v>
-      </c>
-      <c r="AE2">
-        <v>1.06</v>
-      </c>
-      <c r="AF2">
-        <v>11</v>
-      </c>
-      <c r="AG2">
-        <v>1.05</v>
-      </c>
-      <c r="AH2">
-        <v>2.1</v>
-      </c>
-      <c r="AI2">
-        <v>3.2</v>
-      </c>
-      <c r="AJ2">
+      <c r="AM2">
         <v>3.8</v>
-      </c>
-      <c r="AK2">
-        <v>2</v>
-      </c>
-      <c r="AL2">
-        <v>3.1</v>
-      </c>
-      <c r="AM2">
-        <v>3.4</v>
       </c>
       <c r="AN2">
         <v>1.25</v>
       </c>
       <c r="AO2">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AP2">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AU2">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="AV2">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AW2">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AX2">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AY2">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AZ2">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="BA2">
-        <v>7.5</v>
-      </c>
-      <c r="BB2">
-        <v>1.09</v>
-      </c>
-      <c r="BC2">
-        <v>5.7</v>
-      </c>
-      <c r="BD2">
-        <v>1.11</v>
-      </c>
-      <c r="BE2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BF2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="BG2">
+        <v>5</v>
+      </c>
+      <c r="BH2">
+        <v>1.18</v>
+      </c>
+      <c r="BI2">
+        <v>4.5</v>
+      </c>
+      <c r="BJ2">
+        <v>1.24</v>
+      </c>
+      <c r="BK2">
+        <v>3.7</v>
+      </c>
+      <c r="BL2">
+        <v>1.34</v>
+      </c>
+      <c r="BM2">
+        <v>3.1</v>
+      </c>
+      <c r="BN2">
+        <v>1.57</v>
+      </c>
+      <c r="BO2">
+        <v>2.35</v>
+      </c>
+      <c r="BP2">
+        <v>1.62</v>
+      </c>
+      <c r="BQ2">
+        <v>2.25</v>
+      </c>
+      <c r="BR2">
+        <v>1.95</v>
+      </c>
+      <c r="BS2">
+        <v>1.9</v>
+      </c>
+      <c r="BT2">
+        <v>1.98</v>
+      </c>
+      <c r="BU2">
+        <v>1.88</v>
+      </c>
+      <c r="BV2">
+        <v>2.38</v>
+      </c>
+      <c r="BW2">
+        <v>1.53</v>
+      </c>
+      <c r="BX2">
+        <v>2.5</v>
+      </c>
+      <c r="BY2">
+        <v>1.5</v>
+      </c>
+      <c r="BZ2">
+        <v>3.34</v>
+      </c>
+      <c r="CA2">
+        <v>1.26</v>
+      </c>
+      <c r="CB2">
+        <v>4.2</v>
+      </c>
+      <c r="CC2">
+        <v>1.21</v>
+      </c>
+      <c r="CD2">
+        <v>4.33</v>
+      </c>
+      <c r="CE2">
+        <v>1.2</v>
+      </c>
+      <c r="CF2">
+        <v>4.5</v>
+      </c>
+      <c r="CG2">
+        <v>1.18</v>
+      </c>
+      <c r="CH2">
+        <v>6.6</v>
+      </c>
+      <c r="CI2">
+        <v>1.06</v>
+      </c>
+      <c r="CJ2">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL2">
+        <v>9</v>
+      </c>
+      <c r="CM2">
+        <v>1.07</v>
+      </c>
+      <c r="CN2">
+        <v>10</v>
+      </c>
+      <c r="CO2">
+        <v>1.06</v>
+      </c>
+      <c r="CT2">
+        <v>17</v>
+      </c>
+      <c r="CU2">
+        <v>1.03</v>
+      </c>
+      <c r="CV2">
+        <v>19</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>193</v>
+      </c>
+      <c r="DB2">
+        <v>34</v>
+      </c>
+      <c r="DC2">
+        <v>1.01</v>
+      </c>
+      <c r="DD2">
+        <v>41</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DJ2">
+        <v>1.43</v>
+      </c>
+      <c r="DK2">
         <v>2.75</v>
       </c>
-      <c r="BH2">
-        <v>1.4</v>
-      </c>
-      <c r="BI2">
-        <v>2.75</v>
-      </c>
-      <c r="BJ2">
-        <v>1.74</v>
-      </c>
-      <c r="BK2">
-        <v>2</v>
-      </c>
-      <c r="BL2">
-        <v>1.69</v>
-      </c>
-      <c r="BM2">
-        <v>2.1</v>
-      </c>
-      <c r="BN2">
-        <v>2.3</v>
-      </c>
-      <c r="BO2">
-        <v>1.6</v>
-      </c>
-      <c r="BP2">
-        <v>2.3</v>
-      </c>
-      <c r="BQ2">
-        <v>1.6</v>
-      </c>
-      <c r="BR2">
-        <v>3.54</v>
-      </c>
-      <c r="BS2">
-        <v>1.26</v>
-      </c>
-      <c r="BT2">
-        <v>3.4</v>
-      </c>
-      <c r="BU2">
-        <v>1.29</v>
-      </c>
-      <c r="BV2">
-        <v>4.33</v>
-      </c>
-      <c r="BW2">
-        <v>1.2</v>
-      </c>
-      <c r="BX2">
-        <v>4.33</v>
-      </c>
-      <c r="BY2">
-        <v>1.2</v>
-      </c>
-      <c r="BZ2">
-        <v>7.8</v>
-      </c>
-      <c r="CA2">
-        <v>1.04</v>
-      </c>
-      <c r="CB2">
-        <v>7.2</v>
-      </c>
-      <c r="CC2">
-        <v>1.07</v>
-      </c>
-      <c r="CD2">
-        <v>10</v>
-      </c>
-      <c r="CE2">
-        <v>1.06</v>
-      </c>
-      <c r="CF2">
-        <v>10</v>
-      </c>
-      <c r="CG2">
-        <v>1.06</v>
-      </c>
-      <c r="CL2">
-        <v>21</v>
-      </c>
-      <c r="CM2">
-        <v>1.02</v>
-      </c>
-      <c r="CN2">
-        <v>21</v>
-      </c>
-      <c r="CO2">
-        <v>1.02</v>
-      </c>
-      <c r="CT2">
-        <v>51</v>
-      </c>
-      <c r="CU2">
-        <v>50</v>
-      </c>
-      <c r="CV2">
-        <v>51</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>175</v>
-      </c>
-      <c r="DJ2">
-        <v>1.48</v>
-      </c>
-      <c r="DK2">
-        <v>2.6</v>
-      </c>
       <c r="DL2">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="DM2">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="DN2">
         <v>1.35</v>
@@ -1695,132 +1770,132 @@
         <v>3.1</v>
       </c>
       <c r="DP2">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="DQ2">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="DR2">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="DS2">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="DT2">
-        <v>3.55</v>
+        <v>2.85</v>
       </c>
       <c r="DU2">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="DV2">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="DW2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="DX2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="DY2">
-        <v>1.15</v>
-      </c>
-      <c r="DZ2">
-        <v>1.01</v>
-      </c>
-      <c r="EA2">
-        <v>11.6</v>
+        <v>1.23</v>
       </c>
       <c r="EB2">
-        <v>8.85</v>
+        <v>6</v>
       </c>
       <c r="EC2">
-        <v>1.04</v>
+        <v>1.13</v>
+      </c>
+      <c r="EF2">
+        <v>7.55</v>
+      </c>
+      <c r="EG2">
+        <v>1.06</v>
       </c>
       <c r="EJ2">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="EK2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="EL2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="EM2">
         <v>41</v>
       </c>
       <c r="EN2">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="EO2">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="EP2">
         <v>13</v>
       </c>
       <c r="EQ2">
+        <v>26</v>
+      </c>
+      <c r="ER2">
+        <v>11</v>
+      </c>
+      <c r="ES2">
+        <v>8.5</v>
+      </c>
+      <c r="ET2">
+        <v>12</v>
+      </c>
+      <c r="EU2">
+        <v>29</v>
+      </c>
+      <c r="EV2">
+        <v>17</v>
+      </c>
+      <c r="EW2">
+        <v>13</v>
+      </c>
+      <c r="EX2">
+        <v>21</v>
+      </c>
+      <c r="EY2">
         <v>34</v>
       </c>
-      <c r="ER2">
-        <v>9</v>
-      </c>
-      <c r="ES2">
-        <v>9</v>
-      </c>
-      <c r="ET2">
-        <v>17</v>
-      </c>
-      <c r="EU2">
-        <v>41</v>
-      </c>
-      <c r="EV2">
-        <v>19</v>
-      </c>
-      <c r="EW2">
-        <v>19</v>
-      </c>
-      <c r="EX2">
+      <c r="EZ2">
+        <v>81</v>
+      </c>
+      <c r="FA2">
+        <v>51</v>
+      </c>
+      <c r="FB2">
+        <v>51</v>
+      </c>
+      <c r="FC2">
+        <v>81</v>
+      </c>
+      <c r="FD2">
         <v>34</v>
       </c>
-      <c r="EY2">
-        <v>67</v>
-      </c>
-      <c r="EZ2">
-        <v>101</v>
-      </c>
-      <c r="FA2">
-        <v>81</v>
-      </c>
-      <c r="FB2">
-        <v>101</v>
-      </c>
-      <c r="FC2">
-        <v>201</v>
-      </c>
-      <c r="FD2">
-        <v>41</v>
-      </c>
       <c r="FE2">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="FF2">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="FG2">
+        <v>51</v>
+      </c>
+      <c r="FH2">
         <v>126</v>
-      </c>
-      <c r="FH2">
-        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
         <v>167</v>
@@ -1829,396 +1904,420 @@
         <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="I3">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="L3">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
       <c r="N3">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="O3">
+        <v>2.75</v>
+      </c>
+      <c r="P3">
+        <v>1.44</v>
+      </c>
+      <c r="Q3">
+        <v>2.63</v>
+      </c>
+      <c r="R3">
+        <v>1.95</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>1.36</v>
+      </c>
+      <c r="X3">
+        <v>3.25</v>
+      </c>
+      <c r="Y3">
+        <v>1.33</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <v>1.11</v>
+      </c>
+      <c r="AB3">
+        <v>6.4</v>
+      </c>
+      <c r="AC3">
+        <v>1.1</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>1.08</v>
+      </c>
+      <c r="AF3">
+        <v>9</v>
+      </c>
+      <c r="AG3">
+        <v>1.07</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>3.4</v>
+      </c>
+      <c r="AJ3">
+        <v>3.8</v>
+      </c>
+      <c r="AK3">
         <v>2.1</v>
       </c>
-      <c r="P3">
-        <v>1.62</v>
-      </c>
-      <c r="Q3">
-        <v>2.2</v>
-      </c>
-      <c r="R3">
-        <v>2.88</v>
-      </c>
-      <c r="S3">
-        <v>1.39</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.5</v>
-      </c>
-      <c r="V3">
+      <c r="AL3">
+        <v>3.25</v>
+      </c>
+      <c r="AM3">
+        <v>3.5</v>
+      </c>
+      <c r="AN3">
+        <v>1.25</v>
+      </c>
+      <c r="AO3">
+        <v>1.3</v>
+      </c>
+      <c r="AP3">
+        <v>1.8</v>
+      </c>
+      <c r="AQ3">
+        <v>1.29</v>
+      </c>
+      <c r="AR3">
+        <v>1.33</v>
+      </c>
+      <c r="AS3">
+        <v>1.7</v>
+      </c>
+      <c r="AT3">
+        <v>1.8</v>
+      </c>
+      <c r="AU3">
+        <v>1.95</v>
+      </c>
+      <c r="AV3">
+        <v>1.91</v>
+      </c>
+      <c r="AW3">
+        <v>1.91</v>
+      </c>
+      <c r="AX3">
+        <v>1.06</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>1.07</v>
+      </c>
+      <c r="BA3">
+        <v>9</v>
+      </c>
+      <c r="BB3">
+        <v>1.04</v>
+      </c>
+      <c r="BC3">
+        <v>7.5</v>
+      </c>
+      <c r="BD3">
+        <v>1.06</v>
+      </c>
+      <c r="BE3">
+        <v>8.1</v>
+      </c>
+      <c r="BF3">
+        <v>1.29</v>
+      </c>
+      <c r="BG3">
+        <v>3.5</v>
+      </c>
+      <c r="BH3">
+        <v>1.33</v>
+      </c>
+      <c r="BI3">
+        <v>3.25</v>
+      </c>
+      <c r="BJ3">
+        <v>1.47</v>
+      </c>
+      <c r="BK3">
+        <v>2.53</v>
+      </c>
+      <c r="BL3">
+        <v>1.4</v>
+      </c>
+      <c r="BM3">
+        <v>2.8</v>
+      </c>
+      <c r="BN3">
+        <v>2</v>
+      </c>
+      <c r="BO3">
+        <v>1.85</v>
+      </c>
+      <c r="BP3">
+        <v>2.08</v>
+      </c>
+      <c r="BQ3">
+        <v>1.73</v>
+      </c>
+      <c r="BR3">
+        <v>2.65</v>
+      </c>
+      <c r="BS3">
+        <v>1.43</v>
+      </c>
+      <c r="BT3">
+        <v>2.4</v>
+      </c>
+      <c r="BU3">
+        <v>1.54</v>
+      </c>
+      <c r="BV3">
+        <v>3.4</v>
+      </c>
+      <c r="BW3">
+        <v>1.3</v>
+      </c>
+      <c r="BX3">
+        <v>3.75</v>
+      </c>
+      <c r="BY3">
+        <v>1.25</v>
+      </c>
+      <c r="BZ3">
+        <v>5.45</v>
+      </c>
+      <c r="CA3">
+        <v>1.1</v>
+      </c>
+      <c r="CB3">
+        <v>4.7</v>
+      </c>
+      <c r="CC3">
+        <v>1.17</v>
+      </c>
+      <c r="CD3">
+        <v>7</v>
+      </c>
+      <c r="CE3">
+        <v>1.1</v>
+      </c>
+      <c r="CF3">
+        <v>8</v>
+      </c>
+      <c r="CG3">
+        <v>1.08</v>
+      </c>
+      <c r="CH3">
+        <v>11.5</v>
+      </c>
+      <c r="CI3">
+        <v>1.02</v>
+      </c>
+      <c r="CJ3">
+        <v>9.5</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL3">
+        <v>15</v>
+      </c>
+      <c r="CM3">
+        <v>1.03</v>
+      </c>
+      <c r="CN3">
+        <v>17</v>
+      </c>
+      <c r="CO3">
+        <v>1.03</v>
+      </c>
+      <c r="CT3">
+        <v>29</v>
+      </c>
+      <c r="CU3">
+        <v>1.01</v>
+      </c>
+      <c r="CV3">
+        <v>41</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DJ3">
+        <v>1.43</v>
+      </c>
+      <c r="DK3">
+        <v>2.75</v>
+      </c>
+      <c r="DL3">
+        <v>1.7</v>
+      </c>
+      <c r="DM3">
+        <v>2.1</v>
+      </c>
+      <c r="DN3">
+        <v>1.33</v>
+      </c>
+      <c r="DO3">
+        <v>3.3</v>
+      </c>
+      <c r="DP3">
+        <v>2.25</v>
+      </c>
+      <c r="DQ3">
+        <v>1.63</v>
+      </c>
+      <c r="DR3">
+        <v>1.18</v>
+      </c>
+      <c r="DS3">
+        <v>4.65</v>
+      </c>
+      <c r="DT3">
+        <v>3.3</v>
+      </c>
+      <c r="DU3">
+        <v>1.33</v>
+      </c>
+      <c r="DV3">
+        <v>1.05</v>
+      </c>
+      <c r="DW3">
+        <v>8.4</v>
+      </c>
+      <c r="DX3">
         <v>4.5</v>
       </c>
-      <c r="W3">
-        <v>1.18</v>
-      </c>
-      <c r="X3">
-        <v>4</v>
-      </c>
-      <c r="Y3">
-        <v>1.22</v>
-      </c>
-      <c r="Z3">
-        <v>11.2</v>
-      </c>
-      <c r="AA3">
-        <v>1.02</v>
-      </c>
-      <c r="AB3">
-        <v>10.5</v>
-      </c>
-      <c r="AC3">
-        <v>1.03</v>
-      </c>
-      <c r="AD3">
-        <v>15</v>
-      </c>
-      <c r="AE3">
-        <v>1.03</v>
-      </c>
-      <c r="AF3">
-        <v>13</v>
-      </c>
-      <c r="AG3">
-        <v>1.04</v>
-      </c>
-      <c r="AH3">
-        <v>2.6</v>
-      </c>
-      <c r="AI3">
-        <v>2.8</v>
-      </c>
-      <c r="AJ3">
-        <v>3.25</v>
-      </c>
-      <c r="AK3">
-        <v>2.45</v>
-      </c>
-      <c r="AL3">
-        <v>2.88</v>
-      </c>
-      <c r="AM3">
-        <v>2.88</v>
-      </c>
-      <c r="AN3">
-        <v>1.33</v>
-      </c>
-      <c r="AO3">
-        <v>1.4</v>
-      </c>
-      <c r="AP3">
-        <v>1.5</v>
-      </c>
-      <c r="AQ3">
-        <v>1.36</v>
-      </c>
-      <c r="AR3">
-        <v>1.36</v>
-      </c>
-      <c r="AS3">
-        <v>1.5</v>
-      </c>
-      <c r="AT3">
-        <v>2.38</v>
-      </c>
-      <c r="AU3">
-        <v>1.53</v>
-      </c>
-      <c r="AV3">
-        <v>2.2</v>
-      </c>
-      <c r="AW3">
-        <v>1.62</v>
-      </c>
-      <c r="AX3">
-        <v>1.17</v>
-      </c>
-      <c r="AY3">
-        <v>5</v>
-      </c>
-      <c r="AZ3">
-        <v>1.13</v>
-      </c>
-      <c r="BA3">
-        <v>6</v>
-      </c>
-      <c r="BB3">
+      <c r="DY3">
         <v>1.19</v>
       </c>
-      <c r="BC3">
-        <v>3.96</v>
-      </c>
-      <c r="BD3">
-        <v>1.19</v>
-      </c>
-      <c r="BE3">
-        <v>4.4</v>
-      </c>
-      <c r="BF3">
-        <v>1.67</v>
-      </c>
-      <c r="BG3">
-        <v>2.1</v>
-      </c>
-      <c r="BH3">
-        <v>1.53</v>
-      </c>
-      <c r="BI3">
-        <v>2.38</v>
-      </c>
-      <c r="BJ3">
-        <v>2.05</v>
-      </c>
-      <c r="BK3">
-        <v>1.8</v>
-      </c>
-      <c r="BL3">
-        <v>2.05</v>
-      </c>
-      <c r="BM3">
-        <v>1.8</v>
-      </c>
-      <c r="BN3">
-        <v>3.4</v>
-      </c>
-      <c r="BO3">
-        <v>1.33</v>
-      </c>
-      <c r="BP3">
-        <v>2.7</v>
-      </c>
-      <c r="BQ3">
-        <v>1.44</v>
-      </c>
-      <c r="BR3">
-        <v>5.5</v>
-      </c>
-      <c r="BS3">
-        <v>1.12</v>
-      </c>
-      <c r="BT3">
-        <v>4.5</v>
-      </c>
-      <c r="BU3">
-        <v>1.18</v>
-      </c>
-      <c r="BV3">
-        <v>7</v>
-      </c>
-      <c r="BW3">
-        <v>1.1</v>
-      </c>
-      <c r="BX3">
-        <v>5.5</v>
-      </c>
-      <c r="BY3">
-        <v>1.14</v>
-      </c>
-      <c r="BZ3">
+      <c r="EB3">
+        <v>7.27</v>
+      </c>
+      <c r="EC3">
+        <v>1.07</v>
+      </c>
+      <c r="EJ3">
+        <v>10</v>
+      </c>
+      <c r="EK3">
         <v>11</v>
       </c>
-      <c r="CA3">
-        <v>1.02</v>
-      </c>
-      <c r="CB3">
-        <v>10</v>
-      </c>
-      <c r="CC3">
-        <v>1.03</v>
-      </c>
-      <c r="CD3">
-        <v>17</v>
-      </c>
-      <c r="CE3">
-        <v>1.03</v>
-      </c>
-      <c r="CF3">
-        <v>13</v>
-      </c>
-      <c r="CG3">
-        <v>1.04</v>
-      </c>
-      <c r="CL3">
+      <c r="EL3">
+        <v>19</v>
+      </c>
+      <c r="EM3">
         <v>41</v>
       </c>
-      <c r="CM3">
-        <v>27</v>
-      </c>
-      <c r="CN3">
-        <v>29</v>
-      </c>
-      <c r="CO3">
-        <v>25</v>
-      </c>
-      <c r="DJ3">
-        <v>1.7</v>
-      </c>
-      <c r="DK3">
-        <v>2.1</v>
-      </c>
-      <c r="DL3">
-        <v>2.15</v>
-      </c>
-      <c r="DM3">
-        <v>1.73</v>
-      </c>
-      <c r="DN3">
-        <v>1.48</v>
-      </c>
-      <c r="DO3">
-        <v>2.6</v>
-      </c>
-      <c r="DP3">
-        <v>3.1</v>
-      </c>
-      <c r="DQ3">
-        <v>1.35</v>
-      </c>
-      <c r="DR3">
-        <v>1.23</v>
-      </c>
-      <c r="DS3">
-        <v>4.1</v>
-      </c>
-      <c r="DT3">
-        <v>5.5</v>
-      </c>
-      <c r="DU3">
-        <v>1.15</v>
-      </c>
-      <c r="DV3">
-        <v>1.1</v>
-      </c>
-      <c r="DW3">
-        <v>7</v>
-      </c>
-      <c r="DX3">
-        <v>7.3</v>
-      </c>
-      <c r="DY3">
-        <v>1.05</v>
-      </c>
-      <c r="DZ3">
-        <v>1.01</v>
-      </c>
-      <c r="EA3">
-        <v>9.65</v>
-      </c>
-      <c r="EJ3">
-        <v>5</v>
-      </c>
-      <c r="EK3">
+      <c r="EN3">
+        <v>7.5</v>
+      </c>
+      <c r="EO3">
         <v>6.5</v>
-      </c>
-      <c r="EL3">
-        <v>13</v>
-      </c>
-      <c r="EM3">
-        <v>34</v>
-      </c>
-      <c r="EN3">
-        <v>5.5</v>
-      </c>
-      <c r="EO3">
-        <v>5.5</v>
       </c>
       <c r="EP3">
         <v>13</v>
       </c>
       <c r="EQ3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="ER3">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="ES3">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="ET3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="EU3">
+        <v>41</v>
+      </c>
+      <c r="EV3">
+        <v>17</v>
+      </c>
+      <c r="EW3">
+        <v>17</v>
+      </c>
+      <c r="EX3">
+        <v>26</v>
+      </c>
+      <c r="EY3">
         <v>51</v>
-      </c>
-      <c r="EV3">
-        <v>26</v>
-      </c>
-      <c r="EW3">
-        <v>29</v>
-      </c>
-      <c r="EX3">
-        <v>51</v>
-      </c>
-      <c r="EY3">
-        <v>101</v>
       </c>
       <c r="EZ3">
         <v>81</v>
       </c>
       <c r="FA3">
+        <v>67</v>
+      </c>
+      <c r="FB3">
         <v>81</v>
       </c>
-      <c r="FB3">
-        <v>151</v>
-      </c>
       <c r="FC3">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="FD3">
+        <v>34</v>
+      </c>
+      <c r="FE3">
+        <v>34</v>
+      </c>
+      <c r="FF3">
         <v>51</v>
       </c>
-      <c r="FE3">
-        <v>67</v>
-      </c>
-      <c r="FF3">
+      <c r="FG3">
         <v>101</v>
       </c>
-      <c r="FG3">
-        <v>301</v>
-      </c>
       <c r="FH3">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>167</v>
@@ -2227,340 +2326,364 @@
         <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H4">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="I4">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="J4">
         <v>4.75</v>
       </c>
       <c r="K4">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>2.2</v>
+      </c>
+      <c r="M4">
+        <v>4.33</v>
+      </c>
+      <c r="N4">
+        <v>1.33</v>
+      </c>
+      <c r="O4">
+        <v>3.25</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.75</v>
+      </c>
+      <c r="S4">
+        <v>2.05</v>
+      </c>
+      <c r="T4">
+        <v>1.73</v>
+      </c>
+      <c r="U4">
+        <v>2.08</v>
+      </c>
+      <c r="V4">
+        <v>2.63</v>
+      </c>
+      <c r="W4">
+        <v>1.44</v>
+      </c>
+      <c r="X4">
+        <v>2.75</v>
+      </c>
+      <c r="Y4">
+        <v>1.4</v>
+      </c>
+      <c r="Z4">
+        <v>5.1</v>
+      </c>
+      <c r="AA4">
+        <v>1.15</v>
+      </c>
+      <c r="AB4">
+        <v>4.7</v>
+      </c>
+      <c r="AC4">
+        <v>1.17</v>
+      </c>
+      <c r="AD4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>1.1</v>
+      </c>
+      <c r="AF4">
+        <v>7</v>
+      </c>
+      <c r="AG4">
+        <v>1.1</v>
+      </c>
+      <c r="AH4">
+        <v>1.75</v>
+      </c>
+      <c r="AI4">
+        <v>3.8</v>
+      </c>
+      <c r="AJ4">
+        <v>4.5</v>
+      </c>
+      <c r="AK4">
+        <v>1.91</v>
+      </c>
+      <c r="AL4">
+        <v>3.4</v>
+      </c>
+      <c r="AM4">
+        <v>4</v>
+      </c>
+      <c r="AN4">
+        <v>1.18</v>
+      </c>
+      <c r="AO4">
+        <v>1.25</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>1.22</v>
+      </c>
+      <c r="AR4">
+        <v>1.3</v>
+      </c>
+      <c r="AS4">
+        <v>1.83</v>
+      </c>
+      <c r="AT4">
+        <v>1.75</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>1.75</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>1.04</v>
+      </c>
+      <c r="AY4">
+        <v>12</v>
+      </c>
+      <c r="AZ4">
+        <v>1.05</v>
+      </c>
+      <c r="BA4">
+        <v>11</v>
+      </c>
+      <c r="BB4">
+        <v>1.02</v>
+      </c>
+      <c r="BC4">
+        <v>9.1</v>
+      </c>
+      <c r="BD4">
+        <v>1.05</v>
+      </c>
+      <c r="BE4">
+        <v>8.6</v>
+      </c>
+      <c r="BF4">
+        <v>1.22</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>1.25</v>
+      </c>
+      <c r="BI4">
+        <v>3.75</v>
+      </c>
+      <c r="BJ4">
+        <v>1.35</v>
+      </c>
+      <c r="BK4">
+        <v>2.98</v>
+      </c>
+      <c r="BL4">
+        <v>1.37</v>
+      </c>
+      <c r="BM4">
+        <v>2.9</v>
+      </c>
+      <c r="BN4">
+        <v>1.8</v>
+      </c>
+      <c r="BO4">
+        <v>2</v>
+      </c>
+      <c r="BP4">
+        <v>1.85</v>
+      </c>
+      <c r="BQ4">
         <v>1.95</v>
       </c>
-      <c r="M4">
+      <c r="BR4">
+        <v>2.28</v>
+      </c>
+      <c r="BS4">
+        <v>1.57</v>
+      </c>
+      <c r="BT4">
+        <v>2.3</v>
+      </c>
+      <c r="BU4">
+        <v>1.57</v>
+      </c>
+      <c r="BV4">
+        <v>2.75</v>
+      </c>
+      <c r="BW4">
+        <v>1.4</v>
+      </c>
+      <c r="BX4">
+        <v>3.25</v>
+      </c>
+      <c r="BY4">
+        <v>1.33</v>
+      </c>
+      <c r="BZ4">
+        <v>4.45</v>
+      </c>
+      <c r="CA4">
+        <v>1.15</v>
+      </c>
+      <c r="CB4">
         <v>4.5</v>
       </c>
-      <c r="N4">
-        <v>1.57</v>
-      </c>
-      <c r="O4">
-        <v>2.25</v>
-      </c>
-      <c r="P4">
-        <v>1.57</v>
-      </c>
-      <c r="Q4">
-        <v>2.25</v>
-      </c>
-      <c r="R4">
-        <v>2.34</v>
-      </c>
-      <c r="S4">
-        <v>1.56</v>
-      </c>
-      <c r="T4">
-        <v>2.4</v>
-      </c>
-      <c r="U4">
-        <v>1.53</v>
-      </c>
-      <c r="V4">
-        <v>3.75</v>
-      </c>
-      <c r="W4">
-        <v>1.25</v>
-      </c>
-      <c r="X4">
-        <v>3.75</v>
-      </c>
-      <c r="Y4">
-        <v>1.25</v>
-      </c>
-      <c r="Z4">
-        <v>8.6</v>
-      </c>
-      <c r="AA4">
+      <c r="CC4">
+        <v>1.18</v>
+      </c>
+      <c r="CD4">
+        <v>5.5</v>
+      </c>
+      <c r="CE4">
+        <v>1.14</v>
+      </c>
+      <c r="CF4">
+        <v>6.5</v>
+      </c>
+      <c r="CG4">
+        <v>1.11</v>
+      </c>
+      <c r="CH4">
+        <v>8.9</v>
+      </c>
+      <c r="CI4">
+        <v>1.02</v>
+      </c>
+      <c r="CJ4">
+        <v>9</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL4">
+        <v>11</v>
+      </c>
+      <c r="CM4">
         <v>1.05</v>
       </c>
-      <c r="AB4">
-        <v>8.6</v>
-      </c>
-      <c r="AC4">
-        <v>1.05</v>
-      </c>
-      <c r="AD4">
+      <c r="CN4">
         <v>13</v>
       </c>
-      <c r="AE4">
+      <c r="CO4">
         <v>1.04</v>
       </c>
-      <c r="AF4">
-        <v>11</v>
-      </c>
-      <c r="AG4">
-        <v>1.05</v>
-      </c>
-      <c r="AH4">
-        <v>2.05</v>
-      </c>
-      <c r="AI4">
-        <v>3.1</v>
-      </c>
-      <c r="AJ4">
+      <c r="CT4">
+        <v>23</v>
+      </c>
+      <c r="CU4">
+        <v>1.01</v>
+      </c>
+      <c r="CV4">
+        <v>26</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>194</v>
+      </c>
+      <c r="DB4">
+        <v>51</v>
+      </c>
+      <c r="DC4">
+        <v>50</v>
+      </c>
+      <c r="DD4">
+        <v>51</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>195</v>
+      </c>
+      <c r="DJ4">
+        <v>1.3</v>
+      </c>
+      <c r="DK4">
+        <v>3.45</v>
+      </c>
+      <c r="DL4">
+        <v>1.5</v>
+      </c>
+      <c r="DM4">
+        <v>2.5</v>
+      </c>
+      <c r="DN4">
+        <v>1.23</v>
+      </c>
+      <c r="DO4">
         <v>4</v>
       </c>
-      <c r="AK4">
-        <v>2.05</v>
-      </c>
-      <c r="AL4">
-        <v>3</v>
-      </c>
-      <c r="AM4">
-        <v>3.5</v>
-      </c>
-      <c r="AN4">
-        <v>1.22</v>
-      </c>
-      <c r="AO4">
-        <v>1.36</v>
-      </c>
-      <c r="AP4">
-        <v>1.73</v>
-      </c>
-      <c r="AQ4">
-        <v>1.25</v>
-      </c>
-      <c r="AR4">
-        <v>1.33</v>
-      </c>
-      <c r="AS4">
-        <v>1.67</v>
-      </c>
-      <c r="AT4">
-        <v>2.2</v>
-      </c>
-      <c r="AU4">
-        <v>1.62</v>
-      </c>
-      <c r="AV4">
-        <v>2.1</v>
-      </c>
-      <c r="AW4">
-        <v>1.67</v>
-      </c>
-      <c r="AX4">
+      <c r="DP4">
+        <v>1.93</v>
+      </c>
+      <c r="DQ4">
+        <v>1.93</v>
+      </c>
+      <c r="DR4">
         <v>1.13</v>
       </c>
-      <c r="AY4">
+      <c r="DS4">
         <v>6</v>
       </c>
-      <c r="AZ4">
-        <v>1.11</v>
-      </c>
-      <c r="BA4">
-        <v>6.5</v>
-      </c>
-      <c r="BB4">
-        <v>1.12</v>
-      </c>
-      <c r="BC4">
-        <v>5.45</v>
-      </c>
-      <c r="BD4">
-        <v>1.16</v>
-      </c>
-      <c r="BE4">
-        <v>4.8</v>
-      </c>
-      <c r="BF4">
+      <c r="DT4">
+        <v>2.5</v>
+      </c>
+      <c r="DU4">
         <v>1.5</v>
       </c>
-      <c r="BG4">
-        <v>2.5</v>
-      </c>
-      <c r="BH4">
-        <v>1.5</v>
-      </c>
-      <c r="BI4">
-        <v>2.5</v>
-      </c>
-      <c r="BJ4">
-        <v>2</v>
-      </c>
-      <c r="BK4">
-        <v>1.85</v>
-      </c>
-      <c r="BL4">
-        <v>2</v>
-      </c>
-      <c r="BM4">
-        <v>1.85</v>
-      </c>
-      <c r="BN4">
-        <v>2.6</v>
-      </c>
-      <c r="BO4">
-        <v>1.48</v>
-      </c>
-      <c r="BP4">
-        <v>2.5</v>
-      </c>
-      <c r="BQ4">
-        <v>1.5</v>
-      </c>
-      <c r="BR4">
-        <v>3.84</v>
-      </c>
-      <c r="BS4">
-        <v>1.2</v>
-      </c>
-      <c r="BT4">
-        <v>4.2</v>
-      </c>
-      <c r="BU4">
-        <v>1.2</v>
-      </c>
-      <c r="BV4">
+      <c r="DX4">
+        <v>3.45</v>
+      </c>
+      <c r="DY4">
+        <v>1.3</v>
+      </c>
+      <c r="EB4">
         <v>5.5</v>
       </c>
-      <c r="BW4">
-        <v>1.14</v>
-      </c>
-      <c r="BX4">
-        <v>5</v>
-      </c>
-      <c r="BY4">
-        <v>1.17</v>
-      </c>
-      <c r="BZ4">
-        <v>8.6</v>
-      </c>
-      <c r="CA4">
-        <v>1.02</v>
-      </c>
-      <c r="CB4">
-        <v>9.5</v>
-      </c>
-      <c r="CC4">
-        <v>1.04</v>
-      </c>
-      <c r="CD4">
-        <v>13</v>
-      </c>
-      <c r="CE4">
-        <v>1.04</v>
-      </c>
-      <c r="CF4">
-        <v>11</v>
-      </c>
-      <c r="CG4">
-        <v>1.05</v>
-      </c>
-      <c r="CL4">
+      <c r="EC4">
+        <v>1.15</v>
+      </c>
+      <c r="EF4">
+        <v>7.75</v>
+      </c>
+      <c r="EG4">
+        <v>1.06</v>
+      </c>
+      <c r="EJ4">
+        <v>12</v>
+      </c>
+      <c r="EK4">
+        <v>15</v>
+      </c>
+      <c r="EL4">
         <v>26</v>
       </c>
-      <c r="CM4">
-        <v>1.01</v>
-      </c>
-      <c r="CN4">
-        <v>26</v>
-      </c>
-      <c r="CO4">
-        <v>1.01</v>
-      </c>
-      <c r="CT4">
+      <c r="EM4">
         <v>51</v>
       </c>
-      <c r="CU4">
-        <v>50</v>
-      </c>
-      <c r="CV4">
-        <v>51</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>175</v>
-      </c>
-      <c r="DJ4">
-        <v>1.43</v>
-      </c>
-      <c r="DK4">
-        <v>2.75</v>
-      </c>
-      <c r="DL4">
-        <v>1.75</v>
-      </c>
-      <c r="DM4">
-        <v>2.05</v>
-      </c>
-      <c r="DN4">
-        <v>1.33</v>
-      </c>
-      <c r="DO4">
-        <v>3.3</v>
-      </c>
-      <c r="DP4">
-        <v>2.38</v>
-      </c>
-      <c r="DQ4">
-        <v>1.55</v>
-      </c>
-      <c r="DR4">
-        <v>1.16</v>
-      </c>
-      <c r="DS4">
-        <v>5.25</v>
-      </c>
-      <c r="DT4">
-        <v>3.7</v>
-      </c>
-      <c r="DU4">
-        <v>1.26</v>
-      </c>
-      <c r="DV4">
-        <v>1.03</v>
-      </c>
-      <c r="DW4">
-        <v>9.4</v>
-      </c>
-      <c r="DX4">
-        <v>5.75</v>
-      </c>
-      <c r="DY4">
-        <v>1.14</v>
-      </c>
-      <c r="EB4">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="EC4">
-        <v>1.03</v>
-      </c>
-      <c r="EJ4">
-        <v>6</v>
-      </c>
-      <c r="EK4">
-        <v>8.5</v>
-      </c>
-      <c r="EL4">
-        <v>19</v>
-      </c>
-      <c r="EM4">
-        <v>41</v>
-      </c>
       <c r="EN4">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="EO4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EP4">
         <v>15</v>
@@ -2572,52 +2695,2650 @@
         <v>8.5</v>
       </c>
       <c r="ES4">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="ET4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="EU4">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="EV4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="EW4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="EX4">
+        <v>23</v>
+      </c>
+      <c r="EY4">
         <v>41</v>
-      </c>
-      <c r="EY4">
-        <v>81</v>
       </c>
       <c r="EZ4">
         <v>126</v>
       </c>
       <c r="FA4">
+        <v>81</v>
+      </c>
+      <c r="FB4">
+        <v>81</v>
+      </c>
+      <c r="FC4">
+        <v>126</v>
+      </c>
+      <c r="FD4">
+        <v>26</v>
+      </c>
+      <c r="FE4">
+        <v>26</v>
+      </c>
+      <c r="FF4">
+        <v>41</v>
+      </c>
+      <c r="FG4">
+        <v>81</v>
+      </c>
+      <c r="FH4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
+      <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5">
+        <v>2.5</v>
+      </c>
+      <c r="I5">
+        <v>2.3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>2.6</v>
+      </c>
+      <c r="L5">
+        <v>2.2</v>
+      </c>
+      <c r="M5">
+        <v>4.33</v>
+      </c>
+      <c r="N5">
+        <v>1.33</v>
+      </c>
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
+        <v>1.36</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1.7</v>
+      </c>
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="T5">
+        <v>1.7</v>
+      </c>
+      <c r="U5">
+        <v>2.1</v>
+      </c>
+      <c r="V5">
+        <v>2.63</v>
+      </c>
+      <c r="W5">
+        <v>1.44</v>
+      </c>
+      <c r="X5">
+        <v>2.75</v>
+      </c>
+      <c r="Y5">
+        <v>1.4</v>
+      </c>
+      <c r="Z5">
+        <v>4.8</v>
+      </c>
+      <c r="AA5">
+        <v>1.16</v>
+      </c>
+      <c r="AB5">
+        <v>4.45</v>
+      </c>
+      <c r="AC5">
+        <v>1.19</v>
+      </c>
+      <c r="AD5">
+        <v>6.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.11</v>
+      </c>
+      <c r="AF5">
+        <v>7</v>
+      </c>
+      <c r="AG5">
+        <v>1.1</v>
+      </c>
+      <c r="AH5">
+        <v>1.91</v>
+      </c>
+      <c r="AI5">
+        <v>3.4</v>
+      </c>
+      <c r="AJ5">
+        <v>3.8</v>
+      </c>
+      <c r="AK5">
+        <v>1.95</v>
+      </c>
+      <c r="AL5">
+        <v>3.4</v>
+      </c>
+      <c r="AM5">
+        <v>3.8</v>
+      </c>
+      <c r="AN5">
+        <v>1.25</v>
+      </c>
+      <c r="AO5">
+        <v>1.3</v>
+      </c>
+      <c r="AP5">
+        <v>1.83</v>
+      </c>
+      <c r="AQ5">
+        <v>1.25</v>
+      </c>
+      <c r="AR5">
+        <v>1.3</v>
+      </c>
+      <c r="AS5">
+        <v>1.8</v>
+      </c>
+      <c r="AT5">
+        <v>1.62</v>
+      </c>
+      <c r="AU5">
+        <v>2.2</v>
+      </c>
+      <c r="AV5">
+        <v>1.75</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>1.04</v>
+      </c>
+      <c r="AY5">
+        <v>13</v>
+      </c>
+      <c r="AZ5">
+        <v>1.05</v>
+      </c>
+      <c r="BA5">
+        <v>11</v>
+      </c>
+      <c r="BB5">
+        <v>1.01</v>
+      </c>
+      <c r="BC5">
+        <v>9.4</v>
+      </c>
+      <c r="BD5">
+        <v>1.03</v>
+      </c>
+      <c r="BE5">
+        <v>10</v>
+      </c>
+      <c r="BF5">
+        <v>1.2</v>
+      </c>
+      <c r="BG5">
+        <v>4.33</v>
+      </c>
+      <c r="BH5">
+        <v>1.25</v>
+      </c>
+      <c r="BI5">
+        <v>3.75</v>
+      </c>
+      <c r="BJ5">
+        <v>1.32</v>
+      </c>
+      <c r="BK5">
+        <v>3.14</v>
+      </c>
+      <c r="BL5">
+        <v>1.27</v>
+      </c>
+      <c r="BM5">
+        <v>3.5</v>
+      </c>
+      <c r="BN5">
+        <v>1.7</v>
+      </c>
+      <c r="BO5">
+        <v>2.1</v>
+      </c>
+      <c r="BP5">
+        <v>1.85</v>
+      </c>
+      <c r="BQ5">
+        <v>1.95</v>
+      </c>
+      <c r="BR5">
+        <v>2.15</v>
+      </c>
+      <c r="BS5">
+        <v>1.64</v>
+      </c>
+      <c r="BT5">
+        <v>2</v>
+      </c>
+      <c r="BU5">
+        <v>1.77</v>
+      </c>
+      <c r="BV5">
+        <v>2.63</v>
+      </c>
+      <c r="BW5">
+        <v>1.44</v>
+      </c>
+      <c r="BX5">
+        <v>3.25</v>
+      </c>
+      <c r="BY5">
+        <v>1.33</v>
+      </c>
+      <c r="BZ5">
+        <v>4.1</v>
+      </c>
+      <c r="CA5">
+        <v>1.18</v>
+      </c>
+      <c r="CB5">
+        <v>3.8</v>
+      </c>
+      <c r="CC5">
+        <v>1.24</v>
+      </c>
+      <c r="CD5">
+        <v>5</v>
+      </c>
+      <c r="CE5">
+        <v>1.17</v>
+      </c>
+      <c r="CF5">
+        <v>6.5</v>
+      </c>
+      <c r="CG5">
+        <v>1.11</v>
+      </c>
+      <c r="CH5">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="CI5">
+        <v>1.03</v>
+      </c>
+      <c r="CJ5">
+        <v>7.2</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>189</v>
+      </c>
+      <c r="CL5">
+        <v>11</v>
+      </c>
+      <c r="CM5">
+        <v>1.05</v>
+      </c>
+      <c r="CN5">
+        <v>13</v>
+      </c>
+      <c r="CO5">
+        <v>1.04</v>
+      </c>
+      <c r="CT5">
+        <v>21</v>
+      </c>
+      <c r="CU5">
+        <v>1.02</v>
+      </c>
+      <c r="CV5">
+        <v>26</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>194</v>
+      </c>
+      <c r="DB5">
+        <v>41</v>
+      </c>
+      <c r="DC5">
+        <v>41</v>
+      </c>
+      <c r="DD5">
+        <v>51</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DJ5">
+        <v>1.43</v>
+      </c>
+      <c r="DK5">
+        <v>2.75</v>
+      </c>
+      <c r="DL5">
+        <v>1.65</v>
+      </c>
+      <c r="DM5">
+        <v>2.2</v>
+      </c>
+      <c r="DN5">
+        <v>1.33</v>
+      </c>
+      <c r="DO5">
+        <v>3.3</v>
+      </c>
+      <c r="DP5">
+        <v>2.15</v>
+      </c>
+      <c r="DQ5">
+        <v>1.68</v>
+      </c>
+      <c r="DR5">
+        <v>1.18</v>
+      </c>
+      <c r="DS5">
+        <v>4.8</v>
+      </c>
+      <c r="DT5">
+        <v>3</v>
+      </c>
+      <c r="DU5">
+        <v>1.38</v>
+      </c>
+      <c r="DV5">
+        <v>1.06</v>
+      </c>
+      <c r="DW5">
+        <v>7.55</v>
+      </c>
+      <c r="DX5">
+        <v>4.15</v>
+      </c>
+      <c r="DY5">
+        <v>1.22</v>
+      </c>
+      <c r="EB5">
+        <v>6.6</v>
+      </c>
+      <c r="EC5">
+        <v>1.11</v>
+      </c>
+      <c r="EJ5">
+        <v>13</v>
+      </c>
+      <c r="EK5">
+        <v>13</v>
+      </c>
+      <c r="EL5">
+        <v>21</v>
+      </c>
+      <c r="EM5">
+        <v>41</v>
+      </c>
+      <c r="EN5">
+        <v>9</v>
+      </c>
+      <c r="EO5">
+        <v>6.5</v>
+      </c>
+      <c r="EP5">
+        <v>13</v>
+      </c>
+      <c r="EQ5">
+        <v>29</v>
+      </c>
+      <c r="ER5">
+        <v>10</v>
+      </c>
+      <c r="ES5">
+        <v>8.5</v>
+      </c>
+      <c r="ET5">
+        <v>12</v>
+      </c>
+      <c r="EU5">
+        <v>34</v>
+      </c>
+      <c r="EV5">
+        <v>17</v>
+      </c>
+      <c r="EW5">
+        <v>15</v>
+      </c>
+      <c r="EX5">
+        <v>23</v>
+      </c>
+      <c r="EY5">
+        <v>41</v>
+      </c>
+      <c r="EZ5">
+        <v>81</v>
+      </c>
+      <c r="FA5">
+        <v>51</v>
+      </c>
+      <c r="FB5">
+        <v>67</v>
+      </c>
+      <c r="FC5">
         <v>101</v>
       </c>
-      <c r="FB4">
+      <c r="FD5">
+        <v>34</v>
+      </c>
+      <c r="FE5">
+        <v>29</v>
+      </c>
+      <c r="FF5">
+        <v>41</v>
+      </c>
+      <c r="FG5">
+        <v>67</v>
+      </c>
+      <c r="FH5">
         <v>151</v>
       </c>
-      <c r="FC4">
-        <v>301</v>
-      </c>
-      <c r="FD4">
+    </row>
+    <row r="6" spans="1:164">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6">
+        <v>2.75</v>
+      </c>
+      <c r="I6">
+        <v>2.2</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2.88</v>
+      </c>
+      <c r="L6">
+        <v>2.1</v>
+      </c>
+      <c r="M6">
+        <v>3.75</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>2.75</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>2.75</v>
+      </c>
+      <c r="R6">
+        <v>1.93</v>
+      </c>
+      <c r="S6">
+        <v>1.88</v>
+      </c>
+      <c r="T6">
+        <v>1.9</v>
+      </c>
+      <c r="U6">
+        <v>1.9</v>
+      </c>
+      <c r="V6">
+        <v>2.75</v>
+      </c>
+      <c r="W6">
+        <v>1.4</v>
+      </c>
+      <c r="X6">
+        <v>2.75</v>
+      </c>
+      <c r="Y6">
+        <v>1.4</v>
+      </c>
+      <c r="Z6">
+        <v>5.9</v>
+      </c>
+      <c r="AA6">
+        <v>1.11</v>
+      </c>
+      <c r="AB6">
+        <v>5.75</v>
+      </c>
+      <c r="AC6">
+        <v>1.12</v>
+      </c>
+      <c r="AD6">
+        <v>8</v>
+      </c>
+      <c r="AE6">
+        <v>1.08</v>
+      </c>
+      <c r="AF6">
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <v>1.08</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>3.3</v>
+      </c>
+      <c r="AJ6">
+        <v>3.6</v>
+      </c>
+      <c r="AK6">
+        <v>2.2</v>
+      </c>
+      <c r="AL6">
+        <v>3.25</v>
+      </c>
+      <c r="AM6">
+        <v>3.25</v>
+      </c>
+      <c r="AN6">
+        <v>1.29</v>
+      </c>
+      <c r="AO6">
+        <v>1.33</v>
+      </c>
+      <c r="AP6">
+        <v>1.8</v>
+      </c>
+      <c r="AQ6">
+        <v>1.33</v>
+      </c>
+      <c r="AR6">
+        <v>1.33</v>
+      </c>
+      <c r="AS6">
+        <v>1.67</v>
+      </c>
+      <c r="AT6">
+        <v>1.75</v>
+      </c>
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6">
+        <v>1.75</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>1.06</v>
+      </c>
+      <c r="AY6">
+        <v>10</v>
+      </c>
+      <c r="AZ6">
+        <v>1.06</v>
+      </c>
+      <c r="BA6">
+        <v>10</v>
+      </c>
+      <c r="BB6">
+        <v>1.04</v>
+      </c>
+      <c r="BC6">
+        <v>7.5</v>
+      </c>
+      <c r="BD6">
+        <v>1.05</v>
+      </c>
+      <c r="BE6">
+        <v>8.6</v>
+      </c>
+      <c r="BF6">
+        <v>1.29</v>
+      </c>
+      <c r="BG6">
+        <v>3.5</v>
+      </c>
+      <c r="BH6">
+        <v>1.29</v>
+      </c>
+      <c r="BI6">
+        <v>3.5</v>
+      </c>
+      <c r="BJ6">
+        <v>1.45</v>
+      </c>
+      <c r="BK6">
+        <v>2.59</v>
+      </c>
+      <c r="BL6">
+        <v>1.37</v>
+      </c>
+      <c r="BM6">
+        <v>2.9</v>
+      </c>
+      <c r="BN6">
+        <v>1.98</v>
+      </c>
+      <c r="BO6">
+        <v>1.88</v>
+      </c>
+      <c r="BP6">
+        <v>1.9</v>
+      </c>
+      <c r="BQ6">
+        <v>1.9</v>
+      </c>
+      <c r="BR6">
+        <v>2.61</v>
+      </c>
+      <c r="BS6">
+        <v>1.44</v>
+      </c>
+      <c r="BT6">
+        <v>2.3</v>
+      </c>
+      <c r="BU6">
+        <v>1.57</v>
+      </c>
+      <c r="BV6">
+        <v>3.4</v>
+      </c>
+      <c r="BW6">
+        <v>1.3</v>
+      </c>
+      <c r="BX6">
+        <v>3.25</v>
+      </c>
+      <c r="BY6">
+        <v>1.33</v>
+      </c>
+      <c r="BZ6">
+        <v>5.3</v>
+      </c>
+      <c r="CA6">
+        <v>1.11</v>
+      </c>
+      <c r="CB6">
+        <v>4.5</v>
+      </c>
+      <c r="CC6">
+        <v>1.18</v>
+      </c>
+      <c r="CD6">
+        <v>6.5</v>
+      </c>
+      <c r="CE6">
+        <v>1.11</v>
+      </c>
+      <c r="CF6">
+        <v>6.5</v>
+      </c>
+      <c r="CG6">
+        <v>1.11</v>
+      </c>
+      <c r="CH6">
+        <v>10.5</v>
+      </c>
+      <c r="CI6">
+        <v>1.03</v>
+      </c>
+      <c r="CJ6">
+        <v>9</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>188</v>
+      </c>
+      <c r="CL6">
+        <v>15</v>
+      </c>
+      <c r="CM6">
+        <v>1.03</v>
+      </c>
+      <c r="CN6">
+        <v>15</v>
+      </c>
+      <c r="CO6">
+        <v>1.03</v>
+      </c>
+      <c r="CT6">
+        <v>29</v>
+      </c>
+      <c r="CU6">
+        <v>1.01</v>
+      </c>
+      <c r="CV6">
+        <v>29</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>194</v>
+      </c>
+      <c r="DJ6">
+        <v>1.5</v>
+      </c>
+      <c r="DK6">
+        <v>2.62</v>
+      </c>
+      <c r="DL6">
+        <v>1.78</v>
+      </c>
+      <c r="DM6">
+        <v>2.1</v>
+      </c>
+      <c r="DN6">
+        <v>1.35</v>
+      </c>
+      <c r="DO6">
+        <v>2.97</v>
+      </c>
+      <c r="DP6">
+        <v>2.28</v>
+      </c>
+      <c r="DQ6">
+        <v>1.57</v>
+      </c>
+      <c r="DR6">
+        <v>1.18</v>
+      </c>
+      <c r="DS6">
+        <v>4.4</v>
+      </c>
+      <c r="DT6">
+        <v>3.3</v>
+      </c>
+      <c r="DU6">
+        <v>1.29</v>
+      </c>
+      <c r="DV6">
+        <v>1.06</v>
+      </c>
+      <c r="DW6">
+        <v>7.42</v>
+      </c>
+      <c r="DX6">
+        <v>4.74</v>
+      </c>
+      <c r="DY6">
+        <v>1.16</v>
+      </c>
+      <c r="DZ6">
+        <v>1.01</v>
+      </c>
+      <c r="EA6">
+        <v>11.5</v>
+      </c>
+      <c r="EJ6">
+        <v>10</v>
+      </c>
+      <c r="EK6">
+        <v>11</v>
+      </c>
+      <c r="EL6">
+        <v>19</v>
+      </c>
+      <c r="EM6">
         <v>41</v>
       </c>
-      <c r="FE4">
+      <c r="EN6">
+        <v>7.5</v>
+      </c>
+      <c r="EO6">
+        <v>6.5</v>
+      </c>
+      <c r="EP6">
+        <v>13</v>
+      </c>
+      <c r="EQ6">
+        <v>29</v>
+      </c>
+      <c r="ER6">
+        <v>10</v>
+      </c>
+      <c r="ES6">
+        <v>9</v>
+      </c>
+      <c r="ET6">
+        <v>15</v>
+      </c>
+      <c r="EU6">
+        <v>34</v>
+      </c>
+      <c r="EV6">
+        <v>19</v>
+      </c>
+      <c r="EW6">
+        <v>17</v>
+      </c>
+      <c r="EX6">
+        <v>26</v>
+      </c>
+      <c r="EY6">
+        <v>51</v>
+      </c>
+      <c r="EZ6">
+        <v>81</v>
+      </c>
+      <c r="FA6">
+        <v>67</v>
+      </c>
+      <c r="FB6">
+        <v>67</v>
+      </c>
+      <c r="FC6">
+        <v>126</v>
+      </c>
+      <c r="FD6">
         <v>41</v>
       </c>
-      <c r="FF4">
+      <c r="FE6">
+        <v>34</v>
+      </c>
+      <c r="FF6">
+        <v>51</v>
+      </c>
+      <c r="FG6">
         <v>81</v>
       </c>
-      <c r="FG4">
+      <c r="FH6">
         <v>201</v>
       </c>
-      <c r="FH4">
-        <v>501</v>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7">
+        <v>2.5</v>
+      </c>
+      <c r="I7">
+        <v>2.3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2.5</v>
+      </c>
+      <c r="L7">
+        <v>2.25</v>
+      </c>
+      <c r="M7">
+        <v>4.33</v>
+      </c>
+      <c r="N7">
+        <v>1.3</v>
+      </c>
+      <c r="O7">
+        <v>3.4</v>
+      </c>
+      <c r="P7">
+        <v>1.33</v>
+      </c>
+      <c r="Q7">
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <v>1.63</v>
+      </c>
+      <c r="S7">
+        <v>2.2</v>
+      </c>
+      <c r="T7">
+        <v>1.62</v>
+      </c>
+      <c r="U7">
+        <v>2.22</v>
+      </c>
+      <c r="V7">
+        <v>2.5</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>2.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.5</v>
+      </c>
+      <c r="Z7">
+        <v>4.55</v>
+      </c>
+      <c r="AA7">
+        <v>1.18</v>
+      </c>
+      <c r="AB7">
+        <v>4.45</v>
+      </c>
+      <c r="AC7">
+        <v>1.19</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>1.13</v>
+      </c>
+      <c r="AF7">
+        <v>6.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.11</v>
+      </c>
+      <c r="AH7">
+        <v>1.91</v>
+      </c>
+      <c r="AI7">
+        <v>3.75</v>
+      </c>
+      <c r="AJ7">
+        <v>3.8</v>
+      </c>
+      <c r="AK7">
+        <v>1.91</v>
+      </c>
+      <c r="AL7">
+        <v>3.4</v>
+      </c>
+      <c r="AM7">
+        <v>4</v>
+      </c>
+      <c r="AN7">
+        <v>1.25</v>
+      </c>
+      <c r="AO7">
+        <v>1.25</v>
+      </c>
+      <c r="AP7">
+        <v>1.83</v>
+      </c>
+      <c r="AQ7">
+        <v>1.22</v>
+      </c>
+      <c r="AR7">
+        <v>1.3</v>
+      </c>
+      <c r="AS7">
+        <v>1.83</v>
+      </c>
+      <c r="AT7">
+        <v>1.62</v>
+      </c>
+      <c r="AU7">
+        <v>2.2</v>
+      </c>
+      <c r="AV7">
+        <v>1.62</v>
+      </c>
+      <c r="AW7">
+        <v>2.2</v>
+      </c>
+      <c r="AX7">
+        <v>1.03</v>
+      </c>
+      <c r="AY7">
+        <v>15</v>
+      </c>
+      <c r="AZ7">
+        <v>1.04</v>
+      </c>
+      <c r="BA7">
+        <v>12</v>
+      </c>
+      <c r="BF7">
+        <v>1.2</v>
+      </c>
+      <c r="BG7">
+        <v>4.33</v>
+      </c>
+      <c r="BH7">
+        <v>1.22</v>
+      </c>
+      <c r="BI7">
+        <v>4</v>
+      </c>
+      <c r="BJ7">
+        <v>1.29</v>
+      </c>
+      <c r="BK7">
+        <v>3.35</v>
+      </c>
+      <c r="BL7">
+        <v>1.31</v>
+      </c>
+      <c r="BM7">
+        <v>3.2</v>
+      </c>
+      <c r="BN7">
+        <v>1.67</v>
+      </c>
+      <c r="BO7">
+        <v>2.15</v>
+      </c>
+      <c r="BP7">
+        <v>1.7</v>
+      </c>
+      <c r="BQ7">
+        <v>2.1</v>
+      </c>
+      <c r="BR7">
+        <v>2.05</v>
+      </c>
+      <c r="BS7">
+        <v>1.7</v>
+      </c>
+      <c r="BT7">
+        <v>2.12</v>
+      </c>
+      <c r="BU7">
+        <v>1.67</v>
+      </c>
+      <c r="BV7">
+        <v>2.63</v>
+      </c>
+      <c r="BW7">
+        <v>1.44</v>
+      </c>
+      <c r="BX7">
+        <v>2.75</v>
+      </c>
+      <c r="BY7">
+        <v>1.4</v>
+      </c>
+      <c r="BZ7">
+        <v>3.84</v>
+      </c>
+      <c r="CA7">
+        <v>1.2</v>
+      </c>
+      <c r="CB7">
+        <v>4</v>
+      </c>
+      <c r="CC7">
+        <v>1.22</v>
+      </c>
+      <c r="CD7">
+        <v>5</v>
+      </c>
+      <c r="CE7">
+        <v>1.17</v>
+      </c>
+      <c r="CF7">
+        <v>5.5</v>
+      </c>
+      <c r="CG7">
+        <v>1.14</v>
+      </c>
+      <c r="CH7">
+        <v>7.7</v>
+      </c>
+      <c r="CI7">
+        <v>1.04</v>
+      </c>
+      <c r="CJ7">
+        <v>7.9</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL7">
+        <v>10</v>
+      </c>
+      <c r="CM7">
+        <v>1.06</v>
+      </c>
+      <c r="CN7">
+        <v>11</v>
+      </c>
+      <c r="CO7">
+        <v>1.05</v>
+      </c>
+      <c r="CT7">
+        <v>21</v>
+      </c>
+      <c r="CU7">
+        <v>1.02</v>
+      </c>
+      <c r="CV7">
+        <v>23</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>194</v>
+      </c>
+      <c r="DB7">
+        <v>41</v>
+      </c>
+      <c r="DC7">
+        <v>41</v>
+      </c>
+      <c r="DD7">
+        <v>51</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>196</v>
+      </c>
+      <c r="DJ7">
+        <v>1.43</v>
+      </c>
+      <c r="DK7">
+        <v>2.75</v>
+      </c>
+      <c r="DL7">
+        <v>1.65</v>
+      </c>
+      <c r="DM7">
+        <v>2.2</v>
+      </c>
+      <c r="DN7">
+        <v>1.33</v>
+      </c>
+      <c r="DO7">
+        <v>3.3</v>
+      </c>
+      <c r="DP7">
+        <v>2.1</v>
+      </c>
+      <c r="DQ7">
+        <v>1.7</v>
+      </c>
+      <c r="DR7">
+        <v>1.18</v>
+      </c>
+      <c r="DS7">
+        <v>4.65</v>
+      </c>
+      <c r="DT7">
+        <v>2.85</v>
+      </c>
+      <c r="DU7">
+        <v>1.4</v>
+      </c>
+      <c r="DV7">
+        <v>1.06</v>
+      </c>
+      <c r="DW7">
+        <v>7.42</v>
+      </c>
+      <c r="DX7">
+        <v>4</v>
+      </c>
+      <c r="DY7">
+        <v>1.23</v>
+      </c>
+      <c r="EB7">
+        <v>6.25</v>
+      </c>
+      <c r="EC7">
+        <v>1.12</v>
+      </c>
+      <c r="EF7">
+        <v>8.25</v>
+      </c>
+      <c r="EG7">
+        <v>1.05</v>
+      </c>
+      <c r="EJ7">
+        <v>15</v>
+      </c>
+      <c r="EK7">
+        <v>13</v>
+      </c>
+      <c r="EL7">
+        <v>21</v>
+      </c>
+      <c r="EM7">
+        <v>41</v>
+      </c>
+      <c r="EN7">
+        <v>9</v>
+      </c>
+      <c r="EO7">
+        <v>7</v>
+      </c>
+      <c r="EP7">
+        <v>13</v>
+      </c>
+      <c r="EQ7">
+        <v>29</v>
+      </c>
+      <c r="ER7">
+        <v>10</v>
+      </c>
+      <c r="ES7">
+        <v>8.5</v>
+      </c>
+      <c r="ET7">
+        <v>13</v>
+      </c>
+      <c r="EU7">
+        <v>29</v>
+      </c>
+      <c r="EV7">
+        <v>17</v>
+      </c>
+      <c r="EW7">
+        <v>13</v>
+      </c>
+      <c r="EX7">
+        <v>21</v>
+      </c>
+      <c r="EY7">
+        <v>41</v>
+      </c>
+      <c r="EZ7">
+        <v>81</v>
+      </c>
+      <c r="FA7">
+        <v>51</v>
+      </c>
+      <c r="FB7">
+        <v>67</v>
+      </c>
+      <c r="FC7">
+        <v>81</v>
+      </c>
+      <c r="FD7">
+        <v>34</v>
+      </c>
+      <c r="FE7">
+        <v>29</v>
+      </c>
+      <c r="FF7">
+        <v>41</v>
+      </c>
+      <c r="FG7">
+        <v>67</v>
+      </c>
+      <c r="FH7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8">
+        <v>2.05</v>
+      </c>
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>2.1</v>
+      </c>
+      <c r="L8">
+        <v>2.38</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>1.29</v>
+      </c>
+      <c r="O8">
+        <v>3.5</v>
+      </c>
+      <c r="P8">
+        <v>1.3</v>
+      </c>
+      <c r="Q8">
+        <v>3.4</v>
+      </c>
+      <c r="R8">
+        <v>1.52</v>
+      </c>
+      <c r="S8">
+        <v>2.44</v>
+      </c>
+      <c r="T8">
+        <v>1.45</v>
+      </c>
+      <c r="U8">
+        <v>2.64</v>
+      </c>
+      <c r="V8">
+        <v>2.25</v>
+      </c>
+      <c r="W8">
+        <v>1.57</v>
+      </c>
+      <c r="X8">
+        <v>2.38</v>
+      </c>
+      <c r="Y8">
+        <v>1.53</v>
+      </c>
+      <c r="Z8">
+        <v>3.92</v>
+      </c>
+      <c r="AA8">
+        <v>1.23</v>
+      </c>
+      <c r="AB8">
+        <v>3.56</v>
+      </c>
+      <c r="AC8">
+        <v>1.27</v>
+      </c>
+      <c r="AD8">
+        <v>5.5</v>
+      </c>
+      <c r="AE8">
+        <v>1.14</v>
+      </c>
+      <c r="AF8">
+        <v>6</v>
+      </c>
+      <c r="AG8">
+        <v>1.13</v>
+      </c>
+      <c r="AH8">
+        <v>1.57</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AJ8">
+        <v>5.75</v>
+      </c>
+      <c r="AK8">
+        <v>1.62</v>
+      </c>
+      <c r="AL8">
+        <v>3.75</v>
+      </c>
+      <c r="AM8">
+        <v>5.5</v>
+      </c>
+      <c r="AN8">
+        <v>1.14</v>
+      </c>
+      <c r="AO8">
+        <v>1.22</v>
+      </c>
+      <c r="AP8">
+        <v>2.3</v>
+      </c>
+      <c r="AQ8">
+        <v>1.14</v>
+      </c>
+      <c r="AR8">
+        <v>1.25</v>
+      </c>
+      <c r="AS8">
+        <v>2.25</v>
+      </c>
+      <c r="AT8">
+        <v>1.62</v>
+      </c>
+      <c r="AU8">
+        <v>2.2</v>
+      </c>
+      <c r="AV8">
+        <v>1.67</v>
+      </c>
+      <c r="AW8">
+        <v>2.1</v>
+      </c>
+      <c r="AX8">
+        <v>1.03</v>
+      </c>
+      <c r="AY8">
+        <v>17</v>
+      </c>
+      <c r="AZ8">
+        <v>1.04</v>
+      </c>
+      <c r="BA8">
+        <v>13</v>
+      </c>
+      <c r="BB8">
+        <v>1.02</v>
+      </c>
+      <c r="BC8">
+        <v>11.5</v>
+      </c>
+      <c r="BD8">
+        <v>1.01</v>
+      </c>
+      <c r="BE8">
+        <v>13</v>
+      </c>
+      <c r="BF8">
+        <v>1.14</v>
+      </c>
+      <c r="BG8">
+        <v>5.5</v>
+      </c>
+      <c r="BH8">
+        <v>1.18</v>
+      </c>
+      <c r="BI8">
+        <v>4.5</v>
+      </c>
+      <c r="BJ8">
+        <v>1.2</v>
+      </c>
+      <c r="BK8">
+        <v>3.84</v>
+      </c>
+      <c r="BL8">
+        <v>1.16</v>
+      </c>
+      <c r="BM8">
+        <v>4.4</v>
+      </c>
+      <c r="BN8">
+        <v>1.53</v>
+      </c>
+      <c r="BO8">
+        <v>2.4</v>
+      </c>
+      <c r="BP8">
+        <v>1.62</v>
+      </c>
+      <c r="BQ8">
+        <v>2.25</v>
+      </c>
+      <c r="BR8">
+        <v>1.88</v>
+      </c>
+      <c r="BS8">
+        <v>1.98</v>
+      </c>
+      <c r="BT8">
+        <v>1.9</v>
+      </c>
+      <c r="BU8">
+        <v>1.95</v>
+      </c>
+      <c r="BV8">
+        <v>2.25</v>
+      </c>
+      <c r="BW8">
+        <v>1.57</v>
+      </c>
+      <c r="BX8">
+        <v>2.5</v>
+      </c>
+      <c r="BY8">
+        <v>1.5</v>
+      </c>
+      <c r="BZ8">
+        <v>3.32</v>
+      </c>
+      <c r="CA8">
+        <v>1.29</v>
+      </c>
+      <c r="CB8">
+        <v>2.92</v>
+      </c>
+      <c r="CC8">
+        <v>1.36</v>
+      </c>
+      <c r="CD8">
+        <v>4</v>
+      </c>
+      <c r="CE8">
+        <v>1.22</v>
+      </c>
+      <c r="CF8">
+        <v>4.5</v>
+      </c>
+      <c r="CG8">
+        <v>1.18</v>
+      </c>
+      <c r="CH8">
+        <v>6.4</v>
+      </c>
+      <c r="CI8">
+        <v>1.07</v>
+      </c>
+      <c r="CJ8">
+        <v>5.5</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>191</v>
+      </c>
+      <c r="CL8">
+        <v>8</v>
+      </c>
+      <c r="CM8">
+        <v>1.08</v>
+      </c>
+      <c r="CN8">
+        <v>10</v>
+      </c>
+      <c r="CO8">
+        <v>1.06</v>
+      </c>
+      <c r="CT8">
+        <v>17</v>
+      </c>
+      <c r="CU8">
+        <v>1.03</v>
+      </c>
+      <c r="CV8">
+        <v>19</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>193</v>
+      </c>
+      <c r="DB8">
+        <v>29</v>
+      </c>
+      <c r="DC8">
+        <v>1.01</v>
+      </c>
+      <c r="DD8">
+        <v>41</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>186</v>
+      </c>
+      <c r="DF8">
+        <v>51</v>
+      </c>
+      <c r="DG8">
+        <v>50</v>
+      </c>
+      <c r="DH8">
+        <v>51</v>
+      </c>
+      <c r="DI8">
+        <v>50</v>
+      </c>
+      <c r="DJ8">
+        <v>1.19</v>
+      </c>
+      <c r="DK8">
+        <v>4.5</v>
+      </c>
+      <c r="DL8">
+        <v>1.35</v>
+      </c>
+      <c r="DM8">
+        <v>3.1</v>
+      </c>
+      <c r="DN8">
+        <v>1.16</v>
+      </c>
+      <c r="DO8">
+        <v>5.25</v>
+      </c>
+      <c r="DP8">
+        <v>1.65</v>
+      </c>
+      <c r="DQ8">
+        <v>2.2</v>
+      </c>
+      <c r="DR8">
+        <v>1.07</v>
+      </c>
+      <c r="DS8">
+        <v>6.97</v>
+      </c>
+      <c r="DT8">
+        <v>2.08</v>
+      </c>
+      <c r="DU8">
+        <v>1.73</v>
+      </c>
+      <c r="DX8">
+        <v>2.68</v>
+      </c>
+      <c r="DY8">
+        <v>1.45</v>
+      </c>
+      <c r="EB8">
+        <v>3.7</v>
+      </c>
+      <c r="EC8">
+        <v>1.26</v>
+      </c>
+      <c r="EF8">
+        <v>5.5</v>
+      </c>
+      <c r="EG8">
+        <v>1.15</v>
+      </c>
+      <c r="EJ8">
+        <v>15</v>
+      </c>
+      <c r="EK8">
+        <v>21</v>
+      </c>
+      <c r="EL8">
+        <v>34</v>
+      </c>
+      <c r="EM8">
+        <v>51</v>
+      </c>
+      <c r="EN8">
+        <v>9.5</v>
+      </c>
+      <c r="EO8">
+        <v>8</v>
+      </c>
+      <c r="EP8">
+        <v>19</v>
+      </c>
+      <c r="EQ8">
+        <v>41</v>
+      </c>
+      <c r="ER8">
+        <v>9</v>
+      </c>
+      <c r="ES8">
+        <v>8.5</v>
+      </c>
+      <c r="ET8">
+        <v>13</v>
+      </c>
+      <c r="EU8">
+        <v>41</v>
+      </c>
+      <c r="EV8">
+        <v>12</v>
+      </c>
+      <c r="EW8">
+        <v>11</v>
+      </c>
+      <c r="EX8">
+        <v>21</v>
+      </c>
+      <c r="EY8">
+        <v>41</v>
+      </c>
+      <c r="EZ8">
+        <v>151</v>
+      </c>
+      <c r="FA8">
+        <v>81</v>
+      </c>
+      <c r="FB8">
+        <v>81</v>
+      </c>
+      <c r="FC8">
+        <v>101</v>
+      </c>
+      <c r="FD8">
+        <v>21</v>
+      </c>
+      <c r="FE8">
+        <v>21</v>
+      </c>
+      <c r="FF8">
+        <v>34</v>
+      </c>
+      <c r="FG8">
+        <v>51</v>
+      </c>
+      <c r="FH8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
+      <c r="A9" s="1">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9">
+        <v>3.25</v>
+      </c>
+      <c r="I9">
+        <v>2.2</v>
+      </c>
+      <c r="J9">
+        <v>3.25</v>
+      </c>
+      <c r="K9">
+        <v>3.1</v>
+      </c>
+      <c r="L9">
+        <v>2.2</v>
+      </c>
+      <c r="M9">
+        <v>3.4</v>
+      </c>
+      <c r="N9">
+        <v>1.4</v>
+      </c>
+      <c r="O9">
+        <v>2.75</v>
+      </c>
+      <c r="P9">
+        <v>1.36</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>1.9</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>1.85</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>2.63</v>
+      </c>
+      <c r="Y9">
+        <v>1.44</v>
+      </c>
+      <c r="Z9">
+        <v>5.7</v>
+      </c>
+      <c r="AA9">
+        <v>1.12</v>
+      </c>
+      <c r="AB9">
+        <v>4.45</v>
+      </c>
+      <c r="AC9">
+        <v>1.19</v>
+      </c>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>1.08</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>1.1</v>
+      </c>
+      <c r="AH9">
+        <v>2.63</v>
+      </c>
+      <c r="AI9">
+        <v>3.2</v>
+      </c>
+      <c r="AJ9">
+        <v>2.63</v>
+      </c>
+      <c r="AK9">
+        <v>2.5</v>
+      </c>
+      <c r="AL9">
+        <v>3.25</v>
+      </c>
+      <c r="AM9">
+        <v>2.8</v>
+      </c>
+      <c r="AN9">
+        <v>1.44</v>
+      </c>
+      <c r="AO9">
+        <v>1.36</v>
+      </c>
+      <c r="AP9">
+        <v>1.44</v>
+      </c>
+      <c r="AQ9">
+        <v>1.4</v>
+      </c>
+      <c r="AR9">
+        <v>1.33</v>
+      </c>
+      <c r="AS9">
+        <v>1.5</v>
+      </c>
+      <c r="AT9">
+        <v>1.7</v>
+      </c>
+      <c r="AU9">
+        <v>2.05</v>
+      </c>
+      <c r="AV9">
+        <v>1.67</v>
+      </c>
+      <c r="AW9">
+        <v>2.1</v>
+      </c>
+      <c r="AX9">
+        <v>1.05</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
+        <v>1.05</v>
+      </c>
+      <c r="BA9">
+        <v>11</v>
+      </c>
+      <c r="BB9">
+        <v>1.04</v>
+      </c>
+      <c r="BC9">
+        <v>7.6</v>
+      </c>
+      <c r="BD9">
+        <v>1.03</v>
+      </c>
+      <c r="BE9">
+        <v>10</v>
+      </c>
+      <c r="BF9">
+        <v>1.25</v>
+      </c>
+      <c r="BG9">
+        <v>3.75</v>
+      </c>
+      <c r="BH9">
+        <v>1.25</v>
+      </c>
+      <c r="BI9">
+        <v>3.75</v>
+      </c>
+      <c r="BJ9">
+        <v>1.43</v>
+      </c>
+      <c r="BK9">
+        <v>2.65</v>
+      </c>
+      <c r="BL9">
+        <v>1.27</v>
+      </c>
+      <c r="BM9">
+        <v>3.5</v>
+      </c>
+      <c r="BN9">
+        <v>1.93</v>
+      </c>
+      <c r="BO9">
+        <v>1.93</v>
+      </c>
+      <c r="BP9">
+        <v>1.8</v>
+      </c>
+      <c r="BQ9">
+        <v>2</v>
+      </c>
+      <c r="BR9">
+        <v>2.5</v>
+      </c>
+      <c r="BS9">
+        <v>1.48</v>
+      </c>
+      <c r="BT9">
+        <v>2</v>
+      </c>
+      <c r="BU9">
+        <v>1.76</v>
+      </c>
+      <c r="BV9">
+        <v>3.25</v>
+      </c>
+      <c r="BW9">
+        <v>1.33</v>
+      </c>
+      <c r="BX9">
+        <v>3</v>
+      </c>
+      <c r="BY9">
+        <v>1.36</v>
+      </c>
+      <c r="BZ9">
+        <v>5</v>
+      </c>
+      <c r="CA9">
+        <v>1.12</v>
+      </c>
+      <c r="CB9">
+        <v>3.8</v>
+      </c>
+      <c r="CC9">
+        <v>1.24</v>
+      </c>
+      <c r="CD9">
+        <v>6.5</v>
+      </c>
+      <c r="CE9">
+        <v>1.11</v>
+      </c>
+      <c r="CF9">
+        <v>6</v>
+      </c>
+      <c r="CG9">
+        <v>1.13</v>
+      </c>
+      <c r="CH9">
+        <v>9.9</v>
+      </c>
+      <c r="CI9">
+        <v>1.01</v>
+      </c>
+      <c r="CJ9">
+        <v>7.2</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL9">
+        <v>13</v>
+      </c>
+      <c r="CM9">
+        <v>1.04</v>
+      </c>
+      <c r="CN9">
+        <v>13</v>
+      </c>
+      <c r="CO9">
+        <v>1.04</v>
+      </c>
+      <c r="CT9">
+        <v>26</v>
+      </c>
+      <c r="CU9">
+        <v>1.01</v>
+      </c>
+      <c r="CV9">
+        <v>26</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>194</v>
+      </c>
+      <c r="DB9">
+        <v>51</v>
+      </c>
+      <c r="DC9">
+        <v>50</v>
+      </c>
+      <c r="DD9">
+        <v>51</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>195</v>
+      </c>
+      <c r="DJ9">
+        <v>1.95</v>
+      </c>
+      <c r="DK9">
+        <v>1.9</v>
+      </c>
+      <c r="DL9">
+        <v>2.25</v>
+      </c>
+      <c r="DM9">
+        <v>1.63</v>
+      </c>
+      <c r="DN9">
+        <v>1.63</v>
+      </c>
+      <c r="DO9">
+        <v>2.25</v>
+      </c>
+      <c r="DP9">
+        <v>3.3</v>
+      </c>
+      <c r="DQ9">
+        <v>1.33</v>
+      </c>
+      <c r="DR9">
+        <v>1.35</v>
+      </c>
+      <c r="DS9">
+        <v>3.1</v>
+      </c>
+      <c r="DT9">
+        <v>5</v>
+      </c>
+      <c r="DU9">
+        <v>1.17</v>
+      </c>
+      <c r="DV9">
+        <v>1.18</v>
+      </c>
+      <c r="DW9">
+        <v>4.65</v>
+      </c>
+      <c r="DX9">
+        <v>7</v>
+      </c>
+      <c r="DY9">
+        <v>1.1</v>
+      </c>
+      <c r="DZ9">
+        <v>1.1</v>
+      </c>
+      <c r="EA9">
+        <v>7</v>
+      </c>
+      <c r="EJ9">
+        <v>10</v>
+      </c>
+      <c r="EK9">
+        <v>9.5</v>
+      </c>
+      <c r="EL9">
+        <v>13</v>
+      </c>
+      <c r="EM9">
+        <v>26</v>
+      </c>
+      <c r="EN9">
+        <v>9.5</v>
+      </c>
+      <c r="EO9">
+        <v>6</v>
+      </c>
+      <c r="EP9">
+        <v>10</v>
+      </c>
+      <c r="EQ9">
+        <v>21</v>
+      </c>
+      <c r="ER9">
+        <v>13</v>
+      </c>
+      <c r="ES9">
+        <v>10</v>
+      </c>
+      <c r="ET9">
+        <v>13</v>
+      </c>
+      <c r="EU9">
+        <v>29</v>
+      </c>
+      <c r="EV9">
+        <v>26</v>
+      </c>
+      <c r="EW9">
+        <v>21</v>
+      </c>
+      <c r="EX9">
+        <v>29</v>
+      </c>
+      <c r="EY9">
+        <v>41</v>
+      </c>
+      <c r="EZ9">
+        <v>51</v>
+      </c>
+      <c r="FA9">
+        <v>41</v>
+      </c>
+      <c r="FB9">
+        <v>51</v>
+      </c>
+      <c r="FC9">
+        <v>101</v>
+      </c>
+      <c r="FD9">
+        <v>51</v>
+      </c>
+      <c r="FE9">
+        <v>41</v>
+      </c>
+      <c r="FF9">
+        <v>51</v>
+      </c>
+      <c r="FG9">
+        <v>101</v>
+      </c>
+      <c r="FH9">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
+      <c r="A10" s="1">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10">
+        <v>2.25</v>
+      </c>
+      <c r="I10">
+        <v>2.4</v>
+      </c>
+      <c r="J10">
+        <v>4.5</v>
+      </c>
+      <c r="K10">
+        <v>2.3</v>
+      </c>
+      <c r="L10">
+        <v>2.3</v>
+      </c>
+      <c r="M10">
+        <v>4.5</v>
+      </c>
+      <c r="N10">
+        <v>1.29</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>1.33</v>
+      </c>
+      <c r="Q10">
+        <v>3.25</v>
+      </c>
+      <c r="R10">
+        <v>1.51</v>
+      </c>
+      <c r="S10">
+        <v>2.46</v>
+      </c>
+      <c r="T10">
+        <v>1.67</v>
+      </c>
+      <c r="U10">
+        <v>2.12</v>
+      </c>
+      <c r="V10">
+        <v>2.25</v>
+      </c>
+      <c r="W10">
+        <v>1.57</v>
+      </c>
+      <c r="X10">
+        <v>2.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.5</v>
+      </c>
+      <c r="Z10">
+        <v>3.82</v>
+      </c>
+      <c r="AA10">
+        <v>1.24</v>
+      </c>
+      <c r="AB10">
+        <v>4.33</v>
+      </c>
+      <c r="AC10">
+        <v>1.2</v>
+      </c>
+      <c r="AD10">
+        <v>5.5</v>
+      </c>
+      <c r="AE10">
+        <v>1.14</v>
+      </c>
+      <c r="AF10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>1.13</v>
+      </c>
+      <c r="AH10">
+        <v>1.73</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <v>4.5</v>
+      </c>
+      <c r="AK10">
+        <v>1.8</v>
+      </c>
+      <c r="AL10">
+        <v>3.5</v>
+      </c>
+      <c r="AM10">
+        <v>4.5</v>
+      </c>
+      <c r="AN10">
+        <v>1.18</v>
+      </c>
+      <c r="AO10">
+        <v>1.22</v>
+      </c>
+      <c r="AP10">
+        <v>2.05</v>
+      </c>
+      <c r="AQ10">
+        <v>1.18</v>
+      </c>
+      <c r="AR10">
+        <v>1.29</v>
+      </c>
+      <c r="AS10">
+        <v>1.95</v>
+      </c>
+      <c r="AT10">
+        <v>1.57</v>
+      </c>
+      <c r="AU10">
+        <v>2.25</v>
+      </c>
+      <c r="AV10">
+        <v>1.62</v>
+      </c>
+      <c r="AW10">
+        <v>2.2</v>
+      </c>
+      <c r="AX10">
+        <v>1.03</v>
+      </c>
+      <c r="AY10">
+        <v>17</v>
+      </c>
+      <c r="AZ10">
+        <v>1.04</v>
+      </c>
+      <c r="BA10">
+        <v>13</v>
+      </c>
+      <c r="BB10">
+        <v>1.02</v>
+      </c>
+      <c r="BC10">
+        <v>11</v>
+      </c>
+      <c r="BD10">
+        <v>1.05</v>
+      </c>
+      <c r="BE10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF10">
+        <v>1.14</v>
+      </c>
+      <c r="BG10">
+        <v>5.5</v>
+      </c>
+      <c r="BH10">
+        <v>1.2</v>
+      </c>
+      <c r="BI10">
+        <v>4.33</v>
+      </c>
+      <c r="BJ10">
+        <v>1.19</v>
+      </c>
+      <c r="BK10">
+        <v>3.96</v>
+      </c>
+      <c r="BL10">
+        <v>1.36</v>
+      </c>
+      <c r="BM10">
+        <v>3</v>
+      </c>
+      <c r="BN10">
+        <v>1.53</v>
+      </c>
+      <c r="BO10">
+        <v>2.4</v>
+      </c>
+      <c r="BP10">
+        <v>1.65</v>
+      </c>
+      <c r="BQ10">
+        <v>2.2</v>
+      </c>
+      <c r="BR10">
+        <v>1.85</v>
+      </c>
+      <c r="BS10">
+        <v>2</v>
+      </c>
+      <c r="BT10">
+        <v>1.95</v>
+      </c>
+      <c r="BU10">
+        <v>1.9</v>
+      </c>
+      <c r="BV10">
+        <v>2.25</v>
+      </c>
+      <c r="BW10">
+        <v>1.57</v>
+      </c>
+      <c r="BX10">
+        <v>2.63</v>
+      </c>
+      <c r="BY10">
+        <v>1.44</v>
+      </c>
+      <c r="BZ10">
+        <v>3.2</v>
+      </c>
+      <c r="CA10">
+        <v>1.31</v>
+      </c>
+      <c r="CB10">
+        <v>4.3</v>
+      </c>
+      <c r="CC10">
+        <v>1.19</v>
+      </c>
+      <c r="CD10">
+        <v>4</v>
+      </c>
+      <c r="CE10">
+        <v>1.22</v>
+      </c>
+      <c r="CF10">
+        <v>5</v>
+      </c>
+      <c r="CG10">
+        <v>1.17</v>
+      </c>
+      <c r="CH10">
+        <v>6.15</v>
+      </c>
+      <c r="CI10">
+        <v>1.07</v>
+      </c>
+      <c r="CJ10">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL10">
+        <v>8</v>
+      </c>
+      <c r="CM10">
+        <v>1.08</v>
+      </c>
+      <c r="CN10">
+        <v>10</v>
+      </c>
+      <c r="CO10">
+        <v>1.06</v>
+      </c>
+      <c r="CT10">
+        <v>17</v>
+      </c>
+      <c r="CU10">
+        <v>1.03</v>
+      </c>
+      <c r="CV10">
+        <v>21</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>193</v>
+      </c>
+      <c r="DB10">
+        <v>29</v>
+      </c>
+      <c r="DC10">
+        <v>1.01</v>
+      </c>
+      <c r="DD10">
+        <v>41</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DJ10">
+        <v>1.33</v>
+      </c>
+      <c r="DK10">
+        <v>3.3</v>
+      </c>
+      <c r="DL10">
+        <v>1.5</v>
+      </c>
+      <c r="DM10">
+        <v>2.5</v>
+      </c>
+      <c r="DN10">
+        <v>1.26</v>
+      </c>
+      <c r="DO10">
+        <v>3.7</v>
+      </c>
+      <c r="DP10">
+        <v>1.93</v>
+      </c>
+      <c r="DQ10">
+        <v>1.93</v>
+      </c>
+      <c r="DR10">
+        <v>1.15</v>
+      </c>
+      <c r="DS10">
+        <v>5.5</v>
+      </c>
+      <c r="DT10">
+        <v>2.43</v>
+      </c>
+      <c r="DU10">
+        <v>1.53</v>
+      </c>
+      <c r="DX10">
+        <v>3.45</v>
+      </c>
+      <c r="DY10">
+        <v>1.3</v>
+      </c>
+      <c r="EB10">
+        <v>5</v>
+      </c>
+      <c r="EC10">
+        <v>1.17</v>
+      </c>
+      <c r="EF10">
+        <v>6.8</v>
+      </c>
+      <c r="EG10">
+        <v>1.11</v>
+      </c>
+      <c r="EJ10">
+        <v>17</v>
+      </c>
+      <c r="EK10">
+        <v>17</v>
+      </c>
+      <c r="EL10">
+        <v>26</v>
+      </c>
+      <c r="EM10">
+        <v>51</v>
+      </c>
+      <c r="EN10">
+        <v>9.5</v>
+      </c>
+      <c r="EO10">
+        <v>8</v>
+      </c>
+      <c r="EP10">
+        <v>15</v>
+      </c>
+      <c r="EQ10">
+        <v>34</v>
+      </c>
+      <c r="ER10">
+        <v>10</v>
+      </c>
+      <c r="ES10">
+        <v>8.5</v>
+      </c>
+      <c r="ET10">
+        <v>13</v>
+      </c>
+      <c r="EU10">
+        <v>34</v>
+      </c>
+      <c r="EV10">
+        <v>15</v>
+      </c>
+      <c r="EW10">
+        <v>12</v>
+      </c>
+      <c r="EX10">
+        <v>21</v>
+      </c>
+      <c r="EY10">
+        <v>41</v>
+      </c>
+      <c r="EZ10">
+        <v>101</v>
+      </c>
+      <c r="FA10">
+        <v>67</v>
+      </c>
+      <c r="FB10">
+        <v>67</v>
+      </c>
+      <c r="FC10">
+        <v>81</v>
+      </c>
+      <c r="FD10">
+        <v>26</v>
+      </c>
+      <c r="FE10">
+        <v>23</v>
+      </c>
+      <c r="FF10">
+        <v>34</v>
+      </c>
+      <c r="FG10">
+        <v>51</v>
+      </c>
+      <c r="FH10">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="208">
   <si>
     <t>Date</t>
   </si>
@@ -505,43 +505,139 @@
     <t>FT_Odd_CS_4x4</t>
   </si>
   <si>
-    <t>13/07/2023</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>22:05</t>
+    <t>14/07/2023</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>MEXICO - LIGA MX</t>
+  </si>
+  <si>
+    <t>IRELAND - PREMIER DIVISION</t>
+  </si>
+  <si>
+    <t>ARGENTINA - LIGA PROFESIONAL</t>
   </si>
   <si>
     <t>BRAZIL - SERIE B</t>
   </si>
   <si>
-    <t>MEXICO - LIGA MX</t>
-  </si>
-  <si>
-    <t>Criciuma</t>
-  </si>
-  <si>
-    <t>Santos Laguna</t>
-  </si>
-  <si>
-    <t>Guarani</t>
-  </si>
-  <si>
-    <t>Atlas</t>
+    <t>Guadalajara Chivas</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>UC Dublin</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>Sarmiento Junin</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>Huracan</t>
+  </si>
+  <si>
+    <t>Atletico GO</t>
+  </si>
+  <si>
+    <t>Sampaio Correa</t>
+  </si>
+  <si>
+    <t>Mazatlan FC</t>
+  </si>
+  <si>
+    <t>Necaxa</t>
+  </si>
+  <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>Drogheda</t>
+  </si>
+  <si>
+    <t>Defensa y Justicia</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Chapecoense-SC</t>
+  </si>
+  <si>
+    <t>Avai</t>
+  </si>
+  <si>
+    <t>Talleres Cordoba</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APERTURA </t>
+  </si>
+  <si>
+    <t>ROUND 24</t>
+  </si>
+  <si>
+    <t>ROUND 25</t>
   </si>
   <si>
     <t>ROUND 17</t>
   </si>
   <si>
-    <t xml:space="preserve">APERTURA </t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1.08</t>
   </si>
   <si>
     <t>1.01</t>
   </si>
   <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
     <t>50.0</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>41.00</t>
   </si>
 </sst>
 </file>
@@ -899,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH3"/>
+  <dimension ref="A1:FH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1494,7 @@
     </row>
     <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>163</v>
@@ -1407,352 +1503,364 @@
         <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H2">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="I2">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="J2">
-        <v>5.49</v>
+        <v>5.5</v>
       </c>
       <c r="K2">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="L2">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="M2">
-        <v>4.19</v>
+        <v>5.5</v>
       </c>
       <c r="N2">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="O2">
-        <v>2.41</v>
+        <v>2.63</v>
       </c>
       <c r="P2">
         <v>1.44</v>
       </c>
       <c r="Q2">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R2">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="S2">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="U2">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="V2">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="W2">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>1.36</v>
+      </c>
+      <c r="Z2">
+        <v>7.2</v>
+      </c>
+      <c r="AA2">
+        <v>1.08</v>
+      </c>
+      <c r="AB2">
+        <v>5.7</v>
+      </c>
+      <c r="AC2">
+        <v>1.12</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>1.06</v>
+      </c>
+      <c r="AF2">
+        <v>9</v>
+      </c>
+      <c r="AG2">
+        <v>1.07</v>
+      </c>
+      <c r="AH2">
+        <v>1.75</v>
+      </c>
+      <c r="AI2">
+        <v>3.5</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
+        <v>1.65</v>
+      </c>
+      <c r="AL2">
+        <v>3.6</v>
+      </c>
+      <c r="AM2">
+        <v>5</v>
+      </c>
+      <c r="AN2">
+        <v>1.17</v>
+      </c>
+      <c r="AO2">
+        <v>1.29</v>
+      </c>
+      <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2">
+        <v>1.17</v>
+      </c>
+      <c r="AR2">
+        <v>1.29</v>
+      </c>
+      <c r="AS2">
+        <v>2.2</v>
+      </c>
+      <c r="AT2">
+        <v>2.05</v>
+      </c>
+      <c r="AU2">
+        <v>1.7</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>1.75</v>
+      </c>
+      <c r="AX2">
+        <v>1.07</v>
+      </c>
+      <c r="AY2">
+        <v>9</v>
+      </c>
+      <c r="AZ2">
+        <v>1.07</v>
+      </c>
+      <c r="BA2">
+        <v>9</v>
+      </c>
+      <c r="BB2">
+        <v>1.07</v>
+      </c>
+      <c r="BC2">
+        <v>6.35</v>
+      </c>
+      <c r="BD2">
+        <v>1.03</v>
+      </c>
+      <c r="BE2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>1.36</v>
+      </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2">
+        <v>1.33</v>
+      </c>
+      <c r="BI2">
         <v>3.25</v>
       </c>
-      <c r="Y2">
-        <v>1.29</v>
-      </c>
-      <c r="Z2">
-        <v>8.4</v>
-      </c>
-      <c r="AA2">
-        <v>1.05</v>
-      </c>
-      <c r="AB2">
-        <v>8.1</v>
-      </c>
-      <c r="AC2">
+      <c r="BJ2">
+        <v>1.63</v>
+      </c>
+      <c r="BK2">
+        <v>2.16</v>
+      </c>
+      <c r="BL2">
+        <v>1.43</v>
+      </c>
+      <c r="BM2">
+        <v>2.65</v>
+      </c>
+      <c r="BN2">
+        <v>2.2</v>
+      </c>
+      <c r="BO2">
+        <v>1.65</v>
+      </c>
+      <c r="BP2">
+        <v>2.05</v>
+      </c>
+      <c r="BQ2">
+        <v>1.75</v>
+      </c>
+      <c r="BR2">
+        <v>3.2</v>
+      </c>
+      <c r="BS2">
+        <v>1.31</v>
+      </c>
+      <c r="BT2">
+        <v>2.53</v>
+      </c>
+      <c r="BU2">
+        <v>1.47</v>
+      </c>
+      <c r="BV2">
+        <v>4</v>
+      </c>
+      <c r="BW2">
+        <v>1.22</v>
+      </c>
+      <c r="BX2">
+        <v>3.75</v>
+      </c>
+      <c r="BY2">
+        <v>1.25</v>
+      </c>
+      <c r="BZ2">
+        <v>6.85</v>
+      </c>
+      <c r="CA2">
         <v>1.06</v>
       </c>
-      <c r="AD2">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE2">
-        <v>1.04</v>
-      </c>
-      <c r="AF2">
-        <v>9.5</v>
-      </c>
-      <c r="AG2">
-        <v>1.04</v>
-      </c>
-      <c r="AH2">
-        <v>1.87</v>
-      </c>
-      <c r="AI2">
-        <v>3.34</v>
-      </c>
-      <c r="AJ2">
-        <v>4.54</v>
-      </c>
-      <c r="AK2">
-        <v>2.12</v>
-      </c>
-      <c r="AL2">
-        <v>2.9</v>
-      </c>
-      <c r="AM2">
-        <v>3.57</v>
-      </c>
-      <c r="AN2">
-        <v>1.19</v>
-      </c>
-      <c r="AO2">
-        <v>1.33</v>
-      </c>
-      <c r="AP2">
-        <v>1.94</v>
-      </c>
-      <c r="AQ2">
-        <v>1.25</v>
-      </c>
-      <c r="AR2">
-        <v>1.33</v>
-      </c>
-      <c r="AS2">
-        <v>1.62</v>
-      </c>
-      <c r="AT2">
-        <v>2.21</v>
-      </c>
-      <c r="AU2">
-        <v>1.63</v>
-      </c>
-      <c r="AV2">
-        <v>1.95</v>
-      </c>
-      <c r="AW2">
-        <v>1.81</v>
-      </c>
-      <c r="AX2">
-        <v>1.06</v>
-      </c>
-      <c r="AY2">
-        <v>6.6</v>
-      </c>
-      <c r="AZ2">
-        <v>1.11</v>
-      </c>
-      <c r="BA2">
-        <v>6</v>
-      </c>
-      <c r="BB2">
-        <v>1.1</v>
-      </c>
-      <c r="BC2">
-        <v>5.35</v>
-      </c>
-      <c r="BD2">
-        <v>1.13</v>
-      </c>
-      <c r="BE2">
-        <v>5.3</v>
-      </c>
-      <c r="BF2">
-        <v>1.46</v>
-      </c>
-      <c r="BG2">
-        <v>2.48</v>
-      </c>
-      <c r="BH2">
-        <v>1.5</v>
-      </c>
-      <c r="BI2">
-        <v>2.5</v>
-      </c>
-      <c r="BJ2">
-        <v>1.82</v>
-      </c>
-      <c r="BK2">
-        <v>1.9</v>
-      </c>
-      <c r="BL2">
-        <v>1.84</v>
-      </c>
-      <c r="BM2">
-        <v>1.94</v>
-      </c>
-      <c r="BN2">
-        <v>2.51</v>
-      </c>
-      <c r="BO2">
-        <v>1.54</v>
-      </c>
-      <c r="BP2">
-        <v>2.38</v>
-      </c>
-      <c r="BQ2">
-        <v>1.53</v>
-      </c>
-      <c r="BR2">
-        <v>3.9</v>
-      </c>
-      <c r="BS2">
-        <v>1.22</v>
-      </c>
-      <c r="BT2">
-        <v>3.6</v>
-      </c>
-      <c r="BU2">
-        <v>1.27</v>
-      </c>
-      <c r="BV2">
-        <v>4.6</v>
-      </c>
-      <c r="BW2">
-        <v>1.15</v>
-      </c>
-      <c r="BX2">
-        <v>4.5</v>
-      </c>
-      <c r="BY2">
-        <v>1.17</v>
-      </c>
-      <c r="BZ2">
-        <v>8.4</v>
-      </c>
-      <c r="CA2">
-        <v>1.03</v>
-      </c>
       <c r="CB2">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="CC2">
+        <v>1.12</v>
+      </c>
+      <c r="CD2">
+        <v>9</v>
+      </c>
+      <c r="CE2">
         <v>1.07</v>
       </c>
-      <c r="CD2">
-        <v>9.1</v>
-      </c>
-      <c r="CE2">
-        <v>1.02</v>
-      </c>
       <c r="CF2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CG2">
-        <v>1.05</v>
+        <v>1.08</v>
+      </c>
+      <c r="CH2">
+        <v>13</v>
+      </c>
+      <c r="CI2">
+        <v>1.01</v>
+      </c>
+      <c r="CJ2">
+        <v>10.2</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>199</v>
       </c>
       <c r="CL2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="CM2">
         <v>1.02</v>
       </c>
       <c r="CN2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CO2">
-        <v>1.02</v>
+        <v>1.03</v>
+      </c>
+      <c r="CT2">
+        <v>41</v>
+      </c>
+      <c r="CU2">
+        <v>41</v>
+      </c>
+      <c r="CV2">
+        <v>34</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>203</v>
       </c>
       <c r="DJ2">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="DK2">
-        <v>3.32</v>
+        <v>3.55</v>
       </c>
       <c r="DL2">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="DM2">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="DN2">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="DO2">
-        <v>3.68</v>
+        <v>4.15</v>
       </c>
       <c r="DP2">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="DQ2">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="DR2">
         <v>1.11</v>
       </c>
       <c r="DS2">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="DT2">
-        <v>3.07</v>
+        <v>2.68</v>
       </c>
       <c r="DU2">
-        <v>1.33</v>
-      </c>
-      <c r="DV2">
-        <v>1.01</v>
-      </c>
-      <c r="DW2">
-        <v>9.550000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="DX2">
-        <v>4.48</v>
+        <v>3.8</v>
       </c>
       <c r="DY2">
-        <v>1.17</v>
-      </c>
-      <c r="DZ2">
-        <v>1.01</v>
-      </c>
-      <c r="EA2">
-        <v>11.6</v>
+        <v>1.25</v>
       </c>
       <c r="EB2">
-        <v>7.55</v>
+        <v>6.25</v>
       </c>
       <c r="EC2">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="EF2">
-        <v>11.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="EG2">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="EJ2">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="EK2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="EL2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="EM2">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="EN2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EO2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="EP2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="EQ2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="ER2">
         <v>7.5</v>
@@ -1764,51 +1872,51 @@
         <v>19</v>
       </c>
       <c r="EU2">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="EV2">
+        <v>13</v>
+      </c>
+      <c r="EW2">
         <v>15</v>
       </c>
-      <c r="EW2">
-        <v>18</v>
-      </c>
       <c r="EX2">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="EY2">
+        <v>67</v>
+      </c>
+      <c r="EZ2">
+        <v>151</v>
+      </c>
+      <c r="FA2">
+        <v>101</v>
+      </c>
+      <c r="FB2">
         <v>126</v>
-      </c>
-      <c r="EZ2">
-        <v>201</v>
-      </c>
-      <c r="FA2">
-        <v>201</v>
-      </c>
-      <c r="FB2">
-        <v>201</v>
       </c>
       <c r="FC2">
         <v>201</v>
       </c>
       <c r="FD2">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="FE2">
+        <v>34</v>
+      </c>
+      <c r="FF2">
         <v>51</v>
       </c>
-      <c r="FF2">
-        <v>101</v>
-      </c>
       <c r="FG2">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="FH2">
-        <v>201</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>163</v>
@@ -1817,427 +1925,4111 @@
         <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="H3">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
+        <v>1.95</v>
+      </c>
+      <c r="J3">
+        <v>3.75</v>
+      </c>
+      <c r="K3">
+        <v>3.25</v>
+      </c>
+      <c r="L3">
+        <v>1.95</v>
+      </c>
+      <c r="M3">
+        <v>3.75</v>
+      </c>
+      <c r="N3">
+        <v>1.57</v>
+      </c>
+      <c r="O3">
         <v>2.25</v>
       </c>
-      <c r="J3">
-        <v>3.4</v>
-      </c>
-      <c r="K3">
+      <c r="P3">
+        <v>1.57</v>
+      </c>
+      <c r="Q3">
+        <v>2.25</v>
+      </c>
+      <c r="R3">
+        <v>2.39</v>
+      </c>
+      <c r="S3">
+        <v>1.54</v>
+      </c>
+      <c r="T3">
+        <v>2.19</v>
+      </c>
+      <c r="U3">
+        <v>1.63</v>
+      </c>
+      <c r="V3">
+        <v>3.75</v>
+      </c>
+      <c r="W3">
+        <v>1.25</v>
+      </c>
+      <c r="X3">
+        <v>3.75</v>
+      </c>
+      <c r="Y3">
+        <v>1.25</v>
+      </c>
+      <c r="Z3">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>1.05</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3">
+        <v>1.08</v>
+      </c>
+      <c r="AD3">
+        <v>11</v>
+      </c>
+      <c r="AE3">
+        <v>1.05</v>
+      </c>
+      <c r="AF3">
+        <v>11</v>
+      </c>
+      <c r="AG3">
+        <v>1.05</v>
+      </c>
+      <c r="AH3">
+        <v>2.4</v>
+      </c>
+      <c r="AI3">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>2.2</v>
-      </c>
-      <c r="M3">
-        <v>3.4</v>
-      </c>
-      <c r="N3">
-        <v>1.33</v>
-      </c>
-      <c r="O3">
-        <v>3.25</v>
-      </c>
-      <c r="P3">
-        <v>1.36</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>1.75</v>
-      </c>
-      <c r="S3">
-        <v>2.05</v>
-      </c>
-      <c r="T3">
-        <v>1.8</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>2.63</v>
-      </c>
-      <c r="W3">
-        <v>1.44</v>
-      </c>
-      <c r="X3">
-        <v>2.63</v>
-      </c>
-      <c r="Y3">
-        <v>1.44</v>
-      </c>
-      <c r="Z3">
-        <v>5.15</v>
-      </c>
-      <c r="AA3">
-        <v>1.14</v>
-      </c>
-      <c r="AB3">
-        <v>5.25</v>
-      </c>
-      <c r="AC3">
-        <v>1.14</v>
-      </c>
-      <c r="AD3">
-        <v>7</v>
-      </c>
-      <c r="AE3">
-        <v>1.1</v>
-      </c>
-      <c r="AF3">
-        <v>7</v>
-      </c>
-      <c r="AG3">
-        <v>1.1</v>
-      </c>
-      <c r="AH3">
-        <v>2.3</v>
-      </c>
-      <c r="AI3">
-        <v>3.4</v>
-      </c>
       <c r="AJ3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AK3">
         <v>2.4</v>
       </c>
       <c r="AL3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AM3">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AN3">
+        <v>1.4</v>
+      </c>
+      <c r="AO3">
         <v>1.36</v>
       </c>
-      <c r="AO3">
-        <v>1.3</v>
-      </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
       </c>
       <c r="AR3">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AS3">
         <v>1.53</v>
       </c>
       <c r="AT3">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AU3">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AV3">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AW3">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AX3">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AY3">
+        <v>7</v>
+      </c>
+      <c r="AZ3">
+        <v>1.1</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>1.12</v>
+      </c>
+      <c r="BC3">
+        <v>5.1</v>
+      </c>
+      <c r="BD3">
+        <v>1.1</v>
+      </c>
+      <c r="BE3">
+        <v>5.35</v>
+      </c>
+      <c r="BF3">
+        <v>1.5</v>
+      </c>
+      <c r="BG3">
+        <v>2.5</v>
+      </c>
+      <c r="BH3">
+        <v>1.5</v>
+      </c>
+      <c r="BI3">
+        <v>2.5</v>
+      </c>
+      <c r="BJ3">
+        <v>1.9</v>
+      </c>
+      <c r="BK3">
+        <v>1.95</v>
+      </c>
+      <c r="BL3">
+        <v>1.9</v>
+      </c>
+      <c r="BM3">
+        <v>1.95</v>
+      </c>
+      <c r="BN3">
+        <v>2.5</v>
+      </c>
+      <c r="BO3">
+        <v>1.5</v>
+      </c>
+      <c r="BP3">
+        <v>2.5</v>
+      </c>
+      <c r="BQ3">
+        <v>1.5</v>
+      </c>
+      <c r="BR3">
+        <v>4</v>
+      </c>
+      <c r="BS3">
+        <v>1.21</v>
+      </c>
+      <c r="BT3">
+        <v>3.88</v>
+      </c>
+      <c r="BU3">
+        <v>1.22</v>
+      </c>
+      <c r="BV3">
+        <v>5</v>
+      </c>
+      <c r="BW3">
+        <v>1.17</v>
+      </c>
+      <c r="BX3">
+        <v>5</v>
+      </c>
+      <c r="BY3">
+        <v>1.17</v>
+      </c>
+      <c r="BZ3">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CA3">
+        <v>1.02</v>
+      </c>
+      <c r="CB3">
+        <v>8.4</v>
+      </c>
+      <c r="CC3">
+        <v>1.03</v>
+      </c>
+      <c r="CD3">
+        <v>11</v>
+      </c>
+      <c r="CE3">
+        <v>1.05</v>
+      </c>
+      <c r="CF3">
+        <v>11</v>
+      </c>
+      <c r="CG3">
+        <v>1.05</v>
+      </c>
+      <c r="CL3">
+        <v>26</v>
+      </c>
+      <c r="CM3">
+        <v>1.01</v>
+      </c>
+      <c r="CN3">
+        <v>26</v>
+      </c>
+      <c r="CO3">
+        <v>1.01</v>
+      </c>
+      <c r="CT3">
+        <v>51</v>
+      </c>
+      <c r="CU3">
+        <v>50</v>
+      </c>
+      <c r="CV3">
+        <v>51</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DJ3">
+        <v>1.73</v>
+      </c>
+      <c r="DK3">
+        <v>2.08</v>
+      </c>
+      <c r="DL3">
+        <v>2.13</v>
+      </c>
+      <c r="DM3">
+        <v>1.75</v>
+      </c>
+      <c r="DN3">
+        <v>1.5</v>
+      </c>
+      <c r="DO3">
+        <v>2.5</v>
+      </c>
+      <c r="DP3">
+        <v>3</v>
+      </c>
+      <c r="DQ3">
+        <v>1.38</v>
+      </c>
+      <c r="DR3">
+        <v>1.26</v>
+      </c>
+      <c r="DS3">
+        <v>3.7</v>
+      </c>
+      <c r="DT3">
+        <v>4.8</v>
+      </c>
+      <c r="DU3">
+        <v>1.18</v>
+      </c>
+      <c r="DV3">
+        <v>1.12</v>
+      </c>
+      <c r="DW3">
+        <v>6.4</v>
+      </c>
+      <c r="DX3">
+        <v>7</v>
+      </c>
+      <c r="DY3">
+        <v>1.1</v>
+      </c>
+      <c r="DZ3">
+        <v>1.02</v>
+      </c>
+      <c r="EA3">
+        <v>10.1</v>
+      </c>
+      <c r="EJ3">
+        <v>7</v>
+      </c>
+      <c r="EK3">
+        <v>7.5</v>
+      </c>
+      <c r="EL3">
         <v>13</v>
       </c>
-      <c r="AZ3">
-        <v>1.04</v>
-      </c>
-      <c r="BA3">
+      <c r="EM3">
+        <v>34</v>
+      </c>
+      <c r="EN3">
+        <v>6.5</v>
+      </c>
+      <c r="EO3">
+        <v>6</v>
+      </c>
+      <c r="EP3">
         <v>12</v>
       </c>
-      <c r="BB3">
-        <v>1.02</v>
-      </c>
-      <c r="BC3">
-        <v>9</v>
-      </c>
-      <c r="BD3">
-        <v>1.02</v>
-      </c>
-      <c r="BE3">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF3">
-        <v>1.22</v>
-      </c>
-      <c r="BG3">
-        <v>4</v>
-      </c>
-      <c r="BH3">
-        <v>1.25</v>
-      </c>
-      <c r="BI3">
-        <v>3.75</v>
-      </c>
-      <c r="BJ3">
-        <v>1.36</v>
-      </c>
-      <c r="BK3">
-        <v>2.93</v>
-      </c>
-      <c r="BL3">
-        <v>1.37</v>
-      </c>
-      <c r="BM3">
-        <v>2.89</v>
-      </c>
-      <c r="BN3">
-        <v>1.75</v>
-      </c>
-      <c r="BO3">
-        <v>2.05</v>
-      </c>
-      <c r="BP3">
-        <v>1.83</v>
-      </c>
-      <c r="BQ3">
-        <v>2.03</v>
-      </c>
-      <c r="BR3">
-        <v>2.3</v>
-      </c>
-      <c r="BS3">
-        <v>1.56</v>
-      </c>
-      <c r="BT3">
-        <v>2.32</v>
-      </c>
-      <c r="BU3">
-        <v>1.55</v>
-      </c>
-      <c r="BV3">
-        <v>2.75</v>
-      </c>
-      <c r="BW3">
-        <v>1.4</v>
-      </c>
-      <c r="BX3">
-        <v>3</v>
-      </c>
-      <c r="BY3">
-        <v>1.36</v>
-      </c>
-      <c r="BZ3">
-        <v>4.5</v>
-      </c>
-      <c r="CA3">
-        <v>1.15</v>
-      </c>
-      <c r="CB3">
-        <v>4.6</v>
-      </c>
-      <c r="CC3">
-        <v>1.14</v>
-      </c>
-      <c r="CD3">
-        <v>5.5</v>
-      </c>
-      <c r="CE3">
-        <v>1.14</v>
-      </c>
-      <c r="CF3">
-        <v>6</v>
-      </c>
-      <c r="CG3">
-        <v>1.13</v>
-      </c>
-      <c r="CH3">
-        <v>9.1</v>
-      </c>
-      <c r="CI3">
-        <v>1.02</v>
-      </c>
-      <c r="CJ3">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="CK3">
-        <v>1.02</v>
-      </c>
-      <c r="CL3">
+      <c r="EQ3">
+        <v>29</v>
+      </c>
+      <c r="ER3">
         <v>11</v>
       </c>
-      <c r="CM3">
-        <v>1.05</v>
-      </c>
-      <c r="CN3">
-        <v>13</v>
-      </c>
-      <c r="CO3">
-        <v>1.04</v>
-      </c>
-      <c r="CT3">
-        <v>23</v>
-      </c>
-      <c r="CU3">
-        <v>1.01</v>
-      </c>
-      <c r="CV3">
-        <v>26</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>174</v>
-      </c>
-      <c r="DB3">
-        <v>51</v>
-      </c>
-      <c r="DC3">
-        <v>50</v>
-      </c>
-      <c r="DD3">
-        <v>51</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DJ3">
-        <v>1.65</v>
-      </c>
-      <c r="DK3">
-        <v>2.2</v>
-      </c>
-      <c r="DL3">
-        <v>2</v>
-      </c>
-      <c r="DM3">
-        <v>1.85</v>
-      </c>
-      <c r="DN3">
-        <v>1.48</v>
-      </c>
-      <c r="DO3">
-        <v>2.6</v>
-      </c>
-      <c r="DP3">
-        <v>2.68</v>
-      </c>
-      <c r="DQ3">
-        <v>1.45</v>
-      </c>
-      <c r="DR3">
-        <v>1.28</v>
-      </c>
-      <c r="DS3">
-        <v>3.55</v>
-      </c>
-      <c r="DT3">
-        <v>3.8</v>
-      </c>
-      <c r="DU3">
-        <v>1.25</v>
-      </c>
-      <c r="DV3">
-        <v>1.14</v>
-      </c>
-      <c r="DW3">
-        <v>5.75</v>
-      </c>
-      <c r="DX3">
-        <v>5.75</v>
-      </c>
-      <c r="DY3">
-        <v>1.14</v>
-      </c>
-      <c r="DZ3">
-        <v>1.04</v>
-      </c>
-      <c r="EA3">
-        <v>8.6</v>
-      </c>
-      <c r="EJ3">
-        <v>12</v>
-      </c>
-      <c r="EK3">
-        <v>11</v>
-      </c>
-      <c r="EL3">
-        <v>17</v>
-      </c>
-      <c r="EM3">
-        <v>29</v>
-      </c>
-      <c r="EN3">
-        <v>9.5</v>
-      </c>
-      <c r="EO3">
-        <v>6.5</v>
-      </c>
-      <c r="EP3">
-        <v>11</v>
-      </c>
-      <c r="EQ3">
-        <v>21</v>
-      </c>
-      <c r="ER3">
-        <v>12</v>
-      </c>
       <c r="ES3">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="ET3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="EU3">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="EV3">
         <v>23</v>
       </c>
       <c r="EW3">
+        <v>23</v>
+      </c>
+      <c r="EX3">
+        <v>41</v>
+      </c>
+      <c r="EY3">
+        <v>67</v>
+      </c>
+      <c r="EZ3">
+        <v>67</v>
+      </c>
+      <c r="FA3">
+        <v>67</v>
+      </c>
+      <c r="FB3">
+        <v>101</v>
+      </c>
+      <c r="FC3">
+        <v>201</v>
+      </c>
+      <c r="FD3">
+        <v>51</v>
+      </c>
+      <c r="FE3">
+        <v>51</v>
+      </c>
+      <c r="FF3">
+        <v>81</v>
+      </c>
+      <c r="FG3">
+        <v>151</v>
+      </c>
+      <c r="FH3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>2.4</v>
+      </c>
+      <c r="J4">
+        <v>1.91</v>
+      </c>
+      <c r="K4">
+        <v>6.5</v>
+      </c>
+      <c r="L4">
+        <v>2.4</v>
+      </c>
+      <c r="M4">
+        <v>1.91</v>
+      </c>
+      <c r="N4">
+        <v>1.33</v>
+      </c>
+      <c r="O4">
+        <v>3.25</v>
+      </c>
+      <c r="P4">
+        <v>1.33</v>
+      </c>
+      <c r="Q4">
+        <v>3.25</v>
+      </c>
+      <c r="R4">
+        <v>1.7</v>
+      </c>
+      <c r="S4">
+        <v>2.1</v>
+      </c>
+      <c r="T4">
+        <v>1.7</v>
+      </c>
+      <c r="U4">
+        <v>2.1</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>1.5</v>
+      </c>
+      <c r="X4">
+        <v>2.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.5</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>1.15</v>
+      </c>
+      <c r="AB4">
+        <v>4.15</v>
+      </c>
+      <c r="AC4">
+        <v>1.19</v>
+      </c>
+      <c r="AD4">
+        <v>6.5</v>
+      </c>
+      <c r="AE4">
+        <v>1.11</v>
+      </c>
+      <c r="AF4">
+        <v>6.5</v>
+      </c>
+      <c r="AG4">
+        <v>1.11</v>
+      </c>
+      <c r="AH4">
+        <v>6.5</v>
+      </c>
+      <c r="AI4">
+        <v>4.5</v>
+      </c>
+      <c r="AJ4">
+        <v>1.4</v>
+      </c>
+      <c r="AK4">
+        <v>6.5</v>
+      </c>
+      <c r="AL4">
+        <v>4.5</v>
+      </c>
+      <c r="AM4">
+        <v>1.4</v>
+      </c>
+      <c r="AN4">
+        <v>2.75</v>
+      </c>
+      <c r="AO4">
+        <v>1.18</v>
+      </c>
+      <c r="AP4">
+        <v>1.11</v>
+      </c>
+      <c r="AQ4">
+        <v>2.75</v>
+      </c>
+      <c r="AR4">
+        <v>1.18</v>
+      </c>
+      <c r="AS4">
+        <v>1.11</v>
+      </c>
+      <c r="AT4">
+        <v>1.95</v>
+      </c>
+      <c r="AU4">
+        <v>1.8</v>
+      </c>
+      <c r="AV4">
+        <v>1.95</v>
+      </c>
+      <c r="AW4">
+        <v>1.8</v>
+      </c>
+      <c r="AX4">
+        <v>1.04</v>
+      </c>
+      <c r="AY4">
+        <v>13</v>
+      </c>
+      <c r="AZ4">
+        <v>1.04</v>
+      </c>
+      <c r="BA4">
+        <v>13</v>
+      </c>
+      <c r="BB4">
+        <v>1.02</v>
+      </c>
+      <c r="BC4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BD4">
+        <v>1.03</v>
+      </c>
+      <c r="BE4">
+        <v>10</v>
+      </c>
+      <c r="BF4">
+        <v>1.22</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>1.22</v>
+      </c>
+      <c r="BI4">
+        <v>4</v>
+      </c>
+      <c r="BJ4">
+        <v>1.34</v>
+      </c>
+      <c r="BK4">
+        <v>3.04</v>
+      </c>
+      <c r="BL4">
+        <v>1.27</v>
+      </c>
+      <c r="BM4">
+        <v>3.5</v>
+      </c>
+      <c r="BN4">
+        <v>1.73</v>
+      </c>
+      <c r="BO4">
+        <v>2.08</v>
+      </c>
+      <c r="BP4">
+        <v>1.7</v>
+      </c>
+      <c r="BQ4">
+        <v>2.1</v>
+      </c>
+      <c r="BR4">
+        <v>2.22</v>
+      </c>
+      <c r="BS4">
+        <v>1.6</v>
+      </c>
+      <c r="BT4">
+        <v>1.98</v>
+      </c>
+      <c r="BU4">
+        <v>1.77</v>
+      </c>
+      <c r="BV4">
+        <v>2.75</v>
+      </c>
+      <c r="BW4">
+        <v>1.4</v>
+      </c>
+      <c r="BX4">
+        <v>2.75</v>
+      </c>
+      <c r="BY4">
+        <v>1.4</v>
+      </c>
+      <c r="BZ4">
+        <v>4.3</v>
+      </c>
+      <c r="CA4">
+        <v>1.16</v>
+      </c>
+      <c r="CB4">
+        <v>3.8</v>
+      </c>
+      <c r="CC4">
+        <v>1.24</v>
+      </c>
+      <c r="CD4">
+        <v>5.5</v>
+      </c>
+      <c r="CE4">
+        <v>1.14</v>
+      </c>
+      <c r="CF4">
+        <v>5</v>
+      </c>
+      <c r="CG4">
+        <v>1.17</v>
+      </c>
+      <c r="CH4">
+        <v>8.6</v>
+      </c>
+      <c r="CI4">
+        <v>1.02</v>
+      </c>
+      <c r="CJ4">
+        <v>7.2</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>200</v>
+      </c>
+      <c r="CL4">
+        <v>11</v>
+      </c>
+      <c r="CM4">
+        <v>1.05</v>
+      </c>
+      <c r="CN4">
+        <v>11</v>
+      </c>
+      <c r="CO4">
+        <v>1.05</v>
+      </c>
+      <c r="CT4">
+        <v>23</v>
+      </c>
+      <c r="CU4">
+        <v>1.01</v>
+      </c>
+      <c r="CV4">
+        <v>21</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>205</v>
+      </c>
+      <c r="DB4">
+        <v>51</v>
+      </c>
+      <c r="DC4">
+        <v>50</v>
+      </c>
+      <c r="DD4">
+        <v>51</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>204</v>
+      </c>
+      <c r="DJ4">
+        <v>5.25</v>
+      </c>
+      <c r="DK4">
+        <v>1.16</v>
+      </c>
+      <c r="DL4">
+        <v>5.9</v>
+      </c>
+      <c r="DM4">
+        <v>1.13</v>
+      </c>
+      <c r="DN4">
+        <v>3.55</v>
+      </c>
+      <c r="DO4">
+        <v>1.28</v>
+      </c>
+      <c r="DP4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="DQ4">
+        <v>1.03</v>
+      </c>
+      <c r="DR4">
+        <v>2.5</v>
+      </c>
+      <c r="DS4">
+        <v>1.5</v>
+      </c>
+      <c r="DV4">
+        <v>1.9</v>
+      </c>
+      <c r="DW4">
+        <v>1.95</v>
+      </c>
+      <c r="DZ4">
+        <v>1.5</v>
+      </c>
+      <c r="EA4">
+        <v>2.5</v>
+      </c>
+      <c r="ED4">
+        <v>1.28</v>
+      </c>
+      <c r="EE4">
+        <v>3.55</v>
+      </c>
+      <c r="EH4">
+        <v>1.17</v>
+      </c>
+      <c r="EI4">
+        <v>5</v>
+      </c>
+      <c r="EJ4">
+        <v>13</v>
+      </c>
+      <c r="EK4">
+        <v>7</v>
+      </c>
+      <c r="EL4">
+        <v>7</v>
+      </c>
+      <c r="EM4">
+        <v>9.5</v>
+      </c>
+      <c r="EN4">
         <v>17</v>
       </c>
-      <c r="EX3">
+      <c r="EO4">
+        <v>9</v>
+      </c>
+      <c r="EP4">
+        <v>8.5</v>
+      </c>
+      <c r="EQ4">
+        <v>12</v>
+      </c>
+      <c r="ER4">
+        <v>34</v>
+      </c>
+      <c r="ES4">
+        <v>21</v>
+      </c>
+      <c r="ET4">
+        <v>21</v>
+      </c>
+      <c r="EU4">
+        <v>26</v>
+      </c>
+      <c r="EV4">
+        <v>81</v>
+      </c>
+      <c r="EW4">
+        <v>51</v>
+      </c>
+      <c r="EX4">
+        <v>51</v>
+      </c>
+      <c r="EY4">
+        <v>51</v>
+      </c>
+      <c r="EZ4">
+        <v>17</v>
+      </c>
+      <c r="FA4">
+        <v>21</v>
+      </c>
+      <c r="FB4">
+        <v>41</v>
+      </c>
+      <c r="FC4">
+        <v>101</v>
+      </c>
+      <c r="FD4">
+        <v>251</v>
+      </c>
+      <c r="FE4">
+        <v>151</v>
+      </c>
+      <c r="FF4">
+        <v>151</v>
+      </c>
+      <c r="FG4">
+        <v>201</v>
+      </c>
+      <c r="FH4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5">
+        <v>2.88</v>
+      </c>
+      <c r="I5">
+        <v>2.05</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>2.88</v>
+      </c>
+      <c r="L5">
+        <v>2.05</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1.44</v>
+      </c>
+      <c r="O5">
+        <v>2.63</v>
+      </c>
+      <c r="P5">
+        <v>1.44</v>
+      </c>
+      <c r="Q5">
+        <v>2.63</v>
+      </c>
+      <c r="R5">
+        <v>2.1</v>
+      </c>
+      <c r="S5">
+        <v>1.7</v>
+      </c>
+      <c r="T5">
+        <v>2.1</v>
+      </c>
+      <c r="U5">
+        <v>1.7</v>
+      </c>
+      <c r="V5">
+        <v>3.25</v>
+      </c>
+      <c r="W5">
+        <v>1.33</v>
+      </c>
+      <c r="X5">
+        <v>3.25</v>
+      </c>
+      <c r="Y5">
+        <v>1.33</v>
+      </c>
+      <c r="Z5">
+        <v>7.2</v>
+      </c>
+      <c r="AA5">
+        <v>1.08</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>1.08</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>1.06</v>
+      </c>
+      <c r="AF5">
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <v>1.06</v>
+      </c>
+      <c r="AH5">
+        <v>2.25</v>
+      </c>
+      <c r="AI5">
+        <v>3.2</v>
+      </c>
+      <c r="AJ5">
+        <v>3.4</v>
+      </c>
+      <c r="AK5">
+        <v>2.2</v>
+      </c>
+      <c r="AL5">
+        <v>3.2</v>
+      </c>
+      <c r="AM5">
+        <v>3.4</v>
+      </c>
+      <c r="AN5">
+        <v>1.3</v>
+      </c>
+      <c r="AO5">
+        <v>1.36</v>
+      </c>
+      <c r="AP5">
+        <v>1.62</v>
+      </c>
+      <c r="AQ5">
+        <v>1.3</v>
+      </c>
+      <c r="AR5">
+        <v>1.36</v>
+      </c>
+      <c r="AS5">
+        <v>1.67</v>
+      </c>
+      <c r="AT5">
+        <v>1.95</v>
+      </c>
+      <c r="AU5">
+        <v>1.8</v>
+      </c>
+      <c r="AV5">
+        <v>1.95</v>
+      </c>
+      <c r="AW5">
+        <v>1.8</v>
+      </c>
+      <c r="AX5">
+        <v>1.07</v>
+      </c>
+      <c r="AY5">
+        <v>9</v>
+      </c>
+      <c r="AZ5">
+        <v>1.08</v>
+      </c>
+      <c r="BA5">
+        <v>8</v>
+      </c>
+      <c r="BB5">
+        <v>1.07</v>
+      </c>
+      <c r="BC5">
+        <v>6.3</v>
+      </c>
+      <c r="BD5">
+        <v>1.08</v>
+      </c>
+      <c r="BE5">
+        <v>6.8</v>
+      </c>
+      <c r="BF5">
+        <v>1.4</v>
+      </c>
+      <c r="BG5">
+        <v>2.75</v>
+      </c>
+      <c r="BH5">
+        <v>1.36</v>
+      </c>
+      <c r="BI5">
+        <v>3</v>
+      </c>
+      <c r="BJ5">
+        <v>1.64</v>
+      </c>
+      <c r="BK5">
+        <v>2.15</v>
+      </c>
+      <c r="BL5">
+        <v>1.61</v>
+      </c>
+      <c r="BM5">
+        <v>2.22</v>
+      </c>
+      <c r="BN5">
+        <v>2.25</v>
+      </c>
+      <c r="BO5">
+        <v>1.62</v>
+      </c>
+      <c r="BP5">
+        <v>2.15</v>
+      </c>
+      <c r="BQ5">
+        <v>1.67</v>
+      </c>
+      <c r="BR5">
+        <v>3.25</v>
+      </c>
+      <c r="BS5">
+        <v>1.3</v>
+      </c>
+      <c r="BT5">
+        <v>3.2</v>
+      </c>
+      <c r="BU5">
+        <v>1.33</v>
+      </c>
+      <c r="BV5">
+        <v>4</v>
+      </c>
+      <c r="BW5">
+        <v>1.22</v>
+      </c>
+      <c r="BX5">
+        <v>4</v>
+      </c>
+      <c r="BY5">
+        <v>1.22</v>
+      </c>
+      <c r="BZ5">
+        <v>6.9</v>
+      </c>
+      <c r="CA5">
+        <v>1.05</v>
+      </c>
+      <c r="CB5">
+        <v>6.6</v>
+      </c>
+      <c r="CC5">
+        <v>1.09</v>
+      </c>
+      <c r="CD5">
+        <v>9</v>
+      </c>
+      <c r="CE5">
+        <v>1.07</v>
+      </c>
+      <c r="CF5">
+        <v>9</v>
+      </c>
+      <c r="CG5">
+        <v>1.07</v>
+      </c>
+      <c r="CH5">
+        <v>13</v>
+      </c>
+      <c r="CI5">
+        <v>1.01</v>
+      </c>
+      <c r="CJ5">
+        <v>13</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>201</v>
+      </c>
+      <c r="CL5">
+        <v>19</v>
+      </c>
+      <c r="CM5">
+        <v>1.02</v>
+      </c>
+      <c r="CN5">
+        <v>19</v>
+      </c>
+      <c r="CO5">
+        <v>1.02</v>
+      </c>
+      <c r="CT5">
+        <v>41</v>
+      </c>
+      <c r="CU5">
+        <v>41</v>
+      </c>
+      <c r="CV5">
+        <v>41</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>206</v>
+      </c>
+      <c r="DJ5">
+        <v>1.55</v>
+      </c>
+      <c r="DK5">
+        <v>2.38</v>
+      </c>
+      <c r="DL5">
+        <v>1.9</v>
+      </c>
+      <c r="DM5">
+        <v>1.95</v>
+      </c>
+      <c r="DN5">
+        <v>1.4</v>
+      </c>
+      <c r="DO5">
+        <v>2.85</v>
+      </c>
+      <c r="DP5">
+        <v>2.6</v>
+      </c>
+      <c r="DQ5">
+        <v>1.48</v>
+      </c>
+      <c r="DR5">
+        <v>1.21</v>
+      </c>
+      <c r="DS5">
+        <v>4.25</v>
+      </c>
+      <c r="DT5">
+        <v>3.9</v>
+      </c>
+      <c r="DU5">
+        <v>1.24</v>
+      </c>
+      <c r="DV5">
+        <v>1.1</v>
+      </c>
+      <c r="DW5">
+        <v>7</v>
+      </c>
+      <c r="DX5">
+        <v>5.9</v>
+      </c>
+      <c r="DY5">
+        <v>1.13</v>
+      </c>
+      <c r="DZ5">
+        <v>1.01</v>
+      </c>
+      <c r="EA5">
+        <v>11.2</v>
+      </c>
+      <c r="EJ5">
+        <v>8</v>
+      </c>
+      <c r="EK5">
+        <v>9</v>
+      </c>
+      <c r="EL5">
+        <v>17</v>
+      </c>
+      <c r="EM5">
+        <v>41</v>
+      </c>
+      <c r="EN5">
+        <v>7</v>
+      </c>
+      <c r="EO5">
+        <v>6</v>
+      </c>
+      <c r="EP5">
+        <v>12</v>
+      </c>
+      <c r="EQ5">
+        <v>29</v>
+      </c>
+      <c r="ER5">
+        <v>10</v>
+      </c>
+      <c r="ES5">
+        <v>9.5</v>
+      </c>
+      <c r="ET5">
+        <v>15</v>
+      </c>
+      <c r="EU5">
+        <v>41</v>
+      </c>
+      <c r="EV5">
+        <v>21</v>
+      </c>
+      <c r="EW5">
+        <v>19</v>
+      </c>
+      <c r="EX5">
+        <v>34</v>
+      </c>
+      <c r="EY5">
+        <v>51</v>
+      </c>
+      <c r="EZ5">
+        <v>81</v>
+      </c>
+      <c r="FA5">
+        <v>67</v>
+      </c>
+      <c r="FB5">
+        <v>81</v>
+      </c>
+      <c r="FC5">
+        <v>151</v>
+      </c>
+      <c r="FD5">
+        <v>41</v>
+      </c>
+      <c r="FE5">
+        <v>41</v>
+      </c>
+      <c r="FF5">
+        <v>51</v>
+      </c>
+      <c r="FG5">
+        <v>126</v>
+      </c>
+      <c r="FH5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6">
+        <v>3.75</v>
+      </c>
+      <c r="I6">
+        <v>1.83</v>
+      </c>
+      <c r="J6">
+        <v>3.75</v>
+      </c>
+      <c r="K6">
+        <v>3.5</v>
+      </c>
+      <c r="L6">
+        <v>1.83</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.67</v>
+      </c>
+      <c r="O6">
+        <v>2.1</v>
+      </c>
+      <c r="P6">
+        <v>1.62</v>
+      </c>
+      <c r="Q6">
+        <v>2.2</v>
+      </c>
+      <c r="R6">
+        <v>2.61</v>
+      </c>
+      <c r="S6">
+        <v>1.46</v>
+      </c>
+      <c r="T6">
+        <v>2.44</v>
+      </c>
+      <c r="U6">
+        <v>1.52</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>1.22</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>1.22</v>
+      </c>
+      <c r="Z6">
+        <v>9.9</v>
+      </c>
+      <c r="AA6">
+        <v>1.03</v>
+      </c>
+      <c r="AB6">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>1.04</v>
+      </c>
+      <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6">
+        <v>1.03</v>
+      </c>
+      <c r="AF6">
+        <v>13</v>
+      </c>
+      <c r="AG6">
+        <v>1.04</v>
+      </c>
+      <c r="AH6">
+        <v>2.75</v>
+      </c>
+      <c r="AI6">
+        <v>2.9</v>
+      </c>
+      <c r="AJ6">
+        <v>2.8</v>
+      </c>
+      <c r="AK6">
+        <v>2.6</v>
+      </c>
+      <c r="AL6">
+        <v>2.9</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <v>1.4</v>
+      </c>
+      <c r="AO6">
+        <v>1.4</v>
+      </c>
+      <c r="AP6">
+        <v>1.4</v>
+      </c>
+      <c r="AQ6">
+        <v>1.36</v>
+      </c>
+      <c r="AR6">
+        <v>1.4</v>
+      </c>
+      <c r="AS6">
+        <v>1.5</v>
+      </c>
+      <c r="AT6">
+        <v>2.25</v>
+      </c>
+      <c r="AU6">
+        <v>1.57</v>
+      </c>
+      <c r="AV6">
+        <v>2.25</v>
+      </c>
+      <c r="AW6">
+        <v>1.57</v>
+      </c>
+      <c r="AX6">
+        <v>1.13</v>
+      </c>
+      <c r="AY6">
+        <v>6</v>
+      </c>
+      <c r="AZ6">
+        <v>1.13</v>
+      </c>
+      <c r="BA6">
+        <v>6</v>
+      </c>
+      <c r="BB6">
+        <v>1.16</v>
+      </c>
+      <c r="BC6">
+        <v>4.6</v>
+      </c>
+      <c r="BD6">
+        <v>1.18</v>
+      </c>
+      <c r="BE6">
+        <v>4.5</v>
+      </c>
+      <c r="BF6">
+        <v>1.57</v>
+      </c>
+      <c r="BG6">
+        <v>2.25</v>
+      </c>
+      <c r="BH6">
+        <v>1.57</v>
+      </c>
+      <c r="BI6">
+        <v>2.25</v>
+      </c>
+      <c r="BJ6">
+        <v>2.05</v>
+      </c>
+      <c r="BK6">
+        <v>1.7</v>
+      </c>
+      <c r="BL6">
+        <v>2.03</v>
+      </c>
+      <c r="BM6">
+        <v>1.73</v>
+      </c>
+      <c r="BN6">
+        <v>2.88</v>
+      </c>
+      <c r="BO6">
+        <v>1.4</v>
+      </c>
+      <c r="BP6">
+        <v>2.88</v>
+      </c>
+      <c r="BQ6">
+        <v>1.4</v>
+      </c>
+      <c r="BR6">
+        <v>4.6</v>
+      </c>
+      <c r="BS6">
+        <v>1.14</v>
+      </c>
+      <c r="BT6">
+        <v>4.4</v>
+      </c>
+      <c r="BU6">
+        <v>1.19</v>
+      </c>
+      <c r="BV6">
+        <v>6</v>
+      </c>
+      <c r="BW6">
+        <v>1.13</v>
+      </c>
+      <c r="BX6">
+        <v>6</v>
+      </c>
+      <c r="BY6">
+        <v>1.13</v>
+      </c>
+      <c r="CD6">
+        <v>15</v>
+      </c>
+      <c r="CE6">
+        <v>1.03</v>
+      </c>
+      <c r="CF6">
+        <v>15</v>
+      </c>
+      <c r="CG6">
+        <v>1.03</v>
+      </c>
+      <c r="CL6">
+        <v>29</v>
+      </c>
+      <c r="CM6">
+        <v>1.01</v>
+      </c>
+      <c r="CN6">
+        <v>29</v>
+      </c>
+      <c r="CO6">
+        <v>1.01</v>
+      </c>
+      <c r="DJ6">
+        <v>1.95</v>
+      </c>
+      <c r="DK6">
+        <v>1.9</v>
+      </c>
+      <c r="DL6">
+        <v>2.35</v>
+      </c>
+      <c r="DM6">
+        <v>1.58</v>
+      </c>
+      <c r="DN6">
+        <v>1.6</v>
+      </c>
+      <c r="DO6">
+        <v>2.3</v>
+      </c>
+      <c r="DP6">
+        <v>3.45</v>
+      </c>
+      <c r="DQ6">
+        <v>1.3</v>
+      </c>
+      <c r="DR6">
+        <v>1.3</v>
+      </c>
+      <c r="DS6">
+        <v>3.45</v>
+      </c>
+      <c r="DT6">
+        <v>6</v>
+      </c>
+      <c r="DU6">
+        <v>1.13</v>
+      </c>
+      <c r="DV6">
+        <v>1.13</v>
+      </c>
+      <c r="DW6">
+        <v>5.9</v>
+      </c>
+      <c r="DX6">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="DY6">
+        <v>1.03</v>
+      </c>
+      <c r="DZ6">
+        <v>1.04</v>
+      </c>
+      <c r="EA6">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="EJ6">
+        <v>5.5</v>
+      </c>
+      <c r="EK6">
+        <v>6.5</v>
+      </c>
+      <c r="EL6">
+        <v>12</v>
+      </c>
+      <c r="EM6">
+        <v>29</v>
+      </c>
+      <c r="EN6">
+        <v>6</v>
+      </c>
+      <c r="EO6">
+        <v>6</v>
+      </c>
+      <c r="EP6">
+        <v>12</v>
+      </c>
+      <c r="EQ6">
+        <v>29</v>
+      </c>
+      <c r="ER6">
+        <v>12</v>
+      </c>
+      <c r="ES6">
+        <v>12</v>
+      </c>
+      <c r="ET6">
+        <v>21</v>
+      </c>
+      <c r="EU6">
+        <v>41</v>
+      </c>
+      <c r="EV6">
+        <v>29</v>
+      </c>
+      <c r="EW6">
+        <v>29</v>
+      </c>
+      <c r="EX6">
+        <v>41</v>
+      </c>
+      <c r="EY6">
+        <v>81</v>
+      </c>
+      <c r="EZ6">
+        <v>67</v>
+      </c>
+      <c r="FA6">
+        <v>67</v>
+      </c>
+      <c r="FB6">
+        <v>101</v>
+      </c>
+      <c r="FC6">
+        <v>251</v>
+      </c>
+      <c r="FD6">
+        <v>67</v>
+      </c>
+      <c r="FE6">
+        <v>67</v>
+      </c>
+      <c r="FF6">
+        <v>101</v>
+      </c>
+      <c r="FG6">
+        <v>251</v>
+      </c>
+      <c r="FH6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7">
+        <v>2.93</v>
+      </c>
+      <c r="I7">
+        <v>1.91</v>
+      </c>
+      <c r="J7">
+        <v>4.56</v>
+      </c>
+      <c r="K7">
+        <v>2.87</v>
+      </c>
+      <c r="L7">
+        <v>1.97</v>
+      </c>
+      <c r="M7">
+        <v>4.57</v>
+      </c>
+      <c r="N7">
+        <v>1.57</v>
+      </c>
+      <c r="O7">
+        <v>2.32</v>
+      </c>
+      <c r="P7">
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7">
+        <v>2.44</v>
+      </c>
+      <c r="S7">
+        <v>1.52</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>1.48</v>
+      </c>
+      <c r="V7">
+        <v>3.64</v>
+      </c>
+      <c r="W7">
+        <v>1.26</v>
+      </c>
+      <c r="X7">
+        <v>3.25</v>
+      </c>
+      <c r="Y7">
+        <v>1.29</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>1.05</v>
+      </c>
+      <c r="AB7">
+        <v>8</v>
+      </c>
+      <c r="AC7">
+        <v>1.06</v>
+      </c>
+      <c r="AD7">
+        <v>10.5</v>
+      </c>
+      <c r="AE7">
+        <v>1.03</v>
+      </c>
+      <c r="AF7">
+        <v>9.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.04</v>
+      </c>
+      <c r="AH7">
+        <v>2.21</v>
+      </c>
+      <c r="AI7">
+        <v>3.13</v>
+      </c>
+      <c r="AJ7">
+        <v>3.55</v>
+      </c>
+      <c r="AK7">
+        <v>1.97</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>3.71</v>
+      </c>
+      <c r="AN7">
+        <v>1.29</v>
+      </c>
+      <c r="AO7">
+        <v>1.36</v>
+      </c>
+      <c r="AP7">
+        <v>1.67</v>
+      </c>
+      <c r="AQ7">
+        <v>1.22</v>
+      </c>
+      <c r="AR7">
+        <v>1.3</v>
+      </c>
+      <c r="AS7">
+        <v>1.67</v>
+      </c>
+      <c r="AT7">
+        <v>2.18</v>
+      </c>
+      <c r="AU7">
+        <v>1.65</v>
+      </c>
+      <c r="AV7">
+        <v>1.95</v>
+      </c>
+      <c r="AW7">
+        <v>1.75</v>
+      </c>
+      <c r="AX7">
+        <v>1.07</v>
+      </c>
+      <c r="AY7">
+        <v>6.25</v>
+      </c>
+      <c r="AZ7">
+        <v>1.06</v>
+      </c>
+      <c r="BA7">
+        <v>7.5</v>
+      </c>
+      <c r="BB7">
+        <v>1.12</v>
+      </c>
+      <c r="BC7">
+        <v>4.95</v>
+      </c>
+      <c r="BD7">
+        <v>1.13</v>
+      </c>
+      <c r="BE7">
+        <v>5.4</v>
+      </c>
+      <c r="BF7">
+        <v>1.5</v>
+      </c>
+      <c r="BG7">
+        <v>2.38</v>
+      </c>
+      <c r="BH7">
+        <v>1.4</v>
+      </c>
+      <c r="BI7">
+        <v>2.75</v>
+      </c>
+      <c r="BJ7">
+        <v>1.91</v>
+      </c>
+      <c r="BK7">
+        <v>1.81</v>
+      </c>
+      <c r="BL7">
+        <v>1.79</v>
+      </c>
+      <c r="BM7">
+        <v>1.98</v>
+      </c>
+      <c r="BN7">
+        <v>2.62</v>
+      </c>
+      <c r="BO7">
+        <v>1.5</v>
+      </c>
+      <c r="BP7">
+        <v>2.25</v>
+      </c>
+      <c r="BQ7">
+        <v>1.57</v>
+      </c>
+      <c r="BR7">
+        <v>4.25</v>
+      </c>
+      <c r="BS7">
+        <v>1.19</v>
+      </c>
+      <c r="BT7">
+        <v>3.6</v>
+      </c>
+      <c r="BU7">
+        <v>1.26</v>
+      </c>
+      <c r="BV7">
+        <v>4.95</v>
+      </c>
+      <c r="BW7">
+        <v>1.13</v>
+      </c>
+      <c r="BX7">
+        <v>4.5</v>
+      </c>
+      <c r="BY7">
+        <v>1.17</v>
+      </c>
+      <c r="BZ7">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CA7">
+        <v>1.02</v>
+      </c>
+      <c r="CB7">
+        <v>7.5</v>
+      </c>
+      <c r="CC7">
+        <v>1.07</v>
+      </c>
+      <c r="CD7">
+        <v>9.9</v>
+      </c>
+      <c r="CE7">
+        <v>1.01</v>
+      </c>
+      <c r="CF7">
+        <v>9</v>
+      </c>
+      <c r="CG7">
+        <v>1.03</v>
+      </c>
+      <c r="CL7">
+        <v>17</v>
+      </c>
+      <c r="CM7">
+        <v>1.01</v>
+      </c>
+      <c r="CN7">
+        <v>15</v>
+      </c>
+      <c r="CO7">
+        <v>1.02</v>
+      </c>
+      <c r="DJ7">
+        <v>1.54</v>
+      </c>
+      <c r="DK7">
+        <v>2.51</v>
+      </c>
+      <c r="DL7">
+        <v>1.79</v>
+      </c>
+      <c r="DM7">
+        <v>1.89</v>
+      </c>
+      <c r="DN7">
+        <v>1.35</v>
+      </c>
+      <c r="DO7">
+        <v>2.83</v>
+      </c>
+      <c r="DP7">
+        <v>2.49</v>
+      </c>
+      <c r="DQ7">
+        <v>1.45</v>
+      </c>
+      <c r="DR7">
+        <v>1.15</v>
+      </c>
+      <c r="DS7">
+        <v>4.42</v>
+      </c>
+      <c r="DT7">
+        <v>3.9</v>
+      </c>
+      <c r="DU7">
+        <v>1.2</v>
+      </c>
+      <c r="DV7">
+        <v>1.04</v>
+      </c>
+      <c r="DW7">
+        <v>7.65</v>
+      </c>
+      <c r="DX7">
+        <v>5.74</v>
+      </c>
+      <c r="DY7">
+        <v>1.09</v>
+      </c>
+      <c r="EB7">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="EC7">
+        <v>1.03</v>
+      </c>
+      <c r="EJ7">
+        <v>6.5</v>
+      </c>
+      <c r="EK7">
+        <v>8</v>
+      </c>
+      <c r="EL7">
+        <v>15</v>
+      </c>
+      <c r="EM7">
+        <v>46</v>
+      </c>
+      <c r="EN7">
+        <v>6</v>
+      </c>
+      <c r="EO7">
+        <v>5.5</v>
+      </c>
+      <c r="EP7">
+        <v>12</v>
+      </c>
+      <c r="EQ7">
+        <v>34</v>
+      </c>
+      <c r="ER7">
+        <v>9.5</v>
+      </c>
+      <c r="ES7">
+        <v>9</v>
+      </c>
+      <c r="ET7">
+        <v>17</v>
+      </c>
+      <c r="EU7">
+        <v>56</v>
+      </c>
+      <c r="EV7">
+        <v>21</v>
+      </c>
+      <c r="EW7">
+        <v>21</v>
+      </c>
+      <c r="EX7">
+        <v>36</v>
+      </c>
+      <c r="EY7">
+        <v>101</v>
+      </c>
+      <c r="EZ7">
+        <v>151</v>
+      </c>
+      <c r="FA7">
+        <v>126</v>
+      </c>
+      <c r="FB7">
+        <v>201</v>
+      </c>
+      <c r="FC7">
+        <v>201</v>
+      </c>
+      <c r="FD7">
+        <v>61</v>
+      </c>
+      <c r="FE7">
+        <v>67</v>
+      </c>
+      <c r="FF7">
+        <v>126</v>
+      </c>
+      <c r="FG7">
+        <v>201</v>
+      </c>
+      <c r="FH7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8">
+        <v>2.44</v>
+      </c>
+      <c r="I8">
+        <v>2.03</v>
+      </c>
+      <c r="J8">
+        <v>5.48</v>
+      </c>
+      <c r="K8">
+        <v>2.47</v>
+      </c>
+      <c r="L8">
+        <v>1.95</v>
+      </c>
+      <c r="M8">
+        <v>5.08</v>
+      </c>
+      <c r="N8">
+        <v>1.49</v>
+      </c>
+      <c r="O8">
+        <v>2.52</v>
+      </c>
+      <c r="P8">
+        <v>1.5</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
+        <v>2.18</v>
+      </c>
+      <c r="S8">
+        <v>1.64</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>1.48</v>
+      </c>
+      <c r="V8">
+        <v>3.34</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>3.25</v>
+      </c>
+      <c r="Y8">
+        <v>1.29</v>
+      </c>
+      <c r="Z8">
+        <v>7.7</v>
+      </c>
+      <c r="AA8">
+        <v>1.07</v>
+      </c>
+      <c r="AB8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>1.06</v>
+      </c>
+      <c r="AD8">
+        <v>9</v>
+      </c>
+      <c r="AE8">
+        <v>1.05</v>
+      </c>
+      <c r="AF8">
+        <v>9.5</v>
+      </c>
+      <c r="AG8">
+        <v>1.04</v>
+      </c>
+      <c r="AH8">
+        <v>1.82</v>
+      </c>
+      <c r="AI8">
+        <v>3.48</v>
+      </c>
+      <c r="AJ8">
+        <v>4.59</v>
+      </c>
+      <c r="AK8">
+        <v>1.85</v>
+      </c>
+      <c r="AL8">
+        <v>3.1</v>
+      </c>
+      <c r="AM8">
+        <v>4.75</v>
+      </c>
+      <c r="AN8">
+        <v>1.19</v>
+      </c>
+      <c r="AO8">
+        <v>1.3</v>
+      </c>
+      <c r="AP8">
+        <v>2</v>
+      </c>
+      <c r="AQ8">
+        <v>1.17</v>
+      </c>
+      <c r="AR8">
+        <v>1.35</v>
+      </c>
+      <c r="AS8">
+        <v>1.91</v>
+      </c>
+      <c r="AT8">
+        <v>2.11</v>
+      </c>
+      <c r="AU8">
+        <v>1.69</v>
+      </c>
+      <c r="AV8">
+        <v>2.2</v>
+      </c>
+      <c r="AW8">
+        <v>1.64</v>
+      </c>
+      <c r="AX8">
+        <v>1.05</v>
+      </c>
+      <c r="AY8">
+        <v>7.2</v>
+      </c>
+      <c r="AZ8">
+        <v>1.11</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>1.08</v>
+      </c>
+      <c r="BC8">
+        <v>5.9</v>
+      </c>
+      <c r="BD8">
+        <v>1.13</v>
+      </c>
+      <c r="BE8">
+        <v>5.3</v>
+      </c>
+      <c r="BF8">
+        <v>1.4</v>
+      </c>
+      <c r="BG8">
+        <v>2.68</v>
+      </c>
+      <c r="BH8">
+        <v>1.5</v>
+      </c>
+      <c r="BI8">
+        <v>2.5</v>
+      </c>
+      <c r="BJ8">
+        <v>1.7</v>
+      </c>
+      <c r="BK8">
+        <v>2.05</v>
+      </c>
+      <c r="BL8">
+        <v>1.83</v>
+      </c>
+      <c r="BM8">
+        <v>1.94</v>
+      </c>
+      <c r="BN8">
+        <v>2.33</v>
+      </c>
+      <c r="BO8">
+        <v>1.62</v>
+      </c>
+      <c r="BP8">
+        <v>2.38</v>
+      </c>
+      <c r="BQ8">
+        <v>1.53</v>
+      </c>
+      <c r="BR8">
+        <v>3.46</v>
+      </c>
+      <c r="BS8">
+        <v>1.27</v>
+      </c>
+      <c r="BT8">
+        <v>3.6</v>
+      </c>
+      <c r="BU8">
+        <v>1.27</v>
+      </c>
+      <c r="BV8">
+        <v>4.2</v>
+      </c>
+      <c r="BW8">
+        <v>1.18</v>
+      </c>
+      <c r="BX8">
+        <v>4.5</v>
+      </c>
+      <c r="BY8">
+        <v>1.17</v>
+      </c>
+      <c r="BZ8">
+        <v>7.5</v>
+      </c>
+      <c r="CA8">
+        <v>1.04</v>
+      </c>
+      <c r="CB8">
+        <v>7.6</v>
+      </c>
+      <c r="CC8">
+        <v>1.07</v>
+      </c>
+      <c r="CD8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>1.03</v>
+      </c>
+      <c r="CF8">
+        <v>9</v>
+      </c>
+      <c r="CG8">
+        <v>1.05</v>
+      </c>
+      <c r="CL8">
+        <v>15</v>
+      </c>
+      <c r="CM8">
+        <v>1.02</v>
+      </c>
+      <c r="CN8">
+        <v>15</v>
+      </c>
+      <c r="CO8">
+        <v>1.02</v>
+      </c>
+      <c r="DJ8">
+        <v>1.29</v>
+      </c>
+      <c r="DK8">
+        <v>3.26</v>
+      </c>
+      <c r="DL8">
+        <v>1.53</v>
+      </c>
+      <c r="DM8">
+        <v>2.37</v>
+      </c>
+      <c r="DN8">
+        <v>1.23</v>
+      </c>
+      <c r="DO8">
+        <v>3.76</v>
+      </c>
+      <c r="DP8">
+        <v>2.05</v>
+      </c>
+      <c r="DQ8">
+        <v>1.78</v>
+      </c>
+      <c r="DR8">
+        <v>1.1</v>
+      </c>
+      <c r="DS8">
+        <v>6.02</v>
+      </c>
+      <c r="DT8">
+        <v>2.88</v>
+      </c>
+      <c r="DU8">
+        <v>1.37</v>
+      </c>
+      <c r="DV8">
+        <v>1.02</v>
+      </c>
+      <c r="DW8">
+        <v>10.9</v>
+      </c>
+      <c r="DX8">
+        <v>4.18</v>
+      </c>
+      <c r="DY8">
+        <v>1.2</v>
+      </c>
+      <c r="EB8">
+        <v>6.91</v>
+      </c>
+      <c r="EC8">
+        <v>1.07</v>
+      </c>
+      <c r="EF8">
+        <v>10.2</v>
+      </c>
+      <c r="EG8">
+        <v>1.02</v>
+      </c>
+      <c r="EJ8">
+        <v>7.5</v>
+      </c>
+      <c r="EK8">
+        <v>11</v>
+      </c>
+      <c r="EL8">
         <v>23</v>
       </c>
-      <c r="EY3">
+      <c r="EM8">
+        <v>81</v>
+      </c>
+      <c r="EN8">
+        <v>5</v>
+      </c>
+      <c r="EO8">
+        <v>6.5</v>
+      </c>
+      <c r="EP8">
+        <v>17</v>
+      </c>
+      <c r="EQ8">
+        <v>51</v>
+      </c>
+      <c r="ER8">
+        <v>7</v>
+      </c>
+      <c r="ES8">
+        <v>8</v>
+      </c>
+      <c r="ET8">
+        <v>18</v>
+      </c>
+      <c r="EU8">
+        <v>81</v>
+      </c>
+      <c r="EV8">
+        <v>13</v>
+      </c>
+      <c r="EW8">
+        <v>15</v>
+      </c>
+      <c r="EX8">
+        <v>34</v>
+      </c>
+      <c r="EY8">
+        <v>101</v>
+      </c>
+      <c r="EZ8">
+        <v>201</v>
+      </c>
+      <c r="FA8">
+        <v>201</v>
+      </c>
+      <c r="FB8">
+        <v>201</v>
+      </c>
+      <c r="FC8">
+        <v>201</v>
+      </c>
+      <c r="FD8">
+        <v>34</v>
+      </c>
+      <c r="FE8">
+        <v>36</v>
+      </c>
+      <c r="FF8">
+        <v>101</v>
+      </c>
+      <c r="FG8">
+        <v>201</v>
+      </c>
+      <c r="FH8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
+      <c r="A9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9">
+        <v>3.6</v>
+      </c>
+      <c r="I9">
+        <v>1.95</v>
+      </c>
+      <c r="J9">
+        <v>3.4</v>
+      </c>
+      <c r="K9">
+        <v>3.75</v>
+      </c>
+      <c r="L9">
+        <v>1.95</v>
+      </c>
+      <c r="M9">
+        <v>3.4</v>
+      </c>
+      <c r="N9">
+        <v>1.53</v>
+      </c>
+      <c r="O9">
+        <v>2.38</v>
+      </c>
+      <c r="P9">
+        <v>1.57</v>
+      </c>
+      <c r="Q9">
+        <v>2.25</v>
+      </c>
+      <c r="R9">
+        <v>2.32</v>
+      </c>
+      <c r="S9">
+        <v>1.57</v>
+      </c>
+      <c r="T9">
+        <v>2.03</v>
+      </c>
+      <c r="U9">
+        <v>1.73</v>
+      </c>
+      <c r="V9">
+        <v>3.5</v>
+      </c>
+      <c r="W9">
+        <v>1.29</v>
+      </c>
+      <c r="X9">
+        <v>3.75</v>
+      </c>
+      <c r="Y9">
+        <v>1.25</v>
+      </c>
+      <c r="Z9">
+        <v>8.4</v>
+      </c>
+      <c r="AA9">
+        <v>1.05</v>
+      </c>
+      <c r="AB9">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>1.06</v>
+      </c>
+      <c r="AD9">
+        <v>11</v>
+      </c>
+      <c r="AE9">
+        <v>1.05</v>
+      </c>
+      <c r="AF9">
+        <v>11</v>
+      </c>
+      <c r="AG9">
+        <v>1.05</v>
+      </c>
+      <c r="AH9">
+        <v>2.88</v>
+      </c>
+      <c r="AI9">
+        <v>3.1</v>
+      </c>
+      <c r="AJ9">
+        <v>2.6</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>3</v>
+      </c>
+      <c r="AM9">
+        <v>2.5</v>
+      </c>
+      <c r="AN9">
+        <v>1.5</v>
+      </c>
+      <c r="AO9">
+        <v>1.36</v>
+      </c>
+      <c r="AP9">
+        <v>1.4</v>
+      </c>
+      <c r="AQ9">
+        <v>1.5</v>
+      </c>
+      <c r="AR9">
+        <v>1.36</v>
+      </c>
+      <c r="AS9">
+        <v>1.36</v>
+      </c>
+      <c r="AT9">
+        <v>2</v>
+      </c>
+      <c r="AU9">
+        <v>1.75</v>
+      </c>
+      <c r="AV9">
+        <v>2.05</v>
+      </c>
+      <c r="AW9">
+        <v>1.7</v>
+      </c>
+      <c r="AX9">
+        <v>1.1</v>
+      </c>
+      <c r="AY9">
+        <v>7</v>
+      </c>
+      <c r="AZ9">
+        <v>1.11</v>
+      </c>
+      <c r="BA9">
+        <v>6.5</v>
+      </c>
+      <c r="BB9">
+        <v>1.12</v>
+      </c>
+      <c r="BC9">
+        <v>5.5</v>
+      </c>
+      <c r="BD9">
+        <v>1.1</v>
+      </c>
+      <c r="BE9">
+        <v>6.2</v>
+      </c>
+      <c r="BF9">
+        <v>1.5</v>
+      </c>
+      <c r="BG9">
+        <v>2.5</v>
+      </c>
+      <c r="BH9">
+        <v>1.5</v>
+      </c>
+      <c r="BI9">
+        <v>2.5</v>
+      </c>
+      <c r="BJ9">
+        <v>1.9</v>
+      </c>
+      <c r="BK9">
+        <v>1.95</v>
+      </c>
+      <c r="BL9">
+        <v>1.9</v>
+      </c>
+      <c r="BM9">
+        <v>1.95</v>
+      </c>
+      <c r="BN9">
+        <v>2.5</v>
+      </c>
+      <c r="BO9">
+        <v>1.5</v>
+      </c>
+      <c r="BP9">
+        <v>2.5</v>
+      </c>
+      <c r="BQ9">
+        <v>1.5</v>
+      </c>
+      <c r="BR9">
+        <v>3.74</v>
+      </c>
+      <c r="BS9">
+        <v>1.21</v>
+      </c>
+      <c r="BT9">
+        <v>3.2</v>
+      </c>
+      <c r="BU9">
+        <v>1.32</v>
+      </c>
+      <c r="BV9">
+        <v>5</v>
+      </c>
+      <c r="BW9">
+        <v>1.17</v>
+      </c>
+      <c r="BX9">
+        <v>5</v>
+      </c>
+      <c r="BY9">
+        <v>1.17</v>
+      </c>
+      <c r="BZ9">
+        <v>8.4</v>
+      </c>
+      <c r="CA9">
+        <v>1.03</v>
+      </c>
+      <c r="CB9">
+        <v>6.9</v>
+      </c>
+      <c r="CC9">
+        <v>1.08</v>
+      </c>
+      <c r="CD9">
+        <v>11</v>
+      </c>
+      <c r="CE9">
+        <v>1.05</v>
+      </c>
+      <c r="CF9">
+        <v>11</v>
+      </c>
+      <c r="CG9">
+        <v>1.05</v>
+      </c>
+      <c r="CH9">
+        <v>13.5</v>
+      </c>
+      <c r="CI9">
+        <v>1.01</v>
+      </c>
+      <c r="CJ9">
+        <v>13.5</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>201</v>
+      </c>
+      <c r="CL9">
+        <v>26</v>
+      </c>
+      <c r="CM9">
+        <v>1.01</v>
+      </c>
+      <c r="CN9">
+        <v>26</v>
+      </c>
+      <c r="CO9">
+        <v>1.01</v>
+      </c>
+      <c r="CT9">
+        <v>51</v>
+      </c>
+      <c r="CU9">
+        <v>50</v>
+      </c>
+      <c r="CV9">
+        <v>51</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>204</v>
+      </c>
+      <c r="DJ9">
+        <v>2</v>
+      </c>
+      <c r="DK9">
+        <v>1.85</v>
+      </c>
+      <c r="DL9">
+        <v>2.35</v>
+      </c>
+      <c r="DM9">
+        <v>1.58</v>
+      </c>
+      <c r="DN9">
+        <v>1.65</v>
+      </c>
+      <c r="DO9">
+        <v>2.2</v>
+      </c>
+      <c r="DP9">
+        <v>3.45</v>
+      </c>
+      <c r="DQ9">
+        <v>1.3</v>
+      </c>
+      <c r="DR9">
+        <v>1.33</v>
+      </c>
+      <c r="DS9">
+        <v>3.3</v>
+      </c>
+      <c r="DT9">
+        <v>5.9</v>
+      </c>
+      <c r="DU9">
+        <v>1.13</v>
+      </c>
+      <c r="DV9">
+        <v>1.15</v>
+      </c>
+      <c r="DW9">
+        <v>5.5</v>
+      </c>
+      <c r="DX9">
+        <v>9.15</v>
+      </c>
+      <c r="DY9">
+        <v>1.03</v>
+      </c>
+      <c r="DZ9">
+        <v>1.1</v>
+      </c>
+      <c r="EA9">
+        <v>7</v>
+      </c>
+      <c r="EJ9">
+        <v>7</v>
+      </c>
+      <c r="EK9">
+        <v>7</v>
+      </c>
+      <c r="EL9">
+        <v>11</v>
+      </c>
+      <c r="EM9">
+        <v>26</v>
+      </c>
+      <c r="EN9">
+        <v>7.5</v>
+      </c>
+      <c r="EO9">
+        <v>6</v>
+      </c>
+      <c r="EP9">
+        <v>11</v>
+      </c>
+      <c r="EQ9">
+        <v>23</v>
+      </c>
+      <c r="ER9">
+        <v>13</v>
+      </c>
+      <c r="ES9">
+        <v>11</v>
+      </c>
+      <c r="ET9">
+        <v>17</v>
+      </c>
+      <c r="EU9">
         <v>41</v>
       </c>
-      <c r="EZ3">
+      <c r="EV9">
+        <v>29</v>
+      </c>
+      <c r="EW9">
+        <v>26</v>
+      </c>
+      <c r="EX9">
+        <v>41</v>
+      </c>
+      <c r="EY9">
+        <v>67</v>
+      </c>
+      <c r="EZ9">
         <v>51</v>
       </c>
-      <c r="FA3">
+      <c r="FA9">
+        <v>51</v>
+      </c>
+      <c r="FB9">
+        <v>81</v>
+      </c>
+      <c r="FC9">
+        <v>151</v>
+      </c>
+      <c r="FD9">
+        <v>67</v>
+      </c>
+      <c r="FE9">
+        <v>51</v>
+      </c>
+      <c r="FF9">
+        <v>81</v>
+      </c>
+      <c r="FG9">
+        <v>151</v>
+      </c>
+      <c r="FH9">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
+      <c r="A10" s="1">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10">
+        <v>3.1</v>
+      </c>
+      <c r="I10">
+        <v>1.97</v>
+      </c>
+      <c r="J10">
+        <v>3.93</v>
+      </c>
+      <c r="K10">
+        <v>3.12</v>
+      </c>
+      <c r="L10">
+        <v>1.95</v>
+      </c>
+      <c r="M10">
+        <v>3.64</v>
+      </c>
+      <c r="N10">
+        <v>1.51</v>
+      </c>
+      <c r="O10">
+        <v>2.46</v>
+      </c>
+      <c r="P10">
+        <v>1.5</v>
+      </c>
+      <c r="Q10">
+        <v>2.5</v>
+      </c>
+      <c r="R10">
+        <v>2.24</v>
+      </c>
+      <c r="S10">
+        <v>1.61</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>1.48</v>
+      </c>
+      <c r="V10">
+        <v>3.42</v>
+      </c>
+      <c r="W10">
+        <v>1.29</v>
+      </c>
+      <c r="X10">
+        <v>3.25</v>
+      </c>
+      <c r="Y10">
+        <v>1.29</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>1.06</v>
+      </c>
+      <c r="AB10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <v>1.06</v>
+      </c>
+      <c r="AD10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>1.04</v>
+      </c>
+      <c r="AF10">
+        <v>9.5</v>
+      </c>
+      <c r="AG10">
+        <v>1.04</v>
+      </c>
+      <c r="AH10">
+        <v>2.41</v>
+      </c>
+      <c r="AI10">
+        <v>3.18</v>
+      </c>
+      <c r="AJ10">
+        <v>3.08</v>
+      </c>
+      <c r="AK10">
+        <v>2.5</v>
+      </c>
+      <c r="AL10">
+        <v>2.9</v>
+      </c>
+      <c r="AM10">
+        <v>2.75</v>
+      </c>
+      <c r="AN10">
+        <v>1.37</v>
+      </c>
+      <c r="AO10">
+        <v>1.35</v>
+      </c>
+      <c r="AP10">
+        <v>1.57</v>
+      </c>
+      <c r="AQ10">
+        <v>1.36</v>
+      </c>
+      <c r="AR10">
+        <v>1.33</v>
+      </c>
+      <c r="AS10">
+        <v>1.44</v>
+      </c>
+      <c r="AT10">
+        <v>2</v>
+      </c>
+      <c r="AU10">
+        <v>1.77</v>
+      </c>
+      <c r="AV10">
+        <v>1.91</v>
+      </c>
+      <c r="AW10">
+        <v>1.8</v>
+      </c>
+      <c r="AX10">
+        <v>1.05</v>
+      </c>
+      <c r="AY10">
+        <v>6.95</v>
+      </c>
+      <c r="AZ10">
+        <v>1.06</v>
+      </c>
+      <c r="BA10">
+        <v>7.5</v>
+      </c>
+      <c r="BB10">
+        <v>1.09</v>
+      </c>
+      <c r="BC10">
+        <v>5.7</v>
+      </c>
+      <c r="BD10">
+        <v>1.13</v>
+      </c>
+      <c r="BE10">
+        <v>5.4</v>
+      </c>
+      <c r="BF10">
+        <v>1.42</v>
+      </c>
+      <c r="BG10">
+        <v>2.61</v>
+      </c>
+      <c r="BH10">
+        <v>1.4</v>
+      </c>
+      <c r="BI10">
+        <v>2.75</v>
+      </c>
+      <c r="BJ10">
+        <v>1.75</v>
+      </c>
+      <c r="BK10">
+        <v>1.98</v>
+      </c>
+      <c r="BL10">
+        <v>1.8</v>
+      </c>
+      <c r="BM10">
+        <v>1.98</v>
+      </c>
+      <c r="BN10">
+        <v>2.39</v>
+      </c>
+      <c r="BO10">
+        <v>1.59</v>
+      </c>
+      <c r="BP10">
+        <v>2.25</v>
+      </c>
+      <c r="BQ10">
+        <v>1.57</v>
+      </c>
+      <c r="BR10">
+        <v>3.62</v>
+      </c>
+      <c r="BS10">
+        <v>1.25</v>
+      </c>
+      <c r="BT10">
+        <v>3.6</v>
+      </c>
+      <c r="BU10">
+        <v>1.26</v>
+      </c>
+      <c r="BV10">
+        <v>4.33</v>
+      </c>
+      <c r="BW10">
+        <v>1.17</v>
+      </c>
+      <c r="BX10">
+        <v>4.5</v>
+      </c>
+      <c r="BY10">
+        <v>1.17</v>
+      </c>
+      <c r="BZ10">
+        <v>7.8</v>
+      </c>
+      <c r="CA10">
+        <v>1.04</v>
+      </c>
+      <c r="CB10">
+        <v>7.5</v>
+      </c>
+      <c r="CC10">
+        <v>1.07</v>
+      </c>
+      <c r="CD10">
+        <v>8.5</v>
+      </c>
+      <c r="CE10">
+        <v>1.03</v>
+      </c>
+      <c r="CF10">
+        <v>9</v>
+      </c>
+      <c r="CG10">
+        <v>1.03</v>
+      </c>
+      <c r="CL10">
+        <v>15</v>
+      </c>
+      <c r="CM10">
+        <v>1.02</v>
+      </c>
+      <c r="CN10">
+        <v>15</v>
+      </c>
+      <c r="CO10">
+        <v>1.02</v>
+      </c>
+      <c r="DJ10">
+        <v>1.7</v>
+      </c>
+      <c r="DK10">
+        <v>2.18</v>
+      </c>
+      <c r="DL10">
+        <v>2.03</v>
+      </c>
+      <c r="DM10">
+        <v>1.8</v>
+      </c>
+      <c r="DN10">
+        <v>1.47</v>
+      </c>
+      <c r="DO10">
+        <v>2.52</v>
+      </c>
+      <c r="DP10">
+        <v>2.8</v>
+      </c>
+      <c r="DQ10">
+        <v>1.39</v>
+      </c>
+      <c r="DR10">
+        <v>1.24</v>
+      </c>
+      <c r="DS10">
+        <v>3.7</v>
+      </c>
+      <c r="DT10">
+        <v>4.44</v>
+      </c>
+      <c r="DU10">
+        <v>1.17</v>
+      </c>
+      <c r="DV10">
+        <v>1.09</v>
+      </c>
+      <c r="DW10">
+        <v>6.35</v>
+      </c>
+      <c r="DX10">
+        <v>6.8</v>
+      </c>
+      <c r="DY10">
+        <v>1.08</v>
+      </c>
+      <c r="DZ10">
+        <v>1.02</v>
+      </c>
+      <c r="EA10">
+        <v>10</v>
+      </c>
+      <c r="EJ10">
+        <v>7</v>
+      </c>
+      <c r="EK10">
+        <v>8.5</v>
+      </c>
+      <c r="EL10">
+        <v>14</v>
+      </c>
+      <c r="EM10">
+        <v>36</v>
+      </c>
+      <c r="EN10">
+        <v>6.5</v>
+      </c>
+      <c r="EO10">
+        <v>6</v>
+      </c>
+      <c r="EP10">
+        <v>11</v>
+      </c>
+      <c r="EQ10">
+        <v>26</v>
+      </c>
+      <c r="ER10">
+        <v>10</v>
+      </c>
+      <c r="ES10">
+        <v>9.5</v>
+      </c>
+      <c r="ET10">
+        <v>15</v>
+      </c>
+      <c r="EU10">
+        <v>46</v>
+      </c>
+      <c r="EV10">
+        <v>21</v>
+      </c>
+      <c r="EW10">
+        <v>20</v>
+      </c>
+      <c r="EX10">
+        <v>34</v>
+      </c>
+      <c r="EY10">
+        <v>91</v>
+      </c>
+      <c r="EZ10">
+        <v>126</v>
+      </c>
+      <c r="FA10">
+        <v>101</v>
+      </c>
+      <c r="FB10">
+        <v>151</v>
+      </c>
+      <c r="FC10">
+        <v>201</v>
+      </c>
+      <c r="FD10">
+        <v>71</v>
+      </c>
+      <c r="FE10">
+        <v>67</v>
+      </c>
+      <c r="FF10">
+        <v>126</v>
+      </c>
+      <c r="FG10">
+        <v>201</v>
+      </c>
+      <c r="FH10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
+      <c r="A11" s="1">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11">
+        <v>2.65</v>
+      </c>
+      <c r="I11">
+        <v>1.95</v>
+      </c>
+      <c r="J11">
+        <v>5.13</v>
+      </c>
+      <c r="K11">
+        <v>3.07</v>
+      </c>
+      <c r="L11">
+        <v>1.96</v>
+      </c>
+      <c r="M11">
+        <v>4.17</v>
+      </c>
+      <c r="N11">
+        <v>1.54</v>
+      </c>
+      <c r="O11">
+        <v>2.39</v>
+      </c>
+      <c r="P11">
+        <v>1.44</v>
+      </c>
+      <c r="Q11">
+        <v>2.62</v>
+      </c>
+      <c r="R11">
+        <v>2.34</v>
+      </c>
+      <c r="S11">
+        <v>1.56</v>
+      </c>
+      <c r="T11">
+        <v>2.24</v>
+      </c>
+      <c r="U11">
+        <v>1.61</v>
+      </c>
+      <c r="V11">
+        <v>3.56</v>
+      </c>
+      <c r="W11">
+        <v>1.27</v>
+      </c>
+      <c r="X11">
+        <v>3.25</v>
+      </c>
+      <c r="Y11">
+        <v>1.29</v>
+      </c>
+      <c r="Z11">
+        <v>8.5</v>
+      </c>
+      <c r="AA11">
+        <v>1.05</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>1.06</v>
+      </c>
+      <c r="AD11">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>1.04</v>
+      </c>
+      <c r="AF11">
+        <v>9.5</v>
+      </c>
+      <c r="AG11">
+        <v>1.04</v>
+      </c>
+      <c r="AH11">
+        <v>1.98</v>
+      </c>
+      <c r="AI11">
+        <v>3.26</v>
+      </c>
+      <c r="AJ11">
+        <v>4.13</v>
+      </c>
+      <c r="AK11">
+        <v>2.22</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11">
+        <v>3.3</v>
+      </c>
+      <c r="AN11">
+        <v>1.23</v>
+      </c>
+      <c r="AO11">
+        <v>1.33</v>
+      </c>
+      <c r="AP11">
+        <v>1.83</v>
+      </c>
+      <c r="AQ11">
+        <v>1.29</v>
+      </c>
+      <c r="AR11">
+        <v>1.33</v>
+      </c>
+      <c r="AS11">
+        <v>1.57</v>
+      </c>
+      <c r="AT11">
+        <v>2.18</v>
+      </c>
+      <c r="AU11">
+        <v>1.65</v>
+      </c>
+      <c r="AV11">
+        <v>1.91</v>
+      </c>
+      <c r="AW11">
+        <v>1.8</v>
+      </c>
+      <c r="AX11">
+        <v>1.06</v>
+      </c>
+      <c r="AY11">
+        <v>6.55</v>
+      </c>
+      <c r="AZ11">
+        <v>1.06</v>
+      </c>
+      <c r="BA11">
+        <v>7.5</v>
+      </c>
+      <c r="BB11">
+        <v>1.11</v>
+      </c>
+      <c r="BC11">
+        <v>5.25</v>
+      </c>
+      <c r="BD11">
+        <v>1.09</v>
+      </c>
+      <c r="BE11">
+        <v>5.65</v>
+      </c>
+      <c r="BF11">
+        <v>1.46</v>
+      </c>
+      <c r="BG11">
+        <v>2.48</v>
+      </c>
+      <c r="BH11">
+        <v>1.36</v>
+      </c>
+      <c r="BI11">
+        <v>2.88</v>
+      </c>
+      <c r="BJ11">
+        <v>1.84</v>
+      </c>
+      <c r="BK11">
+        <v>1.88</v>
+      </c>
+      <c r="BL11">
+        <v>1.79</v>
+      </c>
+      <c r="BM11">
+        <v>1.98</v>
+      </c>
+      <c r="BN11">
+        <v>2.53</v>
+      </c>
+      <c r="BO11">
+        <v>1.53</v>
+      </c>
+      <c r="BP11">
+        <v>2.25</v>
+      </c>
+      <c r="BQ11">
+        <v>1.57</v>
+      </c>
+      <c r="BR11">
+        <v>3.9</v>
+      </c>
+      <c r="BS11">
+        <v>1.22</v>
+      </c>
+      <c r="BT11">
+        <v>3.62</v>
+      </c>
+      <c r="BU11">
+        <v>1.25</v>
+      </c>
+      <c r="BV11">
+        <v>4.65</v>
+      </c>
+      <c r="BW11">
+        <v>1.15</v>
+      </c>
+      <c r="BX11">
+        <v>4.5</v>
+      </c>
+      <c r="BY11">
+        <v>1.17</v>
+      </c>
+      <c r="BZ11">
+        <v>8.6</v>
+      </c>
+      <c r="CA11">
+        <v>1.02</v>
+      </c>
+      <c r="CB11">
+        <v>7.9</v>
+      </c>
+      <c r="CC11">
+        <v>1.04</v>
+      </c>
+      <c r="CD11">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="CE11">
+        <v>1.02</v>
+      </c>
+      <c r="CF11">
+        <v>9</v>
+      </c>
+      <c r="CG11">
+        <v>1.03</v>
+      </c>
+      <c r="CL11">
+        <v>15</v>
+      </c>
+      <c r="CM11">
+        <v>1.02</v>
+      </c>
+      <c r="CN11">
+        <v>15</v>
+      </c>
+      <c r="CO11">
+        <v>1.02</v>
+      </c>
+      <c r="DJ11">
+        <v>1.37</v>
+      </c>
+      <c r="DK11">
+        <v>2.84</v>
+      </c>
+      <c r="DL11">
+        <v>1.68</v>
+      </c>
+      <c r="DM11">
+        <v>2.21</v>
+      </c>
+      <c r="DN11">
+        <v>1.29</v>
+      </c>
+      <c r="DO11">
+        <v>3.36</v>
+      </c>
+      <c r="DP11">
+        <v>2.22</v>
+      </c>
+      <c r="DQ11">
+        <v>1.6</v>
+      </c>
+      <c r="DR11">
+        <v>1.13</v>
+      </c>
+      <c r="DS11">
+        <v>5.3</v>
+      </c>
+      <c r="DT11">
+        <v>3.37</v>
+      </c>
+      <c r="DU11">
+        <v>1.29</v>
+      </c>
+      <c r="DV11">
+        <v>1.02</v>
+      </c>
+      <c r="DW11">
+        <v>10.4</v>
+      </c>
+      <c r="DX11">
+        <v>4.93</v>
+      </c>
+      <c r="DY11">
+        <v>1.15</v>
+      </c>
+      <c r="DZ11">
+        <v>1.01</v>
+      </c>
+      <c r="EA11">
+        <v>11.4</v>
+      </c>
+      <c r="EB11">
+        <v>8.65</v>
+      </c>
+      <c r="EC11">
+        <v>1.04</v>
+      </c>
+      <c r="EF11">
+        <v>10.6</v>
+      </c>
+      <c r="EG11">
+        <v>1.02</v>
+      </c>
+      <c r="EJ11">
+        <v>6.5</v>
+      </c>
+      <c r="EK11">
+        <v>9</v>
+      </c>
+      <c r="EL11">
+        <v>17</v>
+      </c>
+      <c r="EM11">
+        <v>56</v>
+      </c>
+      <c r="EN11">
+        <v>6</v>
+      </c>
+      <c r="EO11">
+        <v>6</v>
+      </c>
+      <c r="EP11">
+        <v>13</v>
+      </c>
+      <c r="EQ11">
+        <v>36</v>
+      </c>
+      <c r="ER11">
+        <v>8.5</v>
+      </c>
+      <c r="ES11">
+        <v>9</v>
+      </c>
+      <c r="ET11">
+        <v>17</v>
+      </c>
+      <c r="EU11">
+        <v>51</v>
+      </c>
+      <c r="EV11">
+        <v>18</v>
+      </c>
+      <c r="EW11">
+        <v>19</v>
+      </c>
+      <c r="EX11">
+        <v>36</v>
+      </c>
+      <c r="EY11">
+        <v>101</v>
+      </c>
+      <c r="EZ11">
+        <v>201</v>
+      </c>
+      <c r="FA11">
+        <v>151</v>
+      </c>
+      <c r="FB11">
+        <v>201</v>
+      </c>
+      <c r="FC11">
+        <v>201</v>
+      </c>
+      <c r="FD11">
+        <v>56</v>
+      </c>
+      <c r="FE11">
+        <v>56</v>
+      </c>
+      <c r="FF11">
+        <v>101</v>
+      </c>
+      <c r="FG11">
+        <v>201</v>
+      </c>
+      <c r="FH11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:164">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12">
+        <v>4.75</v>
+      </c>
+      <c r="I12">
+        <v>2.3</v>
+      </c>
+      <c r="J12">
+        <v>2.25</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>2.38</v>
+      </c>
+      <c r="M12">
+        <v>2.1</v>
+      </c>
+      <c r="N12">
+        <v>1.33</v>
+      </c>
+      <c r="O12">
+        <v>3.25</v>
+      </c>
+      <c r="P12">
+        <v>1.3</v>
+      </c>
+      <c r="Q12">
+        <v>3.4</v>
+      </c>
+      <c r="R12">
+        <v>1.73</v>
+      </c>
+      <c r="S12">
+        <v>2.08</v>
+      </c>
+      <c r="T12">
+        <v>1.7</v>
+      </c>
+      <c r="U12">
+        <v>2.1</v>
+      </c>
+      <c r="V12">
+        <v>2.5</v>
+      </c>
+      <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>2.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.5</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>1.15</v>
+      </c>
+      <c r="AB12">
+        <v>4.45</v>
+      </c>
+      <c r="AC12">
+        <v>1.19</v>
+      </c>
+      <c r="AD12">
+        <v>6.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.11</v>
+      </c>
+      <c r="AF12">
+        <v>6</v>
+      </c>
+      <c r="AG12">
+        <v>1.13</v>
+      </c>
+      <c r="AH12">
+        <v>5</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>1.67</v>
+      </c>
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AL12">
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>1.6</v>
+      </c>
+      <c r="AN12">
+        <v>2.15</v>
+      </c>
+      <c r="AO12">
+        <v>1.22</v>
+      </c>
+      <c r="AP12">
+        <v>1.17</v>
+      </c>
+      <c r="AQ12">
+        <v>2.3</v>
+      </c>
+      <c r="AR12">
+        <v>1.22</v>
+      </c>
+      <c r="AS12">
+        <v>1.17</v>
+      </c>
+      <c r="AT12">
+        <v>1.7</v>
+      </c>
+      <c r="AU12">
+        <v>2.05</v>
+      </c>
+      <c r="AV12">
+        <v>1.7</v>
+      </c>
+      <c r="AW12">
+        <v>2.05</v>
+      </c>
+      <c r="AX12">
+        <v>1.04</v>
+      </c>
+      <c r="AY12">
+        <v>13</v>
+      </c>
+      <c r="AZ12">
+        <v>1.03</v>
+      </c>
+      <c r="BA12">
+        <v>15</v>
+      </c>
+      <c r="BB12">
+        <v>1.01</v>
+      </c>
+      <c r="BC12">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BD12">
+        <v>1.03</v>
+      </c>
+      <c r="BE12">
+        <v>10</v>
+      </c>
+      <c r="BF12">
+        <v>1.22</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>1.2</v>
+      </c>
+      <c r="BI12">
+        <v>4.33</v>
+      </c>
+      <c r="BJ12">
+        <v>1.34</v>
+      </c>
+      <c r="BK12">
+        <v>3.04</v>
+      </c>
+      <c r="BL12">
+        <v>1.27</v>
+      </c>
+      <c r="BM12">
+        <v>3.46</v>
+      </c>
+      <c r="BN12">
+        <v>1.73</v>
+      </c>
+      <c r="BO12">
+        <v>2.08</v>
+      </c>
+      <c r="BP12">
+        <v>1.65</v>
+      </c>
+      <c r="BQ12">
+        <v>2.2</v>
+      </c>
+      <c r="BR12">
+        <v>2.22</v>
+      </c>
+      <c r="BS12">
+        <v>1.6</v>
+      </c>
+      <c r="BT12">
+        <v>2</v>
+      </c>
+      <c r="BU12">
+        <v>1.79</v>
+      </c>
+      <c r="BV12">
+        <v>2.75</v>
+      </c>
+      <c r="BW12">
+        <v>1.4</v>
+      </c>
+      <c r="BX12">
+        <v>2.63</v>
+      </c>
+      <c r="BY12">
+        <v>1.44</v>
+      </c>
+      <c r="BZ12">
+        <v>4.33</v>
+      </c>
+      <c r="CA12">
+        <v>1.16</v>
+      </c>
+      <c r="CB12">
+        <v>3.65</v>
+      </c>
+      <c r="CC12">
+        <v>1.22</v>
+      </c>
+      <c r="CD12">
+        <v>5.5</v>
+      </c>
+      <c r="CE12">
+        <v>1.14</v>
+      </c>
+      <c r="CF12">
+        <v>4.5</v>
+      </c>
+      <c r="CG12">
+        <v>1.18</v>
+      </c>
+      <c r="CH12">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="CI12">
+        <v>1.02</v>
+      </c>
+      <c r="CJ12">
+        <v>7.4</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>202</v>
+      </c>
+      <c r="CL12">
+        <v>11</v>
+      </c>
+      <c r="CM12">
+        <v>1.05</v>
+      </c>
+      <c r="CN12">
+        <v>10</v>
+      </c>
+      <c r="CO12">
+        <v>1.06</v>
+      </c>
+      <c r="CT12">
+        <v>23</v>
+      </c>
+      <c r="CU12">
+        <v>1.01</v>
+      </c>
+      <c r="CV12">
+        <v>21</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>205</v>
+      </c>
+      <c r="DB12">
+        <v>51</v>
+      </c>
+      <c r="DC12">
+        <v>50</v>
+      </c>
+      <c r="DD12">
         <v>41</v>
       </c>
-      <c r="FB3">
+      <c r="DE12" t="s">
+        <v>207</v>
+      </c>
+      <c r="DJ12">
+        <v>3.3</v>
+      </c>
+      <c r="DK12">
+        <v>1.33</v>
+      </c>
+      <c r="DL12">
+        <v>3.7</v>
+      </c>
+      <c r="DM12">
+        <v>1.26</v>
+      </c>
+      <c r="DN12">
+        <v>2.5</v>
+      </c>
+      <c r="DO12">
+        <v>1.5</v>
+      </c>
+      <c r="DP12">
+        <v>5.75</v>
+      </c>
+      <c r="DQ12">
+        <v>1.14</v>
+      </c>
+      <c r="DR12">
+        <v>1.93</v>
+      </c>
+      <c r="DS12">
+        <v>1.93</v>
+      </c>
+      <c r="DV12">
+        <v>1.5</v>
+      </c>
+      <c r="DW12">
+        <v>2.5</v>
+      </c>
+      <c r="DZ12">
+        <v>1.3</v>
+      </c>
+      <c r="EA12">
+        <v>3.45</v>
+      </c>
+      <c r="ED12">
+        <v>1.15</v>
+      </c>
+      <c r="EE12">
+        <v>5.5</v>
+      </c>
+      <c r="EH12">
+        <v>1.12</v>
+      </c>
+      <c r="EI12">
+        <v>6.25</v>
+      </c>
+      <c r="EJ12">
+        <v>13</v>
+      </c>
+      <c r="EK12">
+        <v>8</v>
+      </c>
+      <c r="EL12">
+        <v>8.5</v>
+      </c>
+      <c r="EM12">
+        <v>13</v>
+      </c>
+      <c r="EN12">
+        <v>15</v>
+      </c>
+      <c r="EO12">
+        <v>7.5</v>
+      </c>
+      <c r="EP12">
+        <v>8.5</v>
+      </c>
+      <c r="EQ12">
+        <v>13</v>
+      </c>
+      <c r="ER12">
+        <v>26</v>
+      </c>
+      <c r="ES12">
+        <v>15</v>
+      </c>
+      <c r="ET12">
+        <v>15</v>
+      </c>
+      <c r="EU12">
+        <v>23</v>
+      </c>
+      <c r="EV12">
         <v>51</v>
       </c>
-      <c r="FC3">
+      <c r="EW12">
+        <v>34</v>
+      </c>
+      <c r="EX12">
+        <v>34</v>
+      </c>
+      <c r="EY12">
+        <v>41</v>
+      </c>
+      <c r="EZ12">
+        <v>26</v>
+      </c>
+      <c r="FA12">
+        <v>23</v>
+      </c>
+      <c r="FB12">
+        <v>41</v>
+      </c>
+      <c r="FC12">
+        <v>67</v>
+      </c>
+      <c r="FD12">
+        <v>126</v>
+      </c>
+      <c r="FE12">
         <v>81</v>
       </c>
-      <c r="FD3">
-        <v>41</v>
-      </c>
-      <c r="FE3">
-        <v>41</v>
-      </c>
-      <c r="FF3">
-        <v>41</v>
-      </c>
-      <c r="FG3">
-        <v>67</v>
-      </c>
-      <c r="FH3">
-        <v>151</v>
+      <c r="FF12">
+        <v>81</v>
+      </c>
+      <c r="FG12">
+        <v>101</v>
+      </c>
+      <c r="FH12">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
